--- a/Lista TXT SOS.xlsx
+++ b/Lista TXT SOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga-y-Carga-COMVEN-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2637D6-B514-4E6E-BC72-6B6E8D86A7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1A0045-8AF8-487A-A302-4557F49C7216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$W$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$Y$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="30">
   <si>
     <t>Nro</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Periodo AFIP</t>
   </si>
   <si>
-    <t>Operaciones NG o E</t>
-  </si>
-  <si>
     <t>Raiz</t>
   </si>
   <si>
@@ -125,6 +122,15 @@
   </si>
   <si>
     <t>30-00000000-0</t>
+  </si>
+  <si>
+    <t>AAAAMM</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>CSV</t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,18 +964,19 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
     <col min="10" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="16.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="19" width="16.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,25 +990,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>14</v>
@@ -1010,37 +1017,43 @@
         <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -1063,72 +1076,84 @@
       <c r="F2" s="3">
         <v>45017</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F2)&amp;"\"&amp;TEXT(F2,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J2" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F2)&amp;"\"&amp;N2&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K2" s="4" t="str">
+        <f>CONCATENATE(J2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 1\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L2" s="4" t="str">
-        <f>TEXT(M2,"mm/aaaa")</f>
+        <f>TEXT(MONTH(F2),"00")&amp;"/"&amp;YEAR(F2)</f>
         <v>04/2023</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F2,"MMMM AAAA"),1))&amp;MID(TEXT(F2,"MMMM AAAA"),2,30)</f>
+        <f>PROPER(TEXT(F2,"mmmm"))&amp;" "&amp;YEAR(F2)</f>
         <v>Abril 2023</v>
       </c>
       <c r="N2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",TEXT(M2,"AAAAMM")," - ",B2," SOS.txt")</f>
+        <f>YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
+        <v>202304</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0"),"  - ",N2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <v>0  - 202304 - 20000000000 - Nombre de cliente 1</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",N2," - ",B2," SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 1 SOS.txt</v>
       </c>
-      <c r="O2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",TEXT(M2,"AAAAMM")," - ",B2," Alicuota SOS.txt")</f>
+      <c r="Q2" s="2" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",N2," - ",B2," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 1 Alicuota SOS.txt</v>
       </c>
-      <c r="P2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",TEXT(M2,"AAAAMM")," - ",B2," SOS.txt")</f>
+      <c r="R2" s="2" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",N2," - ",B2," SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 1 SOS.txt</v>
       </c>
-      <c r="Q2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",TEXT(M2,"AAAAMM")," - ",B2," Alicuota SOS.txt")</f>
+      <c r="S2" s="2" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",N2," - ",B2," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 1 Alicuota SOS.txt</v>
       </c>
-      <c r="R2" s="4">
-        <f>ROW(A2)</f>
+      <c r="T2" s="4">
+        <f t="shared" ref="T2:T33" si="1">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="S2">
+      <c r="U2" s="4">
         <f>IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T2">
+      <c r="V2" s="4">
         <f>IF(C2=C3,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U2" s="5" t="e">
-        <f>VLOOKUP(TEXT(R2,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V2" s="5" t="e">
-        <f>VLOOKUP(TEXT(R2,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W2" t="e">
-        <f>VLOOKUP(TEXT(R2,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W2" s="5" t="e">
+        <f>VLOOKUP(TEXT(T2,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X2" s="5" t="e">
+        <f>VLOOKUP(TEXT(T2,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y2" s="4" t="e">
+        <f>VLOOKUP(TEXT(T2,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B63" si="1">"Nombre de cliente "&amp;(ROW()-1)</f>
+        <f t="shared" ref="B3:B63" si="2">"Nombre de cliente "&amp;(ROW()-1)</f>
         <v>Nombre de cliente 2</v>
       </c>
       <c r="C3">
@@ -1139,78 +1164,90 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E63" si="2">"Clave "&amp;(ROW()-1)</f>
+        <f t="shared" ref="E3:E63" si="3">"Clave "&amp;(ROW()-1)</f>
         <v>Clave 2</v>
       </c>
       <c r="F3" s="3">
         <v>45017</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F3)&amp;"\"&amp;TEXT(F3,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J3" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F3)&amp;"\"&amp;N3&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K3" s="4" t="str">
+        <f t="shared" ref="K3:K63" si="4">CONCATENATE(J3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 2\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L3" s="4" t="str">
-        <f t="shared" ref="L3:L6" si="3">TEXT(M3,"mm/aaaa")</f>
+        <f t="shared" ref="L3:L63" si="5">TEXT(MONTH(F3),"00")&amp;"/"&amp;YEAR(F3)</f>
         <v>04/2023</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F3,"MMMM AAAA"),1))&amp;MID(TEXT(F3,"MMMM AAAA"),2,30)</f>
+        <f t="shared" ref="M3:M63" si="6">PROPER(TEXT(F3,"mmmm"))&amp;" "&amp;YEAR(F3)</f>
         <v>Abril 2023</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",TEXT(M3,"AAAAMM")," - ",B3," SOS.txt")</f>
+        <f t="shared" ref="N3:N63" si="7">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
+        <v>202304</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f t="shared" ref="O3:O63" si="8">CONCATENATE(TEXT(A3,"0"),"  - ",N3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <v>0  - 202304 - 20000000000 - Nombre de cliente 2</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",N3," - ",B3," SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 2 SOS.txt</v>
       </c>
-      <c r="O3" s="2" t="str">
-        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",TEXT(M3,"AAAAMM")," - ",B3," Alicuota SOS.txt")</f>
+      <c r="Q3" s="2" t="str">
+        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",N3," - ",B3," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 2 Alicuota SOS.txt</v>
       </c>
-      <c r="P3" s="2" t="str">
-        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",TEXT(M3,"AAAAMM")," - ",B3," SOS.txt")</f>
+      <c r="R3" s="2" t="str">
+        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",N3," - ",B3," SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 2 SOS.txt</v>
       </c>
-      <c r="Q3" s="2" t="str">
-        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",TEXT(M3,"AAAAMM")," - ",B3," Alicuota SOS.txt")</f>
+      <c r="S3" s="2" t="str">
+        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",N3," - ",B3," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 2 Alicuota SOS.txt</v>
       </c>
-      <c r="R3" s="4">
-        <f>ROW(A3)</f>
+      <c r="T3" s="4">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="S3">
+      <c r="U3" s="4">
         <f>IF(C3=C2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="V3" s="4">
         <f>IF(C3=C4,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U3" s="5" t="e">
-        <f>VLOOKUP(TEXT(R3,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V3" s="5" t="e">
-        <f>VLOOKUP(TEXT(R3,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W3" t="e">
-        <f>VLOOKUP(TEXT(R3,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W3" s="5" t="e">
+        <f>VLOOKUP(TEXT(T3,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X3" s="5" t="e">
+        <f>VLOOKUP(TEXT(T3,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y3" s="4" t="e">
+        <f>VLOOKUP(TEXT(T3,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 3</v>
       </c>
       <c r="C4">
@@ -1221,4852 +1258,5572 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 3</v>
       </c>
       <c r="F4" s="3">
         <v>45017</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F4)&amp;"\"&amp;TEXT(F4,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J4" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F4)&amp;"\"&amp;N4&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 3\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L4" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F4,"MMMM AAAA"),1))&amp;MID(TEXT(F4,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIV - ",TEXT(M4,"AAAAMM")," - ",B4," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 20000000000 - Nombre de cliente 3</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIV - ",N4," - ",B4," SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 3 SOS.txt</v>
       </c>
-      <c r="O4" s="2" t="str">
-        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIV - ",TEXT(M4,"AAAAMM")," - ",B4," Alicuota SOS.txt")</f>
+      <c r="Q4" s="2" t="str">
+        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIV - ",N4," - ",B4," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 3 Alicuota SOS.txt</v>
       </c>
-      <c r="P4" s="2" t="str">
-        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIC - ",TEXT(M4,"AAAAMM")," - ",B4," SOS.txt")</f>
+      <c r="R4" s="2" t="str">
+        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIC - ",N4," - ",B4," SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 3 SOS.txt</v>
       </c>
-      <c r="Q4" s="2" t="str">
-        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIC - ",TEXT(M4,"AAAAMM")," - ",B4," Alicuota SOS.txt")</f>
+      <c r="S4" s="2" t="str">
+        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIC - ",N4," - ",B4," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 3 Alicuota SOS.txt</v>
       </c>
-      <c r="R4" s="4">
-        <f>ROW(A4)</f>
+      <c r="T4" s="4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S4">
+      <c r="U4" s="4">
         <f>IF(C4=C3,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="V4" s="4">
         <f>IF(C4=C5,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U4" s="5" t="e">
-        <f>VLOOKUP(TEXT(R4,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V4" s="5" t="e">
-        <f>VLOOKUP(TEXT(R4,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W4" t="e">
-        <f>VLOOKUP(TEXT(R4,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W4" s="5" t="e">
+        <f>VLOOKUP(TEXT(T4,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X4" s="5" t="e">
+        <f>VLOOKUP(TEXT(T4,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y4" s="4" t="e">
+        <f>VLOOKUP(TEXT(T4,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 4</v>
       </c>
       <c r="C5">
         <v>20000000000</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 4</v>
       </c>
       <c r="F5" s="3">
         <v>45017</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F5)&amp;"\"&amp;TEXT(F5,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J5" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F5)&amp;"\"&amp;N5&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K5" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 4\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L5" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F5,"MMMM AAAA"),1))&amp;MID(TEXT(F5,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N5" s="2" t="str">
-        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIV - ",TEXT(M5,"AAAAMM")," - ",B5," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 4</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIV - ",N5," - ",B5," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 4 SOS.txt</v>
       </c>
-      <c r="O5" s="2" t="str">
-        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIV - ",TEXT(M5,"AAAAMM")," - ",B5," Alicuota SOS.txt")</f>
+      <c r="Q5" s="2" t="str">
+        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIV - ",N5," - ",B5," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 4 Alicuota SOS.txt</v>
       </c>
-      <c r="P5" s="2" t="str">
-        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIC - ",TEXT(M5,"AAAAMM")," - ",B5," SOS.txt")</f>
+      <c r="R5" s="2" t="str">
+        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIC - ",N5," - ",B5," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 4 SOS.txt</v>
       </c>
-      <c r="Q5" s="2" t="str">
-        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIC - ",TEXT(M5,"AAAAMM")," - ",B5," Alicuota SOS.txt")</f>
+      <c r="S5" s="2" t="str">
+        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIC - ",N5," - ",B5," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 4 Alicuota SOS.txt</v>
       </c>
-      <c r="R5" s="4">
-        <f>ROW(A5)</f>
+      <c r="T5" s="4">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="S5">
+      <c r="U5" s="4">
         <f>IF(C5=C4,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T5">
+      <c r="V5" s="4">
         <f>IF(C5=C6,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U5" s="5" t="e">
-        <f>VLOOKUP(TEXT(R5,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V5" s="5" t="e">
-        <f>VLOOKUP(TEXT(R5,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W5" t="e">
-        <f>VLOOKUP(TEXT(R5,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W5" s="5" t="e">
+        <f>VLOOKUP(TEXT(T5,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X5" s="5" t="e">
+        <f>VLOOKUP(TEXT(T5,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y5" s="4" t="e">
+        <f>VLOOKUP(TEXT(T5,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 5</v>
       </c>
       <c r="C6">
         <v>20000000000</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 5</v>
       </c>
       <c r="F6" s="3">
         <v>45017</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F6)&amp;"\"&amp;TEXT(F6,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J6" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F6)&amp;"\"&amp;N6&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K6" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 5\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L6" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F6,"MMMM AAAA"),1))&amp;MID(TEXT(F6,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIV - ",TEXT(M6,"AAAAMM")," - ",B6," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 5</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIV - ",N6," - ",B6," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 5 SOS.txt</v>
       </c>
-      <c r="O6" s="2" t="str">
-        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIV - ",TEXT(M6,"AAAAMM")," - ",B6," Alicuota SOS.txt")</f>
+      <c r="Q6" s="2" t="str">
+        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIV - ",N6," - ",B6," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 5 Alicuota SOS.txt</v>
       </c>
-      <c r="P6" s="2" t="str">
-        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIC - ",TEXT(M6,"AAAAMM")," - ",B6," SOS.txt")</f>
+      <c r="R6" s="2" t="str">
+        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIC - ",N6," - ",B6," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 5 SOS.txt</v>
       </c>
-      <c r="Q6" s="2" t="str">
-        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIC - ",TEXT(M6,"AAAAMM")," - ",B6," Alicuota SOS.txt")</f>
+      <c r="S6" s="2" t="str">
+        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIC - ",N6," - ",B6," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 5 Alicuota SOS.txt</v>
       </c>
-      <c r="R6" s="4">
-        <f>ROW(A6)</f>
+      <c r="T6" s="4">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="S6">
+      <c r="U6" s="4">
         <f>IF(C6=C5,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T6">
+      <c r="V6" s="4">
         <f>IF(C6=C7,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U6" s="5" t="e">
-        <f>VLOOKUP(TEXT(R6,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V6" s="5" t="e">
-        <f>VLOOKUP(TEXT(R6,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W6" t="e">
-        <f>VLOOKUP(TEXT(R6,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W6" s="5" t="e">
+        <f>VLOOKUP(TEXT(T6,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X6" s="5" t="e">
+        <f>VLOOKUP(TEXT(T6,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y6" s="4" t="e">
+        <f>VLOOKUP(TEXT(T6,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 6</v>
       </c>
       <c r="C7">
         <v>20000000000</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 6</v>
       </c>
       <c r="F7" s="3">
         <v>44986</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F7)&amp;"\"&amp;TEXT(F7,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J7" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F7)&amp;"\"&amp;N7&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K7" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 6\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L7" s="4" t="str">
-        <f t="shared" ref="L7:L32" si="4">TEXT(M7+30,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>03/2023</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F7,"MMMM AAAA"),1))&amp;MID(TEXT(F7,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Marzo 2023</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIV - ",TEXT(M7,"AAAAMM")," - ",B7," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 6</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIV - ",N7," - ",B7," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 6 SOS.txt</v>
       </c>
-      <c r="O7" s="2" t="str">
-        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIV - ",TEXT(M7,"AAAAMM")," - ",B7," Alicuota SOS.txt")</f>
+      <c r="Q7" s="2" t="str">
+        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIV - ",N7," - ",B7," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 6 Alicuota SOS.txt</v>
       </c>
-      <c r="P7" s="2" t="str">
-        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIC - ",TEXT(M7,"AAAAMM")," - ",B7," SOS.txt")</f>
+      <c r="R7" s="2" t="str">
+        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIC - ",N7," - ",B7," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 6 SOS.txt</v>
       </c>
-      <c r="Q7" s="2" t="str">
-        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIC - ",TEXT(M7,"AAAAMM")," - ",B7," Alicuota SOS.txt")</f>
+      <c r="S7" s="2" t="str">
+        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIC - ",N7," - ",B7," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 6 Alicuota SOS.txt</v>
       </c>
-      <c r="R7" s="4">
-        <f>ROW(A7)</f>
+      <c r="T7" s="4">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="S7">
+      <c r="U7" s="4">
         <f>IF(C7=C6,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T7">
+      <c r="V7" s="4">
         <f>IF(C7=C8,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U7" s="5" t="e">
-        <f>VLOOKUP(TEXT(R7,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V7" s="5" t="e">
-        <f>VLOOKUP(TEXT(R7,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W7" t="e">
-        <f>VLOOKUP(TEXT(R7,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W7" s="5" t="e">
+        <f>VLOOKUP(TEXT(T7,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X7" s="5" t="e">
+        <f>VLOOKUP(TEXT(T7,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y7" s="4" t="e">
+        <f>VLOOKUP(TEXT(T7,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 7</v>
       </c>
       <c r="C8">
         <v>20000000000</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 7</v>
       </c>
       <c r="F8" s="3">
         <v>45017</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="K8" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F8)&amp;"\"&amp;TEXT(F8,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J8" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F8)&amp;"\"&amp;N8&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K8" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 7\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L8" s="4" t="str">
-        <f t="shared" ref="L8:L9" si="5">TEXT(M8,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F8,"MMMM AAAA"),1))&amp;MID(TEXT(F8,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIV - ",TEXT(M8,"AAAAMM")," - ",B8," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 7</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIV - ",N8," - ",B8," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 7 SOS.txt</v>
       </c>
-      <c r="O8" s="2" t="str">
-        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIV - ",TEXT(M8,"AAAAMM")," - ",B8," Alicuota SOS.txt")</f>
+      <c r="Q8" s="2" t="str">
+        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIV - ",N8," - ",B8," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 7 Alicuota SOS.txt</v>
       </c>
-      <c r="P8" s="2" t="str">
-        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIC - ",TEXT(M8,"AAAAMM")," - ",B8," SOS.txt")</f>
+      <c r="R8" s="2" t="str">
+        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIC - ",N8," - ",B8," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 7 SOS.txt</v>
       </c>
-      <c r="Q8" s="2" t="str">
-        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIC - ",TEXT(M8,"AAAAMM")," - ",B8," Alicuota SOS.txt")</f>
+      <c r="S8" s="2" t="str">
+        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIC - ",N8," - ",B8," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 7 Alicuota SOS.txt</v>
       </c>
-      <c r="R8" s="4">
-        <f>ROW(A8)</f>
+      <c r="T8" s="4">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="S8">
+      <c r="U8" s="4">
         <f>IF(C8=C7,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T8">
+      <c r="V8" s="4">
         <f>IF(C8=C9,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U8" s="5" t="e">
-        <f>VLOOKUP(TEXT(R8,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V8" s="5" t="e">
-        <f>VLOOKUP(TEXT(R8,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W8" t="e">
-        <f>VLOOKUP(TEXT(R8,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W8" s="5" t="e">
+        <f>VLOOKUP(TEXT(T8,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X8" s="5" t="e">
+        <f>VLOOKUP(TEXT(T8,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y8" s="4" t="e">
+        <f>VLOOKUP(TEXT(T8,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 8</v>
       </c>
       <c r="C9">
         <v>20000000000</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 8</v>
       </c>
       <c r="F9" s="3">
         <v>45017</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="K9" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F9)&amp;"\"&amp;TEXT(F9,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J9" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F9)&amp;"\"&amp;N9&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 8\COMVEN LID\2023\04\</v>
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F9,"MMMM AAAA"),1))&amp;MID(TEXT(F9,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIV - ",TEXT(M9,"AAAAMM")," - ",B9," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 8</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIV - ",N9," - ",B9," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 8 SOS.txt</v>
       </c>
-      <c r="O9" s="2" t="str">
-        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIV - ",TEXT(M9,"AAAAMM")," - ",B9," Alicuota SOS.txt")</f>
+      <c r="Q9" s="2" t="str">
+        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIV - ",N9," - ",B9," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 8 Alicuota SOS.txt</v>
       </c>
-      <c r="P9" s="2" t="str">
-        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIC - ",TEXT(M9,"AAAAMM")," - ",B9," SOS.txt")</f>
+      <c r="R9" s="2" t="str">
+        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIC - ",N9," - ",B9," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 8 SOS.txt</v>
       </c>
-      <c r="Q9" s="2" t="str">
-        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIC - ",TEXT(M9,"AAAAMM")," - ",B9," Alicuota SOS.txt")</f>
+      <c r="S9" s="2" t="str">
+        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIC - ",N9," - ",B9," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 8 Alicuota SOS.txt</v>
       </c>
-      <c r="R9" s="4">
-        <f>ROW(A9)</f>
+      <c r="T9" s="4">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="S9">
+      <c r="U9" s="4">
         <f>IF(C9=C8,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T9">
+      <c r="V9" s="4">
         <f>IF(C9=C10,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U9" s="5" t="e">
-        <f>VLOOKUP(TEXT(R9,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V9" s="5" t="e">
-        <f>VLOOKUP(TEXT(R9,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W9" t="e">
-        <f>VLOOKUP(TEXT(R9,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W9" s="5" t="e">
+        <f>VLOOKUP(TEXT(T9,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X9" s="5" t="e">
+        <f>VLOOKUP(TEXT(T9,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y9" s="4" t="e">
+        <f>VLOOKUP(TEXT(T9,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 9</v>
       </c>
       <c r="C10">
         <v>20000000000</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 9</v>
       </c>
       <c r="F10" s="3">
         <v>44986</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F10)&amp;"\"&amp;TEXT(F10,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J10" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F10)&amp;"\"&amp;N10&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 9\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>03/2023</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F10,"MMMM AAAA"),1))&amp;MID(TEXT(F10,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Marzo 2023</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIV - ",TEXT(M10,"AAAAMM")," - ",B10," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 9</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIV - ",N10," - ",B10," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 9 SOS.txt</v>
       </c>
-      <c r="O10" s="2" t="str">
-        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIV - ",TEXT(M10,"AAAAMM")," - ",B10," Alicuota SOS.txt")</f>
+      <c r="Q10" s="2" t="str">
+        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIV - ",N10," - ",B10," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 9 Alicuota SOS.txt</v>
       </c>
-      <c r="P10" s="2" t="str">
-        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIC - ",TEXT(M10,"AAAAMM")," - ",B10," SOS.txt")</f>
+      <c r="R10" s="2" t="str">
+        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIC - ",N10," - ",B10," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 9 SOS.txt</v>
       </c>
-      <c r="Q10" s="2" t="str">
-        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIC - ",TEXT(M10,"AAAAMM")," - ",B10," Alicuota SOS.txt")</f>
+      <c r="S10" s="2" t="str">
+        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIC - ",N10," - ",B10," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 9 Alicuota SOS.txt</v>
       </c>
-      <c r="R10" s="4">
-        <f>ROW(A10)</f>
+      <c r="T10" s="4">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="S10">
+      <c r="U10" s="4">
         <f>IF(C10=C9,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T10">
+      <c r="V10" s="4">
         <f>IF(C10=C11,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U10" s="5" t="e">
-        <f>VLOOKUP(TEXT(R10,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V10" s="5" t="e">
-        <f>VLOOKUP(TEXT(R10,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W10" t="e">
-        <f>VLOOKUP(TEXT(R10,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W10" s="5" t="e">
+        <f>VLOOKUP(TEXT(T10,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X10" s="5" t="e">
+        <f>VLOOKUP(TEXT(T10,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y10" s="4" t="e">
+        <f>VLOOKUP(TEXT(T10,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 10</v>
       </c>
       <c r="C11">
         <v>20000000000</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 10</v>
       </c>
       <c r="F11" s="3">
         <v>45017</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="K11" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F11)&amp;"\"&amp;TEXT(F11,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J11" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F11)&amp;"\"&amp;N11&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K11" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 10\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L11" s="4" t="str">
-        <f t="shared" ref="L11:L14" si="6">TEXT(M11,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F11,"MMMM AAAA"),1))&amp;MID(TEXT(F11,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIV - ",TEXT(M11,"AAAAMM")," - ",B11," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 10</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIV - ",N11," - ",B11," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 10 SOS.txt</v>
       </c>
-      <c r="O11" s="2" t="str">
-        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIV - ",TEXT(M11,"AAAAMM")," - ",B11," Alicuota SOS.txt")</f>
+      <c r="Q11" s="2" t="str">
+        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIV - ",N11," - ",B11," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 10 Alicuota SOS.txt</v>
       </c>
-      <c r="P11" s="2" t="str">
-        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIC - ",TEXT(M11,"AAAAMM")," - ",B11," SOS.txt")</f>
+      <c r="R11" s="2" t="str">
+        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIC - ",N11," - ",B11," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 10 SOS.txt</v>
       </c>
-      <c r="Q11" s="2" t="str">
-        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIC - ",TEXT(M11,"AAAAMM")," - ",B11," Alicuota SOS.txt")</f>
+      <c r="S11" s="2" t="str">
+        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIC - ",N11," - ",B11," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 10 Alicuota SOS.txt</v>
       </c>
-      <c r="R11" s="4">
-        <f>ROW(A11)</f>
+      <c r="T11" s="4">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="S11">
+      <c r="U11" s="4">
         <f>IF(C11=C10,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T11">
+      <c r="V11" s="4">
         <f>IF(C11=C12,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U11" s="5" t="e">
-        <f>VLOOKUP(TEXT(R11,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V11" s="5" t="e">
-        <f>VLOOKUP(TEXT(R11,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W11" t="e">
-        <f>VLOOKUP(TEXT(R11,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W11" s="5" t="e">
+        <f>VLOOKUP(TEXT(T11,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X11" s="5" t="e">
+        <f>VLOOKUP(TEXT(T11,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y11" s="4" t="e">
+        <f>VLOOKUP(TEXT(T11,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 11</v>
       </c>
       <c r="C12">
         <v>20000000000</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 11</v>
       </c>
       <c r="F12" s="3">
         <v>45017</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="K12" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F12)&amp;"\"&amp;TEXT(F12,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J12" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F12)&amp;"\"&amp;N12&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K12" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 11\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L12" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>04/2023</v>
+      </c>
+      <c r="M12" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M12" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F12,"MMMM AAAA"),1))&amp;MID(TEXT(F12,"MMMM AAAA"),2,30)</f>
         <v>Abril 2023</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIV - ",TEXT(M12,"AAAAMM")," - ",B12," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 11</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIV - ",N12," - ",B12," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 11 SOS.txt</v>
       </c>
-      <c r="O12" s="2" t="str">
-        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIV - ",TEXT(M12,"AAAAMM")," - ",B12," Alicuota SOS.txt")</f>
+      <c r="Q12" s="2" t="str">
+        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIV - ",N12," - ",B12," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 11 Alicuota SOS.txt</v>
       </c>
-      <c r="P12" s="2" t="str">
-        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIC - ",TEXT(M12,"AAAAMM")," - ",B12," SOS.txt")</f>
+      <c r="R12" s="2" t="str">
+        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIC - ",N12," - ",B12," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 11 SOS.txt</v>
       </c>
-      <c r="Q12" s="2" t="str">
-        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIC - ",TEXT(M12,"AAAAMM")," - ",B12," Alicuota SOS.txt")</f>
+      <c r="S12" s="2" t="str">
+        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIC - ",N12," - ",B12," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 11 Alicuota SOS.txt</v>
       </c>
-      <c r="R12" s="4">
-        <f>ROW(A12)</f>
+      <c r="T12" s="4">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="S12">
+      <c r="U12" s="4">
         <f>IF(C12=C11,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T12">
+      <c r="V12" s="4">
         <f>IF(C12=C13,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U12" s="5" t="e">
-        <f>VLOOKUP(TEXT(R12,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V12" s="5" t="e">
-        <f>VLOOKUP(TEXT(R12,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W12" t="e">
-        <f>VLOOKUP(TEXT(R12,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W12" s="5" t="e">
+        <f>VLOOKUP(TEXT(T12,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X12" s="5" t="e">
+        <f>VLOOKUP(TEXT(T12,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y12" s="4" t="e">
+        <f>VLOOKUP(TEXT(T12,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 12</v>
       </c>
       <c r="C13">
         <v>20000000000</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 12</v>
       </c>
       <c r="F13" s="3">
         <v>45017</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" t="s">
         <v>13</v>
       </c>
-      <c r="K13" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F13)&amp;"\"&amp;TEXT(F13,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J13" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F13)&amp;"\"&amp;N13&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K13" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 12\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L13" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>04/2023</v>
+      </c>
+      <c r="M13" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M13" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F13,"MMMM AAAA"),1))&amp;MID(TEXT(F13,"MMMM AAAA"),2,30)</f>
         <v>Abril 2023</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIV - ",TEXT(M13,"AAAAMM")," - ",B13," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 12</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIV - ",N13," - ",B13," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 12 SOS.txt</v>
       </c>
-      <c r="O13" s="2" t="str">
-        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIV - ",TEXT(M13,"AAAAMM")," - ",B13," Alicuota SOS.txt")</f>
+      <c r="Q13" s="2" t="str">
+        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIV - ",N13," - ",B13," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 12 Alicuota SOS.txt</v>
       </c>
-      <c r="P13" s="2" t="str">
-        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIC - ",TEXT(M13,"AAAAMM")," - ",B13," SOS.txt")</f>
+      <c r="R13" s="2" t="str">
+        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIC - ",N13," - ",B13," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 12 SOS.txt</v>
       </c>
-      <c r="Q13" s="2" t="str">
-        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIC - ",TEXT(M13,"AAAAMM")," - ",B13," Alicuota SOS.txt")</f>
+      <c r="S13" s="2" t="str">
+        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIC - ",N13," - ",B13," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 12 Alicuota SOS.txt</v>
       </c>
-      <c r="R13" s="4">
-        <f>ROW(A13)</f>
+      <c r="T13" s="4">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="S13">
+      <c r="U13" s="4">
         <f>IF(C13=C12,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T13">
+      <c r="V13" s="4">
         <f>IF(C13=C14,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U13" s="5" t="e">
-        <f>VLOOKUP(TEXT(R13,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V13" s="5" t="e">
-        <f>VLOOKUP(TEXT(R13,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W13" t="e">
-        <f>VLOOKUP(TEXT(R13,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W13" s="5" t="e">
+        <f>VLOOKUP(TEXT(T13,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X13" s="5" t="e">
+        <f>VLOOKUP(TEXT(T13,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y13" s="4" t="e">
+        <f>VLOOKUP(TEXT(T13,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 13</v>
       </c>
       <c r="C14">
         <v>20000000000</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 13</v>
       </c>
       <c r="F14" s="3">
         <v>45017</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="K14" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F14)&amp;"\"&amp;TEXT(F14,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J14" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F14)&amp;"\"&amp;N14&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K14" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 13\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L14" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>04/2023</v>
+      </c>
+      <c r="M14" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M14" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F14,"MMMM AAAA"),1))&amp;MID(TEXT(F14,"MMMM AAAA"),2,30)</f>
         <v>Abril 2023</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIV - ",TEXT(M14,"AAAAMM")," - ",B14," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 13</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIV - ",N14," - ",B14," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 13 SOS.txt</v>
       </c>
-      <c r="O14" s="2" t="str">
-        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIV - ",TEXT(M14,"AAAAMM")," - ",B14," Alicuota SOS.txt")</f>
+      <c r="Q14" s="2" t="str">
+        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIV - ",N14," - ",B14," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 13 Alicuota SOS.txt</v>
       </c>
-      <c r="P14" s="2" t="str">
-        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIC - ",TEXT(M14,"AAAAMM")," - ",B14," SOS.txt")</f>
+      <c r="R14" s="2" t="str">
+        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIC - ",N14," - ",B14," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 13 SOS.txt</v>
       </c>
-      <c r="Q14" s="2" t="str">
-        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIC - ",TEXT(M14,"AAAAMM")," - ",B14," Alicuota SOS.txt")</f>
+      <c r="S14" s="2" t="str">
+        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIC - ",N14," - ",B14," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 13 Alicuota SOS.txt</v>
       </c>
-      <c r="R14" s="4">
-        <f>ROW(A14)</f>
+      <c r="T14" s="4">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="S14">
+      <c r="U14" s="4">
         <f>IF(C14=C13,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T14">
+      <c r="V14" s="4">
         <f>IF(C14=C15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U14" s="5" t="e">
-        <f>VLOOKUP(TEXT(R14,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V14" s="5" t="e">
-        <f>VLOOKUP(TEXT(R14,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W14" t="e">
-        <f>VLOOKUP(TEXT(R14,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W14" s="5" t="e">
+        <f>VLOOKUP(TEXT(T14,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X14" s="5" t="e">
+        <f>VLOOKUP(TEXT(T14,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y14" s="4" t="e">
+        <f>VLOOKUP(TEXT(T14,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 14</v>
       </c>
       <c r="C15">
         <v>20000000000</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 14</v>
       </c>
       <c r="F15" s="3">
         <v>44986</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
         <v>12</v>
       </c>
-      <c r="K15" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F15)&amp;"\"&amp;TEXT(F15,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J15" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F15)&amp;"\"&amp;N15&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K15" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 14\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L15" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>03/2023</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F15,"MMMM AAAA"),1))&amp;MID(TEXT(F15,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Marzo 2023</v>
       </c>
       <c r="N15" s="2" t="str">
-        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIV - ",TEXT(M15,"AAAAMM")," - ",B15," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 14</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIV - ",N15," - ",B15," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 14 SOS.txt</v>
       </c>
-      <c r="O15" s="2" t="str">
-        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIV - ",TEXT(M15,"AAAAMM")," - ",B15," Alicuota SOS.txt")</f>
+      <c r="Q15" s="2" t="str">
+        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIV - ",N15," - ",B15," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 14 Alicuota SOS.txt</v>
       </c>
-      <c r="P15" s="2" t="str">
-        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIC - ",TEXT(M15,"AAAAMM")," - ",B15," SOS.txt")</f>
+      <c r="R15" s="2" t="str">
+        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIC - ",N15," - ",B15," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 14 SOS.txt</v>
       </c>
-      <c r="Q15" s="2" t="str">
-        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIC - ",TEXT(M15,"AAAAMM")," - ",B15," Alicuota SOS.txt")</f>
+      <c r="S15" s="2" t="str">
+        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIC - ",N15," - ",B15," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 14 Alicuota SOS.txt</v>
       </c>
-      <c r="R15" s="4">
-        <f>ROW(A15)</f>
+      <c r="T15" s="4">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S15">
+      <c r="U15" s="4">
         <f>IF(C15=C14,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T15">
+      <c r="V15" s="4">
         <f>IF(C15=C16,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U15" s="5" t="e">
-        <f>VLOOKUP(TEXT(R15,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V15" s="5" t="e">
-        <f>VLOOKUP(TEXT(R15,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W15" t="e">
-        <f>VLOOKUP(TEXT(R15,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W15" s="5" t="e">
+        <f>VLOOKUP(TEXT(T15,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X15" s="5" t="e">
+        <f>VLOOKUP(TEXT(T15,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y15" s="4" t="e">
+        <f>VLOOKUP(TEXT(T15,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 15</v>
       </c>
       <c r="C16">
         <v>20000000000</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 15</v>
       </c>
       <c r="F16" s="3">
         <v>45017</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" t="s">
         <v>13</v>
       </c>
-      <c r="K16" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F16)&amp;"\"&amp;TEXT(F16,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J16" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F16)&amp;"\"&amp;N16&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K16" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 15\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L16" s="4" t="str">
-        <f t="shared" ref="L16:L17" si="7">TEXT(M16,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F16,"MMMM AAAA"),1))&amp;MID(TEXT(F16,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIV - ",TEXT(M16,"AAAAMM")," - ",B16," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 15</v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIV - ",N16," - ",B16," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 15 SOS.txt</v>
       </c>
-      <c r="O16" s="2" t="str">
-        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIV - ",TEXT(M16,"AAAAMM")," - ",B16," Alicuota SOS.txt")</f>
+      <c r="Q16" s="2" t="str">
+        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIV - ",N16," - ",B16," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 15 Alicuota SOS.txt</v>
       </c>
-      <c r="P16" s="2" t="str">
-        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIC - ",TEXT(M16,"AAAAMM")," - ",B16," SOS.txt")</f>
+      <c r="R16" s="2" t="str">
+        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIC - ",N16," - ",B16," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 15 SOS.txt</v>
       </c>
-      <c r="Q16" s="2" t="str">
-        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIC - ",TEXT(M16,"AAAAMM")," - ",B16," Alicuota SOS.txt")</f>
+      <c r="S16" s="2" t="str">
+        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIC - ",N16," - ",B16," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 15 Alicuota SOS.txt</v>
       </c>
-      <c r="R16" s="4">
-        <f>ROW(A16)</f>
+      <c r="T16" s="4">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="S16">
+      <c r="U16" s="4">
         <f>IF(C16=C15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T16">
+      <c r="V16" s="4">
         <f>IF(C16=C17,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U16" s="5" t="e">
-        <f>VLOOKUP(TEXT(R16,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V16" s="5" t="e">
-        <f>VLOOKUP(TEXT(R16,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W16" t="e">
-        <f>VLOOKUP(TEXT(R16,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W16" s="5" t="e">
+        <f>VLOOKUP(TEXT(T16,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X16" s="5" t="e">
+        <f>VLOOKUP(TEXT(T16,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y16" s="4" t="e">
+        <f>VLOOKUP(TEXT(T16,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 16</v>
       </c>
       <c r="C17">
         <v>20000000000</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 16</v>
       </c>
       <c r="F17" s="3">
         <v>45017</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" t="s">
         <v>13</v>
       </c>
-      <c r="K17" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F17)&amp;"\"&amp;TEXT(F17,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J17" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F17)&amp;"\"&amp;N17&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K17" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 16\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L17" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>04/2023</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="N17" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M17" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F17,"MMMM AAAA"),1))&amp;MID(TEXT(F17,"MMMM AAAA"),2,30)</f>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N17" s="2" t="str">
-        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIV - ",TEXT(M17,"AAAAMM")," - ",B17," SOS.txt")</f>
+        <v>202304</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 16</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIV - ",N17," - ",B17," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 16 SOS.txt</v>
       </c>
-      <c r="O17" s="2" t="str">
-        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIV - ",TEXT(M17,"AAAAMM")," - ",B17," Alicuota SOS.txt")</f>
+      <c r="Q17" s="2" t="str">
+        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIV - ",N17," - ",B17," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 16 Alicuota SOS.txt</v>
       </c>
-      <c r="P17" s="2" t="str">
-        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIC - ",TEXT(M17,"AAAAMM")," - ",B17," SOS.txt")</f>
+      <c r="R17" s="2" t="str">
+        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIC - ",N17," - ",B17," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 16 SOS.txt</v>
       </c>
-      <c r="Q17" s="2" t="str">
-        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIC - ",TEXT(M17,"AAAAMM")," - ",B17," Alicuota SOS.txt")</f>
+      <c r="S17" s="2" t="str">
+        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIC - ",N17," - ",B17," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 16 Alicuota SOS.txt</v>
       </c>
-      <c r="R17" s="4">
-        <f>ROW(A17)</f>
+      <c r="T17" s="4">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="S17">
+      <c r="U17" s="4">
         <f>IF(C17=C16,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T17">
+      <c r="V17" s="4">
         <f>IF(C17=C18,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U17" s="5" t="e">
-        <f>VLOOKUP(TEXT(R17,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V17" s="5" t="e">
-        <f>VLOOKUP(TEXT(R17,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W17" t="e">
-        <f>VLOOKUP(TEXT(R17,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W17" s="5" t="e">
+        <f>VLOOKUP(TEXT(T17,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X17" s="5" t="e">
+        <f>VLOOKUP(TEXT(T17,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y17" s="4" t="e">
+        <f>VLOOKUP(TEXT(T17,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 17</v>
       </c>
       <c r="C18">
         <v>20000000000</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 17</v>
       </c>
       <c r="F18" s="3">
         <v>44986</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I18" t="s">
+      <c r="H18" t="s">
         <v>12</v>
       </c>
-      <c r="K18" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F18)&amp;"\"&amp;TEXT(F18,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J18" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F18)&amp;"\"&amp;N18&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K18" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 17\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L18" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>03/2023</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F18,"MMMM AAAA"),1))&amp;MID(TEXT(F18,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Marzo 2023</v>
       </c>
       <c r="N18" s="2" t="str">
-        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIV - ",TEXT(M18,"AAAAMM")," - ",B18," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 17</v>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIV - ",N18," - ",B18," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 17 SOS.txt</v>
       </c>
-      <c r="O18" s="2" t="str">
-        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIV - ",TEXT(M18,"AAAAMM")," - ",B18," Alicuota SOS.txt")</f>
+      <c r="Q18" s="2" t="str">
+        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIV - ",N18," - ",B18," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 17 Alicuota SOS.txt</v>
       </c>
-      <c r="P18" s="2" t="str">
-        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIC - ",TEXT(M18,"AAAAMM")," - ",B18," SOS.txt")</f>
+      <c r="R18" s="2" t="str">
+        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIC - ",N18," - ",B18," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 17 SOS.txt</v>
       </c>
-      <c r="Q18" s="2" t="str">
-        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIC - ",TEXT(M18,"AAAAMM")," - ",B18," Alicuota SOS.txt")</f>
+      <c r="S18" s="2" t="str">
+        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIC - ",N18," - ",B18," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 17 Alicuota SOS.txt</v>
       </c>
-      <c r="R18" s="4">
-        <f>ROW(A18)</f>
+      <c r="T18" s="4">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S18">
+      <c r="U18" s="4">
         <f>IF(C18=C17,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T18">
+      <c r="V18" s="4">
         <f>IF(C18=C19,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U18" s="5" t="e">
-        <f>VLOOKUP(TEXT(R18,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V18" s="5" t="e">
-        <f>VLOOKUP(TEXT(R18,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W18" t="e">
-        <f>VLOOKUP(TEXT(R18,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W18" s="5" t="e">
+        <f>VLOOKUP(TEXT(T18,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X18" s="5" t="e">
+        <f>VLOOKUP(TEXT(T18,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y18" s="4" t="e">
+        <f>VLOOKUP(TEXT(T18,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 18</v>
       </c>
       <c r="C19">
         <v>20000000000</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 18</v>
       </c>
       <c r="F19" s="3">
         <v>45017</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F19)&amp;"\"&amp;TEXT(F19,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J19" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F19)&amp;"\"&amp;N19&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K19" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 18\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L19" s="4" t="str">
-        <f>TEXT(M19,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F19,"MMMM AAAA"),1))&amp;MID(TEXT(F19,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N19" s="2" t="str">
-        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIV - ",TEXT(M19,"AAAAMM")," - ",B19," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 18</v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIV - ",N19," - ",B19," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 18 SOS.txt</v>
       </c>
-      <c r="O19" s="2" t="str">
-        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIV - ",TEXT(M19,"AAAAMM")," - ",B19," Alicuota SOS.txt")</f>
+      <c r="Q19" s="2" t="str">
+        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIV - ",N19," - ",B19," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 18 Alicuota SOS.txt</v>
       </c>
-      <c r="P19" s="2" t="str">
-        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIC - ",TEXT(M19,"AAAAMM")," - ",B19," SOS.txt")</f>
+      <c r="R19" s="2" t="str">
+        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIC - ",N19," - ",B19," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 18 SOS.txt</v>
       </c>
-      <c r="Q19" s="2" t="str">
-        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIC - ",TEXT(M19,"AAAAMM")," - ",B19," Alicuota SOS.txt")</f>
+      <c r="S19" s="2" t="str">
+        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIC - ",N19," - ",B19," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 18 Alicuota SOS.txt</v>
       </c>
-      <c r="R19" s="4">
-        <f>ROW(A19)</f>
+      <c r="T19" s="4">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="S19">
+      <c r="U19" s="4">
         <f>IF(C19=C18,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T19">
+      <c r="V19" s="4">
         <f>IF(C19=C20,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U19" s="5" t="e">
-        <f>VLOOKUP(TEXT(R19,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V19" s="5" t="e">
-        <f>VLOOKUP(TEXT(R19,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W19" t="e">
-        <f>VLOOKUP(TEXT(R19,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W19" s="5" t="e">
+        <f>VLOOKUP(TEXT(T19,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X19" s="5" t="e">
+        <f>VLOOKUP(TEXT(T19,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" s="4" t="e">
+        <f>VLOOKUP(TEXT(T19,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 19</v>
       </c>
       <c r="C20">
         <v>20000000000</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 19</v>
       </c>
       <c r="F20" s="3">
         <v>44986</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" t="s">
         <v>12</v>
       </c>
-      <c r="K20" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F20)&amp;"\"&amp;TEXT(F20,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J20" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F20)&amp;"\"&amp;N20&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 19\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L20" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>03/2023</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F20,"MMMM AAAA"),1))&amp;MID(TEXT(F20,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Marzo 2023</v>
       </c>
       <c r="N20" s="2" t="str">
-        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIV - ",TEXT(M20,"AAAAMM")," - ",B20," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 19</v>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIV - ",N20," - ",B20," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 19 SOS.txt</v>
       </c>
-      <c r="O20" s="2" t="str">
-        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIV - ",TEXT(M20,"AAAAMM")," - ",B20," Alicuota SOS.txt")</f>
+      <c r="Q20" s="2" t="str">
+        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIV - ",N20," - ",B20," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 19 Alicuota SOS.txt</v>
       </c>
-      <c r="P20" s="2" t="str">
-        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIC - ",TEXT(M20,"AAAAMM")," - ",B20," SOS.txt")</f>
+      <c r="R20" s="2" t="str">
+        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIC - ",N20," - ",B20," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 19 SOS.txt</v>
       </c>
-      <c r="Q20" s="2" t="str">
-        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIC - ",TEXT(M20,"AAAAMM")," - ",B20," Alicuota SOS.txt")</f>
+      <c r="S20" s="2" t="str">
+        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIC - ",N20," - ",B20," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 19 Alicuota SOS.txt</v>
       </c>
-      <c r="R20" s="4">
-        <f>ROW(A20)</f>
+      <c r="T20" s="4">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="S20">
+      <c r="U20" s="4">
         <f>IF(C20=C19,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T20">
+      <c r="V20" s="4">
         <f>IF(C20=C21,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U20" s="5" t="e">
-        <f>VLOOKUP(TEXT(R20,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V20" s="5" t="e">
-        <f>VLOOKUP(TEXT(R20,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W20" t="e">
-        <f>VLOOKUP(TEXT(R20,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W20" s="5" t="e">
+        <f>VLOOKUP(TEXT(T20,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X20" s="5" t="e">
+        <f>VLOOKUP(TEXT(T20,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" s="4" t="e">
+        <f>VLOOKUP(TEXT(T20,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 20</v>
       </c>
       <c r="C21">
         <v>20000000000</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 20</v>
       </c>
       <c r="F21" s="3">
         <v>44986</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" t="s">
         <v>12</v>
       </c>
-      <c r="K21" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F21)&amp;"\"&amp;TEXT(F21,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J21" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F21)&amp;"\"&amp;N21&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K21" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 20\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L21" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>03/2023</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F21,"MMMM AAAA"),1))&amp;MID(TEXT(F21,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Marzo 2023</v>
       </c>
       <c r="N21" s="2" t="str">
-        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIV - ",TEXT(M21,"AAAAMM")," - ",B21," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 20</v>
+      </c>
+      <c r="P21" s="2" t="str">
+        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIV - ",N21," - ",B21," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 20 SOS.txt</v>
       </c>
-      <c r="O21" s="2" t="str">
-        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIV - ",TEXT(M21,"AAAAMM")," - ",B21," Alicuota SOS.txt")</f>
+      <c r="Q21" s="2" t="str">
+        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIV - ",N21," - ",B21," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 20 Alicuota SOS.txt</v>
       </c>
-      <c r="P21" s="2" t="str">
-        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIC - ",TEXT(M21,"AAAAMM")," - ",B21," SOS.txt")</f>
+      <c r="R21" s="2" t="str">
+        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIC - ",N21," - ",B21," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 20 SOS.txt</v>
       </c>
-      <c r="Q21" s="2" t="str">
-        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIC - ",TEXT(M21,"AAAAMM")," - ",B21," Alicuota SOS.txt")</f>
+      <c r="S21" s="2" t="str">
+        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIC - ",N21," - ",B21," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 20 Alicuota SOS.txt</v>
       </c>
-      <c r="R21" s="4">
-        <f>ROW(A21)</f>
+      <c r="T21" s="4">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="S21">
+      <c r="U21" s="4">
         <f>IF(C21=C20,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T21">
+      <c r="V21" s="4">
         <f>IF(C21=C22,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U21" s="5" t="e">
-        <f>VLOOKUP(TEXT(R21,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V21" s="5" t="e">
-        <f>VLOOKUP(TEXT(R21,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W21" t="e">
-        <f>VLOOKUP(TEXT(R21,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W21" s="5" t="e">
+        <f>VLOOKUP(TEXT(T21,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X21" s="5" t="e">
+        <f>VLOOKUP(TEXT(T21,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" s="4" t="e">
+        <f>VLOOKUP(TEXT(T21,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 21</v>
       </c>
       <c r="C22">
         <v>20000000000</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 21</v>
       </c>
       <c r="F22" s="3">
         <v>45017</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" t="s">
+      <c r="H22" t="s">
         <v>13</v>
       </c>
-      <c r="K22" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F22)&amp;"\"&amp;TEXT(F22,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J22" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F22)&amp;"\"&amp;N22&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K22" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 21\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L22" s="4" t="str">
-        <f t="shared" ref="L22:L29" si="8">TEXT(M22,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F22,"MMMM AAAA"),1))&amp;MID(TEXT(F22,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N22" s="2" t="str">
-        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIV - ",TEXT(M22,"AAAAMM")," - ",B22," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 21</v>
+      </c>
+      <c r="P22" s="2" t="str">
+        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIV - ",N22," - ",B22," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 21 SOS.txt</v>
       </c>
-      <c r="O22" s="2" t="str">
-        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIV - ",TEXT(M22,"AAAAMM")," - ",B22," Alicuota SOS.txt")</f>
+      <c r="Q22" s="2" t="str">
+        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIV - ",N22," - ",B22," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 21 Alicuota SOS.txt</v>
       </c>
-      <c r="P22" s="2" t="str">
-        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIC - ",TEXT(M22,"AAAAMM")," - ",B22," SOS.txt")</f>
+      <c r="R22" s="2" t="str">
+        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIC - ",N22," - ",B22," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 21 SOS.txt</v>
       </c>
-      <c r="Q22" s="2" t="str">
-        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIC - ",TEXT(M22,"AAAAMM")," - ",B22," Alicuota SOS.txt")</f>
+      <c r="S22" s="2" t="str">
+        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIC - ",N22," - ",B22," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 21 Alicuota SOS.txt</v>
       </c>
-      <c r="R22" s="4">
-        <f>ROW(A22)</f>
+      <c r="T22" s="4">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="S22">
+      <c r="U22" s="4">
         <f>IF(C22=C21,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T22">
+      <c r="V22" s="4">
         <f>IF(C22=C23,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U22" s="5" t="e">
-        <f>VLOOKUP(TEXT(R22,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V22" s="5" t="e">
-        <f>VLOOKUP(TEXT(R22,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W22" t="e">
-        <f>VLOOKUP(TEXT(R22,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W22" s="5" t="e">
+        <f>VLOOKUP(TEXT(T22,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X22" s="5" t="e">
+        <f>VLOOKUP(TEXT(T22,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" s="4" t="e">
+        <f>VLOOKUP(TEXT(T22,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 22</v>
       </c>
       <c r="C23">
         <v>20000000000</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 22</v>
       </c>
       <c r="F23" s="3">
         <v>45017</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" t="s">
         <v>13</v>
       </c>
-      <c r="K23" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F23)&amp;"\"&amp;TEXT(F23,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J23" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F23)&amp;"\"&amp;N23&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K23" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 22\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L23" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>04/2023</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O23" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M23" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F23,"MMMM AAAA"),1))&amp;MID(TEXT(F23,"MMMM AAAA"),2,30)</f>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N23" s="2" t="str">
-        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIV - ",TEXT(M23,"AAAAMM")," - ",B23," SOS.txt")</f>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 22</v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIV - ",N23," - ",B23," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 22 SOS.txt</v>
       </c>
-      <c r="O23" s="2" t="str">
-        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIV - ",TEXT(M23,"AAAAMM")," - ",B23," Alicuota SOS.txt")</f>
+      <c r="Q23" s="2" t="str">
+        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIV - ",N23," - ",B23," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 22 Alicuota SOS.txt</v>
       </c>
-      <c r="P23" s="2" t="str">
-        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIC - ",TEXT(M23,"AAAAMM")," - ",B23," SOS.txt")</f>
+      <c r="R23" s="2" t="str">
+        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIC - ",N23," - ",B23," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 22 SOS.txt</v>
       </c>
-      <c r="Q23" s="2" t="str">
-        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIC - ",TEXT(M23,"AAAAMM")," - ",B23," Alicuota SOS.txt")</f>
+      <c r="S23" s="2" t="str">
+        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIC - ",N23," - ",B23," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 22 Alicuota SOS.txt</v>
       </c>
-      <c r="R23" s="4">
-        <f>ROW(A23)</f>
+      <c r="T23" s="4">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="S23">
+      <c r="U23" s="4">
         <f>IF(C23=C22,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T23">
+      <c r="V23" s="4">
         <f>IF(C23=C24,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U23" s="5" t="e">
-        <f>VLOOKUP(TEXT(R23,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V23" s="5" t="e">
-        <f>VLOOKUP(TEXT(R23,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W23" t="e">
-        <f>VLOOKUP(TEXT(R23,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W23" s="5" t="e">
+        <f>VLOOKUP(TEXT(T23,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X23" s="5" t="e">
+        <f>VLOOKUP(TEXT(T23,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" s="4" t="e">
+        <f>VLOOKUP(TEXT(T23,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 23</v>
       </c>
       <c r="C24">
         <v>20000000000</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 23</v>
       </c>
       <c r="F24" s="3">
         <v>45017</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" t="s">
         <v>13</v>
       </c>
-      <c r="K24" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F24)&amp;"\"&amp;TEXT(F24,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J24" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F24)&amp;"\"&amp;N24&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K24" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 23\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L24" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>04/2023</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O24" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M24" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F24,"MMMM AAAA"),1))&amp;MID(TEXT(F24,"MMMM AAAA"),2,30)</f>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N24" s="2" t="str">
-        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIV - ",TEXT(M24,"AAAAMM")," - ",B24," SOS.txt")</f>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 23</v>
+      </c>
+      <c r="P24" s="2" t="str">
+        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIV - ",N24," - ",B24," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 23 SOS.txt</v>
       </c>
-      <c r="O24" s="2" t="str">
-        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIV - ",TEXT(M24,"AAAAMM")," - ",B24," Alicuota SOS.txt")</f>
+      <c r="Q24" s="2" t="str">
+        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIV - ",N24," - ",B24," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 23 Alicuota SOS.txt</v>
       </c>
-      <c r="P24" s="2" t="str">
-        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIC - ",TEXT(M24,"AAAAMM")," - ",B24," SOS.txt")</f>
+      <c r="R24" s="2" t="str">
+        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIC - ",N24," - ",B24," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 23 SOS.txt</v>
       </c>
-      <c r="Q24" s="2" t="str">
-        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIC - ",TEXT(M24,"AAAAMM")," - ",B24," Alicuota SOS.txt")</f>
+      <c r="S24" s="2" t="str">
+        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIC - ",N24," - ",B24," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 23 Alicuota SOS.txt</v>
       </c>
-      <c r="R24" s="4">
-        <f>ROW(A24)</f>
+      <c r="T24" s="4">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="S24">
+      <c r="U24" s="4">
         <f>IF(C24=C23,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T24">
+      <c r="V24" s="4">
         <f>IF(C24=C25,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U24" s="5" t="e">
-        <f>VLOOKUP(TEXT(R24,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V24" s="5" t="e">
-        <f>VLOOKUP(TEXT(R24,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W24" t="e">
-        <f>VLOOKUP(TEXT(R24,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W24" s="5" t="e">
+        <f>VLOOKUP(TEXT(T24,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X24" s="5" t="e">
+        <f>VLOOKUP(TEXT(T24,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" s="4" t="e">
+        <f>VLOOKUP(TEXT(T24,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 24</v>
       </c>
       <c r="C25">
         <v>20000000000</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 24</v>
       </c>
       <c r="F25" s="3">
         <v>45017</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s">
         <v>13</v>
       </c>
-      <c r="K25" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F25)&amp;"\"&amp;TEXT(F25,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J25" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F25)&amp;"\"&amp;N25&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K25" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 24\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L25" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>04/2023</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O25" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M25" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F25,"MMMM AAAA"),1))&amp;MID(TEXT(F25,"MMMM AAAA"),2,30)</f>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N25" s="2" t="str">
-        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIV - ",TEXT(M25,"AAAAMM")," - ",B25," SOS.txt")</f>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 24</v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIV - ",N25," - ",B25," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 24 SOS.txt</v>
       </c>
-      <c r="O25" s="2" t="str">
-        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIV - ",TEXT(M25,"AAAAMM")," - ",B25," Alicuota SOS.txt")</f>
+      <c r="Q25" s="2" t="str">
+        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIV - ",N25," - ",B25," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 24 Alicuota SOS.txt</v>
       </c>
-      <c r="P25" s="2" t="str">
-        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIC - ",TEXT(M25,"AAAAMM")," - ",B25," SOS.txt")</f>
+      <c r="R25" s="2" t="str">
+        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIC - ",N25," - ",B25," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 24 SOS.txt</v>
       </c>
-      <c r="Q25" s="2" t="str">
-        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIC - ",TEXT(M25,"AAAAMM")," - ",B25," Alicuota SOS.txt")</f>
+      <c r="S25" s="2" t="str">
+        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIC - ",N25," - ",B25," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 24 Alicuota SOS.txt</v>
       </c>
-      <c r="R25" s="4">
-        <f>ROW(A25)</f>
+      <c r="T25" s="4">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="S25">
+      <c r="U25" s="4">
         <f>IF(C25=C24,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T25">
+      <c r="V25" s="4">
         <f>IF(C25=C26,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U25" s="5" t="e">
-        <f>VLOOKUP(TEXT(R25,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V25" s="5" t="e">
-        <f>VLOOKUP(TEXT(R25,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W25" t="e">
-        <f>VLOOKUP(TEXT(R25,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W25" s="5" t="e">
+        <f>VLOOKUP(TEXT(T25,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X25" s="5" t="e">
+        <f>VLOOKUP(TEXT(T25,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" s="4" t="e">
+        <f>VLOOKUP(TEXT(T25,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 25</v>
       </c>
       <c r="C26">
         <v>20000000000</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 25</v>
       </c>
       <c r="F26" s="3">
         <v>45017</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" t="s">
         <v>13</v>
       </c>
-      <c r="K26" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F26)&amp;"\"&amp;TEXT(F26,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J26" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F26)&amp;"\"&amp;N26&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K26" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 25\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L26" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>04/2023</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O26" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M26" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F26,"MMMM AAAA"),1))&amp;MID(TEXT(F26,"MMMM AAAA"),2,30)</f>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N26" s="2" t="str">
-        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIV - ",TEXT(M26,"AAAAMM")," - ",B26," SOS.txt")</f>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 25</v>
+      </c>
+      <c r="P26" s="2" t="str">
+        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIV - ",N26," - ",B26," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 25 SOS.txt</v>
       </c>
-      <c r="O26" s="2" t="str">
-        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIV - ",TEXT(M26,"AAAAMM")," - ",B26," Alicuota SOS.txt")</f>
+      <c r="Q26" s="2" t="str">
+        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIV - ",N26," - ",B26," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 25 Alicuota SOS.txt</v>
       </c>
-      <c r="P26" s="2" t="str">
-        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIC - ",TEXT(M26,"AAAAMM")," - ",B26," SOS.txt")</f>
+      <c r="R26" s="2" t="str">
+        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIC - ",N26," - ",B26," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 25 SOS.txt</v>
       </c>
-      <c r="Q26" s="2" t="str">
-        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIC - ",TEXT(M26,"AAAAMM")," - ",B26," Alicuota SOS.txt")</f>
+      <c r="S26" s="2" t="str">
+        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIC - ",N26," - ",B26," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 25 Alicuota SOS.txt</v>
       </c>
-      <c r="R26" s="4">
-        <f>ROW(A26)</f>
+      <c r="T26" s="4">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="S26">
+      <c r="U26" s="4">
         <f>IF(C26=C25,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T26">
+      <c r="V26" s="4">
         <f>IF(C26=C27,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U26" s="5" t="e">
-        <f>VLOOKUP(TEXT(R26,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V26" s="5" t="e">
-        <f>VLOOKUP(TEXT(R26,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W26" t="e">
-        <f>VLOOKUP(TEXT(R26,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W26" s="5" t="e">
+        <f>VLOOKUP(TEXT(T26,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X26" s="5" t="e">
+        <f>VLOOKUP(TEXT(T26,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" s="4" t="e">
+        <f>VLOOKUP(TEXT(T26,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 26</v>
       </c>
       <c r="C27">
         <v>20000000000</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 26</v>
       </c>
       <c r="F27" s="3">
         <v>45017</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" t="s">
         <v>13</v>
       </c>
-      <c r="K27" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F27)&amp;"\"&amp;TEXT(F27,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J27" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F27)&amp;"\"&amp;N27&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K27" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 26\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L27" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>04/2023</v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O27" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M27" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F27,"MMMM AAAA"),1))&amp;MID(TEXT(F27,"MMMM AAAA"),2,30)</f>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N27" s="2" t="str">
-        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIV - ",TEXT(M27,"AAAAMM")," - ",B27," SOS.txt")</f>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 26</v>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIV - ",N27," - ",B27," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 26 SOS.txt</v>
       </c>
-      <c r="O27" s="2" t="str">
-        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIV - ",TEXT(M27,"AAAAMM")," - ",B27," Alicuota SOS.txt")</f>
+      <c r="Q27" s="2" t="str">
+        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIV - ",N27," - ",B27," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 26 Alicuota SOS.txt</v>
       </c>
-      <c r="P27" s="2" t="str">
-        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIC - ",TEXT(M27,"AAAAMM")," - ",B27," SOS.txt")</f>
+      <c r="R27" s="2" t="str">
+        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIC - ",N27," - ",B27," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 26 SOS.txt</v>
       </c>
-      <c r="Q27" s="2" t="str">
-        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIC - ",TEXT(M27,"AAAAMM")," - ",B27," Alicuota SOS.txt")</f>
+      <c r="S27" s="2" t="str">
+        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIC - ",N27," - ",B27," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 26 Alicuota SOS.txt</v>
       </c>
-      <c r="R27" s="4">
-        <f>ROW(A27)</f>
+      <c r="T27" s="4">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="S27">
+      <c r="U27" s="4">
         <f>IF(C27=C26,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T27">
+      <c r="V27" s="4">
         <f>IF(C27=C28,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U27" s="5" t="e">
-        <f>VLOOKUP(TEXT(R27,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V27" s="5" t="e">
-        <f>VLOOKUP(TEXT(R27,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W27" t="e">
-        <f>VLOOKUP(TEXT(R27,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W27" s="5" t="e">
+        <f>VLOOKUP(TEXT(T27,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X27" s="5" t="e">
+        <f>VLOOKUP(TEXT(T27,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" s="4" t="e">
+        <f>VLOOKUP(TEXT(T27,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 27</v>
       </c>
       <c r="C28">
         <v>20000000000</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 27</v>
       </c>
       <c r="F28" s="3">
         <v>45017</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" t="s">
         <v>13</v>
       </c>
-      <c r="K28" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F28)&amp;"\"&amp;TEXT(F28,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J28" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F28)&amp;"\"&amp;N28&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K28" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 27\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L28" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>04/2023</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="N28" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O28" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M28" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F28,"MMMM AAAA"),1))&amp;MID(TEXT(F28,"MMMM AAAA"),2,30)</f>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N28" s="2" t="str">
-        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIV - ",TEXT(M28,"AAAAMM")," - ",B28," SOS.txt")</f>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 27</v>
+      </c>
+      <c r="P28" s="2" t="str">
+        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIV - ",N28," - ",B28," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 27 SOS.txt</v>
       </c>
-      <c r="O28" s="2" t="str">
-        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIV - ",TEXT(M28,"AAAAMM")," - ",B28," Alicuota SOS.txt")</f>
+      <c r="Q28" s="2" t="str">
+        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIV - ",N28," - ",B28," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 27 Alicuota SOS.txt</v>
       </c>
-      <c r="P28" s="2" t="str">
-        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIC - ",TEXT(M28,"AAAAMM")," - ",B28," SOS.txt")</f>
+      <c r="R28" s="2" t="str">
+        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIC - ",N28," - ",B28," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 27 SOS.txt</v>
       </c>
-      <c r="Q28" s="2" t="str">
-        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIC - ",TEXT(M28,"AAAAMM")," - ",B28," Alicuota SOS.txt")</f>
+      <c r="S28" s="2" t="str">
+        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIC - ",N28," - ",B28," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 27 Alicuota SOS.txt</v>
       </c>
-      <c r="R28" s="4">
-        <f>ROW(A28)</f>
+      <c r="T28" s="4">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="S28">
+      <c r="U28" s="4">
         <f>IF(C28=C27,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T28">
+      <c r="V28" s="4">
         <f>IF(C28=C29,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U28" s="5" t="e">
-        <f>VLOOKUP(TEXT(R28,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V28" s="5" t="e">
-        <f>VLOOKUP(TEXT(R28,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W28" t="e">
-        <f>VLOOKUP(TEXT(R28,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W28" s="5" t="e">
+        <f>VLOOKUP(TEXT(T28,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X28" s="5" t="e">
+        <f>VLOOKUP(TEXT(T28,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" s="4" t="e">
+        <f>VLOOKUP(TEXT(T28,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 28</v>
       </c>
       <c r="C29">
         <v>20000000000</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 28</v>
       </c>
       <c r="F29" s="3">
         <v>45017</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" t="s">
         <v>13</v>
       </c>
-      <c r="K29" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F29)&amp;"\"&amp;TEXT(F29,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J29" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F29)&amp;"\"&amp;N29&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K29" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 28\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L29" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>04/2023</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="N29" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O29" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M29" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F29,"MMMM AAAA"),1))&amp;MID(TEXT(F29,"MMMM AAAA"),2,30)</f>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N29" s="2" t="str">
-        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIV - ",TEXT(M29,"AAAAMM")," - ",B29," SOS.txt")</f>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 28</v>
+      </c>
+      <c r="P29" s="2" t="str">
+        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIV - ",N29," - ",B29," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 28 SOS.txt</v>
       </c>
-      <c r="O29" s="2" t="str">
-        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIV - ",TEXT(M29,"AAAAMM")," - ",B29," Alicuota SOS.txt")</f>
+      <c r="Q29" s="2" t="str">
+        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIV - ",N29," - ",B29," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 28 Alicuota SOS.txt</v>
       </c>
-      <c r="P29" s="2" t="str">
-        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIC - ",TEXT(M29,"AAAAMM")," - ",B29," SOS.txt")</f>
+      <c r="R29" s="2" t="str">
+        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIC - ",N29," - ",B29," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 28 SOS.txt</v>
       </c>
-      <c r="Q29" s="2" t="str">
-        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIC - ",TEXT(M29,"AAAAMM")," - ",B29," Alicuota SOS.txt")</f>
+      <c r="S29" s="2" t="str">
+        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIC - ",N29," - ",B29," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 28 Alicuota SOS.txt</v>
       </c>
-      <c r="R29" s="4">
-        <f>ROW(A29)</f>
+      <c r="T29" s="4">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="S29">
+      <c r="U29" s="4">
         <f>IF(C29=C28,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T29">
+      <c r="V29" s="4">
         <f>IF(C29=C30,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U29" s="5" t="e">
-        <f>VLOOKUP(TEXT(R29,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V29" s="5" t="e">
-        <f>VLOOKUP(TEXT(R29,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W29" t="e">
-        <f>VLOOKUP(TEXT(R29,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W29" s="5" t="e">
+        <f>VLOOKUP(TEXT(T29,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X29" s="5" t="e">
+        <f>VLOOKUP(TEXT(T29,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" s="4" t="e">
+        <f>VLOOKUP(TEXT(T29,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 29</v>
       </c>
       <c r="C30">
         <v>20000000000</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 29</v>
       </c>
       <c r="F30" s="3">
         <v>44986</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" t="s">
         <v>12</v>
       </c>
-      <c r="K30" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F30)&amp;"\"&amp;TEXT(F30,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J30" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F30)&amp;"\"&amp;N30&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K30" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 29\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>03/2023</v>
       </c>
       <c r="M30" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F30,"MMMM AAAA"),1))&amp;MID(TEXT(F30,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Marzo 2023</v>
       </c>
       <c r="N30" s="2" t="str">
-        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIV - ",TEXT(M30,"AAAAMM")," - ",B30," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O30" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 29</v>
+      </c>
+      <c r="P30" s="2" t="str">
+        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIV - ",N30," - ",B30," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 29 SOS.txt</v>
       </c>
-      <c r="O30" s="2" t="str">
-        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIV - ",TEXT(M30,"AAAAMM")," - ",B30," Alicuota SOS.txt")</f>
+      <c r="Q30" s="2" t="str">
+        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIV - ",N30," - ",B30," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 29 Alicuota SOS.txt</v>
       </c>
-      <c r="P30" s="2" t="str">
-        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIC - ",TEXT(M30,"AAAAMM")," - ",B30," SOS.txt")</f>
+      <c r="R30" s="2" t="str">
+        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIC - ",N30," - ",B30," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 29 SOS.txt</v>
       </c>
-      <c r="Q30" s="2" t="str">
-        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIC - ",TEXT(M30,"AAAAMM")," - ",B30," Alicuota SOS.txt")</f>
+      <c r="S30" s="2" t="str">
+        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIC - ",N30," - ",B30," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 29 Alicuota SOS.txt</v>
       </c>
-      <c r="R30" s="4">
-        <f>ROW(A30)</f>
+      <c r="T30" s="4">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="S30">
+      <c r="U30" s="4">
         <f>IF(C30=C29,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T30">
+      <c r="V30" s="4">
         <f>IF(C30=C31,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U30" s="5" t="e">
-        <f>VLOOKUP(TEXT(R30,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V30" s="5" t="e">
-        <f>VLOOKUP(TEXT(R30,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W30" t="e">
-        <f>VLOOKUP(TEXT(R30,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W30" s="5" t="e">
+        <f>VLOOKUP(TEXT(T30,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X30" s="5" t="e">
+        <f>VLOOKUP(TEXT(T30,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y30" s="4" t="e">
+        <f>VLOOKUP(TEXT(T30,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 30</v>
       </c>
       <c r="C31">
         <v>20000000000</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 30</v>
       </c>
       <c r="F31" s="3">
         <v>45017</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" t="s">
         <v>13</v>
       </c>
-      <c r="K31" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F31)&amp;"\"&amp;TEXT(F31,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J31" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F31)&amp;"\"&amp;N31&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K31" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 30\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L31" s="4" t="str">
-        <f>TEXT(M31,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M31" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F31,"MMMM AAAA"),1))&amp;MID(TEXT(F31,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N31" s="2" t="str">
-        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIV - ",TEXT(M31,"AAAAMM")," - ",B31," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O31" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 30</v>
+      </c>
+      <c r="P31" s="2" t="str">
+        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIV - ",N31," - ",B31," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 30 SOS.txt</v>
       </c>
-      <c r="O31" s="2" t="str">
-        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIV - ",TEXT(M31,"AAAAMM")," - ",B31," Alicuota SOS.txt")</f>
+      <c r="Q31" s="2" t="str">
+        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIV - ",N31," - ",B31," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 30 Alicuota SOS.txt</v>
       </c>
-      <c r="P31" s="2" t="str">
-        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIC - ",TEXT(M31,"AAAAMM")," - ",B31," SOS.txt")</f>
+      <c r="R31" s="2" t="str">
+        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIC - ",N31," - ",B31," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 30 SOS.txt</v>
       </c>
-      <c r="Q31" s="2" t="str">
-        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIC - ",TEXT(M31,"AAAAMM")," - ",B31," Alicuota SOS.txt")</f>
+      <c r="S31" s="2" t="str">
+        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIC - ",N31," - ",B31," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 30 Alicuota SOS.txt</v>
       </c>
-      <c r="R31" s="4">
-        <f>ROW(A31)</f>
+      <c r="T31" s="4">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="S31">
+      <c r="U31" s="4">
         <f>IF(C31=C30,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T31">
+      <c r="V31" s="4">
         <f>IF(C31=C32,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U31" s="5" t="e">
-        <f>VLOOKUP(TEXT(R31,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V31" s="5" t="e">
-        <f>VLOOKUP(TEXT(R31,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W31" t="e">
-        <f>VLOOKUP(TEXT(R31,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W31" s="5" t="e">
+        <f>VLOOKUP(TEXT(T31,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X31" s="5" t="e">
+        <f>VLOOKUP(TEXT(T31,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y31" s="4" t="e">
+        <f>VLOOKUP(TEXT(T31,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 31</v>
       </c>
       <c r="C32">
         <v>20000000000</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 31</v>
       </c>
       <c r="F32" s="3">
         <v>44986</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H32" t="s">
         <v>12</v>
       </c>
-      <c r="K32" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F32)&amp;"\"&amp;TEXT(F32,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J32" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F32)&amp;"\"&amp;N32&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K32" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 31\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L32" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>03/2023</v>
       </c>
       <c r="M32" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F32,"MMMM AAAA"),1))&amp;MID(TEXT(F32,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Marzo 2023</v>
       </c>
       <c r="N32" s="2" t="str">
-        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIV - ",TEXT(M32,"AAAAMM")," - ",B32," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O32" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 31</v>
+      </c>
+      <c r="P32" s="2" t="str">
+        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIV - ",N32," - ",B32," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 31 SOS.txt</v>
       </c>
-      <c r="O32" s="2" t="str">
-        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIV - ",TEXT(M32,"AAAAMM")," - ",B32," Alicuota SOS.txt")</f>
+      <c r="Q32" s="2" t="str">
+        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIV - ",N32," - ",B32," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 31 Alicuota SOS.txt</v>
       </c>
-      <c r="P32" s="2" t="str">
-        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIC - ",TEXT(M32,"AAAAMM")," - ",B32," SOS.txt")</f>
+      <c r="R32" s="2" t="str">
+        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIC - ",N32," - ",B32," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 31 SOS.txt</v>
       </c>
-      <c r="Q32" s="2" t="str">
-        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIC - ",TEXT(M32,"AAAAMM")," - ",B32," Alicuota SOS.txt")</f>
+      <c r="S32" s="2" t="str">
+        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIC - ",N32," - ",B32," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 31 Alicuota SOS.txt</v>
       </c>
-      <c r="R32" s="4">
-        <f>ROW(A32)</f>
+      <c r="T32" s="4">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="S32">
+      <c r="U32" s="4">
         <f>IF(C32=C31,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T32">
+      <c r="V32" s="4">
         <f>IF(C32=C33,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U32" s="5" t="e">
-        <f>VLOOKUP(TEXT(R32,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V32" s="5" t="e">
-        <f>VLOOKUP(TEXT(R32,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W32" t="e">
-        <f>VLOOKUP(TEXT(R32,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W32" s="5" t="e">
+        <f>VLOOKUP(TEXT(T32,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X32" s="5" t="e">
+        <f>VLOOKUP(TEXT(T32,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y32" s="4" t="e">
+        <f>VLOOKUP(TEXT(T32,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 32</v>
       </c>
       <c r="C33">
         <v>20000000000</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 32</v>
       </c>
       <c r="F33" s="3">
         <v>45017</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H33" t="s">
         <v>13</v>
       </c>
-      <c r="K33" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F33)&amp;"\"&amp;TEXT(F33,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J33" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F33)&amp;"\"&amp;N33&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K33" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 32\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L33" s="4" t="str">
-        <f>TEXT(M33,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M33" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F33,"MMMM AAAA"),1))&amp;MID(TEXT(F33,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N33" s="2" t="str">
-        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIV - ",TEXT(M33,"AAAAMM")," - ",B33," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O33" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 32</v>
+      </c>
+      <c r="P33" s="2" t="str">
+        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIV - ",N33," - ",B33," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 SOS.txt</v>
       </c>
-      <c r="O33" s="2" t="str">
-        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIV - ",TEXT(M33,"AAAAMM")," - ",B33," Alicuota SOS.txt")</f>
+      <c r="Q33" s="2" t="str">
+        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIV - ",N33," - ",B33," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
       </c>
-      <c r="P33" s="2" t="str">
-        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIC - ",TEXT(M33,"AAAAMM")," - ",B33," SOS.txt")</f>
+      <c r="R33" s="2" t="str">
+        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIC - ",N33," - ",B33," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 SOS.txt</v>
       </c>
-      <c r="Q33" s="2" t="str">
-        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIC - ",TEXT(M33,"AAAAMM")," - ",B33," Alicuota SOS.txt")</f>
+      <c r="S33" s="2" t="str">
+        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIC - ",N33," - ",B33," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
       </c>
-      <c r="R33" s="4">
-        <f>ROW(A33)</f>
+      <c r="T33" s="4">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="S33">
+      <c r="U33" s="4">
         <f>IF(C33=C32,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T33">
+      <c r="V33" s="4">
         <f>IF(C33=C34,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U33" s="5" t="e">
-        <f>VLOOKUP(TEXT(R33,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V33" s="5" t="e">
-        <f>VLOOKUP(TEXT(R33,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W33" t="e">
-        <f>VLOOKUP(TEXT(R33,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W33" s="5" t="e">
+        <f>VLOOKUP(TEXT(T33,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X33" s="5" t="e">
+        <f>VLOOKUP(TEXT(T33,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y33" s="4" t="e">
+        <f>VLOOKUP(TEXT(T33,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" ref="A34:A63" si="9">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 33</v>
       </c>
       <c r="C34">
         <v>20000000000</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 33</v>
       </c>
       <c r="F34" s="3">
         <v>44986</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I34" t="s">
+      <c r="H34" t="s">
         <v>12</v>
       </c>
-      <c r="K34" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F34)&amp;"\"&amp;TEXT(F34,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J34" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F34)&amp;"\"&amp;N34&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K34" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 33\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" ref="L34:L61" si="10">TEXT(M34+30,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>03/2023</v>
       </c>
       <c r="M34" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F34,"MMMM AAAA"),1))&amp;MID(TEXT(F34,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Marzo 2023</v>
       </c>
       <c r="N34" s="2" t="str">
-        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",TEXT(M34,"AAAAMM")," - ",B34," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O34" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 33</v>
+      </c>
+      <c r="P34" s="2" t="str">
+        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",N34," - ",B34," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 33 SOS.txt</v>
       </c>
-      <c r="O34" s="2" t="str">
-        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",TEXT(M34,"AAAAMM")," - ",B34," Alicuota SOS.txt")</f>
+      <c r="Q34" s="2" t="str">
+        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",N34," - ",B34," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 33 Alicuota SOS.txt</v>
       </c>
-      <c r="P34" s="2" t="str">
-        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",TEXT(M34,"AAAAMM")," - ",B34," SOS.txt")</f>
+      <c r="R34" s="2" t="str">
+        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",N34," - ",B34," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 33 SOS.txt</v>
       </c>
-      <c r="Q34" s="2" t="str">
-        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",TEXT(M34,"AAAAMM")," - ",B34," Alicuota SOS.txt")</f>
+      <c r="S34" s="2" t="str">
+        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",N34," - ",B34," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 33 Alicuota SOS.txt</v>
       </c>
-      <c r="R34" s="4">
-        <f>ROW(A34)</f>
+      <c r="T34" s="4">
+        <f t="shared" ref="T34:T63" si="10">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="S34">
+      <c r="U34" s="4">
         <f>IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T34">
+      <c r="V34" s="4">
         <f>IF(C34=C35,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U34" s="5" t="e">
-        <f>VLOOKUP(TEXT(R34,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V34" s="5" t="e">
-        <f>VLOOKUP(TEXT(R34,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W34" t="e">
-        <f>VLOOKUP(TEXT(R34,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W34" s="5" t="e">
+        <f>VLOOKUP(TEXT(T34,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X34" s="5" t="e">
+        <f>VLOOKUP(TEXT(T34,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y34" s="4" t="e">
+        <f>VLOOKUP(TEXT(T34,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 34</v>
       </c>
       <c r="C35">
         <v>20000000000</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 34</v>
       </c>
       <c r="F35" s="3">
         <v>45017</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I35" t="s">
+      <c r="H35" t="s">
         <v>13</v>
       </c>
-      <c r="K35" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F35)&amp;"\"&amp;TEXT(F35,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J35" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F35)&amp;"\"&amp;N35&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K35" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 34\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" ref="L35:L42" si="11">TEXT(M35,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M35" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F35,"MMMM AAAA"),1))&amp;MID(TEXT(F35,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N35" s="2" t="str">
-        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIV - ",TEXT(M35,"AAAAMM")," - ",B35," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O35" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 34</v>
+      </c>
+      <c r="P35" s="2" t="str">
+        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIV - ",N35," - ",B35," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 34 SOS.txt</v>
       </c>
-      <c r="O35" s="2" t="str">
-        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIV - ",TEXT(M35,"AAAAMM")," - ",B35," Alicuota SOS.txt")</f>
+      <c r="Q35" s="2" t="str">
+        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIV - ",N35," - ",B35," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 34 Alicuota SOS.txt</v>
       </c>
-      <c r="P35" s="2" t="str">
-        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIC - ",TEXT(M35,"AAAAMM")," - ",B35," SOS.txt")</f>
+      <c r="R35" s="2" t="str">
+        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIC - ",N35," - ",B35," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 34 SOS.txt</v>
       </c>
-      <c r="Q35" s="2" t="str">
-        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIC - ",TEXT(M35,"AAAAMM")," - ",B35," Alicuota SOS.txt")</f>
+      <c r="S35" s="2" t="str">
+        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIC - ",N35," - ",B35," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 34 Alicuota SOS.txt</v>
       </c>
-      <c r="R35" s="4">
-        <f>ROW(A35)</f>
+      <c r="T35" s="4">
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="S35">
+      <c r="U35" s="4">
         <f>IF(C35=C34,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T35">
+      <c r="V35" s="4">
         <f>IF(C35=C36,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="5" t="e">
-        <f>VLOOKUP(TEXT(R35,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V35" s="5" t="e">
-        <f>VLOOKUP(TEXT(R35,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W35" t="e">
-        <f>VLOOKUP(TEXT(R35,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W35" s="5" t="e">
+        <f>VLOOKUP(TEXT(T35,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X35" s="5" t="e">
+        <f>VLOOKUP(TEXT(T35,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y35" s="4" t="e">
+        <f>VLOOKUP(TEXT(T35,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 35</v>
       </c>
       <c r="C36">
         <v>20000000000</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 35</v>
       </c>
       <c r="F36" s="3">
         <v>45017</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I36" t="s">
+      <c r="H36" t="s">
         <v>13</v>
       </c>
-      <c r="K36" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F36)&amp;"\"&amp;TEXT(F36,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J36" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F36)&amp;"\"&amp;N36&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K36" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 35\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L36" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M36" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F36,"MMMM AAAA"),1))&amp;MID(TEXT(F36,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N36" s="2" t="str">
-        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIV - ",TEXT(M36,"AAAAMM")," - ",B36," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O36" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 35</v>
+      </c>
+      <c r="P36" s="2" t="str">
+        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIV - ",N36," - ",B36," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 35 SOS.txt</v>
       </c>
-      <c r="O36" s="2" t="str">
-        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIV - ",TEXT(M36,"AAAAMM")," - ",B36," Alicuota SOS.txt")</f>
+      <c r="Q36" s="2" t="str">
+        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIV - ",N36," - ",B36," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 35 Alicuota SOS.txt</v>
       </c>
-      <c r="P36" s="2" t="str">
-        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIC - ",TEXT(M36,"AAAAMM")," - ",B36," SOS.txt")</f>
+      <c r="R36" s="2" t="str">
+        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIC - ",N36," - ",B36," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 35 SOS.txt</v>
       </c>
-      <c r="Q36" s="2" t="str">
-        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIC - ",TEXT(M36,"AAAAMM")," - ",B36," Alicuota SOS.txt")</f>
+      <c r="S36" s="2" t="str">
+        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIC - ",N36," - ",B36," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 35 Alicuota SOS.txt</v>
       </c>
-      <c r="R36" s="4">
-        <f>ROW(A36)</f>
+      <c r="T36" s="4">
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="S36">
+      <c r="U36" s="4">
         <f>IF(C36=C35,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T36">
+      <c r="V36" s="4">
         <f>IF(C36=C37,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U36" s="5" t="e">
-        <f>VLOOKUP(TEXT(R36,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V36" s="5" t="e">
-        <f>VLOOKUP(TEXT(R36,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W36" t="e">
-        <f>VLOOKUP(TEXT(R36,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W36" s="5" t="e">
+        <f>VLOOKUP(TEXT(T36,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X36" s="5" t="e">
+        <f>VLOOKUP(TEXT(T36,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y36" s="4" t="e">
+        <f>VLOOKUP(TEXT(T36,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 36</v>
       </c>
       <c r="C37">
         <v>20000000000</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 36</v>
       </c>
       <c r="F37" s="3">
         <v>45017</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I37" t="s">
+      <c r="H37" t="s">
         <v>13</v>
       </c>
-      <c r="K37" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F37)&amp;"\"&amp;TEXT(F37,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J37" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F37)&amp;"\"&amp;N37&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K37" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 36\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M37" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F37,"MMMM AAAA"),1))&amp;MID(TEXT(F37,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N37" s="2" t="str">
-        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIV - ",TEXT(M37,"AAAAMM")," - ",B37," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O37" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 36</v>
+      </c>
+      <c r="P37" s="2" t="str">
+        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIV - ",N37," - ",B37," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 36 SOS.txt</v>
       </c>
-      <c r="O37" s="2" t="str">
-        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIV - ",TEXT(M37,"AAAAMM")," - ",B37," Alicuota SOS.txt")</f>
+      <c r="Q37" s="2" t="str">
+        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIV - ",N37," - ",B37," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 36 Alicuota SOS.txt</v>
       </c>
-      <c r="P37" s="2" t="str">
-        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIC - ",TEXT(M37,"AAAAMM")," - ",B37," SOS.txt")</f>
+      <c r="R37" s="2" t="str">
+        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIC - ",N37," - ",B37," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 36 SOS.txt</v>
       </c>
-      <c r="Q37" s="2" t="str">
-        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIC - ",TEXT(M37,"AAAAMM")," - ",B37," Alicuota SOS.txt")</f>
+      <c r="S37" s="2" t="str">
+        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIC - ",N37," - ",B37," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 36 Alicuota SOS.txt</v>
       </c>
-      <c r="R37" s="4">
-        <f>ROW(A37)</f>
+      <c r="T37" s="4">
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="S37">
+      <c r="U37" s="4">
         <f>IF(C37=C36,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T37">
+      <c r="V37" s="4">
         <f>IF(C37=C38,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U37" s="5" t="e">
-        <f>VLOOKUP(TEXT(R37,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V37" s="5" t="e">
-        <f>VLOOKUP(TEXT(R37,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W37" t="e">
-        <f>VLOOKUP(TEXT(R37,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W37" s="5" t="e">
+        <f>VLOOKUP(TEXT(T37,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X37" s="5" t="e">
+        <f>VLOOKUP(TEXT(T37,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y37" s="4" t="e">
+        <f>VLOOKUP(TEXT(T37,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 37</v>
       </c>
       <c r="C38">
         <v>20000000000</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 37</v>
       </c>
       <c r="F38" s="3">
         <v>45017</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H38" t="s">
         <v>13</v>
       </c>
-      <c r="K38" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F38)&amp;"\"&amp;TEXT(F38,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J38" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F38)&amp;"\"&amp;N38&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K38" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 37\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M38" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F38,"MMMM AAAA"),1))&amp;MID(TEXT(F38,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N38" s="2" t="str">
-        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIV - ",TEXT(M38,"AAAAMM")," - ",B38," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O38" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 37</v>
+      </c>
+      <c r="P38" s="2" t="str">
+        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIV - ",N38," - ",B38," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 37 SOS.txt</v>
       </c>
-      <c r="O38" s="2" t="str">
-        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIV - ",TEXT(M38,"AAAAMM")," - ",B38," Alicuota SOS.txt")</f>
+      <c r="Q38" s="2" t="str">
+        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIV - ",N38," - ",B38," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 37 Alicuota SOS.txt</v>
       </c>
-      <c r="P38" s="2" t="str">
-        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIC - ",TEXT(M38,"AAAAMM")," - ",B38," SOS.txt")</f>
+      <c r="R38" s="2" t="str">
+        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIC - ",N38," - ",B38," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 37 SOS.txt</v>
       </c>
-      <c r="Q38" s="2" t="str">
-        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIC - ",TEXT(M38,"AAAAMM")," - ",B38," Alicuota SOS.txt")</f>
+      <c r="S38" s="2" t="str">
+        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIC - ",N38," - ",B38," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 37 Alicuota SOS.txt</v>
       </c>
-      <c r="R38" s="4">
-        <f>ROW(A38)</f>
+      <c r="T38" s="4">
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
-      <c r="S38">
+      <c r="U38" s="4">
         <f>IF(C38=C37,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T38">
+      <c r="V38" s="4">
         <f>IF(C38=C39,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U38" s="5" t="e">
-        <f>VLOOKUP(TEXT(R38,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V38" s="5" t="e">
-        <f>VLOOKUP(TEXT(R38,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W38" t="e">
-        <f>VLOOKUP(TEXT(R38,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W38" s="5" t="e">
+        <f>VLOOKUP(TEXT(T38,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X38" s="5" t="e">
+        <f>VLOOKUP(TEXT(T38,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y38" s="4" t="e">
+        <f>VLOOKUP(TEXT(T38,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 38</v>
       </c>
       <c r="C39">
         <v>20000000000</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 38</v>
       </c>
       <c r="F39" s="3">
         <v>45017</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H39" t="s">
         <v>13</v>
       </c>
-      <c r="K39" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F39)&amp;"\"&amp;TEXT(F39,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J39" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F39)&amp;"\"&amp;N39&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K39" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 38\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L39" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M39" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F39,"MMMM AAAA"),1))&amp;MID(TEXT(F39,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N39" s="2" t="str">
-        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIV - ",TEXT(M39,"AAAAMM")," - ",B39," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O39" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 38</v>
+      </c>
+      <c r="P39" s="2" t="str">
+        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIV - ",N39," - ",B39," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 38 SOS.txt</v>
       </c>
-      <c r="O39" s="2" t="str">
-        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIV - ",TEXT(M39,"AAAAMM")," - ",B39," Alicuota SOS.txt")</f>
+      <c r="Q39" s="2" t="str">
+        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIV - ",N39," - ",B39," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 38 Alicuota SOS.txt</v>
       </c>
-      <c r="P39" s="2" t="str">
-        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIC - ",TEXT(M39,"AAAAMM")," - ",B39," SOS.txt")</f>
+      <c r="R39" s="2" t="str">
+        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIC - ",N39," - ",B39," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 38 SOS.txt</v>
       </c>
-      <c r="Q39" s="2" t="str">
-        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIC - ",TEXT(M39,"AAAAMM")," - ",B39," Alicuota SOS.txt")</f>
+      <c r="S39" s="2" t="str">
+        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIC - ",N39," - ",B39," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 38 Alicuota SOS.txt</v>
       </c>
-      <c r="R39" s="4">
-        <f>ROW(A39)</f>
+      <c r="T39" s="4">
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
-      <c r="S39">
+      <c r="U39" s="4">
         <f>IF(C39=C38,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T39">
+      <c r="V39" s="4">
         <f>IF(C39=C40,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U39" s="5" t="e">
-        <f>VLOOKUP(TEXT(R39,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V39" s="5" t="e">
-        <f>VLOOKUP(TEXT(R39,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W39" t="e">
-        <f>VLOOKUP(TEXT(R39,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W39" s="5" t="e">
+        <f>VLOOKUP(TEXT(T39,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X39" s="5" t="e">
+        <f>VLOOKUP(TEXT(T39,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y39" s="4" t="e">
+        <f>VLOOKUP(TEXT(T39,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 39</v>
       </c>
       <c r="C40">
         <v>20000000000</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 39</v>
       </c>
       <c r="F40" s="3">
         <v>45017</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I40" t="s">
+      <c r="H40" t="s">
         <v>13</v>
       </c>
-      <c r="K40" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F40)&amp;"\"&amp;TEXT(F40,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J40" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F40)&amp;"\"&amp;N40&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K40" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 39\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L40" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M40" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F40,"MMMM AAAA"),1))&amp;MID(TEXT(F40,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N40" s="2" t="str">
-        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIV - ",TEXT(M40,"AAAAMM")," - ",B40," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O40" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 39</v>
+      </c>
+      <c r="P40" s="2" t="str">
+        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIV - ",N40," - ",B40," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 39 SOS.txt</v>
       </c>
-      <c r="O40" s="2" t="str">
-        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIV - ",TEXT(M40,"AAAAMM")," - ",B40," Alicuota SOS.txt")</f>
+      <c r="Q40" s="2" t="str">
+        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIV - ",N40," - ",B40," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 39 Alicuota SOS.txt</v>
       </c>
-      <c r="P40" s="2" t="str">
-        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIC - ",TEXT(M40,"AAAAMM")," - ",B40," SOS.txt")</f>
+      <c r="R40" s="2" t="str">
+        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIC - ",N40," - ",B40," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 39 SOS.txt</v>
       </c>
-      <c r="Q40" s="2" t="str">
-        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIC - ",TEXT(M40,"AAAAMM")," - ",B40," Alicuota SOS.txt")</f>
+      <c r="S40" s="2" t="str">
+        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIC - ",N40," - ",B40," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 39 Alicuota SOS.txt</v>
       </c>
-      <c r="R40" s="4">
-        <f>ROW(A40)</f>
+      <c r="T40" s="4">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="S40">
+      <c r="U40" s="4">
         <f>IF(C40=C39,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T40">
+      <c r="V40" s="4">
         <f>IF(C40=C41,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U40" s="5" t="e">
-        <f>VLOOKUP(TEXT(R40,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V40" s="5" t="e">
-        <f>VLOOKUP(TEXT(R40,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W40" t="e">
-        <f>VLOOKUP(TEXT(R40,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W40" s="5" t="e">
+        <f>VLOOKUP(TEXT(T40,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X40" s="5" t="e">
+        <f>VLOOKUP(TEXT(T40,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y40" s="4" t="e">
+        <f>VLOOKUP(TEXT(T40,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 40</v>
       </c>
       <c r="C41">
         <v>20000000000</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 40</v>
       </c>
       <c r="F41" s="3">
         <v>45017</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I41" t="s">
+      <c r="H41" t="s">
         <v>13</v>
       </c>
-      <c r="K41" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F41)&amp;"\"&amp;TEXT(F41,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J41" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F41)&amp;"\"&amp;N41&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K41" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 40\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L41" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M41" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F41,"MMMM AAAA"),1))&amp;MID(TEXT(F41,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N41" s="2" t="str">
-        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIV - ",TEXT(M41,"AAAAMM")," - ",B41," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O41" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 40</v>
+      </c>
+      <c r="P41" s="2" t="str">
+        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIV - ",N41," - ",B41," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 40 SOS.txt</v>
       </c>
-      <c r="O41" s="2" t="str">
-        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIV - ",TEXT(M41,"AAAAMM")," - ",B41," Alicuota SOS.txt")</f>
+      <c r="Q41" s="2" t="str">
+        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIV - ",N41," - ",B41," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 40 Alicuota SOS.txt</v>
       </c>
-      <c r="P41" s="2" t="str">
-        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIC - ",TEXT(M41,"AAAAMM")," - ",B41," SOS.txt")</f>
+      <c r="R41" s="2" t="str">
+        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIC - ",N41," - ",B41," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 40 SOS.txt</v>
       </c>
-      <c r="Q41" s="2" t="str">
-        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIC - ",TEXT(M41,"AAAAMM")," - ",B41," Alicuota SOS.txt")</f>
+      <c r="S41" s="2" t="str">
+        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIC - ",N41," - ",B41," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 40 Alicuota SOS.txt</v>
       </c>
-      <c r="R41" s="4">
-        <f>ROW(A41)</f>
+      <c r="T41" s="4">
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="S41">
+      <c r="U41" s="4">
         <f>IF(C41=C40,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T41">
+      <c r="V41" s="4">
         <f>IF(C41=C42,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U41" s="5" t="e">
-        <f>VLOOKUP(TEXT(R41,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V41" s="5" t="e">
-        <f>VLOOKUP(TEXT(R41,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W41" t="e">
-        <f>VLOOKUP(TEXT(R41,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W41" s="5" t="e">
+        <f>VLOOKUP(TEXT(T41,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X41" s="5" t="e">
+        <f>VLOOKUP(TEXT(T41,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y41" s="4" t="e">
+        <f>VLOOKUP(TEXT(T41,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 41</v>
       </c>
       <c r="C42">
         <v>20000000000</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 41</v>
       </c>
       <c r="F42" s="3">
         <v>45017</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I42" t="s">
+      <c r="H42" t="s">
         <v>13</v>
       </c>
-      <c r="K42" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F42)&amp;"\"&amp;TEXT(F42,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J42" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F42)&amp;"\"&amp;N42&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K42" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 41\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L42" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M42" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F42,"MMMM AAAA"),1))&amp;MID(TEXT(F42,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N42" s="2" t="str">
-        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIV - ",TEXT(M42,"AAAAMM")," - ",B42," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O42" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 41</v>
+      </c>
+      <c r="P42" s="2" t="str">
+        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIV - ",N42," - ",B42," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 41 SOS.txt</v>
       </c>
-      <c r="O42" s="2" t="str">
-        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIV - ",TEXT(M42,"AAAAMM")," - ",B42," Alicuota SOS.txt")</f>
+      <c r="Q42" s="2" t="str">
+        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIV - ",N42," - ",B42," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 41 Alicuota SOS.txt</v>
       </c>
-      <c r="P42" s="2" t="str">
-        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIC - ",TEXT(M42,"AAAAMM")," - ",B42," SOS.txt")</f>
+      <c r="R42" s="2" t="str">
+        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIC - ",N42," - ",B42," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 41 SOS.txt</v>
       </c>
-      <c r="Q42" s="2" t="str">
-        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIC - ",TEXT(M42,"AAAAMM")," - ",B42," Alicuota SOS.txt")</f>
+      <c r="S42" s="2" t="str">
+        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIC - ",N42," - ",B42," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 41 Alicuota SOS.txt</v>
       </c>
-      <c r="R42" s="4">
-        <f>ROW(A42)</f>
+      <c r="T42" s="4">
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="S42">
+      <c r="U42" s="4">
         <f>IF(C42=C41,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T42">
+      <c r="V42" s="4">
         <f>IF(C42=C43,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U42" s="5" t="e">
-        <f>VLOOKUP(TEXT(R42,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V42" s="5" t="e">
-        <f>VLOOKUP(TEXT(R42,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W42" t="e">
-        <f>VLOOKUP(TEXT(R42,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W42" s="5" t="e">
+        <f>VLOOKUP(TEXT(T42,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X42" s="5" t="e">
+        <f>VLOOKUP(TEXT(T42,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y42" s="4" t="e">
+        <f>VLOOKUP(TEXT(T42,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 42</v>
       </c>
       <c r="C43">
         <v>20000000000</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 42</v>
       </c>
       <c r="F43" s="3">
         <v>44986</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I43" t="s">
+      <c r="H43" t="s">
         <v>12</v>
       </c>
-      <c r="K43" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F43)&amp;"\"&amp;TEXT(F43,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J43" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F43)&amp;"\"&amp;N43&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K43" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 42\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L43" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>03/2023</v>
+      </c>
+      <c r="M43" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="N43" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O43" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 42</v>
+      </c>
+      <c r="P43" s="2" t="str">
+        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIV - ",N43," - ",B43," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 42 SOS.txt</v>
+      </c>
+      <c r="Q43" s="2" t="str">
+        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIV - ",N43," - ",B43," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 42 Alicuota SOS.txt</v>
+      </c>
+      <c r="R43" s="2" t="str">
+        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIC - ",N43," - ",B43," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 42 SOS.txt</v>
+      </c>
+      <c r="S43" s="2" t="str">
+        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIC - ",N43," - ",B43," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 42 Alicuota SOS.txt</v>
+      </c>
+      <c r="T43" s="4">
         <f t="shared" si="10"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M43" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F43,"MMMM AAAA"),1))&amp;MID(TEXT(F43,"MMMM AAAA"),2,30)</f>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N43" s="2" t="str">
-        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIV - ",TEXT(M43,"AAAAMM")," - ",B43," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 42 SOS.txt</v>
-      </c>
-      <c r="O43" s="2" t="str">
-        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIV - ",TEXT(M43,"AAAAMM")," - ",B43," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 42 Alicuota SOS.txt</v>
-      </c>
-      <c r="P43" s="2" t="str">
-        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIC - ",TEXT(M43,"AAAAMM")," - ",B43," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 42 SOS.txt</v>
-      </c>
-      <c r="Q43" s="2" t="str">
-        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIC - ",TEXT(M43,"AAAAMM")," - ",B43," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 42 Alicuota SOS.txt</v>
-      </c>
-      <c r="R43" s="4">
-        <f>ROW(A43)</f>
         <v>43</v>
       </c>
-      <c r="S43">
+      <c r="U43" s="4">
         <f>IF(C43=C42,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T43">
+      <c r="V43" s="4">
         <f>IF(C43=C44,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U43" s="5" t="e">
-        <f>VLOOKUP(TEXT(R43,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V43" s="5" t="e">
-        <f>VLOOKUP(TEXT(R43,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W43" t="e">
-        <f>VLOOKUP(TEXT(R43,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W43" s="5" t="e">
+        <f>VLOOKUP(TEXT(T43,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X43" s="5" t="e">
+        <f>VLOOKUP(TEXT(T43,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y43" s="4" t="e">
+        <f>VLOOKUP(TEXT(T43,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 43</v>
       </c>
       <c r="C44">
         <v>20000000000</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 43</v>
       </c>
       <c r="F44" s="3">
         <v>44986</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I44" t="s">
+      <c r="H44" t="s">
         <v>12</v>
       </c>
-      <c r="K44" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F44)&amp;"\"&amp;TEXT(F44,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J44" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F44)&amp;"\"&amp;N44&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K44" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 43\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L44" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>03/2023</v>
+      </c>
+      <c r="M44" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="N44" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O44" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 43</v>
+      </c>
+      <c r="P44" s="2" t="str">
+        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIV - ",N44," - ",B44," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 43 SOS.txt</v>
+      </c>
+      <c r="Q44" s="2" t="str">
+        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIV - ",N44," - ",B44," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 43 Alicuota SOS.txt</v>
+      </c>
+      <c r="R44" s="2" t="str">
+        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIC - ",N44," - ",B44," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 43 SOS.txt</v>
+      </c>
+      <c r="S44" s="2" t="str">
+        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIC - ",N44," - ",B44," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 43 Alicuota SOS.txt</v>
+      </c>
+      <c r="T44" s="4">
         <f t="shared" si="10"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M44" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F44,"MMMM AAAA"),1))&amp;MID(TEXT(F44,"MMMM AAAA"),2,30)</f>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N44" s="2" t="str">
-        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIV - ",TEXT(M44,"AAAAMM")," - ",B44," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 43 SOS.txt</v>
-      </c>
-      <c r="O44" s="2" t="str">
-        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIV - ",TEXT(M44,"AAAAMM")," - ",B44," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 43 Alicuota SOS.txt</v>
-      </c>
-      <c r="P44" s="2" t="str">
-        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIC - ",TEXT(M44,"AAAAMM")," - ",B44," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 43 SOS.txt</v>
-      </c>
-      <c r="Q44" s="2" t="str">
-        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIC - ",TEXT(M44,"AAAAMM")," - ",B44," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 43 Alicuota SOS.txt</v>
-      </c>
-      <c r="R44" s="4">
-        <f>ROW(A44)</f>
         <v>44</v>
       </c>
-      <c r="S44">
+      <c r="U44" s="4">
         <f>IF(C44=C43,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T44">
+      <c r="V44" s="4">
         <f>IF(C44=C45,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U44" s="5" t="e">
-        <f>VLOOKUP(TEXT(R44,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V44" s="5" t="e">
-        <f>VLOOKUP(TEXT(R44,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W44" t="e">
-        <f>VLOOKUP(TEXT(R44,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W44" s="5" t="e">
+        <f>VLOOKUP(TEXT(T44,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X44" s="5" t="e">
+        <f>VLOOKUP(TEXT(T44,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y44" s="4" t="e">
+        <f>VLOOKUP(TEXT(T44,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 44</v>
       </c>
       <c r="C45">
         <v>20000000000</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 44</v>
       </c>
       <c r="F45" s="3">
         <v>45017</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I45" t="s">
+      <c r="H45" t="s">
         <v>13</v>
       </c>
-      <c r="K45" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F45)&amp;"\"&amp;TEXT(F45,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J45" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F45)&amp;"\"&amp;N45&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K45" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 44\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L45" s="4" t="str">
-        <f t="shared" ref="L45:L46" si="12">TEXT(M45,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M45" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F45,"MMMM AAAA"),1))&amp;MID(TEXT(F45,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N45" s="2" t="str">
-        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIV - ",TEXT(M45,"AAAAMM")," - ",B45," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O45" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 44</v>
+      </c>
+      <c r="P45" s="2" t="str">
+        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIV - ",N45," - ",B45," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 44 SOS.txt</v>
       </c>
-      <c r="O45" s="2" t="str">
-        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIV - ",TEXT(M45,"AAAAMM")," - ",B45," Alicuota SOS.txt")</f>
+      <c r="Q45" s="2" t="str">
+        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIV - ",N45," - ",B45," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 44 Alicuota SOS.txt</v>
       </c>
-      <c r="P45" s="2" t="str">
-        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIC - ",TEXT(M45,"AAAAMM")," - ",B45," SOS.txt")</f>
+      <c r="R45" s="2" t="str">
+        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIC - ",N45," - ",B45," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 44 SOS.txt</v>
       </c>
-      <c r="Q45" s="2" t="str">
-        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIC - ",TEXT(M45,"AAAAMM")," - ",B45," Alicuota SOS.txt")</f>
+      <c r="S45" s="2" t="str">
+        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIC - ",N45," - ",B45," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 44 Alicuota SOS.txt</v>
       </c>
-      <c r="R45" s="4">
-        <f>ROW(A45)</f>
+      <c r="T45" s="4">
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="S45">
+      <c r="U45" s="4">
         <f>IF(C45=C44,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T45">
+      <c r="V45" s="4">
         <f>IF(C45=C46,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U45" s="5" t="e">
-        <f>VLOOKUP(TEXT(R45,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V45" s="5" t="e">
-        <f>VLOOKUP(TEXT(R45,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W45" t="e">
-        <f>VLOOKUP(TEXT(R45,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W45" s="5" t="e">
+        <f>VLOOKUP(TEXT(T45,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X45" s="5" t="e">
+        <f>VLOOKUP(TEXT(T45,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y45" s="4" t="e">
+        <f>VLOOKUP(TEXT(T45,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 45</v>
       </c>
       <c r="C46">
         <v>20000000000</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 45</v>
       </c>
       <c r="F46" s="3">
         <v>45017</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" t="s">
         <v>13</v>
       </c>
-      <c r="K46" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F46)&amp;"\"&amp;TEXT(F46,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J46" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F46)&amp;"\"&amp;N46&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K46" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 45\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L46" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M46" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F46,"MMMM AAAA"),1))&amp;MID(TEXT(F46,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N46" s="2" t="str">
-        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIV - ",TEXT(M46,"AAAAMM")," - ",B46," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O46" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 45</v>
+      </c>
+      <c r="P46" s="2" t="str">
+        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIV - ",N46," - ",B46," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 45 SOS.txt</v>
       </c>
-      <c r="O46" s="2" t="str">
-        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIV - ",TEXT(M46,"AAAAMM")," - ",B46," Alicuota SOS.txt")</f>
+      <c r="Q46" s="2" t="str">
+        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIV - ",N46," - ",B46," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 45 Alicuota SOS.txt</v>
       </c>
-      <c r="P46" s="2" t="str">
-        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIC - ",TEXT(M46,"AAAAMM")," - ",B46," SOS.txt")</f>
+      <c r="R46" s="2" t="str">
+        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIC - ",N46," - ",B46," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 45 SOS.txt</v>
       </c>
-      <c r="Q46" s="2" t="str">
-        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIC - ",TEXT(M46,"AAAAMM")," - ",B46," Alicuota SOS.txt")</f>
+      <c r="S46" s="2" t="str">
+        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIC - ",N46," - ",B46," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 45 Alicuota SOS.txt</v>
       </c>
-      <c r="R46" s="4">
-        <f>ROW(A46)</f>
+      <c r="T46" s="4">
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="S46">
+      <c r="U46" s="4">
         <f>IF(C46=C45,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T46">
+      <c r="V46" s="4">
         <f>IF(C46=C47,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U46" s="5" t="e">
-        <f>VLOOKUP(TEXT(R46,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V46" s="5" t="e">
-        <f>VLOOKUP(TEXT(R46,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W46" t="e">
-        <f>VLOOKUP(TEXT(R46,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W46" s="5" t="e">
+        <f>VLOOKUP(TEXT(T46,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X46" s="5" t="e">
+        <f>VLOOKUP(TEXT(T46,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y46" s="4" t="e">
+        <f>VLOOKUP(TEXT(T46,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 46</v>
       </c>
       <c r="C47">
         <v>20000000000</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 46</v>
       </c>
       <c r="F47" s="3">
         <v>44986</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" t="s">
         <v>12</v>
       </c>
-      <c r="K47" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F47)&amp;"\"&amp;TEXT(F47,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J47" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F47)&amp;"\"&amp;N47&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K47" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 46\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L47" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>03/2023</v>
+      </c>
+      <c r="M47" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="N47" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O47" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 46</v>
+      </c>
+      <c r="P47" s="2" t="str">
+        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIV - ",N47," - ",B47," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 46 SOS.txt</v>
+      </c>
+      <c r="Q47" s="2" t="str">
+        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIV - ",N47," - ",B47," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 46 Alicuota SOS.txt</v>
+      </c>
+      <c r="R47" s="2" t="str">
+        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIC - ",N47," - ",B47," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 46 SOS.txt</v>
+      </c>
+      <c r="S47" s="2" t="str">
+        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIC - ",N47," - ",B47," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 46 Alicuota SOS.txt</v>
+      </c>
+      <c r="T47" s="4">
         <f t="shared" si="10"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M47" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F47,"MMMM AAAA"),1))&amp;MID(TEXT(F47,"MMMM AAAA"),2,30)</f>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N47" s="2" t="str">
-        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIV - ",TEXT(M47,"AAAAMM")," - ",B47," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 46 SOS.txt</v>
-      </c>
-      <c r="O47" s="2" t="str">
-        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIV - ",TEXT(M47,"AAAAMM")," - ",B47," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 46 Alicuota SOS.txt</v>
-      </c>
-      <c r="P47" s="2" t="str">
-        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIC - ",TEXT(M47,"AAAAMM")," - ",B47," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 46 SOS.txt</v>
-      </c>
-      <c r="Q47" s="2" t="str">
-        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIC - ",TEXT(M47,"AAAAMM")," - ",B47," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 46 Alicuota SOS.txt</v>
-      </c>
-      <c r="R47" s="4">
-        <f>ROW(A47)</f>
         <v>47</v>
       </c>
-      <c r="S47">
+      <c r="U47" s="4">
         <f>IF(C47=C46,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T47">
+      <c r="V47" s="4">
         <f>IF(C47=C48,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U47" s="5" t="e">
-        <f>VLOOKUP(TEXT(R47,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V47" s="5" t="e">
-        <f>VLOOKUP(TEXT(R47,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W47" t="e">
-        <f>VLOOKUP(TEXT(R47,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W47" s="5" t="e">
+        <f>VLOOKUP(TEXT(T47,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X47" s="5" t="e">
+        <f>VLOOKUP(TEXT(T47,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y47" s="4" t="e">
+        <f>VLOOKUP(TEXT(T47,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 47</v>
       </c>
       <c r="C48">
         <v>20000000000</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 47</v>
       </c>
       <c r="F48" s="3">
         <v>45017</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I48" t="s">
+      <c r="H48" t="s">
         <v>13</v>
       </c>
-      <c r="K48" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F48)&amp;"\"&amp;TEXT(F48,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J48" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F48)&amp;"\"&amp;N48&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K48" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 47\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L48" s="4" t="str">
-        <f t="shared" ref="L48:L49" si="13">TEXT(M48,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M48" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F48,"MMMM AAAA"),1))&amp;MID(TEXT(F48,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N48" s="2" t="str">
-        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIV - ",TEXT(M48,"AAAAMM")," - ",B48," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O48" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 47</v>
+      </c>
+      <c r="P48" s="2" t="str">
+        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIV - ",N48," - ",B48," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 47 SOS.txt</v>
       </c>
-      <c r="O48" s="2" t="str">
-        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIV - ",TEXT(M48,"AAAAMM")," - ",B48," Alicuota SOS.txt")</f>
+      <c r="Q48" s="2" t="str">
+        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIV - ",N48," - ",B48," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 47 Alicuota SOS.txt</v>
       </c>
-      <c r="P48" s="2" t="str">
-        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIC - ",TEXT(M48,"AAAAMM")," - ",B48," SOS.txt")</f>
+      <c r="R48" s="2" t="str">
+        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIC - ",N48," - ",B48," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 47 SOS.txt</v>
       </c>
-      <c r="Q48" s="2" t="str">
-        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIC - ",TEXT(M48,"AAAAMM")," - ",B48," Alicuota SOS.txt")</f>
+      <c r="S48" s="2" t="str">
+        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIC - ",N48," - ",B48," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 47 Alicuota SOS.txt</v>
       </c>
-      <c r="R48" s="4">
-        <f>ROW(A48)</f>
+      <c r="T48" s="4">
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="S48">
+      <c r="U48" s="4">
         <f>IF(C48=C47,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T48">
+      <c r="V48" s="4">
         <f>IF(C48=C49,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U48" s="5" t="e">
-        <f>VLOOKUP(TEXT(R48,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V48" s="5" t="e">
-        <f>VLOOKUP(TEXT(R48,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W48" t="e">
-        <f>VLOOKUP(TEXT(R48,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W48" s="5" t="e">
+        <f>VLOOKUP(TEXT(T48,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X48" s="5" t="e">
+        <f>VLOOKUP(TEXT(T48,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y48" s="4" t="e">
+        <f>VLOOKUP(TEXT(T48,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 48</v>
       </c>
       <c r="C49">
         <v>20000000000</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 48</v>
       </c>
       <c r="F49" s="3">
         <v>45017</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I49" t="s">
+      <c r="H49" t="s">
         <v>13</v>
       </c>
-      <c r="K49" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F49)&amp;"\"&amp;TEXT(F49,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J49" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F49)&amp;"\"&amp;N49&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K49" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 48\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L49" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M49" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F49,"MMMM AAAA"),1))&amp;MID(TEXT(F49,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N49" s="2" t="str">
-        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIV - ",TEXT(M49,"AAAAMM")," - ",B49," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O49" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 48</v>
+      </c>
+      <c r="P49" s="2" t="str">
+        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIV - ",N49," - ",B49," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 48 SOS.txt</v>
       </c>
-      <c r="O49" s="2" t="str">
-        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIV - ",TEXT(M49,"AAAAMM")," - ",B49," Alicuota SOS.txt")</f>
+      <c r="Q49" s="2" t="str">
+        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIV - ",N49," - ",B49," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 48 Alicuota SOS.txt</v>
       </c>
-      <c r="P49" s="2" t="str">
-        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIC - ",TEXT(M49,"AAAAMM")," - ",B49," SOS.txt")</f>
+      <c r="R49" s="2" t="str">
+        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIC - ",N49," - ",B49," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 48 SOS.txt</v>
       </c>
-      <c r="Q49" s="2" t="str">
-        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIC - ",TEXT(M49,"AAAAMM")," - ",B49," Alicuota SOS.txt")</f>
+      <c r="S49" s="2" t="str">
+        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIC - ",N49," - ",B49," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 48 Alicuota SOS.txt</v>
       </c>
-      <c r="R49" s="4">
-        <f>ROW(A49)</f>
+      <c r="T49" s="4">
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="S49">
+      <c r="U49" s="4">
         <f>IF(C49=C48,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T49">
+      <c r="V49" s="4">
         <f>IF(C49=C50,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U49" s="5" t="e">
-        <f>VLOOKUP(TEXT(R49,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V49" s="5" t="e">
-        <f>VLOOKUP(TEXT(R49,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W49" t="e">
-        <f>VLOOKUP(TEXT(R49,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W49" s="5" t="e">
+        <f>VLOOKUP(TEXT(T49,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X49" s="5" t="e">
+        <f>VLOOKUP(TEXT(T49,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y49" s="4" t="e">
+        <f>VLOOKUP(TEXT(T49,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 49</v>
       </c>
       <c r="C50">
         <v>20000000000</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 49</v>
       </c>
       <c r="F50" s="3">
         <v>44986</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I50" t="s">
+      <c r="H50" t="s">
         <v>12</v>
       </c>
-      <c r="K50" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F50)&amp;"\"&amp;TEXT(F50,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J50" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F50)&amp;"\"&amp;N50&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K50" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 49\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L50" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>03/2023</v>
+      </c>
+      <c r="M50" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="N50" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O50" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 49</v>
+      </c>
+      <c r="P50" s="2" t="str">
+        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIV - ",N50," - ",B50," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 49 SOS.txt</v>
+      </c>
+      <c r="Q50" s="2" t="str">
+        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIV - ",N50," - ",B50," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 49 Alicuota SOS.txt</v>
+      </c>
+      <c r="R50" s="2" t="str">
+        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIC - ",N50," - ",B50," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 49 SOS.txt</v>
+      </c>
+      <c r="S50" s="2" t="str">
+        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIC - ",N50," - ",B50," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 49 Alicuota SOS.txt</v>
+      </c>
+      <c r="T50" s="4">
         <f t="shared" si="10"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M50" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F50,"MMMM AAAA"),1))&amp;MID(TEXT(F50,"MMMM AAAA"),2,30)</f>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N50" s="2" t="str">
-        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIV - ",TEXT(M50,"AAAAMM")," - ",B50," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 49 SOS.txt</v>
-      </c>
-      <c r="O50" s="2" t="str">
-        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIV - ",TEXT(M50,"AAAAMM")," - ",B50," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 49 Alicuota SOS.txt</v>
-      </c>
-      <c r="P50" s="2" t="str">
-        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIC - ",TEXT(M50,"AAAAMM")," - ",B50," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 49 SOS.txt</v>
-      </c>
-      <c r="Q50" s="2" t="str">
-        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIC - ",TEXT(M50,"AAAAMM")," - ",B50," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 49 Alicuota SOS.txt</v>
-      </c>
-      <c r="R50" s="4">
-        <f>ROW(A50)</f>
         <v>50</v>
       </c>
-      <c r="S50">
+      <c r="U50" s="4">
         <f>IF(C50=C49,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T50">
+      <c r="V50" s="4">
         <f>IF(C50=C51,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U50" s="5" t="e">
-        <f>VLOOKUP(TEXT(R50,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V50" s="5" t="e">
-        <f>VLOOKUP(TEXT(R50,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W50" t="e">
-        <f>VLOOKUP(TEXT(R50,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W50" s="5" t="e">
+        <f>VLOOKUP(TEXT(T50,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X50" s="5" t="e">
+        <f>VLOOKUP(TEXT(T50,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y50" s="4" t="e">
+        <f>VLOOKUP(TEXT(T50,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 50</v>
       </c>
       <c r="C51">
         <v>20000000000</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 50</v>
       </c>
       <c r="F51" s="3">
         <v>44986</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I51" t="s">
+      <c r="H51" t="s">
         <v>12</v>
       </c>
-      <c r="K51" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F51)&amp;"\"&amp;TEXT(F51,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J51" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F51)&amp;"\"&amp;N51&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K51" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 50\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L51" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>03/2023</v>
+      </c>
+      <c r="M51" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="N51" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O51" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 50</v>
+      </c>
+      <c r="P51" s="2" t="str">
+        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIV - ",N51," - ",B51," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 50 SOS.txt</v>
+      </c>
+      <c r="Q51" s="2" t="str">
+        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIV - ",N51," - ",B51," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 50 Alicuota SOS.txt</v>
+      </c>
+      <c r="R51" s="2" t="str">
+        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIC - ",N51," - ",B51," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 50 SOS.txt</v>
+      </c>
+      <c r="S51" s="2" t="str">
+        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIC - ",N51," - ",B51," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 50 Alicuota SOS.txt</v>
+      </c>
+      <c r="T51" s="4">
         <f t="shared" si="10"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M51" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F51,"MMMM AAAA"),1))&amp;MID(TEXT(F51,"MMMM AAAA"),2,30)</f>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N51" s="2" t="str">
-        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIV - ",TEXT(M51,"AAAAMM")," - ",B51," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 50 SOS.txt</v>
-      </c>
-      <c r="O51" s="2" t="str">
-        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIV - ",TEXT(M51,"AAAAMM")," - ",B51," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 50 Alicuota SOS.txt</v>
-      </c>
-      <c r="P51" s="2" t="str">
-        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIC - ",TEXT(M51,"AAAAMM")," - ",B51," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 50 SOS.txt</v>
-      </c>
-      <c r="Q51" s="2" t="str">
-        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIC - ",TEXT(M51,"AAAAMM")," - ",B51," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 50 Alicuota SOS.txt</v>
-      </c>
-      <c r="R51" s="4">
-        <f>ROW(A51)</f>
         <v>51</v>
       </c>
-      <c r="S51">
+      <c r="U51" s="4">
         <f>IF(C51=C50,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T51">
+      <c r="V51" s="4">
         <f>IF(C51=C52,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U51" s="5" t="e">
-        <f>VLOOKUP(TEXT(R51,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V51" s="5" t="e">
-        <f>VLOOKUP(TEXT(R51,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W51" t="e">
-        <f>VLOOKUP(TEXT(R51,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W51" s="5" t="e">
+        <f>VLOOKUP(TEXT(T51,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X51" s="5" t="e">
+        <f>VLOOKUP(TEXT(T51,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y51" s="4" t="e">
+        <f>VLOOKUP(TEXT(T51,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 51</v>
       </c>
       <c r="C52">
         <v>20000000000</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 51</v>
       </c>
       <c r="F52" s="3">
         <v>44986</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I52" t="s">
+      <c r="H52" t="s">
         <v>12</v>
       </c>
-      <c r="K52" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F52)&amp;"\"&amp;TEXT(F52,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J52" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F52)&amp;"\"&amp;N52&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K52" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 51\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L52" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>03/2023</v>
+      </c>
+      <c r="M52" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="N52" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O52" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 51</v>
+      </c>
+      <c r="P52" s="2" t="str">
+        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIV - ",N52," - ",B52," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 51 SOS.txt</v>
+      </c>
+      <c r="Q52" s="2" t="str">
+        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIV - ",N52," - ",B52," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 51 Alicuota SOS.txt</v>
+      </c>
+      <c r="R52" s="2" t="str">
+        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIC - ",N52," - ",B52," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 51 SOS.txt</v>
+      </c>
+      <c r="S52" s="2" t="str">
+        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIC - ",N52," - ",B52," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 51 Alicuota SOS.txt</v>
+      </c>
+      <c r="T52" s="4">
         <f t="shared" si="10"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M52" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F52,"MMMM AAAA"),1))&amp;MID(TEXT(F52,"MMMM AAAA"),2,30)</f>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N52" s="2" t="str">
-        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIV - ",TEXT(M52,"AAAAMM")," - ",B52," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 51 SOS.txt</v>
-      </c>
-      <c r="O52" s="2" t="str">
-        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIV - ",TEXT(M52,"AAAAMM")," - ",B52," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 51 Alicuota SOS.txt</v>
-      </c>
-      <c r="P52" s="2" t="str">
-        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIC - ",TEXT(M52,"AAAAMM")," - ",B52," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 51 SOS.txt</v>
-      </c>
-      <c r="Q52" s="2" t="str">
-        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIC - ",TEXT(M52,"AAAAMM")," - ",B52," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 51 Alicuota SOS.txt</v>
-      </c>
-      <c r="R52" s="4">
-        <f>ROW(A52)</f>
         <v>52</v>
       </c>
-      <c r="S52">
+      <c r="U52" s="4">
         <f>IF(C52=C51,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T52">
+      <c r="V52" s="4">
         <f>IF(C52=C53,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U52" s="5" t="e">
-        <f>VLOOKUP(TEXT(R52,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V52" s="5" t="e">
-        <f>VLOOKUP(TEXT(R52,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W52" t="e">
-        <f>VLOOKUP(TEXT(R52,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W52" s="5" t="e">
+        <f>VLOOKUP(TEXT(T52,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X52" s="5" t="e">
+        <f>VLOOKUP(TEXT(T52,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y52" s="4" t="e">
+        <f>VLOOKUP(TEXT(T52,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 52</v>
       </c>
       <c r="C53">
         <v>20000000000</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 52</v>
       </c>
       <c r="F53" s="3">
         <v>45017</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I53" t="s">
+      <c r="H53" t="s">
         <v>13</v>
       </c>
-      <c r="K53" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F53)&amp;"\"&amp;TEXT(F53,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J53" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F53)&amp;"\"&amp;N53&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K53" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 52\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L53" s="4" t="str">
-        <f>TEXT(M53,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M53" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F53,"MMMM AAAA"),1))&amp;MID(TEXT(F53,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N53" s="2" t="str">
-        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIV - ",TEXT(M53,"AAAAMM")," - ",B53," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O53" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 52</v>
+      </c>
+      <c r="P53" s="2" t="str">
+        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIV - ",N53," - ",B53," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 52 SOS.txt</v>
       </c>
-      <c r="O53" s="2" t="str">
-        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIV - ",TEXT(M53,"AAAAMM")," - ",B53," Alicuota SOS.txt")</f>
+      <c r="Q53" s="2" t="str">
+        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIV - ",N53," - ",B53," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 52 Alicuota SOS.txt</v>
       </c>
-      <c r="P53" s="2" t="str">
-        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIC - ",TEXT(M53,"AAAAMM")," - ",B53," SOS.txt")</f>
+      <c r="R53" s="2" t="str">
+        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIC - ",N53," - ",B53," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 52 SOS.txt</v>
       </c>
-      <c r="Q53" s="2" t="str">
-        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIC - ",TEXT(M53,"AAAAMM")," - ",B53," Alicuota SOS.txt")</f>
+      <c r="S53" s="2" t="str">
+        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIC - ",N53," - ",B53," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 52 Alicuota SOS.txt</v>
       </c>
-      <c r="R53" s="4">
-        <f>ROW(A53)</f>
+      <c r="T53" s="4">
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
-      <c r="S53">
+      <c r="U53" s="4">
         <f>IF(C53=C52,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T53">
+      <c r="V53" s="4">
         <f>IF(C53=C54,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U53" s="5" t="e">
-        <f>VLOOKUP(TEXT(R53,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V53" s="5" t="e">
-        <f>VLOOKUP(TEXT(R53,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W53" t="e">
-        <f>VLOOKUP(TEXT(R53,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W53" s="5" t="e">
+        <f>VLOOKUP(TEXT(T53,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X53" s="5" t="e">
+        <f>VLOOKUP(TEXT(T53,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y53" s="4" t="e">
+        <f>VLOOKUP(TEXT(T53,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 53</v>
       </c>
       <c r="C54">
         <v>20000000000</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 53</v>
       </c>
       <c r="F54" s="3">
         <v>44986</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I54" t="s">
+      <c r="H54" t="s">
         <v>12</v>
       </c>
-      <c r="K54" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F54)&amp;"\"&amp;TEXT(F54,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J54" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F54)&amp;"\"&amp;N54&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K54" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 53\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L54" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>03/2023</v>
+      </c>
+      <c r="M54" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="N54" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O54" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 53</v>
+      </c>
+      <c r="P54" s="2" t="str">
+        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIV - ",N54," - ",B54," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 53 SOS.txt</v>
+      </c>
+      <c r="Q54" s="2" t="str">
+        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIV - ",N54," - ",B54," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 53 Alicuota SOS.txt</v>
+      </c>
+      <c r="R54" s="2" t="str">
+        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIC - ",N54," - ",B54," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 53 SOS.txt</v>
+      </c>
+      <c r="S54" s="2" t="str">
+        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIC - ",N54," - ",B54," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 53 Alicuota SOS.txt</v>
+      </c>
+      <c r="T54" s="4">
         <f t="shared" si="10"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M54" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F54,"MMMM AAAA"),1))&amp;MID(TEXT(F54,"MMMM AAAA"),2,30)</f>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N54" s="2" t="str">
-        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIV - ",TEXT(M54,"AAAAMM")," - ",B54," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 53 SOS.txt</v>
-      </c>
-      <c r="O54" s="2" t="str">
-        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIV - ",TEXT(M54,"AAAAMM")," - ",B54," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 53 Alicuota SOS.txt</v>
-      </c>
-      <c r="P54" s="2" t="str">
-        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIC - ",TEXT(M54,"AAAAMM")," - ",B54," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 53 SOS.txt</v>
-      </c>
-      <c r="Q54" s="2" t="str">
-        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIC - ",TEXT(M54,"AAAAMM")," - ",B54," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 53 Alicuota SOS.txt</v>
-      </c>
-      <c r="R54" s="4">
-        <f>ROW(A54)</f>
         <v>54</v>
       </c>
-      <c r="S54">
+      <c r="U54" s="4">
         <f>IF(C54=C53,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T54">
+      <c r="V54" s="4">
         <f>IF(C54=C55,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U54" s="5" t="e">
-        <f>VLOOKUP(TEXT(R54,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V54" s="5" t="e">
-        <f>VLOOKUP(TEXT(R54,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W54" t="e">
-        <f>VLOOKUP(TEXT(R54,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W54" s="5" t="e">
+        <f>VLOOKUP(TEXT(T54,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X54" s="5" t="e">
+        <f>VLOOKUP(TEXT(T54,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y54" s="4" t="e">
+        <f>VLOOKUP(TEXT(T54,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 54</v>
       </c>
       <c r="C55">
         <v>20000000000</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 54</v>
       </c>
       <c r="F55" s="3">
         <v>45017</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I55" t="s">
+      <c r="H55" t="s">
         <v>13</v>
       </c>
-      <c r="K55" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F55)&amp;"\"&amp;TEXT(F55,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J55" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F55)&amp;"\"&amp;N55&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K55" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 54\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L55" s="4" t="str">
-        <f>TEXT(M55,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M55" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F55,"MMMM AAAA"),1))&amp;MID(TEXT(F55,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N55" s="2" t="str">
-        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIV - ",TEXT(M55,"AAAAMM")," - ",B55," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O55" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 54</v>
+      </c>
+      <c r="P55" s="2" t="str">
+        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIV - ",N55," - ",B55," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 54 SOS.txt</v>
       </c>
-      <c r="O55" s="2" t="str">
-        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIV - ",TEXT(M55,"AAAAMM")," - ",B55," Alicuota SOS.txt")</f>
+      <c r="Q55" s="2" t="str">
+        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIV - ",N55," - ",B55," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 54 Alicuota SOS.txt</v>
       </c>
-      <c r="P55" s="2" t="str">
-        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIC - ",TEXT(M55,"AAAAMM")," - ",B55," SOS.txt")</f>
+      <c r="R55" s="2" t="str">
+        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIC - ",N55," - ",B55," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 54 SOS.txt</v>
       </c>
-      <c r="Q55" s="2" t="str">
-        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIC - ",TEXT(M55,"AAAAMM")," - ",B55," Alicuota SOS.txt")</f>
+      <c r="S55" s="2" t="str">
+        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIC - ",N55," - ",B55," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 54 Alicuota SOS.txt</v>
       </c>
-      <c r="R55" s="4">
-        <f>ROW(A55)</f>
+      <c r="T55" s="4">
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
-      <c r="S55">
+      <c r="U55" s="4">
         <f>IF(C55=C54,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T55">
+      <c r="V55" s="4">
         <f>IF(C55=C56,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U55" s="5" t="e">
-        <f>VLOOKUP(TEXT(R55,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V55" s="5" t="e">
-        <f>VLOOKUP(TEXT(R55,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W55" t="e">
-        <f>VLOOKUP(TEXT(R55,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W55" s="5" t="e">
+        <f>VLOOKUP(TEXT(T55,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X55" s="5" t="e">
+        <f>VLOOKUP(TEXT(T55,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y55" s="4" t="e">
+        <f>VLOOKUP(TEXT(T55,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 55</v>
       </c>
       <c r="C56">
         <v>20000000000</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 55</v>
       </c>
       <c r="F56" s="3">
         <v>44986</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I56" t="s">
+      <c r="H56" t="s">
         <v>12</v>
       </c>
-      <c r="K56" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F56)&amp;"\"&amp;TEXT(F56,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J56" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F56)&amp;"\"&amp;N56&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K56" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 55\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L56" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>03/2023</v>
+      </c>
+      <c r="M56" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="N56" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O56" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 55</v>
+      </c>
+      <c r="P56" s="2" t="str">
+        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIV - ",N56," - ",B56," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 55 SOS.txt</v>
+      </c>
+      <c r="Q56" s="2" t="str">
+        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIV - ",N56," - ",B56," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 55 Alicuota SOS.txt</v>
+      </c>
+      <c r="R56" s="2" t="str">
+        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIC - ",N56," - ",B56," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 55 SOS.txt</v>
+      </c>
+      <c r="S56" s="2" t="str">
+        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIC - ",N56," - ",B56," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 55 Alicuota SOS.txt</v>
+      </c>
+      <c r="T56" s="4">
         <f t="shared" si="10"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M56" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F56,"MMMM AAAA"),1))&amp;MID(TEXT(F56,"MMMM AAAA"),2,30)</f>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N56" s="2" t="str">
-        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIV - ",TEXT(M56,"AAAAMM")," - ",B56," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 55 SOS.txt</v>
-      </c>
-      <c r="O56" s="2" t="str">
-        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIV - ",TEXT(M56,"AAAAMM")," - ",B56," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 55 Alicuota SOS.txt</v>
-      </c>
-      <c r="P56" s="2" t="str">
-        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIC - ",TEXT(M56,"AAAAMM")," - ",B56," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 55 SOS.txt</v>
-      </c>
-      <c r="Q56" s="2" t="str">
-        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIC - ",TEXT(M56,"AAAAMM")," - ",B56," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 55 Alicuota SOS.txt</v>
-      </c>
-      <c r="R56" s="4">
-        <f>ROW(A56)</f>
         <v>56</v>
       </c>
-      <c r="S56">
+      <c r="U56" s="4">
         <f>IF(C56=C55,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T56">
+      <c r="V56" s="4">
         <f>IF(C56=C57,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U56" s="5" t="e">
-        <f>VLOOKUP(TEXT(R56,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V56" s="5" t="e">
-        <f>VLOOKUP(TEXT(R56,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W56" t="e">
-        <f>VLOOKUP(TEXT(R56,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W56" s="5" t="e">
+        <f>VLOOKUP(TEXT(T56,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X56" s="5" t="e">
+        <f>VLOOKUP(TEXT(T56,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y56" s="4" t="e">
+        <f>VLOOKUP(TEXT(T56,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 56</v>
       </c>
       <c r="C57">
         <v>20000000000</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 56</v>
       </c>
       <c r="F57" s="3">
         <v>44986</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I57" t="s">
+      <c r="H57" t="s">
         <v>12</v>
       </c>
-      <c r="K57" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F57)&amp;"\"&amp;TEXT(F57,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J57" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F57)&amp;"\"&amp;N57&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K57" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 56\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L57" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>03/2023</v>
+      </c>
+      <c r="M57" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="N57" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O57" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 56</v>
+      </c>
+      <c r="P57" s="2" t="str">
+        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIV - ",N57," - ",B57," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 56 SOS.txt</v>
+      </c>
+      <c r="Q57" s="2" t="str">
+        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIV - ",N57," - ",B57," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 56 Alicuota SOS.txt</v>
+      </c>
+      <c r="R57" s="2" t="str">
+        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIC - ",N57," - ",B57," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 56 SOS.txt</v>
+      </c>
+      <c r="S57" s="2" t="str">
+        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIC - ",N57," - ",B57," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 56 Alicuota SOS.txt</v>
+      </c>
+      <c r="T57" s="4">
         <f t="shared" si="10"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M57" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F57,"MMMM AAAA"),1))&amp;MID(TEXT(F57,"MMMM AAAA"),2,30)</f>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N57" s="2" t="str">
-        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIV - ",TEXT(M57,"AAAAMM")," - ",B57," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 56 SOS.txt</v>
-      </c>
-      <c r="O57" s="2" t="str">
-        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIV - ",TEXT(M57,"AAAAMM")," - ",B57," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 56 Alicuota SOS.txt</v>
-      </c>
-      <c r="P57" s="2" t="str">
-        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIC - ",TEXT(M57,"AAAAMM")," - ",B57," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 56 SOS.txt</v>
-      </c>
-      <c r="Q57" s="2" t="str">
-        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIC - ",TEXT(M57,"AAAAMM")," - ",B57," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 56 Alicuota SOS.txt</v>
-      </c>
-      <c r="R57" s="4">
-        <f>ROW(A57)</f>
         <v>57</v>
       </c>
-      <c r="S57">
+      <c r="U57" s="4">
         <f>IF(C57=C56,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T57">
+      <c r="V57" s="4">
         <f>IF(C57=C58,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U57" s="5" t="e">
-        <f>VLOOKUP(TEXT(R57,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V57" s="5" t="e">
-        <f>VLOOKUP(TEXT(R57,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W57" t="e">
-        <f>VLOOKUP(TEXT(R57,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W57" s="5" t="e">
+        <f>VLOOKUP(TEXT(T57,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X57" s="5" t="e">
+        <f>VLOOKUP(TEXT(T57,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y57" s="4" t="e">
+        <f>VLOOKUP(TEXT(T57,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 57</v>
       </c>
       <c r="C58">
         <v>20000000000</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 57</v>
       </c>
       <c r="F58" s="3">
         <v>44986</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I58" t="s">
+      <c r="H58" t="s">
         <v>12</v>
       </c>
-      <c r="K58" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F58)&amp;"\"&amp;TEXT(F58,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J58" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F58)&amp;"\"&amp;N58&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K58" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 57\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L58" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>03/2023</v>
+      </c>
+      <c r="M58" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="N58" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O58" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 57</v>
+      </c>
+      <c r="P58" s="2" t="str">
+        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIV - ",N58," - ",B58," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 57 SOS.txt</v>
+      </c>
+      <c r="Q58" s="2" t="str">
+        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIV - ",N58," - ",B58," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 57 Alicuota SOS.txt</v>
+      </c>
+      <c r="R58" s="2" t="str">
+        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIC - ",N58," - ",B58," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 57 SOS.txt</v>
+      </c>
+      <c r="S58" s="2" t="str">
+        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIC - ",N58," - ",B58," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 57 Alicuota SOS.txt</v>
+      </c>
+      <c r="T58" s="4">
         <f t="shared" si="10"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M58" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F58,"MMMM AAAA"),1))&amp;MID(TEXT(F58,"MMMM AAAA"),2,30)</f>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N58" s="2" t="str">
-        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIV - ",TEXT(M58,"AAAAMM")," - ",B58," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 57 SOS.txt</v>
-      </c>
-      <c r="O58" s="2" t="str">
-        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIV - ",TEXT(M58,"AAAAMM")," - ",B58," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 57 Alicuota SOS.txt</v>
-      </c>
-      <c r="P58" s="2" t="str">
-        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIC - ",TEXT(M58,"AAAAMM")," - ",B58," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 57 SOS.txt</v>
-      </c>
-      <c r="Q58" s="2" t="str">
-        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIC - ",TEXT(M58,"AAAAMM")," - ",B58," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 57 Alicuota SOS.txt</v>
-      </c>
-      <c r="R58" s="4">
-        <f>ROW(A58)</f>
         <v>58</v>
       </c>
-      <c r="S58">
+      <c r="U58" s="4">
         <f>IF(C58=C57,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T58">
+      <c r="V58" s="4">
         <f>IF(C58=C59,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U58" s="5" t="e">
-        <f>VLOOKUP(TEXT(R58,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V58" s="5" t="e">
-        <f>VLOOKUP(TEXT(R58,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W58" t="e">
-        <f>VLOOKUP(TEXT(R58,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W58" s="5" t="e">
+        <f>VLOOKUP(TEXT(T58,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X58" s="5" t="e">
+        <f>VLOOKUP(TEXT(T58,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y58" s="4" t="e">
+        <f>VLOOKUP(TEXT(T58,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 58</v>
       </c>
       <c r="C59">
         <v>20000000000</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 58</v>
       </c>
       <c r="F59" s="3">
         <v>44986</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I59" t="s">
+      <c r="H59" t="s">
         <v>12</v>
       </c>
-      <c r="K59" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F59)&amp;"\"&amp;TEXT(F59,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J59" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F59)&amp;"\"&amp;N59&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K59" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 58\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L59" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>03/2023</v>
+      </c>
+      <c r="M59" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="N59" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O59" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 58</v>
+      </c>
+      <c r="P59" s="2" t="str">
+        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIV - ",N59," - ",B59," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 58 SOS.txt</v>
+      </c>
+      <c r="Q59" s="2" t="str">
+        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIV - ",N59," - ",B59," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 58 Alicuota SOS.txt</v>
+      </c>
+      <c r="R59" s="2" t="str">
+        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIC - ",N59," - ",B59," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 58 SOS.txt</v>
+      </c>
+      <c r="S59" s="2" t="str">
+        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIC - ",N59," - ",B59," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 58 Alicuota SOS.txt</v>
+      </c>
+      <c r="T59" s="4">
         <f t="shared" si="10"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M59" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F59,"MMMM AAAA"),1))&amp;MID(TEXT(F59,"MMMM AAAA"),2,30)</f>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N59" s="2" t="str">
-        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIV - ",TEXT(M59,"AAAAMM")," - ",B59," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 58 SOS.txt</v>
-      </c>
-      <c r="O59" s="2" t="str">
-        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIV - ",TEXT(M59,"AAAAMM")," - ",B59," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 58 Alicuota SOS.txt</v>
-      </c>
-      <c r="P59" s="2" t="str">
-        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIC - ",TEXT(M59,"AAAAMM")," - ",B59," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 58 SOS.txt</v>
-      </c>
-      <c r="Q59" s="2" t="str">
-        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIC - ",TEXT(M59,"AAAAMM")," - ",B59," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 58 Alicuota SOS.txt</v>
-      </c>
-      <c r="R59" s="4">
-        <f>ROW(A59)</f>
         <v>59</v>
       </c>
-      <c r="S59">
+      <c r="U59" s="4">
         <f>IF(C59=C58,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T59">
+      <c r="V59" s="4">
         <f>IF(C59=C60,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U59" s="5" t="e">
-        <f>VLOOKUP(TEXT(R59,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V59" s="5" t="e">
-        <f>VLOOKUP(TEXT(R59,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W59" t="e">
-        <f>VLOOKUP(TEXT(R59,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W59" s="5" t="e">
+        <f>VLOOKUP(TEXT(T59,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X59" s="5" t="e">
+        <f>VLOOKUP(TEXT(T59,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y59" s="4" t="e">
+        <f>VLOOKUP(TEXT(T59,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 59</v>
       </c>
       <c r="C60">
         <v>20000000000</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 59</v>
       </c>
       <c r="F60" s="3">
         <v>45017</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I60" t="s">
+      <c r="H60" t="s">
         <v>13</v>
       </c>
-      <c r="K60" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F60)&amp;"\"&amp;TEXT(F60,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J60" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F60)&amp;"\"&amp;N60&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K60" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 59\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L60" s="4" t="str">
-        <f>TEXT(M60,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M60" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F60,"MMMM AAAA"),1))&amp;MID(TEXT(F60,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N60" s="2" t="str">
-        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIV - ",TEXT(M60,"AAAAMM")," - ",B60," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O60" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 59</v>
+      </c>
+      <c r="P60" s="2" t="str">
+        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIV - ",N60," - ",B60," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 59 SOS.txt</v>
       </c>
-      <c r="O60" s="2" t="str">
-        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIV - ",TEXT(M60,"AAAAMM")," - ",B60," Alicuota SOS.txt")</f>
+      <c r="Q60" s="2" t="str">
+        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIV - ",N60," - ",B60," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 59 Alicuota SOS.txt</v>
       </c>
-      <c r="P60" s="2" t="str">
-        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIC - ",TEXT(M60,"AAAAMM")," - ",B60," SOS.txt")</f>
+      <c r="R60" s="2" t="str">
+        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIC - ",N60," - ",B60," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 59 SOS.txt</v>
       </c>
-      <c r="Q60" s="2" t="str">
-        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIC - ",TEXT(M60,"AAAAMM")," - ",B60," Alicuota SOS.txt")</f>
+      <c r="S60" s="2" t="str">
+        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIC - ",N60," - ",B60," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 59 Alicuota SOS.txt</v>
       </c>
-      <c r="R60" s="4">
-        <f>ROW(A60)</f>
+      <c r="T60" s="4">
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="S60">
+      <c r="U60" s="4">
         <f>IF(C60=C59,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T60">
+      <c r="V60" s="4">
         <f>IF(C60=C61,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U60" s="5" t="e">
-        <f>VLOOKUP(TEXT(R60,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V60" s="5" t="e">
-        <f>VLOOKUP(TEXT(R60,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W60" t="e">
-        <f>VLOOKUP(TEXT(R60,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W60" s="5" t="e">
+        <f>VLOOKUP(TEXT(T60,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X60" s="5" t="e">
+        <f>VLOOKUP(TEXT(T60,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y60" s="4" t="e">
+        <f>VLOOKUP(TEXT(T60,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 60</v>
       </c>
       <c r="C61">
         <v>20000000000</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 60</v>
       </c>
       <c r="F61" s="3">
         <v>44986</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I61" t="s">
+      <c r="H61" t="s">
         <v>12</v>
       </c>
-      <c r="K61" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F61)&amp;"\"&amp;TEXT(F61,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J61" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F61)&amp;"\"&amp;N61&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
+      <c r="K61" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 60\COMVEN LID\2023\03\</v>
+      </c>
       <c r="L61" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>03/2023</v>
+      </c>
+      <c r="M61" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="N61" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>202303</v>
+      </c>
+      <c r="O61" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 60</v>
+      </c>
+      <c r="P61" s="2" t="str">
+        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIV - ",N61," - ",B61," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 60 SOS.txt</v>
+      </c>
+      <c r="Q61" s="2" t="str">
+        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIV - ",N61," - ",B61," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 60 Alicuota SOS.txt</v>
+      </c>
+      <c r="R61" s="2" t="str">
+        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIC - ",N61," - ",B61," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 60 SOS.txt</v>
+      </c>
+      <c r="S61" s="2" t="str">
+        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIC - ",N61," - ",B61," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 60 Alicuota SOS.txt</v>
+      </c>
+      <c r="T61" s="4">
         <f t="shared" si="10"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M61" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F61,"MMMM AAAA"),1))&amp;MID(TEXT(F61,"MMMM AAAA"),2,30)</f>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N61" s="2" t="str">
-        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIV - ",TEXT(M61,"AAAAMM")," - ",B61," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 60 SOS.txt</v>
-      </c>
-      <c r="O61" s="2" t="str">
-        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIV - ",TEXT(M61,"AAAAMM")," - ",B61," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 60 Alicuota SOS.txt</v>
-      </c>
-      <c r="P61" s="2" t="str">
-        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIC - ",TEXT(M61,"AAAAMM")," - ",B61," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 60 SOS.txt</v>
-      </c>
-      <c r="Q61" s="2" t="str">
-        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIC - ",TEXT(M61,"AAAAMM")," - ",B61," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 60 Alicuota SOS.txt</v>
-      </c>
-      <c r="R61" s="4">
-        <f>ROW(A61)</f>
         <v>61</v>
       </c>
-      <c r="S61">
+      <c r="U61" s="4">
         <f>IF(C61=C60,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T61">
+      <c r="V61" s="4">
         <f>IF(C61=C62,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U61" s="5" t="e">
-        <f>VLOOKUP(TEXT(R61,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V61" s="5" t="e">
-        <f>VLOOKUP(TEXT(R61,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W61" t="e">
-        <f>VLOOKUP(TEXT(R61,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W61" s="5" t="e">
+        <f>VLOOKUP(TEXT(T61,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X61" s="5" t="e">
+        <f>VLOOKUP(TEXT(T61,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y61" s="4" t="e">
+        <f>VLOOKUP(TEXT(T61,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 61</v>
       </c>
       <c r="C62">
         <v>20000000000</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 61</v>
       </c>
       <c r="F62" s="3">
         <v>45017</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I62" t="s">
+      <c r="H62" t="s">
         <v>13</v>
       </c>
-      <c r="K62" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F62)&amp;"\"&amp;TEXT(F62,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J62" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F62)&amp;"\"&amp;N62&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K62" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 61\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L62" s="4" t="str">
-        <f t="shared" ref="L62:L63" si="14">TEXT(M62,"mm/aaaa")</f>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M62" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F62,"MMMM AAAA"),1))&amp;MID(TEXT(F62,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N62" s="2" t="str">
-        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIV - ",TEXT(M62,"AAAAMM")," - ",B62," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O62" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 61</v>
+      </c>
+      <c r="P62" s="2" t="str">
+        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIV - ",N62," - ",B62," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 61 SOS.txt</v>
       </c>
-      <c r="O62" s="2" t="str">
-        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIV - ",TEXT(M62,"AAAAMM")," - ",B62," Alicuota SOS.txt")</f>
+      <c r="Q62" s="2" t="str">
+        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIV - ",N62," - ",B62," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 61 Alicuota SOS.txt</v>
       </c>
-      <c r="P62" s="2" t="str">
-        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIC - ",TEXT(M62,"AAAAMM")," - ",B62," SOS.txt")</f>
+      <c r="R62" s="2" t="str">
+        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIC - ",N62," - ",B62," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 61 SOS.txt</v>
       </c>
-      <c r="Q62" s="2" t="str">
-        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIC - ",TEXT(M62,"AAAAMM")," - ",B62," Alicuota SOS.txt")</f>
+      <c r="S62" s="2" t="str">
+        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIC - ",N62," - ",B62," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 61 Alicuota SOS.txt</v>
       </c>
-      <c r="R62" s="4">
-        <f>ROW(A62)</f>
+      <c r="T62" s="4">
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
-      <c r="S62">
+      <c r="U62" s="4">
         <f>IF(C62=C61,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T62">
+      <c r="V62" s="4">
         <f>IF(C62=C63,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U62" s="5" t="e">
-        <f>VLOOKUP(TEXT(R62,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V62" s="5" t="e">
-        <f>VLOOKUP(TEXT(R62,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W62" t="e">
-        <f>VLOOKUP(TEXT(R62,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W62" s="5" t="e">
+        <f>VLOOKUP(TEXT(T62,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X62" s="5" t="e">
+        <f>VLOOKUP(TEXT(T62,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y62" s="4" t="e">
+        <f>VLOOKUP(TEXT(T62,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nombre de cliente 62</v>
       </c>
       <c r="C63">
         <v>20000000000</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Clave 62</v>
       </c>
       <c r="F63" s="3">
         <v>45017</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I63" t="s">
+      <c r="H63" t="s">
         <v>13</v>
       </c>
-      <c r="K63" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F63)&amp;"\"&amp;TEXT(F63,"AAAAMM")&amp;"\TXT"</f>
+      <c r="J63" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F63)&amp;"\"&amp;N63&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
+      <c r="K63" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 62\COMVEN LID\2023\04\</v>
+      </c>
       <c r="L63" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>04/2023</v>
       </c>
       <c r="M63" s="2" t="str">
-        <f>UPPER(LEFT(TEXT(F63,"MMMM AAAA"),1))&amp;MID(TEXT(F63,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="6"/>
         <v>Abril 2023</v>
       </c>
       <c r="N63" s="2" t="str">
-        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIV - ",TEXT(M63,"AAAAMM")," - ",B63," SOS.txt")</f>
+        <f t="shared" si="7"/>
+        <v>202304</v>
+      </c>
+      <c r="O63" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 62</v>
+      </c>
+      <c r="P63" s="2" t="str">
+        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIV - ",N63," - ",B63," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 62 SOS.txt</v>
       </c>
-      <c r="O63" s="2" t="str">
-        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIV - ",TEXT(M63,"AAAAMM")," - ",B63," Alicuota SOS.txt")</f>
+      <c r="Q63" s="2" t="str">
+        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIV - ",N63," - ",B63," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 62 Alicuota SOS.txt</v>
       </c>
-      <c r="P63" s="2" t="str">
-        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIC - ",TEXT(M63,"AAAAMM")," - ",B63," SOS.txt")</f>
+      <c r="R63" s="2" t="str">
+        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIC - ",N63," - ",B63," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 62 SOS.txt</v>
       </c>
-      <c r="Q63" s="2" t="str">
-        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIC - ",TEXT(M63,"AAAAMM")," - ",B63," Alicuota SOS.txt")</f>
+      <c r="S63" s="2" t="str">
+        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIC - ",N63," - ",B63," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 62 Alicuota SOS.txt</v>
       </c>
-      <c r="R63" s="4">
-        <f>ROW(A63)</f>
+      <c r="T63" s="4">
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
-      <c r="S63">
+      <c r="U63" s="4">
         <f>IF(C63=C62,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T63">
+      <c r="V63" s="4">
         <f>IF(C63=C64,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U63" s="5" t="e">
-        <f>VLOOKUP(TEXT(R63,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V63" s="5" t="e">
-        <f>VLOOKUP(TEXT(R63,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W63" t="e">
-        <f>VLOOKUP(TEXT(R63,"0"),[1]Control!$A:$E,4,0)</f>
+      <c r="W63" s="5" t="e">
+        <f>VLOOKUP(TEXT(T63,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X63" s="5" t="e">
+        <f>VLOOKUP(TEXT(T63,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y63" s="4" t="e">
+        <f>VLOOKUP(TEXT(T63,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W63" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}"/>
+  <autoFilter ref="A1:Y63" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Lista TXT SOS.xlsx
+++ b/Lista TXT SOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga-y-Carga-COMVEN-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1A0045-8AF8-487A-A302-4557F49C7216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75A5F6E-F0BA-4009-B6EE-0F5CE60BC68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$Y$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$Z$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="32">
   <si>
     <t>Nro</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>CSV</t>
+  </si>
+  <si>
+    <t>NG/E</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -950,11 +956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}">
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,19 +970,20 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="19" width="16.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.85546875" customWidth="1"/>
+    <col min="17" max="20" width="16.5703125" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,61 +1006,64 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -1079,81 +1089,84 @@
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F2)&amp;"\"&amp;N2&amp;"\TXT"</f>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K33" si="1">"F:\Libros Compras y Ventas\"&amp;YEAR(F2)&amp;"\"&amp;O2&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K2" s="4" t="str">
-        <f>CONCATENATE(J2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
+      <c r="L2" s="4" t="str">
+        <f>CONCATENATE(K2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 1\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L2" s="4" t="str">
+      <c r="M2" s="4" t="str">
         <f>TEXT(MONTH(F2),"00")&amp;"/"&amp;YEAR(F2)</f>
         <v>04/2023</v>
       </c>
-      <c r="M2" s="2" t="str">
+      <c r="N2" s="2" t="str">
         <f>PROPER(TEXT(F2,"mmmm"))&amp;" "&amp;YEAR(F2)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="N2" s="2" t="str">
+      <c r="O2" s="2" t="str">
         <f>YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
         <v>202304</v>
       </c>
-      <c r="O2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0"),"  - ",N2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="P2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0"),"  - ",O2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0  - 202304 - 20000000000 - Nombre de cliente 1</v>
       </c>
-      <c r="P2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",N2," - ",B2," SOS.txt")</f>
+      <c r="Q2" s="2" t="str">
+        <f t="shared" ref="Q2:Q33" si="2">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",O2," - ",B2," SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 1 SOS.txt</v>
       </c>
-      <c r="Q2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",N2," - ",B2," Alicuota SOS.txt")</f>
+      <c r="R2" s="2" t="str">
+        <f t="shared" ref="R2:R33" si="3">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",O2," - ",B2," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 1 Alicuota SOS.txt</v>
       </c>
-      <c r="R2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",N2," - ",B2," SOS.txt")</f>
+      <c r="S2" s="2" t="str">
+        <f t="shared" ref="S2:S33" si="4">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",O2," - ",B2," SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 1 SOS.txt</v>
       </c>
-      <c r="S2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",N2," - ",B2," Alicuota SOS.txt")</f>
+      <c r="T2" s="2" t="str">
+        <f t="shared" ref="T2:T33" si="5">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",O2," - ",B2," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 1 Alicuota SOS.txt</v>
       </c>
-      <c r="T2" s="4">
-        <f t="shared" ref="T2:T33" si="1">ROW(A2)</f>
+      <c r="U2" s="4">
+        <f t="shared" ref="U2:U33" si="6">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="U2" s="4">
-        <f>IF(C2=C1,1,0)</f>
+      <c r="V2" s="4">
+        <f t="shared" ref="V2:V33" si="7">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="V2" s="4">
-        <f>IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W2" s="5" t="e">
-        <f>VLOOKUP(TEXT(T2,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+      <c r="W2" s="4">
+        <f t="shared" ref="W2:W33" si="8">IF(C2=C3,1,0)</f>
+        <v>1</v>
       </c>
       <c r="X2" s="5" t="e">
-        <f>VLOOKUP(TEXT(T2,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y2" s="4" t="e">
-        <f>VLOOKUP(TEXT(T2,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U2,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y2" s="5" t="e">
+        <f>VLOOKUP(TEXT(U2,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z2" s="4" t="e">
+        <f>VLOOKUP(TEXT(U2,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B63" si="2">"Nombre de cliente "&amp;(ROW()-1)</f>
+        <f t="shared" ref="B3:B63" si="9">"Nombre de cliente "&amp;(ROW()-1)</f>
         <v>Nombre de cliente 2</v>
       </c>
       <c r="C3">
@@ -1164,7 +1177,7 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E63" si="3">"Clave "&amp;(ROW()-1)</f>
+        <f t="shared" ref="E3:E63" si="10">"Clave "&amp;(ROW()-1)</f>
         <v>Clave 2</v>
       </c>
       <c r="F3" s="3">
@@ -1173,81 +1186,84 @@
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F3)&amp;"\"&amp;N3&amp;"\TXT"</f>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K63" si="4">CONCATENATE(J3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
+      <c r="L3" s="4" t="str">
+        <f t="shared" ref="L3:L63" si="11">CONCATENATE(K3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 2\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L3" s="4" t="str">
-        <f t="shared" ref="L3:L63" si="5">TEXT(MONTH(F3),"00")&amp;"/"&amp;YEAR(F3)</f>
+      <c r="M3" s="4" t="str">
+        <f t="shared" ref="M3:M63" si="12">TEXT(MONTH(F3),"00")&amp;"/"&amp;YEAR(F3)</f>
         <v>04/2023</v>
       </c>
-      <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M63" si="6">PROPER(TEXT(F3,"mmmm"))&amp;" "&amp;YEAR(F3)</f>
+      <c r="N3" s="2" t="str">
+        <f t="shared" ref="N3:N63" si="13">PROPER(TEXT(F3,"mmmm"))&amp;" "&amp;YEAR(F3)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N63" si="7">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
+      <c r="O3" s="2" t="str">
+        <f t="shared" ref="O3:O63" si="14">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
         <v>202304</v>
       </c>
-      <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O63" si="8">CONCATENATE(TEXT(A3,"0"),"  - ",N3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+      <c r="P3" s="2" t="str">
+        <f t="shared" ref="P3:P63" si="15">CONCATENATE(TEXT(A3,"0"),"  - ",O3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0  - 202304 - 20000000000 - Nombre de cliente 2</v>
       </c>
-      <c r="P3" s="2" t="str">
-        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",N3," - ",B3," SOS.txt")</f>
+      <c r="Q3" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 2 SOS.txt</v>
       </c>
-      <c r="Q3" s="2" t="str">
-        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",N3," - ",B3," Alicuota SOS.txt")</f>
+      <c r="R3" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 2 Alicuota SOS.txt</v>
       </c>
-      <c r="R3" s="2" t="str">
-        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",N3," - ",B3," SOS.txt")</f>
+      <c r="S3" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 2 SOS.txt</v>
       </c>
-      <c r="S3" s="2" t="str">
-        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",N3," - ",B3," Alicuota SOS.txt")</f>
+      <c r="T3" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 2 Alicuota SOS.txt</v>
       </c>
-      <c r="T3" s="4">
-        <f t="shared" si="1"/>
+      <c r="U3" s="4">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="U3" s="4">
-        <f>IF(C3=C2,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V3" s="4">
-        <f>IF(C3=C4,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W3" s="5" t="e">
-        <f>VLOOKUP(TEXT(T3,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="W3" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="X3" s="5" t="e">
-        <f>VLOOKUP(TEXT(T3,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y3" s="4" t="e">
-        <f>VLOOKUP(TEXT(T3,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U3,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y3" s="5" t="e">
+        <f>VLOOKUP(TEXT(U3,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z3" s="4" t="e">
+        <f>VLOOKUP(TEXT(U3,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 3</v>
       </c>
       <c r="C4">
@@ -1258,7 +1274,7 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 3</v>
       </c>
       <c r="F4" s="3">
@@ -1267,81 +1283,84 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F4)&amp;"\"&amp;N4&amp;"\TXT"</f>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K4" s="4" t="str">
+      <c r="L4" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 3\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M4" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 20000000000 - Nombre de cliente 3</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 3 SOS.txt</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 3 Alicuota SOS.txt</v>
+      </c>
+      <c r="S4" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 3\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L4" s="4" t="str">
+        <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 3 SOS.txt</v>
+      </c>
+      <c r="T4" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M4" s="2" t="str">
+        <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 3 Alicuota SOS.txt</v>
+      </c>
+      <c r="U4" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N4" s="2" t="str">
+        <v>4</v>
+      </c>
+      <c r="V4" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O4" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W4" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 20000000000 - Nombre de cliente 3</v>
-      </c>
-      <c r="P4" s="2" t="str">
-        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIV - ",N4," - ",B4," SOS.txt")</f>
-        <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 3 SOS.txt</v>
-      </c>
-      <c r="Q4" s="2" t="str">
-        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIV - ",N4," - ",B4," Alicuota SOS.txt")</f>
-        <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 3 Alicuota SOS.txt</v>
-      </c>
-      <c r="R4" s="2" t="str">
-        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIC - ",N4," - ",B4," SOS.txt")</f>
-        <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 3 SOS.txt</v>
-      </c>
-      <c r="S4" s="2" t="str">
-        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIC - ",N4," - ",B4," Alicuota SOS.txt")</f>
-        <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 3 Alicuota SOS.txt</v>
-      </c>
-      <c r="T4" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="U4" s="4">
-        <f>IF(C4=C3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V4" s="4">
-        <f>IF(C4=C5,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W4" s="5" t="e">
-        <f>VLOOKUP(TEXT(T4,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X4" s="5" t="e">
-        <f>VLOOKUP(TEXT(T4,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y4" s="4" t="e">
-        <f>VLOOKUP(TEXT(T4,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U4,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y4" s="5" t="e">
+        <f>VLOOKUP(TEXT(U4,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z4" s="4" t="e">
+        <f>VLOOKUP(TEXT(U4,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 4</v>
       </c>
       <c r="C5">
@@ -1351,7 +1370,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 4</v>
       </c>
       <c r="F5" s="3">
@@ -1360,81 +1379,84 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F5)&amp;"\"&amp;N5&amp;"\TXT"</f>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K5" s="4" t="str">
+      <c r="L5" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 4\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M5" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 4</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 4 SOS.txt</v>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 4 Alicuota SOS.txt</v>
+      </c>
+      <c r="S5" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 4\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L5" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 4 SOS.txt</v>
+      </c>
+      <c r="T5" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M5" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 4 Alicuota SOS.txt</v>
+      </c>
+      <c r="U5" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N5" s="2" t="str">
+        <v>5</v>
+      </c>
+      <c r="V5" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O5" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 4</v>
-      </c>
-      <c r="P5" s="2" t="str">
-        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIV - ",N5," - ",B5," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 4 SOS.txt</v>
-      </c>
-      <c r="Q5" s="2" t="str">
-        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIV - ",N5," - ",B5," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 4 Alicuota SOS.txt</v>
-      </c>
-      <c r="R5" s="2" t="str">
-        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIC - ",N5," - ",B5," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 4 SOS.txt</v>
-      </c>
-      <c r="S5" s="2" t="str">
-        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIC - ",N5," - ",B5," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 4 Alicuota SOS.txt</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="U5" s="4">
-        <f>IF(C5=C4,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V5" s="4">
-        <f>IF(C5=C6,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W5" s="5" t="e">
-        <f>VLOOKUP(TEXT(T5,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X5" s="5" t="e">
-        <f>VLOOKUP(TEXT(T5,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y5" s="4" t="e">
-        <f>VLOOKUP(TEXT(T5,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U5,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y5" s="5" t="e">
+        <f>VLOOKUP(TEXT(U5,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z5" s="4" t="e">
+        <f>VLOOKUP(TEXT(U5,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 5</v>
       </c>
       <c r="C6">
@@ -1444,7 +1466,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 5</v>
       </c>
       <c r="F6" s="3">
@@ -1453,81 +1475,82 @@
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F6)&amp;"\"&amp;N6&amp;"\TXT"</f>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K6" s="4" t="str">
+      <c r="L6" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 5\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 5</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 5 SOS.txt</v>
+      </c>
+      <c r="R6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 5 Alicuota SOS.txt</v>
+      </c>
+      <c r="S6" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 5\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L6" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 5 SOS.txt</v>
+      </c>
+      <c r="T6" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M6" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 5 Alicuota SOS.txt</v>
+      </c>
+      <c r="U6" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N6" s="2" t="str">
+        <v>6</v>
+      </c>
+      <c r="V6" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O6" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 5</v>
-      </c>
-      <c r="P6" s="2" t="str">
-        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIV - ",N6," - ",B6," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 5 SOS.txt</v>
-      </c>
-      <c r="Q6" s="2" t="str">
-        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIV - ",N6," - ",B6," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 5 Alicuota SOS.txt</v>
-      </c>
-      <c r="R6" s="2" t="str">
-        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIC - ",N6," - ",B6," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 5 SOS.txt</v>
-      </c>
-      <c r="S6" s="2" t="str">
-        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIC - ",N6," - ",B6," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 5 Alicuota SOS.txt</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="U6" s="4">
-        <f>IF(C6=C5,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V6" s="4">
-        <f>IF(C6=C7,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W6" s="5" t="e">
-        <f>VLOOKUP(TEXT(T6,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X6" s="5" t="e">
-        <f>VLOOKUP(TEXT(T6,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y6" s="4" t="e">
-        <f>VLOOKUP(TEXT(T6,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U6,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y6" s="5" t="e">
+        <f>VLOOKUP(TEXT(U6,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z6" s="4" t="e">
+        <f>VLOOKUP(TEXT(U6,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 6</v>
       </c>
       <c r="C7">
@@ -1537,7 +1560,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 6</v>
       </c>
       <c r="F7" s="3">
@@ -1546,81 +1569,82 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F7)&amp;"\"&amp;N7&amp;"\TXT"</f>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K7" s="4" t="str">
+      <c r="L7" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 6\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>03/2023</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202303</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 6</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 6 SOS.txt</v>
+      </c>
+      <c r="R7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 6 Alicuota SOS.txt</v>
+      </c>
+      <c r="S7" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 6\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L7" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 6 SOS.txt</v>
+      </c>
+      <c r="T7" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M7" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 6 Alicuota SOS.txt</v>
+      </c>
+      <c r="U7" s="4">
         <f t="shared" si="6"/>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N7" s="2" t="str">
+        <v>7</v>
+      </c>
+      <c r="V7" s="4">
         <f t="shared" si="7"/>
-        <v>202303</v>
-      </c>
-      <c r="O7" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202303 - 30000000000 - Nombre de cliente 6</v>
-      </c>
-      <c r="P7" s="2" t="str">
-        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIV - ",N7," - ",B7," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 6 SOS.txt</v>
-      </c>
-      <c r="Q7" s="2" t="str">
-        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIV - ",N7," - ",B7," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 6 Alicuota SOS.txt</v>
-      </c>
-      <c r="R7" s="2" t="str">
-        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIC - ",N7," - ",B7," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 6 SOS.txt</v>
-      </c>
-      <c r="S7" s="2" t="str">
-        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIC - ",N7," - ",B7," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 6 Alicuota SOS.txt</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="U7" s="4">
-        <f>IF(C7=C6,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V7" s="4">
-        <f>IF(C7=C8,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W7" s="5" t="e">
-        <f>VLOOKUP(TEXT(T7,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X7" s="5" t="e">
-        <f>VLOOKUP(TEXT(T7,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y7" s="4" t="e">
-        <f>VLOOKUP(TEXT(T7,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U7,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y7" s="5" t="e">
+        <f>VLOOKUP(TEXT(U7,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z7" s="4" t="e">
+        <f>VLOOKUP(TEXT(U7,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 7</v>
       </c>
       <c r="C8">
@@ -1630,7 +1654,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 7</v>
       </c>
       <c r="F8" s="3">
@@ -1639,81 +1663,84 @@
       <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F8)&amp;"\"&amp;N8&amp;"\TXT"</f>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K8" s="4" t="str">
+      <c r="L8" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 7\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M8" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 7</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 7 SOS.txt</v>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 7 Alicuota SOS.txt</v>
+      </c>
+      <c r="S8" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 7\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L8" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 7 SOS.txt</v>
+      </c>
+      <c r="T8" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M8" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 7 Alicuota SOS.txt</v>
+      </c>
+      <c r="U8" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N8" s="2" t="str">
+        <v>8</v>
+      </c>
+      <c r="V8" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O8" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 7</v>
-      </c>
-      <c r="P8" s="2" t="str">
-        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIV - ",N8," - ",B8," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 7 SOS.txt</v>
-      </c>
-      <c r="Q8" s="2" t="str">
-        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIV - ",N8," - ",B8," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 7 Alicuota SOS.txt</v>
-      </c>
-      <c r="R8" s="2" t="str">
-        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIC - ",N8," - ",B8," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 7 SOS.txt</v>
-      </c>
-      <c r="S8" s="2" t="str">
-        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIC - ",N8," - ",B8," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 7 Alicuota SOS.txt</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="U8" s="4">
-        <f>IF(C8=C7,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V8" s="4">
-        <f>IF(C8=C9,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W8" s="5" t="e">
-        <f>VLOOKUP(TEXT(T8,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X8" s="5" t="e">
-        <f>VLOOKUP(TEXT(T8,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y8" s="4" t="e">
-        <f>VLOOKUP(TEXT(T8,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U8,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y8" s="5" t="e">
+        <f>VLOOKUP(TEXT(U8,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z8" s="4" t="e">
+        <f>VLOOKUP(TEXT(U8,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 8</v>
       </c>
       <c r="C9">
@@ -1723,7 +1750,7 @@
         <v>26</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 8</v>
       </c>
       <c r="F9" s="3">
@@ -1732,81 +1759,84 @@
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F9)&amp;"\"&amp;N9&amp;"\TXT"</f>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K9" s="4" t="str">
+      <c r="L9" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 8\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M9" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 8</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 8 SOS.txt</v>
+      </c>
+      <c r="R9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 8 Alicuota SOS.txt</v>
+      </c>
+      <c r="S9" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 8\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L9" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 8 SOS.txt</v>
+      </c>
+      <c r="T9" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M9" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 8 Alicuota SOS.txt</v>
+      </c>
+      <c r="U9" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N9" s="2" t="str">
+        <v>9</v>
+      </c>
+      <c r="V9" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O9" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 8</v>
-      </c>
-      <c r="P9" s="2" t="str">
-        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIV - ",N9," - ",B9," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 8 SOS.txt</v>
-      </c>
-      <c r="Q9" s="2" t="str">
-        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIV - ",N9," - ",B9," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 8 Alicuota SOS.txt</v>
-      </c>
-      <c r="R9" s="2" t="str">
-        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIC - ",N9," - ",B9," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 8 SOS.txt</v>
-      </c>
-      <c r="S9" s="2" t="str">
-        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIC - ",N9," - ",B9," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 8 Alicuota SOS.txt</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="U9" s="4">
-        <f>IF(C9=C8,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V9" s="4">
-        <f>IF(C9=C10,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W9" s="5" t="e">
-        <f>VLOOKUP(TEXT(T9,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X9" s="5" t="e">
-        <f>VLOOKUP(TEXT(T9,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y9" s="4" t="e">
-        <f>VLOOKUP(TEXT(T9,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U9,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y9" s="5" t="e">
+        <f>VLOOKUP(TEXT(U9,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z9" s="4" t="e">
+        <f>VLOOKUP(TEXT(U9,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 9</v>
       </c>
       <c r="C10">
@@ -1816,7 +1846,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 9</v>
       </c>
       <c r="F10" s="3">
@@ -1825,81 +1855,82 @@
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F10)&amp;"\"&amp;N10&amp;"\TXT"</f>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K10" s="4" t="str">
+      <c r="L10" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 9\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="M10" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>03/2023</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202303</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 9</v>
+      </c>
+      <c r="Q10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 9 SOS.txt</v>
+      </c>
+      <c r="R10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 9 Alicuota SOS.txt</v>
+      </c>
+      <c r="S10" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 9\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L10" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 9 SOS.txt</v>
+      </c>
+      <c r="T10" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M10" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 9 Alicuota SOS.txt</v>
+      </c>
+      <c r="U10" s="4">
         <f t="shared" si="6"/>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N10" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="V10" s="4">
         <f t="shared" si="7"/>
-        <v>202303</v>
-      </c>
-      <c r="O10" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W10" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202303 - 30000000000 - Nombre de cliente 9</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIV - ",N10," - ",B10," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 9 SOS.txt</v>
-      </c>
-      <c r="Q10" s="2" t="str">
-        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIV - ",N10," - ",B10," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 9 Alicuota SOS.txt</v>
-      </c>
-      <c r="R10" s="2" t="str">
-        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIC - ",N10," - ",B10," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 9 SOS.txt</v>
-      </c>
-      <c r="S10" s="2" t="str">
-        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIC - ",N10," - ",B10," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 9 Alicuota SOS.txt</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U10" s="4">
-        <f>IF(C10=C9,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V10" s="4">
-        <f>IF(C10=C11,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W10" s="5" t="e">
-        <f>VLOOKUP(TEXT(T10,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X10" s="5" t="e">
-        <f>VLOOKUP(TEXT(T10,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y10" s="4" t="e">
-        <f>VLOOKUP(TEXT(T10,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U10,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y10" s="5" t="e">
+        <f>VLOOKUP(TEXT(U10,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z10" s="4" t="e">
+        <f>VLOOKUP(TEXT(U10,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 10</v>
       </c>
       <c r="C11">
@@ -1909,7 +1940,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 10</v>
       </c>
       <c r="F11" s="3">
@@ -1918,81 +1949,82 @@
       <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="J11" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F11)&amp;"\"&amp;N11&amp;"\TXT"</f>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K11" s="4" t="str">
+      <c r="L11" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 10\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 10</v>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 10 SOS.txt</v>
+      </c>
+      <c r="R11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 10 Alicuota SOS.txt</v>
+      </c>
+      <c r="S11" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 10\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L11" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 10 SOS.txt</v>
+      </c>
+      <c r="T11" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M11" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 10 Alicuota SOS.txt</v>
+      </c>
+      <c r="U11" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N11" s="2" t="str">
+        <v>11</v>
+      </c>
+      <c r="V11" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O11" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 10</v>
-      </c>
-      <c r="P11" s="2" t="str">
-        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIV - ",N11," - ",B11," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 10 SOS.txt</v>
-      </c>
-      <c r="Q11" s="2" t="str">
-        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIV - ",N11," - ",B11," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 10 Alicuota SOS.txt</v>
-      </c>
-      <c r="R11" s="2" t="str">
-        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIC - ",N11," - ",B11," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 10 SOS.txt</v>
-      </c>
-      <c r="S11" s="2" t="str">
-        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIC - ",N11," - ",B11," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 10 Alicuota SOS.txt</v>
-      </c>
-      <c r="T11" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="U11" s="4">
-        <f>IF(C11=C10,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V11" s="4">
-        <f>IF(C11=C12,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W11" s="5" t="e">
-        <f>VLOOKUP(TEXT(T11,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X11" s="5" t="e">
-        <f>VLOOKUP(TEXT(T11,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y11" s="4" t="e">
-        <f>VLOOKUP(TEXT(T11,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U11,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y11" s="5" t="e">
+        <f>VLOOKUP(TEXT(U11,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z11" s="4" t="e">
+        <f>VLOOKUP(TEXT(U11,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 11</v>
       </c>
       <c r="C12">
@@ -2002,7 +2034,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 11</v>
       </c>
       <c r="F12" s="3">
@@ -2011,81 +2043,82 @@
       <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="J12" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F12)&amp;"\"&amp;N12&amp;"\TXT"</f>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K12" s="4" t="str">
+      <c r="L12" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 11\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M12" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 11</v>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 11 SOS.txt</v>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 11 Alicuota SOS.txt</v>
+      </c>
+      <c r="S12" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 11\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L12" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 11 SOS.txt</v>
+      </c>
+      <c r="T12" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M12" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 11 Alicuota SOS.txt</v>
+      </c>
+      <c r="U12" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N12" s="2" t="str">
+        <v>12</v>
+      </c>
+      <c r="V12" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O12" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 11</v>
-      </c>
-      <c r="P12" s="2" t="str">
-        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIV - ",N12," - ",B12," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 11 SOS.txt</v>
-      </c>
-      <c r="Q12" s="2" t="str">
-        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIV - ",N12," - ",B12," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 11 Alicuota SOS.txt</v>
-      </c>
-      <c r="R12" s="2" t="str">
-        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIC - ",N12," - ",B12," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 11 SOS.txt</v>
-      </c>
-      <c r="S12" s="2" t="str">
-        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIC - ",N12," - ",B12," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 11 Alicuota SOS.txt</v>
-      </c>
-      <c r="T12" s="4">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="U12" s="4">
-        <f>IF(C12=C11,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V12" s="4">
-        <f>IF(C12=C13,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W12" s="5" t="e">
-        <f>VLOOKUP(TEXT(T12,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X12" s="5" t="e">
-        <f>VLOOKUP(TEXT(T12,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y12" s="4" t="e">
-        <f>VLOOKUP(TEXT(T12,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U12,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y12" s="5" t="e">
+        <f>VLOOKUP(TEXT(U12,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z12" s="4" t="e">
+        <f>VLOOKUP(TEXT(U12,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 12</v>
       </c>
       <c r="C13">
@@ -2095,7 +2128,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 12</v>
       </c>
       <c r="F13" s="3">
@@ -2104,81 +2137,82 @@
       <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="J13" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F13)&amp;"\"&amp;N13&amp;"\TXT"</f>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K13" s="4" t="str">
+      <c r="L13" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 12\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M13" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 12</v>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 12 SOS.txt</v>
+      </c>
+      <c r="R13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 12 Alicuota SOS.txt</v>
+      </c>
+      <c r="S13" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 12\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L13" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 12 SOS.txt</v>
+      </c>
+      <c r="T13" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M13" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 12 Alicuota SOS.txt</v>
+      </c>
+      <c r="U13" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N13" s="2" t="str">
+        <v>13</v>
+      </c>
+      <c r="V13" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O13" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 12</v>
-      </c>
-      <c r="P13" s="2" t="str">
-        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIV - ",N13," - ",B13," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 12 SOS.txt</v>
-      </c>
-      <c r="Q13" s="2" t="str">
-        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIV - ",N13," - ",B13," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 12 Alicuota SOS.txt</v>
-      </c>
-      <c r="R13" s="2" t="str">
-        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIC - ",N13," - ",B13," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 12 SOS.txt</v>
-      </c>
-      <c r="S13" s="2" t="str">
-        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIC - ",N13," - ",B13," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 12 Alicuota SOS.txt</v>
-      </c>
-      <c r="T13" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="U13" s="4">
-        <f>IF(C13=C12,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V13" s="4">
-        <f>IF(C13=C14,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W13" s="5" t="e">
-        <f>VLOOKUP(TEXT(T13,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X13" s="5" t="e">
-        <f>VLOOKUP(TEXT(T13,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y13" s="4" t="e">
-        <f>VLOOKUP(TEXT(T13,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U13,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y13" s="5" t="e">
+        <f>VLOOKUP(TEXT(U13,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z13" s="4" t="e">
+        <f>VLOOKUP(TEXT(U13,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 13</v>
       </c>
       <c r="C14">
@@ -2188,7 +2222,7 @@
         <v>26</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 13</v>
       </c>
       <c r="F14" s="3">
@@ -2197,81 +2231,84 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F14)&amp;"\"&amp;N14&amp;"\TXT"</f>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K14" s="4" t="str">
+      <c r="L14" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 13\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M14" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 13</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 13 SOS.txt</v>
+      </c>
+      <c r="R14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 13 Alicuota SOS.txt</v>
+      </c>
+      <c r="S14" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 13\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L14" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 13 SOS.txt</v>
+      </c>
+      <c r="T14" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M14" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 13 Alicuota SOS.txt</v>
+      </c>
+      <c r="U14" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N14" s="2" t="str">
+        <v>14</v>
+      </c>
+      <c r="V14" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O14" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W14" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 13</v>
-      </c>
-      <c r="P14" s="2" t="str">
-        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIV - ",N14," - ",B14," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 13 SOS.txt</v>
-      </c>
-      <c r="Q14" s="2" t="str">
-        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIV - ",N14," - ",B14," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 13 Alicuota SOS.txt</v>
-      </c>
-      <c r="R14" s="2" t="str">
-        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIC - ",N14," - ",B14," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 13 SOS.txt</v>
-      </c>
-      <c r="S14" s="2" t="str">
-        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIC - ",N14," - ",B14," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 13 Alicuota SOS.txt</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="U14" s="4">
-        <f>IF(C14=C13,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V14" s="4">
-        <f>IF(C14=C15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W14" s="5" t="e">
-        <f>VLOOKUP(TEXT(T14,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X14" s="5" t="e">
-        <f>VLOOKUP(TEXT(T14,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y14" s="4" t="e">
-        <f>VLOOKUP(TEXT(T14,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U14,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y14" s="5" t="e">
+        <f>VLOOKUP(TEXT(U14,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z14" s="4" t="e">
+        <f>VLOOKUP(TEXT(U14,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 14</v>
       </c>
       <c r="C15">
@@ -2281,7 +2318,7 @@
         <v>26</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 14</v>
       </c>
       <c r="F15" s="3">
@@ -2290,81 +2327,82 @@
       <c r="G15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" t="s">
         <v>12</v>
       </c>
-      <c r="J15" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F15)&amp;"\"&amp;N15&amp;"\TXT"</f>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K15" s="4" t="str">
+      <c r="L15" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 14\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>03/2023</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202303</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 14</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 14 SOS.txt</v>
+      </c>
+      <c r="R15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 14 Alicuota SOS.txt</v>
+      </c>
+      <c r="S15" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 14\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L15" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 14 SOS.txt</v>
+      </c>
+      <c r="T15" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M15" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 14 Alicuota SOS.txt</v>
+      </c>
+      <c r="U15" s="4">
         <f t="shared" si="6"/>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N15" s="2" t="str">
+        <v>15</v>
+      </c>
+      <c r="V15" s="4">
         <f t="shared" si="7"/>
-        <v>202303</v>
-      </c>
-      <c r="O15" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W15" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202303 - 30000000000 - Nombre de cliente 14</v>
-      </c>
-      <c r="P15" s="2" t="str">
-        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIV - ",N15," - ",B15," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 14 SOS.txt</v>
-      </c>
-      <c r="Q15" s="2" t="str">
-        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIV - ",N15," - ",B15," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 14 Alicuota SOS.txt</v>
-      </c>
-      <c r="R15" s="2" t="str">
-        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIC - ",N15," - ",B15," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 14 SOS.txt</v>
-      </c>
-      <c r="S15" s="2" t="str">
-        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIC - ",N15," - ",B15," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 14 Alicuota SOS.txt</v>
-      </c>
-      <c r="T15" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="U15" s="4">
-        <f>IF(C15=C14,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V15" s="4">
-        <f>IF(C15=C16,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W15" s="5" t="e">
-        <f>VLOOKUP(TEXT(T15,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X15" s="5" t="e">
-        <f>VLOOKUP(TEXT(T15,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y15" s="4" t="e">
-        <f>VLOOKUP(TEXT(T15,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U15,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y15" s="5" t="e">
+        <f>VLOOKUP(TEXT(U15,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z15" s="4" t="e">
+        <f>VLOOKUP(TEXT(U15,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 15</v>
       </c>
       <c r="C16">
@@ -2374,7 +2412,7 @@
         <v>26</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 15</v>
       </c>
       <c r="F16" s="3">
@@ -2383,81 +2421,84 @@
       <c r="G16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
         <v>13</v>
       </c>
-      <c r="J16" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F16)&amp;"\"&amp;N16&amp;"\TXT"</f>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K16" s="4" t="str">
+      <c r="L16" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 15\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M16" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 15</v>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 15 SOS.txt</v>
+      </c>
+      <c r="R16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 15 Alicuota SOS.txt</v>
+      </c>
+      <c r="S16" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 15\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L16" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 15 SOS.txt</v>
+      </c>
+      <c r="T16" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M16" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 15 Alicuota SOS.txt</v>
+      </c>
+      <c r="U16" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N16" s="2" t="str">
+        <v>16</v>
+      </c>
+      <c r="V16" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O16" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W16" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 15</v>
-      </c>
-      <c r="P16" s="2" t="str">
-        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIV - ",N16," - ",B16," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 15 SOS.txt</v>
-      </c>
-      <c r="Q16" s="2" t="str">
-        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIV - ",N16," - ",B16," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 15 Alicuota SOS.txt</v>
-      </c>
-      <c r="R16" s="2" t="str">
-        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIC - ",N16," - ",B16," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 15 SOS.txt</v>
-      </c>
-      <c r="S16" s="2" t="str">
-        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIC - ",N16," - ",B16," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 15 Alicuota SOS.txt</v>
-      </c>
-      <c r="T16" s="4">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="U16" s="4">
-        <f>IF(C16=C15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V16" s="4">
-        <f>IF(C16=C17,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W16" s="5" t="e">
-        <f>VLOOKUP(TEXT(T16,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X16" s="5" t="e">
-        <f>VLOOKUP(TEXT(T16,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y16" s="4" t="e">
-        <f>VLOOKUP(TEXT(T16,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U16,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y16" s="5" t="e">
+        <f>VLOOKUP(TEXT(U16,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z16" s="4" t="e">
+        <f>VLOOKUP(TEXT(U16,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 16</v>
       </c>
       <c r="C17">
@@ -2467,7 +2508,7 @@
         <v>26</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 16</v>
       </c>
       <c r="F17" s="3">
@@ -2476,81 +2517,84 @@
       <c r="G17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
         <v>13</v>
       </c>
-      <c r="J17" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F17)&amp;"\"&amp;N17&amp;"\TXT"</f>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K17" s="4" t="str">
+      <c r="L17" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 16\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M17" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 16</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 16 SOS.txt</v>
+      </c>
+      <c r="R17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 16 Alicuota SOS.txt</v>
+      </c>
+      <c r="S17" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 16\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L17" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 16 SOS.txt</v>
+      </c>
+      <c r="T17" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M17" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 16 Alicuota SOS.txt</v>
+      </c>
+      <c r="U17" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N17" s="2" t="str">
+        <v>17</v>
+      </c>
+      <c r="V17" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O17" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W17" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 16</v>
-      </c>
-      <c r="P17" s="2" t="str">
-        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIV - ",N17," - ",B17," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 16 SOS.txt</v>
-      </c>
-      <c r="Q17" s="2" t="str">
-        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIV - ",N17," - ",B17," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 16 Alicuota SOS.txt</v>
-      </c>
-      <c r="R17" s="2" t="str">
-        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIC - ",N17," - ",B17," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 16 SOS.txt</v>
-      </c>
-      <c r="S17" s="2" t="str">
-        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIC - ",N17," - ",B17," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 16 Alicuota SOS.txt</v>
-      </c>
-      <c r="T17" s="4">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="U17" s="4">
-        <f>IF(C17=C16,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V17" s="4">
-        <f>IF(C17=C18,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W17" s="5" t="e">
-        <f>VLOOKUP(TEXT(T17,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X17" s="5" t="e">
-        <f>VLOOKUP(TEXT(T17,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y17" s="4" t="e">
-        <f>VLOOKUP(TEXT(T17,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U17,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y17" s="5" t="e">
+        <f>VLOOKUP(TEXT(U17,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z17" s="4" t="e">
+        <f>VLOOKUP(TEXT(U17,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 17</v>
       </c>
       <c r="C18">
@@ -2560,7 +2604,7 @@
         <v>26</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 17</v>
       </c>
       <c r="F18" s="3">
@@ -2569,81 +2613,82 @@
       <c r="G18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" t="s">
         <v>12</v>
       </c>
-      <c r="J18" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F18)&amp;"\"&amp;N18&amp;"\TXT"</f>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K18" s="4" t="str">
+      <c r="L18" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 17\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="M18" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>03/2023</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202303</v>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 17</v>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 17 SOS.txt</v>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 17 Alicuota SOS.txt</v>
+      </c>
+      <c r="S18" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 17\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L18" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 17 SOS.txt</v>
+      </c>
+      <c r="T18" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M18" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 17 Alicuota SOS.txt</v>
+      </c>
+      <c r="U18" s="4">
         <f t="shared" si="6"/>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N18" s="2" t="str">
+        <v>18</v>
+      </c>
+      <c r="V18" s="4">
         <f t="shared" si="7"/>
-        <v>202303</v>
-      </c>
-      <c r="O18" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W18" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202303 - 30000000000 - Nombre de cliente 17</v>
-      </c>
-      <c r="P18" s="2" t="str">
-        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIV - ",N18," - ",B18," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 17 SOS.txt</v>
-      </c>
-      <c r="Q18" s="2" t="str">
-        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIV - ",N18," - ",B18," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 17 Alicuota SOS.txt</v>
-      </c>
-      <c r="R18" s="2" t="str">
-        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIC - ",N18," - ",B18," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 17 SOS.txt</v>
-      </c>
-      <c r="S18" s="2" t="str">
-        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIC - ",N18," - ",B18," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 17 Alicuota SOS.txt</v>
-      </c>
-      <c r="T18" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="U18" s="4">
-        <f>IF(C18=C17,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V18" s="4">
-        <f>IF(C18=C19,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W18" s="5" t="e">
-        <f>VLOOKUP(TEXT(T18,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X18" s="5" t="e">
-        <f>VLOOKUP(TEXT(T18,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y18" s="4" t="e">
-        <f>VLOOKUP(TEXT(T18,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U18,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y18" s="5" t="e">
+        <f>VLOOKUP(TEXT(U18,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z18" s="4" t="e">
+        <f>VLOOKUP(TEXT(U18,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 18</v>
       </c>
       <c r="C19">
@@ -2653,7 +2698,7 @@
         <v>26</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 18</v>
       </c>
       <c r="F19" s="3">
@@ -2662,81 +2707,82 @@
       <c r="G19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" t="s">
         <v>13</v>
       </c>
-      <c r="J19" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F19)&amp;"\"&amp;N19&amp;"\TXT"</f>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K19" s="4" t="str">
+      <c r="L19" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 18\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M19" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N19" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 18</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 18 SOS.txt</v>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 18 Alicuota SOS.txt</v>
+      </c>
+      <c r="S19" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 18\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L19" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 18 SOS.txt</v>
+      </c>
+      <c r="T19" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M19" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 18 Alicuota SOS.txt</v>
+      </c>
+      <c r="U19" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N19" s="2" t="str">
+        <v>19</v>
+      </c>
+      <c r="V19" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O19" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W19" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 18</v>
-      </c>
-      <c r="P19" s="2" t="str">
-        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIV - ",N19," - ",B19," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 18 SOS.txt</v>
-      </c>
-      <c r="Q19" s="2" t="str">
-        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIV - ",N19," - ",B19," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 18 Alicuota SOS.txt</v>
-      </c>
-      <c r="R19" s="2" t="str">
-        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIC - ",N19," - ",B19," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 18 SOS.txt</v>
-      </c>
-      <c r="S19" s="2" t="str">
-        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIC - ",N19," - ",B19," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 18 Alicuota SOS.txt</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="U19" s="4">
-        <f>IF(C19=C18,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V19" s="4">
-        <f>IF(C19=C20,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W19" s="5" t="e">
-        <f>VLOOKUP(TEXT(T19,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X19" s="5" t="e">
-        <f>VLOOKUP(TEXT(T19,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y19" s="4" t="e">
-        <f>VLOOKUP(TEXT(T19,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U19,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" s="5" t="e">
+        <f>VLOOKUP(TEXT(U19,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z19" s="4" t="e">
+        <f>VLOOKUP(TEXT(U19,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 19</v>
       </c>
       <c r="C20">
@@ -2746,7 +2792,7 @@
         <v>26</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 19</v>
       </c>
       <c r="F20" s="3">
@@ -2755,81 +2801,82 @@
       <c r="G20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" t="s">
         <v>12</v>
       </c>
-      <c r="J20" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F20)&amp;"\"&amp;N20&amp;"\TXT"</f>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K20" s="4" t="str">
+      <c r="L20" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 19\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="M20" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>03/2023</v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202303</v>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 19</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 19 SOS.txt</v>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 19 Alicuota SOS.txt</v>
+      </c>
+      <c r="S20" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 19\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L20" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 19 SOS.txt</v>
+      </c>
+      <c r="T20" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M20" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 19 Alicuota SOS.txt</v>
+      </c>
+      <c r="U20" s="4">
         <f t="shared" si="6"/>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N20" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="V20" s="4">
         <f t="shared" si="7"/>
-        <v>202303</v>
-      </c>
-      <c r="O20" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W20" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202303 - 30000000000 - Nombre de cliente 19</v>
-      </c>
-      <c r="P20" s="2" t="str">
-        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIV - ",N20," - ",B20," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 19 SOS.txt</v>
-      </c>
-      <c r="Q20" s="2" t="str">
-        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIV - ",N20," - ",B20," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 19 Alicuota SOS.txt</v>
-      </c>
-      <c r="R20" s="2" t="str">
-        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIC - ",N20," - ",B20," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 19 SOS.txt</v>
-      </c>
-      <c r="S20" s="2" t="str">
-        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIC - ",N20," - ",B20," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 19 Alicuota SOS.txt</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="U20" s="4">
-        <f>IF(C20=C19,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V20" s="4">
-        <f>IF(C20=C21,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W20" s="5" t="e">
-        <f>VLOOKUP(TEXT(T20,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X20" s="5" t="e">
-        <f>VLOOKUP(TEXT(T20,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y20" s="4" t="e">
-        <f>VLOOKUP(TEXT(T20,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U20,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" s="5" t="e">
+        <f>VLOOKUP(TEXT(U20,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z20" s="4" t="e">
+        <f>VLOOKUP(TEXT(U20,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 20</v>
       </c>
       <c r="C21">
@@ -2839,7 +2886,7 @@
         <v>26</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 20</v>
       </c>
       <c r="F21" s="3">
@@ -2848,81 +2895,82 @@
       <c r="G21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3"/>
+      <c r="I21" t="s">
         <v>12</v>
       </c>
-      <c r="J21" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F21)&amp;"\"&amp;N21&amp;"\TXT"</f>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K21" s="4" t="str">
+      <c r="L21" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 20\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="M21" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>03/2023</v>
+      </c>
+      <c r="N21" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202303</v>
+      </c>
+      <c r="P21" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 20</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 20 SOS.txt</v>
+      </c>
+      <c r="R21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 20 Alicuota SOS.txt</v>
+      </c>
+      <c r="S21" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 20\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L21" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 20 SOS.txt</v>
+      </c>
+      <c r="T21" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M21" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 20 Alicuota SOS.txt</v>
+      </c>
+      <c r="U21" s="4">
         <f t="shared" si="6"/>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N21" s="2" t="str">
+        <v>21</v>
+      </c>
+      <c r="V21" s="4">
         <f t="shared" si="7"/>
-        <v>202303</v>
-      </c>
-      <c r="O21" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202303 - 30000000000 - Nombre de cliente 20</v>
-      </c>
-      <c r="P21" s="2" t="str">
-        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIV - ",N21," - ",B21," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 20 SOS.txt</v>
-      </c>
-      <c r="Q21" s="2" t="str">
-        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIV - ",N21," - ",B21," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 20 Alicuota SOS.txt</v>
-      </c>
-      <c r="R21" s="2" t="str">
-        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIC - ",N21," - ",B21," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 20 SOS.txt</v>
-      </c>
-      <c r="S21" s="2" t="str">
-        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIC - ",N21," - ",B21," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 20 Alicuota SOS.txt</v>
-      </c>
-      <c r="T21" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="U21" s="4">
-        <f>IF(C21=C20,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V21" s="4">
-        <f>IF(C21=C22,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W21" s="5" t="e">
-        <f>VLOOKUP(TEXT(T21,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X21" s="5" t="e">
-        <f>VLOOKUP(TEXT(T21,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y21" s="4" t="e">
-        <f>VLOOKUP(TEXT(T21,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U21,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" s="5" t="e">
+        <f>VLOOKUP(TEXT(U21,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z21" s="4" t="e">
+        <f>VLOOKUP(TEXT(U21,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 21</v>
       </c>
       <c r="C22">
@@ -2932,7 +2980,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 21</v>
       </c>
       <c r="F22" s="3">
@@ -2941,81 +2989,84 @@
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
         <v>13</v>
       </c>
-      <c r="J22" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F22)&amp;"\"&amp;N22&amp;"\TXT"</f>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K22" s="4" t="str">
+      <c r="L22" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 21\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M22" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N22" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P22" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 21</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 21 SOS.txt</v>
+      </c>
+      <c r="R22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 21 Alicuota SOS.txt</v>
+      </c>
+      <c r="S22" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 21\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L22" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 21 SOS.txt</v>
+      </c>
+      <c r="T22" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M22" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 21 Alicuota SOS.txt</v>
+      </c>
+      <c r="U22" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N22" s="2" t="str">
+        <v>22</v>
+      </c>
+      <c r="V22" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O22" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W22" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 21</v>
-      </c>
-      <c r="P22" s="2" t="str">
-        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIV - ",N22," - ",B22," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 21 SOS.txt</v>
-      </c>
-      <c r="Q22" s="2" t="str">
-        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIV - ",N22," - ",B22," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 21 Alicuota SOS.txt</v>
-      </c>
-      <c r="R22" s="2" t="str">
-        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIC - ",N22," - ",B22," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 21 SOS.txt</v>
-      </c>
-      <c r="S22" s="2" t="str">
-        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIC - ",N22," - ",B22," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 21 Alicuota SOS.txt</v>
-      </c>
-      <c r="T22" s="4">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="U22" s="4">
-        <f>IF(C22=C21,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V22" s="4">
-        <f>IF(C22=C23,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W22" s="5" t="e">
-        <f>VLOOKUP(TEXT(T22,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X22" s="5" t="e">
-        <f>VLOOKUP(TEXT(T22,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y22" s="4" t="e">
-        <f>VLOOKUP(TEXT(T22,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U22,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" s="5" t="e">
+        <f>VLOOKUP(TEXT(U22,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z22" s="4" t="e">
+        <f>VLOOKUP(TEXT(U22,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 22</v>
       </c>
       <c r="C23">
@@ -3025,7 +3076,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 22</v>
       </c>
       <c r="F23" s="3">
@@ -3034,81 +3085,84 @@
       <c r="G23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
         <v>13</v>
       </c>
-      <c r="J23" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F23)&amp;"\"&amp;N23&amp;"\TXT"</f>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K23" s="4" t="str">
+      <c r="L23" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 22\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M23" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 22</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 22 SOS.txt</v>
+      </c>
+      <c r="R23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 22 Alicuota SOS.txt</v>
+      </c>
+      <c r="S23" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 22\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L23" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 22 SOS.txt</v>
+      </c>
+      <c r="T23" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M23" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 22 Alicuota SOS.txt</v>
+      </c>
+      <c r="U23" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N23" s="2" t="str">
+        <v>23</v>
+      </c>
+      <c r="V23" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O23" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W23" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 22</v>
-      </c>
-      <c r="P23" s="2" t="str">
-        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIV - ",N23," - ",B23," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 22 SOS.txt</v>
-      </c>
-      <c r="Q23" s="2" t="str">
-        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIV - ",N23," - ",B23," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 22 Alicuota SOS.txt</v>
-      </c>
-      <c r="R23" s="2" t="str">
-        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIC - ",N23," - ",B23," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 22 SOS.txt</v>
-      </c>
-      <c r="S23" s="2" t="str">
-        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIC - ",N23," - ",B23," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 22 Alicuota SOS.txt</v>
-      </c>
-      <c r="T23" s="4">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="U23" s="4">
-        <f>IF(C23=C22,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V23" s="4">
-        <f>IF(C23=C24,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W23" s="5" t="e">
-        <f>VLOOKUP(TEXT(T23,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X23" s="5" t="e">
-        <f>VLOOKUP(TEXT(T23,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y23" s="4" t="e">
-        <f>VLOOKUP(TEXT(T23,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U23,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" s="5" t="e">
+        <f>VLOOKUP(TEXT(U23,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z23" s="4" t="e">
+        <f>VLOOKUP(TEXT(U23,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 23</v>
       </c>
       <c r="C24">
@@ -3118,7 +3172,7 @@
         <v>26</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 23</v>
       </c>
       <c r="F24" s="3">
@@ -3127,81 +3181,84 @@
       <c r="G24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s">
         <v>13</v>
       </c>
-      <c r="J24" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F24)&amp;"\"&amp;N24&amp;"\TXT"</f>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K24" s="4" t="str">
+      <c r="L24" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 23\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M24" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P24" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 23</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 23 SOS.txt</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 23 Alicuota SOS.txt</v>
+      </c>
+      <c r="S24" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 23\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L24" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 23 SOS.txt</v>
+      </c>
+      <c r="T24" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M24" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 23 Alicuota SOS.txt</v>
+      </c>
+      <c r="U24" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N24" s="2" t="str">
+        <v>24</v>
+      </c>
+      <c r="V24" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O24" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W24" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 23</v>
-      </c>
-      <c r="P24" s="2" t="str">
-        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIV - ",N24," - ",B24," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 23 SOS.txt</v>
-      </c>
-      <c r="Q24" s="2" t="str">
-        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIV - ",N24," - ",B24," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 23 Alicuota SOS.txt</v>
-      </c>
-      <c r="R24" s="2" t="str">
-        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIC - ",N24," - ",B24," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 23 SOS.txt</v>
-      </c>
-      <c r="S24" s="2" t="str">
-        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIC - ",N24," - ",B24," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 23 Alicuota SOS.txt</v>
-      </c>
-      <c r="T24" s="4">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="U24" s="4">
-        <f>IF(C24=C23,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V24" s="4">
-        <f>IF(C24=C25,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W24" s="5" t="e">
-        <f>VLOOKUP(TEXT(T24,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X24" s="5" t="e">
-        <f>VLOOKUP(TEXT(T24,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y24" s="4" t="e">
-        <f>VLOOKUP(TEXT(T24,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U24,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" s="5" t="e">
+        <f>VLOOKUP(TEXT(U24,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z24" s="4" t="e">
+        <f>VLOOKUP(TEXT(U24,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 24</v>
       </c>
       <c r="C25">
@@ -3211,7 +3268,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 24</v>
       </c>
       <c r="F25" s="3">
@@ -3220,81 +3277,82 @@
       <c r="G25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3"/>
+      <c r="I25" t="s">
         <v>13</v>
       </c>
-      <c r="J25" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F25)&amp;"\"&amp;N25&amp;"\TXT"</f>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K25" s="4" t="str">
+      <c r="L25" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 24\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M25" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 24</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 24 SOS.txt</v>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 24 Alicuota SOS.txt</v>
+      </c>
+      <c r="S25" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 24\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L25" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 24 SOS.txt</v>
+      </c>
+      <c r="T25" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M25" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 24 Alicuota SOS.txt</v>
+      </c>
+      <c r="U25" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N25" s="2" t="str">
+        <v>25</v>
+      </c>
+      <c r="V25" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O25" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W25" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 24</v>
-      </c>
-      <c r="P25" s="2" t="str">
-        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIV - ",N25," - ",B25," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 24 SOS.txt</v>
-      </c>
-      <c r="Q25" s="2" t="str">
-        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIV - ",N25," - ",B25," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 24 Alicuota SOS.txt</v>
-      </c>
-      <c r="R25" s="2" t="str">
-        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIC - ",N25," - ",B25," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 24 SOS.txt</v>
-      </c>
-      <c r="S25" s="2" t="str">
-        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIC - ",N25," - ",B25," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 24 Alicuota SOS.txt</v>
-      </c>
-      <c r="T25" s="4">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="U25" s="4">
-        <f>IF(C25=C24,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V25" s="4">
-        <f>IF(C25=C26,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W25" s="5" t="e">
-        <f>VLOOKUP(TEXT(T25,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X25" s="5" t="e">
-        <f>VLOOKUP(TEXT(T25,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y25" s="4" t="e">
-        <f>VLOOKUP(TEXT(T25,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U25,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" s="5" t="e">
+        <f>VLOOKUP(TEXT(U25,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z25" s="4" t="e">
+        <f>VLOOKUP(TEXT(U25,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 25</v>
       </c>
       <c r="C26">
@@ -3304,7 +3362,7 @@
         <v>26</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 25</v>
       </c>
       <c r="F26" s="3">
@@ -3313,81 +3371,82 @@
       <c r="G26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" t="s">
         <v>13</v>
       </c>
-      <c r="J26" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F26)&amp;"\"&amp;N26&amp;"\TXT"</f>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K26" s="4" t="str">
+      <c r="L26" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 25\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M26" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P26" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 25</v>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 25 SOS.txt</v>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 25 Alicuota SOS.txt</v>
+      </c>
+      <c r="S26" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 25\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L26" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 25 SOS.txt</v>
+      </c>
+      <c r="T26" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M26" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 25 Alicuota SOS.txt</v>
+      </c>
+      <c r="U26" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N26" s="2" t="str">
+        <v>26</v>
+      </c>
+      <c r="V26" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O26" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W26" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 25</v>
-      </c>
-      <c r="P26" s="2" t="str">
-        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIV - ",N26," - ",B26," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 25 SOS.txt</v>
-      </c>
-      <c r="Q26" s="2" t="str">
-        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIV - ",N26," - ",B26," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 25 Alicuota SOS.txt</v>
-      </c>
-      <c r="R26" s="2" t="str">
-        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIC - ",N26," - ",B26," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 25 SOS.txt</v>
-      </c>
-      <c r="S26" s="2" t="str">
-        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIC - ",N26," - ",B26," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 25 Alicuota SOS.txt</v>
-      </c>
-      <c r="T26" s="4">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="U26" s="4">
-        <f>IF(C26=C25,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V26" s="4">
-        <f>IF(C26=C27,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W26" s="5" t="e">
-        <f>VLOOKUP(TEXT(T26,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X26" s="5" t="e">
-        <f>VLOOKUP(TEXT(T26,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y26" s="4" t="e">
-        <f>VLOOKUP(TEXT(T26,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U26,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" s="5" t="e">
+        <f>VLOOKUP(TEXT(U26,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z26" s="4" t="e">
+        <f>VLOOKUP(TEXT(U26,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 26</v>
       </c>
       <c r="C27">
@@ -3397,7 +3456,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 26</v>
       </c>
       <c r="F27" s="3">
@@ -3406,81 +3465,82 @@
       <c r="G27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3"/>
+      <c r="I27" t="s">
         <v>13</v>
       </c>
-      <c r="J27" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F27)&amp;"\"&amp;N27&amp;"\TXT"</f>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K27" s="4" t="str">
+      <c r="L27" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 26\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M27" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 26</v>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 26 SOS.txt</v>
+      </c>
+      <c r="R27" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 26 Alicuota SOS.txt</v>
+      </c>
+      <c r="S27" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 26\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L27" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 26 SOS.txt</v>
+      </c>
+      <c r="T27" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M27" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 26 Alicuota SOS.txt</v>
+      </c>
+      <c r="U27" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N27" s="2" t="str">
+        <v>27</v>
+      </c>
+      <c r="V27" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O27" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W27" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 26</v>
-      </c>
-      <c r="P27" s="2" t="str">
-        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIV - ",N27," - ",B27," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 26 SOS.txt</v>
-      </c>
-      <c r="Q27" s="2" t="str">
-        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIV - ",N27," - ",B27," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 26 Alicuota SOS.txt</v>
-      </c>
-      <c r="R27" s="2" t="str">
-        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIC - ",N27," - ",B27," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 26 SOS.txt</v>
-      </c>
-      <c r="S27" s="2" t="str">
-        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIC - ",N27," - ",B27," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 26 Alicuota SOS.txt</v>
-      </c>
-      <c r="T27" s="4">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="U27" s="4">
-        <f>IF(C27=C26,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V27" s="4">
-        <f>IF(C27=C28,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W27" s="5" t="e">
-        <f>VLOOKUP(TEXT(T27,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X27" s="5" t="e">
-        <f>VLOOKUP(TEXT(T27,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y27" s="4" t="e">
-        <f>VLOOKUP(TEXT(T27,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U27,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" s="5" t="e">
+        <f>VLOOKUP(TEXT(U27,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z27" s="4" t="e">
+        <f>VLOOKUP(TEXT(U27,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 27</v>
       </c>
       <c r="C28">
@@ -3490,7 +3550,7 @@
         <v>26</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 27</v>
       </c>
       <c r="F28" s="3">
@@ -3499,81 +3559,84 @@
       <c r="G28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
         <v>13</v>
       </c>
-      <c r="J28" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F28)&amp;"\"&amp;N28&amp;"\TXT"</f>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K28" s="4" t="str">
+      <c r="L28" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 27\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M28" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N28" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P28" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 27</v>
+      </c>
+      <c r="Q28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 27 SOS.txt</v>
+      </c>
+      <c r="R28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 27 Alicuota SOS.txt</v>
+      </c>
+      <c r="S28" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 27\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L28" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 27 SOS.txt</v>
+      </c>
+      <c r="T28" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M28" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 27 Alicuota SOS.txt</v>
+      </c>
+      <c r="U28" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N28" s="2" t="str">
+        <v>28</v>
+      </c>
+      <c r="V28" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O28" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W28" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 27</v>
-      </c>
-      <c r="P28" s="2" t="str">
-        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIV - ",N28," - ",B28," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 27 SOS.txt</v>
-      </c>
-      <c r="Q28" s="2" t="str">
-        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIV - ",N28," - ",B28," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 27 Alicuota SOS.txt</v>
-      </c>
-      <c r="R28" s="2" t="str">
-        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIC - ",N28," - ",B28," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 27 SOS.txt</v>
-      </c>
-      <c r="S28" s="2" t="str">
-        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIC - ",N28," - ",B28," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 27 Alicuota SOS.txt</v>
-      </c>
-      <c r="T28" s="4">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="U28" s="4">
-        <f>IF(C28=C27,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V28" s="4">
-        <f>IF(C28=C29,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W28" s="5" t="e">
-        <f>VLOOKUP(TEXT(T28,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X28" s="5" t="e">
-        <f>VLOOKUP(TEXT(T28,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y28" s="4" t="e">
-        <f>VLOOKUP(TEXT(T28,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U28,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" s="5" t="e">
+        <f>VLOOKUP(TEXT(U28,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z28" s="4" t="e">
+        <f>VLOOKUP(TEXT(U28,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 28</v>
       </c>
       <c r="C29">
@@ -3583,7 +3646,7 @@
         <v>26</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 28</v>
       </c>
       <c r="F29" s="3">
@@ -3592,81 +3655,82 @@
       <c r="G29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3"/>
+      <c r="I29" t="s">
         <v>13</v>
       </c>
-      <c r="J29" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F29)&amp;"\"&amp;N29&amp;"\TXT"</f>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K29" s="4" t="str">
+      <c r="L29" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 28\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M29" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N29" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P29" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 28</v>
+      </c>
+      <c r="Q29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 28 SOS.txt</v>
+      </c>
+      <c r="R29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 28 Alicuota SOS.txt</v>
+      </c>
+      <c r="S29" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 28\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L29" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 28 SOS.txt</v>
+      </c>
+      <c r="T29" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M29" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 28 Alicuota SOS.txt</v>
+      </c>
+      <c r="U29" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N29" s="2" t="str">
+        <v>29</v>
+      </c>
+      <c r="V29" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O29" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W29" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 28</v>
-      </c>
-      <c r="P29" s="2" t="str">
-        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIV - ",N29," - ",B29," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 28 SOS.txt</v>
-      </c>
-      <c r="Q29" s="2" t="str">
-        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIV - ",N29," - ",B29," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 28 Alicuota SOS.txt</v>
-      </c>
-      <c r="R29" s="2" t="str">
-        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIC - ",N29," - ",B29," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 28 SOS.txt</v>
-      </c>
-      <c r="S29" s="2" t="str">
-        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIC - ",N29," - ",B29," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 28 Alicuota SOS.txt</v>
-      </c>
-      <c r="T29" s="4">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="U29" s="4">
-        <f>IF(C29=C28,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V29" s="4">
-        <f>IF(C29=C30,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W29" s="5" t="e">
-        <f>VLOOKUP(TEXT(T29,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X29" s="5" t="e">
-        <f>VLOOKUP(TEXT(T29,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y29" s="4" t="e">
-        <f>VLOOKUP(TEXT(T29,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U29,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" s="5" t="e">
+        <f>VLOOKUP(TEXT(U29,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z29" s="4" t="e">
+        <f>VLOOKUP(TEXT(U29,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 29</v>
       </c>
       <c r="C30">
@@ -3676,7 +3740,7 @@
         <v>26</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 29</v>
       </c>
       <c r="F30" s="3">
@@ -3685,81 +3749,82 @@
       <c r="G30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" t="s">
         <v>12</v>
       </c>
-      <c r="J30" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F30)&amp;"\"&amp;N30&amp;"\TXT"</f>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K30" s="4" t="str">
+      <c r="L30" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 29\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="M30" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>03/2023</v>
+      </c>
+      <c r="N30" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="O30" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202303</v>
+      </c>
+      <c r="P30" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 29</v>
+      </c>
+      <c r="Q30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 29 SOS.txt</v>
+      </c>
+      <c r="R30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 29 Alicuota SOS.txt</v>
+      </c>
+      <c r="S30" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 29\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L30" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 29 SOS.txt</v>
+      </c>
+      <c r="T30" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M30" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 29 Alicuota SOS.txt</v>
+      </c>
+      <c r="U30" s="4">
         <f t="shared" si="6"/>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N30" s="2" t="str">
+        <v>30</v>
+      </c>
+      <c r="V30" s="4">
         <f t="shared" si="7"/>
-        <v>202303</v>
-      </c>
-      <c r="O30" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W30" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202303 - 30000000000 - Nombre de cliente 29</v>
-      </c>
-      <c r="P30" s="2" t="str">
-        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIV - ",N30," - ",B30," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 29 SOS.txt</v>
-      </c>
-      <c r="Q30" s="2" t="str">
-        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIV - ",N30," - ",B30," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 29 Alicuota SOS.txt</v>
-      </c>
-      <c r="R30" s="2" t="str">
-        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIC - ",N30," - ",B30," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 29 SOS.txt</v>
-      </c>
-      <c r="S30" s="2" t="str">
-        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIC - ",N30," - ",B30," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 29 Alicuota SOS.txt</v>
-      </c>
-      <c r="T30" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="U30" s="4">
-        <f>IF(C30=C29,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V30" s="4">
-        <f>IF(C30=C31,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W30" s="5" t="e">
-        <f>VLOOKUP(TEXT(T30,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X30" s="5" t="e">
-        <f>VLOOKUP(TEXT(T30,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y30" s="4" t="e">
-        <f>VLOOKUP(TEXT(T30,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U30,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y30" s="5" t="e">
+        <f>VLOOKUP(TEXT(U30,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z30" s="4" t="e">
+        <f>VLOOKUP(TEXT(U30,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 30</v>
       </c>
       <c r="C31">
@@ -3769,7 +3834,7 @@
         <v>26</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 30</v>
       </c>
       <c r="F31" s="3">
@@ -3778,81 +3843,82 @@
       <c r="G31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3"/>
+      <c r="I31" t="s">
         <v>13</v>
       </c>
-      <c r="J31" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F31)&amp;"\"&amp;N31&amp;"\TXT"</f>
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K31" s="4" t="str">
+      <c r="L31" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 30\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M31" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N31" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O31" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P31" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 30</v>
+      </c>
+      <c r="Q31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 30 SOS.txt</v>
+      </c>
+      <c r="R31" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 30 Alicuota SOS.txt</v>
+      </c>
+      <c r="S31" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 30\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L31" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 30 SOS.txt</v>
+      </c>
+      <c r="T31" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M31" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 30 Alicuota SOS.txt</v>
+      </c>
+      <c r="U31" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N31" s="2" t="str">
+        <v>31</v>
+      </c>
+      <c r="V31" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O31" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W31" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 30</v>
-      </c>
-      <c r="P31" s="2" t="str">
-        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIV - ",N31," - ",B31," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 30 SOS.txt</v>
-      </c>
-      <c r="Q31" s="2" t="str">
-        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIV - ",N31," - ",B31," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 30 Alicuota SOS.txt</v>
-      </c>
-      <c r="R31" s="2" t="str">
-        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIC - ",N31," - ",B31," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 30 SOS.txt</v>
-      </c>
-      <c r="S31" s="2" t="str">
-        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIC - ",N31," - ",B31," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 30 Alicuota SOS.txt</v>
-      </c>
-      <c r="T31" s="4">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="U31" s="4">
-        <f>IF(C31=C30,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V31" s="4">
-        <f>IF(C31=C32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W31" s="5" t="e">
-        <f>VLOOKUP(TEXT(T31,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X31" s="5" t="e">
-        <f>VLOOKUP(TEXT(T31,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y31" s="4" t="e">
-        <f>VLOOKUP(TEXT(T31,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U31,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y31" s="5" t="e">
+        <f>VLOOKUP(TEXT(U31,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z31" s="4" t="e">
+        <f>VLOOKUP(TEXT(U31,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 31</v>
       </c>
       <c r="C32">
@@ -3862,7 +3928,7 @@
         <v>26</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 31</v>
       </c>
       <c r="F32" s="3">
@@ -3871,81 +3937,82 @@
       <c r="G32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="3"/>
+      <c r="I32" t="s">
         <v>12</v>
       </c>
-      <c r="J32" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F32)&amp;"\"&amp;N32&amp;"\TXT"</f>
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K32" s="4" t="str">
+      <c r="L32" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 31\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="M32" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>03/2023</v>
+      </c>
+      <c r="N32" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Marzo 2023</v>
+      </c>
+      <c r="O32" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202303</v>
+      </c>
+      <c r="P32" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202303 - 30000000000 - Nombre de cliente 31</v>
+      </c>
+      <c r="Q32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 31 SOS.txt</v>
+      </c>
+      <c r="R32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 31 Alicuota SOS.txt</v>
+      </c>
+      <c r="S32" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 31\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L32" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 31 SOS.txt</v>
+      </c>
+      <c r="T32" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>03/2023</v>
-      </c>
-      <c r="M32" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 31 Alicuota SOS.txt</v>
+      </c>
+      <c r="U32" s="4">
         <f t="shared" si="6"/>
-        <v>Marzo 2023</v>
-      </c>
-      <c r="N32" s="2" t="str">
+        <v>32</v>
+      </c>
+      <c r="V32" s="4">
         <f t="shared" si="7"/>
-        <v>202303</v>
-      </c>
-      <c r="O32" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W32" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202303 - 30000000000 - Nombre de cliente 31</v>
-      </c>
-      <c r="P32" s="2" t="str">
-        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIV - ",N32," - ",B32," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 31 SOS.txt</v>
-      </c>
-      <c r="Q32" s="2" t="str">
-        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIV - ",N32," - ",B32," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 31 Alicuota SOS.txt</v>
-      </c>
-      <c r="R32" s="2" t="str">
-        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIC - ",N32," - ",B32," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 31 SOS.txt</v>
-      </c>
-      <c r="S32" s="2" t="str">
-        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIC - ",N32," - ",B32," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 31 Alicuota SOS.txt</v>
-      </c>
-      <c r="T32" s="4">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="U32" s="4">
-        <f>IF(C32=C31,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V32" s="4">
-        <f>IF(C32=C33,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W32" s="5" t="e">
-        <f>VLOOKUP(TEXT(T32,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X32" s="5" t="e">
-        <f>VLOOKUP(TEXT(T32,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y32" s="4" t="e">
-        <f>VLOOKUP(TEXT(T32,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U32,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y32" s="5" t="e">
+        <f>VLOOKUP(TEXT(U32,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z32" s="4" t="e">
+        <f>VLOOKUP(TEXT(U32,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 32</v>
       </c>
       <c r="C33">
@@ -3955,7 +4022,7 @@
         <v>26</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 32</v>
       </c>
       <c r="F33" s="3">
@@ -3964,81 +4031,82 @@
       <c r="G33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="3"/>
+      <c r="I33" t="s">
         <v>13</v>
       </c>
-      <c r="J33" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F33)&amp;"\"&amp;N33&amp;"\TXT"</f>
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K33" s="4" t="str">
+      <c r="L33" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 32\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M33" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>04/2023</v>
+      </c>
+      <c r="N33" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Abril 2023</v>
+      </c>
+      <c r="O33" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202304</v>
+      </c>
+      <c r="P33" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 32</v>
+      </c>
+      <c r="Q33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 SOS.txt</v>
+      </c>
+      <c r="R33" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
+      </c>
+      <c r="S33" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 32\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="L33" s="4" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 SOS.txt</v>
+      </c>
+      <c r="T33" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>04/2023</v>
-      </c>
-      <c r="M33" s="2" t="str">
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
+      </c>
+      <c r="U33" s="4">
         <f t="shared" si="6"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="N33" s="2" t="str">
+        <v>33</v>
+      </c>
+      <c r="V33" s="4">
         <f t="shared" si="7"/>
-        <v>202304</v>
-      </c>
-      <c r="O33" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="W33" s="4">
         <f t="shared" si="8"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 32</v>
-      </c>
-      <c r="P33" s="2" t="str">
-        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIV - ",N33," - ",B33," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 SOS.txt</v>
-      </c>
-      <c r="Q33" s="2" t="str">
-        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIV - ",N33," - ",B33," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
-      </c>
-      <c r="R33" s="2" t="str">
-        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIC - ",N33," - ",B33," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 SOS.txt</v>
-      </c>
-      <c r="S33" s="2" t="str">
-        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIC - ",N33," - ",B33," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
-      </c>
-      <c r="T33" s="4">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="U33" s="4">
-        <f>IF(C33=C32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V33" s="4">
-        <f>IF(C33=C34,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W33" s="5" t="e">
-        <f>VLOOKUP(TEXT(T33,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="X33" s="5" t="e">
-        <f>VLOOKUP(TEXT(T33,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y33" s="4" t="e">
-        <f>VLOOKUP(TEXT(T33,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U33,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y33" s="5" t="e">
+        <f>VLOOKUP(TEXT(U33,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z33" s="4" t="e">
+        <f>VLOOKUP(TEXT(U33,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A63" si="9">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A63" si="16">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>Nombre de cliente 33</v>
       </c>
       <c r="C34">
@@ -4048,7 +4116,7 @@
         <v>26</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 33</v>
       </c>
       <c r="F34" s="3">
@@ -4057,81 +4125,82 @@
       <c r="G34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="3"/>
+      <c r="I34" t="s">
         <v>12</v>
       </c>
-      <c r="J34" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F34)&amp;"\"&amp;N34&amp;"\TXT"</f>
+      <c r="K34" t="str">
+        <f t="shared" ref="K34:K63" si="17">"F:\Libros Compras y Ventas\"&amp;YEAR(F34)&amp;"\"&amp;O34&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K34" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L34" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 33\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L34" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M34" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>03/2023</v>
       </c>
-      <c r="M34" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N34" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="N34" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O34" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202303</v>
       </c>
-      <c r="O34" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P34" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 33</v>
       </c>
-      <c r="P34" s="2" t="str">
-        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",N34," - ",B34," SOS.txt")</f>
+      <c r="Q34" s="2" t="str">
+        <f t="shared" ref="Q34:Q63" si="18">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",O34," - ",B34," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 33 SOS.txt</v>
       </c>
-      <c r="Q34" s="2" t="str">
-        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",N34," - ",B34," Alicuota SOS.txt")</f>
+      <c r="R34" s="2" t="str">
+        <f t="shared" ref="R34:R63" si="19">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",O34," - ",B34," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 33 Alicuota SOS.txt</v>
       </c>
-      <c r="R34" s="2" t="str">
-        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",N34," - ",B34," SOS.txt")</f>
+      <c r="S34" s="2" t="str">
+        <f t="shared" ref="S34:S63" si="20">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",O34," - ",B34," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 33 SOS.txt</v>
       </c>
-      <c r="S34" s="2" t="str">
-        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",N34," - ",B34," Alicuota SOS.txt")</f>
+      <c r="T34" s="2" t="str">
+        <f t="shared" ref="T34:T63" si="21">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",O34," - ",B34," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 33 Alicuota SOS.txt</v>
       </c>
-      <c r="T34" s="4">
-        <f t="shared" ref="T34:T63" si="10">ROW(A34)</f>
+      <c r="U34" s="4">
+        <f t="shared" ref="U34:U63" si="22">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="U34" s="4">
-        <f>IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V34" s="4">
-        <f>IF(C34=C35,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W34" s="5" t="e">
-        <f>VLOOKUP(TEXT(T34,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" ref="V34:V63" si="23">IF(C34=C33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W34" s="4">
+        <f t="shared" ref="W34:W63" si="24">IF(C34=C35,1,0)</f>
+        <v>1</v>
       </c>
       <c r="X34" s="5" t="e">
-        <f>VLOOKUP(TEXT(T34,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y34" s="4" t="e">
-        <f>VLOOKUP(TEXT(T34,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U34,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y34" s="5" t="e">
+        <f>VLOOKUP(TEXT(U34,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z34" s="4" t="e">
+        <f>VLOOKUP(TEXT(U34,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B35" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 34</v>
       </c>
       <c r="C35">
@@ -4141,7 +4210,7 @@
         <v>26</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 34</v>
       </c>
       <c r="F35" s="3">
@@ -4150,81 +4219,82 @@
       <c r="G35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="3"/>
+      <c r="I35" t="s">
         <v>13</v>
       </c>
-      <c r="J35" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F35)&amp;"\"&amp;N35&amp;"\TXT"</f>
+      <c r="K35" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K35" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L35" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 34\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L35" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M35" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M35" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N35" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N35" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O35" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O35" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P35" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 34</v>
       </c>
-      <c r="P35" s="2" t="str">
-        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIV - ",N35," - ",B35," SOS.txt")</f>
+      <c r="Q35" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 34 SOS.txt</v>
       </c>
-      <c r="Q35" s="2" t="str">
-        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIV - ",N35," - ",B35," Alicuota SOS.txt")</f>
+      <c r="R35" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 34 Alicuota SOS.txt</v>
       </c>
-      <c r="R35" s="2" t="str">
-        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIC - ",N35," - ",B35," SOS.txt")</f>
+      <c r="S35" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 34 SOS.txt</v>
       </c>
-      <c r="S35" s="2" t="str">
-        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIC - ",N35," - ",B35," Alicuota SOS.txt")</f>
+      <c r="T35" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 34 Alicuota SOS.txt</v>
       </c>
-      <c r="T35" s="4">
-        <f t="shared" si="10"/>
+      <c r="U35" s="4">
+        <f t="shared" si="22"/>
         <v>35</v>
       </c>
-      <c r="U35" s="4">
-        <f>IF(C35=C34,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V35" s="4">
-        <f>IF(C35=C36,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W35" s="5" t="e">
-        <f>VLOOKUP(TEXT(T35,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W35" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X35" s="5" t="e">
-        <f>VLOOKUP(TEXT(T35,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y35" s="4" t="e">
-        <f>VLOOKUP(TEXT(T35,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U35,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y35" s="5" t="e">
+        <f>VLOOKUP(TEXT(U35,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z35" s="4" t="e">
+        <f>VLOOKUP(TEXT(U35,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B36" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 35</v>
       </c>
       <c r="C36">
@@ -4234,7 +4304,7 @@
         <v>26</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 35</v>
       </c>
       <c r="F36" s="3">
@@ -4243,81 +4313,84 @@
       <c r="G36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
         <v>13</v>
       </c>
-      <c r="J36" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F36)&amp;"\"&amp;N36&amp;"\TXT"</f>
+      <c r="K36" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K36" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L36" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 35\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L36" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M36" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M36" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N36" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N36" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O36" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O36" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P36" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 35</v>
       </c>
-      <c r="P36" s="2" t="str">
-        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIV - ",N36," - ",B36," SOS.txt")</f>
+      <c r="Q36" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 35 SOS.txt</v>
       </c>
-      <c r="Q36" s="2" t="str">
-        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIV - ",N36," - ",B36," Alicuota SOS.txt")</f>
+      <c r="R36" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 35 Alicuota SOS.txt</v>
       </c>
-      <c r="R36" s="2" t="str">
-        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIC - ",N36," - ",B36," SOS.txt")</f>
+      <c r="S36" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 35 SOS.txt</v>
       </c>
-      <c r="S36" s="2" t="str">
-        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIC - ",N36," - ",B36," Alicuota SOS.txt")</f>
+      <c r="T36" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 35 Alicuota SOS.txt</v>
       </c>
-      <c r="T36" s="4">
-        <f t="shared" si="10"/>
+      <c r="U36" s="4">
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
-      <c r="U36" s="4">
-        <f>IF(C36=C35,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V36" s="4">
-        <f>IF(C36=C37,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W36" s="5" t="e">
-        <f>VLOOKUP(TEXT(T36,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W36" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X36" s="5" t="e">
-        <f>VLOOKUP(TEXT(T36,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y36" s="4" t="e">
-        <f>VLOOKUP(TEXT(T36,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U36,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y36" s="5" t="e">
+        <f>VLOOKUP(TEXT(U36,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z36" s="4" t="e">
+        <f>VLOOKUP(TEXT(U36,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B37" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 36</v>
       </c>
       <c r="C37">
@@ -4327,7 +4400,7 @@
         <v>26</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 36</v>
       </c>
       <c r="F37" s="3">
@@ -4336,81 +4409,82 @@
       <c r="G37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="3"/>
+      <c r="I37" t="s">
         <v>13</v>
       </c>
-      <c r="J37" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F37)&amp;"\"&amp;N37&amp;"\TXT"</f>
+      <c r="K37" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K37" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L37" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 36\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L37" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M37" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M37" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N37" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N37" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O37" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O37" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P37" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 36</v>
       </c>
-      <c r="P37" s="2" t="str">
-        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIV - ",N37," - ",B37," SOS.txt")</f>
+      <c r="Q37" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 36 SOS.txt</v>
       </c>
-      <c r="Q37" s="2" t="str">
-        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIV - ",N37," - ",B37," Alicuota SOS.txt")</f>
+      <c r="R37" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 36 Alicuota SOS.txt</v>
       </c>
-      <c r="R37" s="2" t="str">
-        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIC - ",N37," - ",B37," SOS.txt")</f>
+      <c r="S37" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 36 SOS.txt</v>
       </c>
-      <c r="S37" s="2" t="str">
-        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIC - ",N37," - ",B37," Alicuota SOS.txt")</f>
+      <c r="T37" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 36 Alicuota SOS.txt</v>
       </c>
-      <c r="T37" s="4">
-        <f t="shared" si="10"/>
+      <c r="U37" s="4">
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
-      <c r="U37" s="4">
-        <f>IF(C37=C36,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V37" s="4">
-        <f>IF(C37=C38,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W37" s="5" t="e">
-        <f>VLOOKUP(TEXT(T37,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W37" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X37" s="5" t="e">
-        <f>VLOOKUP(TEXT(T37,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y37" s="4" t="e">
-        <f>VLOOKUP(TEXT(T37,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U37,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y37" s="5" t="e">
+        <f>VLOOKUP(TEXT(U37,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z37" s="4" t="e">
+        <f>VLOOKUP(TEXT(U37,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B38" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 37</v>
       </c>
       <c r="C38">
@@ -4420,7 +4494,7 @@
         <v>26</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 37</v>
       </c>
       <c r="F38" s="3">
@@ -4429,81 +4503,82 @@
       <c r="G38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="3"/>
+      <c r="I38" t="s">
         <v>13</v>
       </c>
-      <c r="J38" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F38)&amp;"\"&amp;N38&amp;"\TXT"</f>
+      <c r="K38" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K38" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L38" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 37\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L38" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M38" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M38" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N38" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N38" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O38" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O38" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P38" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 37</v>
       </c>
-      <c r="P38" s="2" t="str">
-        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIV - ",N38," - ",B38," SOS.txt")</f>
+      <c r="Q38" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 37 SOS.txt</v>
       </c>
-      <c r="Q38" s="2" t="str">
-        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIV - ",N38," - ",B38," Alicuota SOS.txt")</f>
+      <c r="R38" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 37 Alicuota SOS.txt</v>
       </c>
-      <c r="R38" s="2" t="str">
-        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIC - ",N38," - ",B38," SOS.txt")</f>
+      <c r="S38" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 37 SOS.txt</v>
       </c>
-      <c r="S38" s="2" t="str">
-        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIC - ",N38," - ",B38," Alicuota SOS.txt")</f>
+      <c r="T38" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 37 Alicuota SOS.txt</v>
       </c>
-      <c r="T38" s="4">
-        <f t="shared" si="10"/>
+      <c r="U38" s="4">
+        <f t="shared" si="22"/>
         <v>38</v>
       </c>
-      <c r="U38" s="4">
-        <f>IF(C38=C37,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V38" s="4">
-        <f>IF(C38=C39,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W38" s="5" t="e">
-        <f>VLOOKUP(TEXT(T38,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W38" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X38" s="5" t="e">
-        <f>VLOOKUP(TEXT(T38,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y38" s="4" t="e">
-        <f>VLOOKUP(TEXT(T38,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U38,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y38" s="5" t="e">
+        <f>VLOOKUP(TEXT(U38,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z38" s="4" t="e">
+        <f>VLOOKUP(TEXT(U38,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B39" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 38</v>
       </c>
       <c r="C39">
@@ -4513,7 +4588,7 @@
         <v>26</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 38</v>
       </c>
       <c r="F39" s="3">
@@ -4522,81 +4597,84 @@
       <c r="G39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s">
         <v>13</v>
       </c>
-      <c r="J39" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F39)&amp;"\"&amp;N39&amp;"\TXT"</f>
+      <c r="K39" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K39" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L39" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 38\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L39" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M39" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M39" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N39" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N39" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O39" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O39" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P39" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 38</v>
       </c>
-      <c r="P39" s="2" t="str">
-        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIV - ",N39," - ",B39," SOS.txt")</f>
+      <c r="Q39" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 38 SOS.txt</v>
       </c>
-      <c r="Q39" s="2" t="str">
-        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIV - ",N39," - ",B39," Alicuota SOS.txt")</f>
+      <c r="R39" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 38 Alicuota SOS.txt</v>
       </c>
-      <c r="R39" s="2" t="str">
-        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIC - ",N39," - ",B39," SOS.txt")</f>
+      <c r="S39" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 38 SOS.txt</v>
       </c>
-      <c r="S39" s="2" t="str">
-        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIC - ",N39," - ",B39," Alicuota SOS.txt")</f>
+      <c r="T39" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 38 Alicuota SOS.txt</v>
       </c>
-      <c r="T39" s="4">
-        <f t="shared" si="10"/>
+      <c r="U39" s="4">
+        <f t="shared" si="22"/>
         <v>39</v>
       </c>
-      <c r="U39" s="4">
-        <f>IF(C39=C38,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V39" s="4">
-        <f>IF(C39=C40,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W39" s="5" t="e">
-        <f>VLOOKUP(TEXT(T39,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W39" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X39" s="5" t="e">
-        <f>VLOOKUP(TEXT(T39,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y39" s="4" t="e">
-        <f>VLOOKUP(TEXT(T39,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U39,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y39" s="5" t="e">
+        <f>VLOOKUP(TEXT(U39,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z39" s="4" t="e">
+        <f>VLOOKUP(TEXT(U39,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B40" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 39</v>
       </c>
       <c r="C40">
@@ -4606,7 +4684,7 @@
         <v>26</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 39</v>
       </c>
       <c r="F40" s="3">
@@ -4615,81 +4693,82 @@
       <c r="G40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="3"/>
+      <c r="I40" t="s">
         <v>13</v>
       </c>
-      <c r="J40" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F40)&amp;"\"&amp;N40&amp;"\TXT"</f>
+      <c r="K40" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K40" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L40" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 39\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L40" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M40" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M40" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N40" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N40" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O40" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O40" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P40" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 39</v>
       </c>
-      <c r="P40" s="2" t="str">
-        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIV - ",N40," - ",B40," SOS.txt")</f>
+      <c r="Q40" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 39 SOS.txt</v>
       </c>
-      <c r="Q40" s="2" t="str">
-        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIV - ",N40," - ",B40," Alicuota SOS.txt")</f>
+      <c r="R40" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 39 Alicuota SOS.txt</v>
       </c>
-      <c r="R40" s="2" t="str">
-        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIC - ",N40," - ",B40," SOS.txt")</f>
+      <c r="S40" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 39 SOS.txt</v>
       </c>
-      <c r="S40" s="2" t="str">
-        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIC - ",N40," - ",B40," Alicuota SOS.txt")</f>
+      <c r="T40" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 39 Alicuota SOS.txt</v>
       </c>
-      <c r="T40" s="4">
-        <f t="shared" si="10"/>
+      <c r="U40" s="4">
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
-      <c r="U40" s="4">
-        <f>IF(C40=C39,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V40" s="4">
-        <f>IF(C40=C41,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W40" s="5" t="e">
-        <f>VLOOKUP(TEXT(T40,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X40" s="5" t="e">
-        <f>VLOOKUP(TEXT(T40,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y40" s="4" t="e">
-        <f>VLOOKUP(TEXT(T40,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U40,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y40" s="5" t="e">
+        <f>VLOOKUP(TEXT(U40,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z40" s="4" t="e">
+        <f>VLOOKUP(TEXT(U40,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B41" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 40</v>
       </c>
       <c r="C41">
@@ -4699,7 +4778,7 @@
         <v>26</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 40</v>
       </c>
       <c r="F41" s="3">
@@ -4708,81 +4787,82 @@
       <c r="G41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="3"/>
+      <c r="I41" t="s">
         <v>13</v>
       </c>
-      <c r="J41" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F41)&amp;"\"&amp;N41&amp;"\TXT"</f>
+      <c r="K41" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K41" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L41" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 40\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L41" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M41" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M41" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N41" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N41" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O41" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O41" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P41" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 40</v>
       </c>
-      <c r="P41" s="2" t="str">
-        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIV - ",N41," - ",B41," SOS.txt")</f>
+      <c r="Q41" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 40 SOS.txt</v>
       </c>
-      <c r="Q41" s="2" t="str">
-        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIV - ",N41," - ",B41," Alicuota SOS.txt")</f>
+      <c r="R41" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 40 Alicuota SOS.txt</v>
       </c>
-      <c r="R41" s="2" t="str">
-        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIC - ",N41," - ",B41," SOS.txt")</f>
+      <c r="S41" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 40 SOS.txt</v>
       </c>
-      <c r="S41" s="2" t="str">
-        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIC - ",N41," - ",B41," Alicuota SOS.txt")</f>
+      <c r="T41" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 40 Alicuota SOS.txt</v>
       </c>
-      <c r="T41" s="4">
-        <f t="shared" si="10"/>
+      <c r="U41" s="4">
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
-      <c r="U41" s="4">
-        <f>IF(C41=C40,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V41" s="4">
-        <f>IF(C41=C42,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W41" s="5" t="e">
-        <f>VLOOKUP(TEXT(T41,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W41" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X41" s="5" t="e">
-        <f>VLOOKUP(TEXT(T41,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y41" s="4" t="e">
-        <f>VLOOKUP(TEXT(T41,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U41,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y41" s="5" t="e">
+        <f>VLOOKUP(TEXT(U41,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z41" s="4" t="e">
+        <f>VLOOKUP(TEXT(U41,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B42" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 41</v>
       </c>
       <c r="C42">
@@ -4792,7 +4872,7 @@
         <v>26</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 41</v>
       </c>
       <c r="F42" s="3">
@@ -4801,81 +4881,84 @@
       <c r="G42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s">
         <v>13</v>
       </c>
-      <c r="J42" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F42)&amp;"\"&amp;N42&amp;"\TXT"</f>
+      <c r="K42" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K42" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L42" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 41\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L42" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M42" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M42" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N42" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N42" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O42" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O42" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P42" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 41</v>
       </c>
-      <c r="P42" s="2" t="str">
-        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIV - ",N42," - ",B42," SOS.txt")</f>
+      <c r="Q42" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 41 SOS.txt</v>
       </c>
-      <c r="Q42" s="2" t="str">
-        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIV - ",N42," - ",B42," Alicuota SOS.txt")</f>
+      <c r="R42" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 41 Alicuota SOS.txt</v>
       </c>
-      <c r="R42" s="2" t="str">
-        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIC - ",N42," - ",B42," SOS.txt")</f>
+      <c r="S42" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 41 SOS.txt</v>
       </c>
-      <c r="S42" s="2" t="str">
-        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIC - ",N42," - ",B42," Alicuota SOS.txt")</f>
+      <c r="T42" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 41 Alicuota SOS.txt</v>
       </c>
-      <c r="T42" s="4">
-        <f t="shared" si="10"/>
+      <c r="U42" s="4">
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
-      <c r="U42" s="4">
-        <f>IF(C42=C41,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V42" s="4">
-        <f>IF(C42=C43,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W42" s="5" t="e">
-        <f>VLOOKUP(TEXT(T42,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W42" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X42" s="5" t="e">
-        <f>VLOOKUP(TEXT(T42,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y42" s="4" t="e">
-        <f>VLOOKUP(TEXT(T42,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U42,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y42" s="5" t="e">
+        <f>VLOOKUP(TEXT(U42,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z42" s="4" t="e">
+        <f>VLOOKUP(TEXT(U42,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B43" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B43" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 42</v>
       </c>
       <c r="C43">
@@ -4885,7 +4968,7 @@
         <v>26</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 42</v>
       </c>
       <c r="F43" s="3">
@@ -4894,81 +4977,82 @@
       <c r="G43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="3"/>
+      <c r="I43" t="s">
         <v>12</v>
       </c>
-      <c r="J43" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F43)&amp;"\"&amp;N43&amp;"\TXT"</f>
+      <c r="K43" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K43" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L43" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 42\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L43" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M43" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>03/2023</v>
       </c>
-      <c r="M43" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N43" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="N43" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O43" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202303</v>
       </c>
-      <c r="O43" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P43" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 42</v>
       </c>
-      <c r="P43" s="2" t="str">
-        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIV - ",N43," - ",B43," SOS.txt")</f>
+      <c r="Q43" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 42 SOS.txt</v>
       </c>
-      <c r="Q43" s="2" t="str">
-        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIV - ",N43," - ",B43," Alicuota SOS.txt")</f>
+      <c r="R43" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 42 Alicuota SOS.txt</v>
       </c>
-      <c r="R43" s="2" t="str">
-        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIC - ",N43," - ",B43," SOS.txt")</f>
+      <c r="S43" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 42 SOS.txt</v>
       </c>
-      <c r="S43" s="2" t="str">
-        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIC - ",N43," - ",B43," Alicuota SOS.txt")</f>
+      <c r="T43" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 42 Alicuota SOS.txt</v>
       </c>
-      <c r="T43" s="4">
-        <f t="shared" si="10"/>
+      <c r="U43" s="4">
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
-      <c r="U43" s="4">
-        <f>IF(C43=C42,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V43" s="4">
-        <f>IF(C43=C44,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W43" s="5" t="e">
-        <f>VLOOKUP(TEXT(T43,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W43" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X43" s="5" t="e">
-        <f>VLOOKUP(TEXT(T43,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y43" s="4" t="e">
-        <f>VLOOKUP(TEXT(T43,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U43,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y43" s="5" t="e">
+        <f>VLOOKUP(TEXT(U43,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z43" s="4" t="e">
+        <f>VLOOKUP(TEXT(U43,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B44" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 43</v>
       </c>
       <c r="C44">
@@ -4978,7 +5062,7 @@
         <v>26</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 43</v>
       </c>
       <c r="F44" s="3">
@@ -4987,81 +5071,82 @@
       <c r="G44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="3"/>
+      <c r="I44" t="s">
         <v>12</v>
       </c>
-      <c r="J44" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F44)&amp;"\"&amp;N44&amp;"\TXT"</f>
+      <c r="K44" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K44" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L44" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 43\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L44" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M44" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>03/2023</v>
       </c>
-      <c r="M44" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N44" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="N44" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O44" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202303</v>
       </c>
-      <c r="O44" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P44" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 43</v>
       </c>
-      <c r="P44" s="2" t="str">
-        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIV - ",N44," - ",B44," SOS.txt")</f>
+      <c r="Q44" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 43 SOS.txt</v>
       </c>
-      <c r="Q44" s="2" t="str">
-        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIV - ",N44," - ",B44," Alicuota SOS.txt")</f>
+      <c r="R44" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 43 Alicuota SOS.txt</v>
       </c>
-      <c r="R44" s="2" t="str">
-        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIC - ",N44," - ",B44," SOS.txt")</f>
+      <c r="S44" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 43 SOS.txt</v>
       </c>
-      <c r="S44" s="2" t="str">
-        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIC - ",N44," - ",B44," Alicuota SOS.txt")</f>
+      <c r="T44" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 43 Alicuota SOS.txt</v>
       </c>
-      <c r="T44" s="4">
-        <f t="shared" si="10"/>
+      <c r="U44" s="4">
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
-      <c r="U44" s="4">
-        <f>IF(C44=C43,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V44" s="4">
-        <f>IF(C44=C45,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W44" s="5" t="e">
-        <f>VLOOKUP(TEXT(T44,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W44" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X44" s="5" t="e">
-        <f>VLOOKUP(TEXT(T44,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y44" s="4" t="e">
-        <f>VLOOKUP(TEXT(T44,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U44,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y44" s="5" t="e">
+        <f>VLOOKUP(TEXT(U44,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z44" s="4" t="e">
+        <f>VLOOKUP(TEXT(U44,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B45" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 44</v>
       </c>
       <c r="C45">
@@ -5071,7 +5156,7 @@
         <v>26</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 44</v>
       </c>
       <c r="F45" s="3">
@@ -5080,81 +5165,82 @@
       <c r="G45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="3"/>
+      <c r="I45" t="s">
         <v>13</v>
       </c>
-      <c r="J45" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F45)&amp;"\"&amp;N45&amp;"\TXT"</f>
+      <c r="K45" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K45" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L45" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 44\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L45" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M45" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M45" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N45" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N45" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O45" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O45" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P45" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 44</v>
       </c>
-      <c r="P45" s="2" t="str">
-        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIV - ",N45," - ",B45," SOS.txt")</f>
+      <c r="Q45" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 44 SOS.txt</v>
       </c>
-      <c r="Q45" s="2" t="str">
-        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIV - ",N45," - ",B45," Alicuota SOS.txt")</f>
+      <c r="R45" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 44 Alicuota SOS.txt</v>
       </c>
-      <c r="R45" s="2" t="str">
-        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIC - ",N45," - ",B45," SOS.txt")</f>
+      <c r="S45" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 44 SOS.txt</v>
       </c>
-      <c r="S45" s="2" t="str">
-        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIC - ",N45," - ",B45," Alicuota SOS.txt")</f>
+      <c r="T45" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 44 Alicuota SOS.txt</v>
       </c>
-      <c r="T45" s="4">
-        <f t="shared" si="10"/>
+      <c r="U45" s="4">
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
-      <c r="U45" s="4">
-        <f>IF(C45=C44,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V45" s="4">
-        <f>IF(C45=C46,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W45" s="5" t="e">
-        <f>VLOOKUP(TEXT(T45,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W45" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X45" s="5" t="e">
-        <f>VLOOKUP(TEXT(T45,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y45" s="4" t="e">
-        <f>VLOOKUP(TEXT(T45,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U45,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y45" s="5" t="e">
+        <f>VLOOKUP(TEXT(U45,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z45" s="4" t="e">
+        <f>VLOOKUP(TEXT(U45,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B46" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B46" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 45</v>
       </c>
       <c r="C46">
@@ -5164,7 +5250,7 @@
         <v>26</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 45</v>
       </c>
       <c r="F46" s="3">
@@ -5173,81 +5259,82 @@
       <c r="G46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="3"/>
+      <c r="I46" t="s">
         <v>13</v>
       </c>
-      <c r="J46" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F46)&amp;"\"&amp;N46&amp;"\TXT"</f>
+      <c r="K46" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K46" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L46" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 45\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L46" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M46" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M46" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N46" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N46" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O46" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O46" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P46" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 45</v>
       </c>
-      <c r="P46" s="2" t="str">
-        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIV - ",N46," - ",B46," SOS.txt")</f>
+      <c r="Q46" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 45 SOS.txt</v>
       </c>
-      <c r="Q46" s="2" t="str">
-        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIV - ",N46," - ",B46," Alicuota SOS.txt")</f>
+      <c r="R46" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 45 Alicuota SOS.txt</v>
       </c>
-      <c r="R46" s="2" t="str">
-        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIC - ",N46," - ",B46," SOS.txt")</f>
+      <c r="S46" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 45 SOS.txt</v>
       </c>
-      <c r="S46" s="2" t="str">
-        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIC - ",N46," - ",B46," Alicuota SOS.txt")</f>
+      <c r="T46" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 45 Alicuota SOS.txt</v>
       </c>
-      <c r="T46" s="4">
-        <f t="shared" si="10"/>
+      <c r="U46" s="4">
+        <f t="shared" si="22"/>
         <v>46</v>
       </c>
-      <c r="U46" s="4">
-        <f>IF(C46=C45,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V46" s="4">
-        <f>IF(C46=C47,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W46" s="5" t="e">
-        <f>VLOOKUP(TEXT(T46,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W46" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X46" s="5" t="e">
-        <f>VLOOKUP(TEXT(T46,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y46" s="4" t="e">
-        <f>VLOOKUP(TEXT(T46,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U46,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y46" s="5" t="e">
+        <f>VLOOKUP(TEXT(U46,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z46" s="4" t="e">
+        <f>VLOOKUP(TEXT(U46,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B47" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B47" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 46</v>
       </c>
       <c r="C47">
@@ -5257,7 +5344,7 @@
         <v>26</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 46</v>
       </c>
       <c r="F47" s="3">
@@ -5266,81 +5353,82 @@
       <c r="G47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="3"/>
+      <c r="I47" t="s">
         <v>12</v>
       </c>
-      <c r="J47" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F47)&amp;"\"&amp;N47&amp;"\TXT"</f>
+      <c r="K47" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K47" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L47" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 46\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L47" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M47" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>03/2023</v>
       </c>
-      <c r="M47" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N47" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="N47" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O47" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202303</v>
       </c>
-      <c r="O47" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P47" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 46</v>
       </c>
-      <c r="P47" s="2" t="str">
-        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIV - ",N47," - ",B47," SOS.txt")</f>
+      <c r="Q47" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 46 SOS.txt</v>
       </c>
-      <c r="Q47" s="2" t="str">
-        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIV - ",N47," - ",B47," Alicuota SOS.txt")</f>
+      <c r="R47" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 46 Alicuota SOS.txt</v>
       </c>
-      <c r="R47" s="2" t="str">
-        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIC - ",N47," - ",B47," SOS.txt")</f>
+      <c r="S47" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 46 SOS.txt</v>
       </c>
-      <c r="S47" s="2" t="str">
-        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIC - ",N47," - ",B47," Alicuota SOS.txt")</f>
+      <c r="T47" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 46 Alicuota SOS.txt</v>
       </c>
-      <c r="T47" s="4">
-        <f t="shared" si="10"/>
+      <c r="U47" s="4">
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
-      <c r="U47" s="4">
-        <f>IF(C47=C46,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V47" s="4">
-        <f>IF(C47=C48,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W47" s="5" t="e">
-        <f>VLOOKUP(TEXT(T47,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W47" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X47" s="5" t="e">
-        <f>VLOOKUP(TEXT(T47,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y47" s="4" t="e">
-        <f>VLOOKUP(TEXT(T47,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U47,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y47" s="5" t="e">
+        <f>VLOOKUP(TEXT(U47,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z47" s="4" t="e">
+        <f>VLOOKUP(TEXT(U47,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B48" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 47</v>
       </c>
       <c r="C48">
@@ -5350,7 +5438,7 @@
         <v>26</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 47</v>
       </c>
       <c r="F48" s="3">
@@ -5359,81 +5447,82 @@
       <c r="G48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="3"/>
+      <c r="I48" t="s">
         <v>13</v>
       </c>
-      <c r="J48" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F48)&amp;"\"&amp;N48&amp;"\TXT"</f>
+      <c r="K48" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K48" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L48" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 47\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L48" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M48" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M48" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N48" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N48" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O48" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O48" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P48" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 47</v>
       </c>
-      <c r="P48" s="2" t="str">
-        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIV - ",N48," - ",B48," SOS.txt")</f>
+      <c r="Q48" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 47 SOS.txt</v>
       </c>
-      <c r="Q48" s="2" t="str">
-        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIV - ",N48," - ",B48," Alicuota SOS.txt")</f>
+      <c r="R48" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 47 Alicuota SOS.txt</v>
       </c>
-      <c r="R48" s="2" t="str">
-        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIC - ",N48," - ",B48," SOS.txt")</f>
+      <c r="S48" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 47 SOS.txt</v>
       </c>
-      <c r="S48" s="2" t="str">
-        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIC - ",N48," - ",B48," Alicuota SOS.txt")</f>
+      <c r="T48" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 47 Alicuota SOS.txt</v>
       </c>
-      <c r="T48" s="4">
-        <f t="shared" si="10"/>
+      <c r="U48" s="4">
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
-      <c r="U48" s="4">
-        <f>IF(C48=C47,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V48" s="4">
-        <f>IF(C48=C49,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W48" s="5" t="e">
-        <f>VLOOKUP(TEXT(T48,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W48" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X48" s="5" t="e">
-        <f>VLOOKUP(TEXT(T48,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y48" s="4" t="e">
-        <f>VLOOKUP(TEXT(T48,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U48,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y48" s="5" t="e">
+        <f>VLOOKUP(TEXT(U48,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z48" s="4" t="e">
+        <f>VLOOKUP(TEXT(U48,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B49" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 48</v>
       </c>
       <c r="C49">
@@ -5443,7 +5532,7 @@
         <v>26</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 48</v>
       </c>
       <c r="F49" s="3">
@@ -5452,81 +5541,82 @@
       <c r="G49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="3"/>
+      <c r="I49" t="s">
         <v>13</v>
       </c>
-      <c r="J49" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F49)&amp;"\"&amp;N49&amp;"\TXT"</f>
+      <c r="K49" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K49" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L49" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 48\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L49" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M49" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M49" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N49" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N49" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O49" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O49" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P49" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 48</v>
       </c>
-      <c r="P49" s="2" t="str">
-        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIV - ",N49," - ",B49," SOS.txt")</f>
+      <c r="Q49" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 48 SOS.txt</v>
       </c>
-      <c r="Q49" s="2" t="str">
-        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIV - ",N49," - ",B49," Alicuota SOS.txt")</f>
+      <c r="R49" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 48 Alicuota SOS.txt</v>
       </c>
-      <c r="R49" s="2" t="str">
-        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIC - ",N49," - ",B49," SOS.txt")</f>
+      <c r="S49" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 48 SOS.txt</v>
       </c>
-      <c r="S49" s="2" t="str">
-        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIC - ",N49," - ",B49," Alicuota SOS.txt")</f>
+      <c r="T49" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 48 Alicuota SOS.txt</v>
       </c>
-      <c r="T49" s="4">
-        <f t="shared" si="10"/>
+      <c r="U49" s="4">
+        <f t="shared" si="22"/>
         <v>49</v>
       </c>
-      <c r="U49" s="4">
-        <f>IF(C49=C48,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V49" s="4">
-        <f>IF(C49=C50,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W49" s="5" t="e">
-        <f>VLOOKUP(TEXT(T49,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W49" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X49" s="5" t="e">
-        <f>VLOOKUP(TEXT(T49,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y49" s="4" t="e">
-        <f>VLOOKUP(TEXT(T49,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U49,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y49" s="5" t="e">
+        <f>VLOOKUP(TEXT(U49,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z49" s="4" t="e">
+        <f>VLOOKUP(TEXT(U49,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B50" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 49</v>
       </c>
       <c r="C50">
@@ -5536,7 +5626,7 @@
         <v>26</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 49</v>
       </c>
       <c r="F50" s="3">
@@ -5545,81 +5635,82 @@
       <c r="G50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="3"/>
+      <c r="I50" t="s">
         <v>12</v>
       </c>
-      <c r="J50" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F50)&amp;"\"&amp;N50&amp;"\TXT"</f>
+      <c r="K50" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K50" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L50" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 49\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L50" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M50" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>03/2023</v>
       </c>
-      <c r="M50" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N50" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="N50" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O50" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202303</v>
       </c>
-      <c r="O50" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P50" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 49</v>
       </c>
-      <c r="P50" s="2" t="str">
-        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIV - ",N50," - ",B50," SOS.txt")</f>
+      <c r="Q50" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 49 SOS.txt</v>
       </c>
-      <c r="Q50" s="2" t="str">
-        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIV - ",N50," - ",B50," Alicuota SOS.txt")</f>
+      <c r="R50" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 49 Alicuota SOS.txt</v>
       </c>
-      <c r="R50" s="2" t="str">
-        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIC - ",N50," - ",B50," SOS.txt")</f>
+      <c r="S50" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 49 SOS.txt</v>
       </c>
-      <c r="S50" s="2" t="str">
-        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIC - ",N50," - ",B50," Alicuota SOS.txt")</f>
+      <c r="T50" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 49 Alicuota SOS.txt</v>
       </c>
-      <c r="T50" s="4">
-        <f t="shared" si="10"/>
+      <c r="U50" s="4">
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
-      <c r="U50" s="4">
-        <f>IF(C50=C49,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V50" s="4">
-        <f>IF(C50=C51,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W50" s="5" t="e">
-        <f>VLOOKUP(TEXT(T50,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W50" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X50" s="5" t="e">
-        <f>VLOOKUP(TEXT(T50,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y50" s="4" t="e">
-        <f>VLOOKUP(TEXT(T50,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U50,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y50" s="5" t="e">
+        <f>VLOOKUP(TEXT(U50,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z50" s="4" t="e">
+        <f>VLOOKUP(TEXT(U50,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B51" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 50</v>
       </c>
       <c r="C51">
@@ -5629,7 +5720,7 @@
         <v>26</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 50</v>
       </c>
       <c r="F51" s="3">
@@ -5638,81 +5729,82 @@
       <c r="G51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="3"/>
+      <c r="I51" t="s">
         <v>12</v>
       </c>
-      <c r="J51" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F51)&amp;"\"&amp;N51&amp;"\TXT"</f>
+      <c r="K51" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K51" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L51" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 50\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L51" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M51" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>03/2023</v>
       </c>
-      <c r="M51" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N51" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="N51" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O51" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202303</v>
       </c>
-      <c r="O51" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P51" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 50</v>
       </c>
-      <c r="P51" s="2" t="str">
-        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIV - ",N51," - ",B51," SOS.txt")</f>
+      <c r="Q51" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 50 SOS.txt</v>
       </c>
-      <c r="Q51" s="2" t="str">
-        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIV - ",N51," - ",B51," Alicuota SOS.txt")</f>
+      <c r="R51" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 50 Alicuota SOS.txt</v>
       </c>
-      <c r="R51" s="2" t="str">
-        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIC - ",N51," - ",B51," SOS.txt")</f>
+      <c r="S51" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 50 SOS.txt</v>
       </c>
-      <c r="S51" s="2" t="str">
-        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIC - ",N51," - ",B51," Alicuota SOS.txt")</f>
+      <c r="T51" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 50 Alicuota SOS.txt</v>
       </c>
-      <c r="T51" s="4">
-        <f t="shared" si="10"/>
+      <c r="U51" s="4">
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
-      <c r="U51" s="4">
-        <f>IF(C51=C50,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V51" s="4">
-        <f>IF(C51=C52,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W51" s="5" t="e">
-        <f>VLOOKUP(TEXT(T51,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W51" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X51" s="5" t="e">
-        <f>VLOOKUP(TEXT(T51,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y51" s="4" t="e">
-        <f>VLOOKUP(TEXT(T51,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U51,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y51" s="5" t="e">
+        <f>VLOOKUP(TEXT(U51,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z51" s="4" t="e">
+        <f>VLOOKUP(TEXT(U51,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B52" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 51</v>
       </c>
       <c r="C52">
@@ -5722,7 +5814,7 @@
         <v>26</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 51</v>
       </c>
       <c r="F52" s="3">
@@ -5731,81 +5823,82 @@
       <c r="G52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="3"/>
+      <c r="I52" t="s">
         <v>12</v>
       </c>
-      <c r="J52" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F52)&amp;"\"&amp;N52&amp;"\TXT"</f>
+      <c r="K52" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K52" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L52" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 51\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L52" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M52" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>03/2023</v>
       </c>
-      <c r="M52" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N52" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="N52" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O52" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202303</v>
       </c>
-      <c r="O52" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P52" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 51</v>
       </c>
-      <c r="P52" s="2" t="str">
-        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIV - ",N52," - ",B52," SOS.txt")</f>
+      <c r="Q52" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 51 SOS.txt</v>
       </c>
-      <c r="Q52" s="2" t="str">
-        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIV - ",N52," - ",B52," Alicuota SOS.txt")</f>
+      <c r="R52" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 51 Alicuota SOS.txt</v>
       </c>
-      <c r="R52" s="2" t="str">
-        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIC - ",N52," - ",B52," SOS.txt")</f>
+      <c r="S52" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 51 SOS.txt</v>
       </c>
-      <c r="S52" s="2" t="str">
-        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIC - ",N52," - ",B52," Alicuota SOS.txt")</f>
+      <c r="T52" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 51 Alicuota SOS.txt</v>
       </c>
-      <c r="T52" s="4">
-        <f t="shared" si="10"/>
+      <c r="U52" s="4">
+        <f t="shared" si="22"/>
         <v>52</v>
       </c>
-      <c r="U52" s="4">
-        <f>IF(C52=C51,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V52" s="4">
-        <f>IF(C52=C53,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W52" s="5" t="e">
-        <f>VLOOKUP(TEXT(T52,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W52" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X52" s="5" t="e">
-        <f>VLOOKUP(TEXT(T52,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y52" s="4" t="e">
-        <f>VLOOKUP(TEXT(T52,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U52,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y52" s="5" t="e">
+        <f>VLOOKUP(TEXT(U52,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z52" s="4" t="e">
+        <f>VLOOKUP(TEXT(U52,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B53" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B53" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 52</v>
       </c>
       <c r="C53">
@@ -5815,7 +5908,7 @@
         <v>26</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 52</v>
       </c>
       <c r="F53" s="3">
@@ -5824,81 +5917,82 @@
       <c r="G53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="3"/>
+      <c r="I53" t="s">
         <v>13</v>
       </c>
-      <c r="J53" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F53)&amp;"\"&amp;N53&amp;"\TXT"</f>
+      <c r="K53" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K53" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L53" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 52\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L53" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M53" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M53" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N53" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N53" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O53" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O53" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P53" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 52</v>
       </c>
-      <c r="P53" s="2" t="str">
-        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIV - ",N53," - ",B53," SOS.txt")</f>
+      <c r="Q53" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 52 SOS.txt</v>
       </c>
-      <c r="Q53" s="2" t="str">
-        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIV - ",N53," - ",B53," Alicuota SOS.txt")</f>
+      <c r="R53" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 52 Alicuota SOS.txt</v>
       </c>
-      <c r="R53" s="2" t="str">
-        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIC - ",N53," - ",B53," SOS.txt")</f>
+      <c r="S53" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 52 SOS.txt</v>
       </c>
-      <c r="S53" s="2" t="str">
-        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIC - ",N53," - ",B53," Alicuota SOS.txt")</f>
+      <c r="T53" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 52 Alicuota SOS.txt</v>
       </c>
-      <c r="T53" s="4">
-        <f t="shared" si="10"/>
+      <c r="U53" s="4">
+        <f t="shared" si="22"/>
         <v>53</v>
       </c>
-      <c r="U53" s="4">
-        <f>IF(C53=C52,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V53" s="4">
-        <f>IF(C53=C54,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W53" s="5" t="e">
-        <f>VLOOKUP(TEXT(T53,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W53" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X53" s="5" t="e">
-        <f>VLOOKUP(TEXT(T53,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y53" s="4" t="e">
-        <f>VLOOKUP(TEXT(T53,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U53,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y53" s="5" t="e">
+        <f>VLOOKUP(TEXT(U53,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z53" s="4" t="e">
+        <f>VLOOKUP(TEXT(U53,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B54" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 53</v>
       </c>
       <c r="C54">
@@ -5908,7 +6002,7 @@
         <v>26</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 53</v>
       </c>
       <c r="F54" s="3">
@@ -5917,81 +6011,82 @@
       <c r="G54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="3"/>
+      <c r="I54" t="s">
         <v>12</v>
       </c>
-      <c r="J54" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F54)&amp;"\"&amp;N54&amp;"\TXT"</f>
+      <c r="K54" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K54" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L54" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 53\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L54" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M54" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>03/2023</v>
       </c>
-      <c r="M54" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N54" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="N54" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O54" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202303</v>
       </c>
-      <c r="O54" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P54" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 53</v>
       </c>
-      <c r="P54" s="2" t="str">
-        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIV - ",N54," - ",B54," SOS.txt")</f>
+      <c r="Q54" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 53 SOS.txt</v>
       </c>
-      <c r="Q54" s="2" t="str">
-        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIV - ",N54," - ",B54," Alicuota SOS.txt")</f>
+      <c r="R54" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 53 Alicuota SOS.txt</v>
       </c>
-      <c r="R54" s="2" t="str">
-        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIC - ",N54," - ",B54," SOS.txt")</f>
+      <c r="S54" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 53 SOS.txt</v>
       </c>
-      <c r="S54" s="2" t="str">
-        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIC - ",N54," - ",B54," Alicuota SOS.txt")</f>
+      <c r="T54" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 53 Alicuota SOS.txt</v>
       </c>
-      <c r="T54" s="4">
-        <f t="shared" si="10"/>
+      <c r="U54" s="4">
+        <f t="shared" si="22"/>
         <v>54</v>
       </c>
-      <c r="U54" s="4">
-        <f>IF(C54=C53,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V54" s="4">
-        <f>IF(C54=C55,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W54" s="5" t="e">
-        <f>VLOOKUP(TEXT(T54,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W54" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X54" s="5" t="e">
-        <f>VLOOKUP(TEXT(T54,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y54" s="4" t="e">
-        <f>VLOOKUP(TEXT(T54,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U54,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y54" s="5" t="e">
+        <f>VLOOKUP(TEXT(U54,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z54" s="4" t="e">
+        <f>VLOOKUP(TEXT(U54,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B55" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B55" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 54</v>
       </c>
       <c r="C55">
@@ -6001,7 +6096,7 @@
         <v>26</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 54</v>
       </c>
       <c r="F55" s="3">
@@ -6010,81 +6105,84 @@
       <c r="G55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s">
         <v>13</v>
       </c>
-      <c r="J55" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F55)&amp;"\"&amp;N55&amp;"\TXT"</f>
+      <c r="K55" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K55" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L55" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 54\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L55" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M55" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M55" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N55" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N55" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O55" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O55" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P55" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 54</v>
       </c>
-      <c r="P55" s="2" t="str">
-        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIV - ",N55," - ",B55," SOS.txt")</f>
+      <c r="Q55" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 54 SOS.txt</v>
       </c>
-      <c r="Q55" s="2" t="str">
-        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIV - ",N55," - ",B55," Alicuota SOS.txt")</f>
+      <c r="R55" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 54 Alicuota SOS.txt</v>
       </c>
-      <c r="R55" s="2" t="str">
-        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIC - ",N55," - ",B55," SOS.txt")</f>
+      <c r="S55" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 54 SOS.txt</v>
       </c>
-      <c r="S55" s="2" t="str">
-        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIC - ",N55," - ",B55," Alicuota SOS.txt")</f>
+      <c r="T55" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 54 Alicuota SOS.txt</v>
       </c>
-      <c r="T55" s="4">
-        <f t="shared" si="10"/>
+      <c r="U55" s="4">
+        <f t="shared" si="22"/>
         <v>55</v>
       </c>
-      <c r="U55" s="4">
-        <f>IF(C55=C54,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V55" s="4">
-        <f>IF(C55=C56,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W55" s="5" t="e">
-        <f>VLOOKUP(TEXT(T55,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W55" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X55" s="5" t="e">
-        <f>VLOOKUP(TEXT(T55,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y55" s="4" t="e">
-        <f>VLOOKUP(TEXT(T55,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U55,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y55" s="5" t="e">
+        <f>VLOOKUP(TEXT(U55,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z55" s="4" t="e">
+        <f>VLOOKUP(TEXT(U55,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B56" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B56" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 55</v>
       </c>
       <c r="C56">
@@ -6094,7 +6192,7 @@
         <v>26</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 55</v>
       </c>
       <c r="F56" s="3">
@@ -6103,81 +6201,82 @@
       <c r="G56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="3"/>
+      <c r="I56" t="s">
         <v>12</v>
       </c>
-      <c r="J56" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F56)&amp;"\"&amp;N56&amp;"\TXT"</f>
+      <c r="K56" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K56" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L56" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 55\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L56" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M56" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>03/2023</v>
       </c>
-      <c r="M56" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N56" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="N56" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O56" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202303</v>
       </c>
-      <c r="O56" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P56" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 55</v>
       </c>
-      <c r="P56" s="2" t="str">
-        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIV - ",N56," - ",B56," SOS.txt")</f>
+      <c r="Q56" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 55 SOS.txt</v>
       </c>
-      <c r="Q56" s="2" t="str">
-        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIV - ",N56," - ",B56," Alicuota SOS.txt")</f>
+      <c r="R56" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 55 Alicuota SOS.txt</v>
       </c>
-      <c r="R56" s="2" t="str">
-        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIC - ",N56," - ",B56," SOS.txt")</f>
+      <c r="S56" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 55 SOS.txt</v>
       </c>
-      <c r="S56" s="2" t="str">
-        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIC - ",N56," - ",B56," Alicuota SOS.txt")</f>
+      <c r="T56" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 55 Alicuota SOS.txt</v>
       </c>
-      <c r="T56" s="4">
-        <f t="shared" si="10"/>
+      <c r="U56" s="4">
+        <f t="shared" si="22"/>
         <v>56</v>
       </c>
-      <c r="U56" s="4">
-        <f>IF(C56=C55,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V56" s="4">
-        <f>IF(C56=C57,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W56" s="5" t="e">
-        <f>VLOOKUP(TEXT(T56,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W56" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X56" s="5" t="e">
-        <f>VLOOKUP(TEXT(T56,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y56" s="4" t="e">
-        <f>VLOOKUP(TEXT(T56,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U56,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y56" s="5" t="e">
+        <f>VLOOKUP(TEXT(U56,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z56" s="4" t="e">
+        <f>VLOOKUP(TEXT(U56,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B57" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B57" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 56</v>
       </c>
       <c r="C57">
@@ -6187,7 +6286,7 @@
         <v>26</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 56</v>
       </c>
       <c r="F57" s="3">
@@ -6196,81 +6295,82 @@
       <c r="G57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="3"/>
+      <c r="I57" t="s">
         <v>12</v>
       </c>
-      <c r="J57" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F57)&amp;"\"&amp;N57&amp;"\TXT"</f>
+      <c r="K57" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K57" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L57" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 56\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L57" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M57" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>03/2023</v>
       </c>
-      <c r="M57" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N57" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="N57" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O57" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202303</v>
       </c>
-      <c r="O57" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P57" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 56</v>
       </c>
-      <c r="P57" s="2" t="str">
-        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIV - ",N57," - ",B57," SOS.txt")</f>
+      <c r="Q57" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 56 SOS.txt</v>
       </c>
-      <c r="Q57" s="2" t="str">
-        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIV - ",N57," - ",B57," Alicuota SOS.txt")</f>
+      <c r="R57" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 56 Alicuota SOS.txt</v>
       </c>
-      <c r="R57" s="2" t="str">
-        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIC - ",N57," - ",B57," SOS.txt")</f>
+      <c r="S57" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 56 SOS.txt</v>
       </c>
-      <c r="S57" s="2" t="str">
-        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIC - ",N57," - ",B57," Alicuota SOS.txt")</f>
+      <c r="T57" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 56 Alicuota SOS.txt</v>
       </c>
-      <c r="T57" s="4">
-        <f t="shared" si="10"/>
+      <c r="U57" s="4">
+        <f t="shared" si="22"/>
         <v>57</v>
       </c>
-      <c r="U57" s="4">
-        <f>IF(C57=C56,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V57" s="4">
-        <f>IF(C57=C58,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W57" s="5" t="e">
-        <f>VLOOKUP(TEXT(T57,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W57" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X57" s="5" t="e">
-        <f>VLOOKUP(TEXT(T57,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y57" s="4" t="e">
-        <f>VLOOKUP(TEXT(T57,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U57,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y57" s="5" t="e">
+        <f>VLOOKUP(TEXT(U57,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z57" s="4" t="e">
+        <f>VLOOKUP(TEXT(U57,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B58" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B58" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 57</v>
       </c>
       <c r="C58">
@@ -6280,7 +6380,7 @@
         <v>26</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 57</v>
       </c>
       <c r="F58" s="3">
@@ -6289,81 +6389,82 @@
       <c r="G58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="3"/>
+      <c r="I58" t="s">
         <v>12</v>
       </c>
-      <c r="J58" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F58)&amp;"\"&amp;N58&amp;"\TXT"</f>
+      <c r="K58" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K58" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L58" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 57\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L58" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M58" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>03/2023</v>
       </c>
-      <c r="M58" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N58" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="N58" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O58" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202303</v>
       </c>
-      <c r="O58" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P58" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 57</v>
       </c>
-      <c r="P58" s="2" t="str">
-        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIV - ",N58," - ",B58," SOS.txt")</f>
+      <c r="Q58" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 57 SOS.txt</v>
       </c>
-      <c r="Q58" s="2" t="str">
-        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIV - ",N58," - ",B58," Alicuota SOS.txt")</f>
+      <c r="R58" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 57 Alicuota SOS.txt</v>
       </c>
-      <c r="R58" s="2" t="str">
-        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIC - ",N58," - ",B58," SOS.txt")</f>
+      <c r="S58" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 57 SOS.txt</v>
       </c>
-      <c r="S58" s="2" t="str">
-        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIC - ",N58," - ",B58," Alicuota SOS.txt")</f>
+      <c r="T58" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 57 Alicuota SOS.txt</v>
       </c>
-      <c r="T58" s="4">
-        <f t="shared" si="10"/>
+      <c r="U58" s="4">
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
-      <c r="U58" s="4">
-        <f>IF(C58=C57,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V58" s="4">
-        <f>IF(C58=C59,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W58" s="5" t="e">
-        <f>VLOOKUP(TEXT(T58,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W58" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X58" s="5" t="e">
-        <f>VLOOKUP(TEXT(T58,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y58" s="4" t="e">
-        <f>VLOOKUP(TEXT(T58,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U58,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y58" s="5" t="e">
+        <f>VLOOKUP(TEXT(U58,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z58" s="4" t="e">
+        <f>VLOOKUP(TEXT(U58,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B59" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B59" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 58</v>
       </c>
       <c r="C59">
@@ -6373,7 +6474,7 @@
         <v>26</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 58</v>
       </c>
       <c r="F59" s="3">
@@ -6382,81 +6483,82 @@
       <c r="G59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="3"/>
+      <c r="I59" t="s">
         <v>12</v>
       </c>
-      <c r="J59" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F59)&amp;"\"&amp;N59&amp;"\TXT"</f>
+      <c r="K59" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K59" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L59" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 58\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L59" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M59" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>03/2023</v>
       </c>
-      <c r="M59" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N59" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="N59" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O59" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202303</v>
       </c>
-      <c r="O59" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P59" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 58</v>
       </c>
-      <c r="P59" s="2" t="str">
-        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIV - ",N59," - ",B59," SOS.txt")</f>
+      <c r="Q59" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 58 SOS.txt</v>
       </c>
-      <c r="Q59" s="2" t="str">
-        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIV - ",N59," - ",B59," Alicuota SOS.txt")</f>
+      <c r="R59" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 58 Alicuota SOS.txt</v>
       </c>
-      <c r="R59" s="2" t="str">
-        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIC - ",N59," - ",B59," SOS.txt")</f>
+      <c r="S59" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 58 SOS.txt</v>
       </c>
-      <c r="S59" s="2" t="str">
-        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIC - ",N59," - ",B59," Alicuota SOS.txt")</f>
+      <c r="T59" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 58 Alicuota SOS.txt</v>
       </c>
-      <c r="T59" s="4">
-        <f t="shared" si="10"/>
+      <c r="U59" s="4">
+        <f t="shared" si="22"/>
         <v>59</v>
       </c>
-      <c r="U59" s="4">
-        <f>IF(C59=C58,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V59" s="4">
-        <f>IF(C59=C60,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W59" s="5" t="e">
-        <f>VLOOKUP(TEXT(T59,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W59" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X59" s="5" t="e">
-        <f>VLOOKUP(TEXT(T59,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y59" s="4" t="e">
-        <f>VLOOKUP(TEXT(T59,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U59,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y59" s="5" t="e">
+        <f>VLOOKUP(TEXT(U59,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z59" s="4" t="e">
+        <f>VLOOKUP(TEXT(U59,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B60" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B60" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 59</v>
       </c>
       <c r="C60">
@@ -6466,7 +6568,7 @@
         <v>26</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 59</v>
       </c>
       <c r="F60" s="3">
@@ -6475,81 +6577,82 @@
       <c r="G60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="3"/>
+      <c r="I60" t="s">
         <v>13</v>
       </c>
-      <c r="J60" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F60)&amp;"\"&amp;N60&amp;"\TXT"</f>
+      <c r="K60" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K60" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L60" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 59\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L60" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M60" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M60" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N60" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N60" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O60" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O60" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P60" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 59</v>
       </c>
-      <c r="P60" s="2" t="str">
-        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIV - ",N60," - ",B60," SOS.txt")</f>
+      <c r="Q60" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 59 SOS.txt</v>
       </c>
-      <c r="Q60" s="2" t="str">
-        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIV - ",N60," - ",B60," Alicuota SOS.txt")</f>
+      <c r="R60" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 59 Alicuota SOS.txt</v>
       </c>
-      <c r="R60" s="2" t="str">
-        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIC - ",N60," - ",B60," SOS.txt")</f>
+      <c r="S60" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 59 SOS.txt</v>
       </c>
-      <c r="S60" s="2" t="str">
-        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIC - ",N60," - ",B60," Alicuota SOS.txt")</f>
+      <c r="T60" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 59 Alicuota SOS.txt</v>
       </c>
-      <c r="T60" s="4">
-        <f t="shared" si="10"/>
+      <c r="U60" s="4">
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
-      <c r="U60" s="4">
-        <f>IF(C60=C59,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V60" s="4">
-        <f>IF(C60=C61,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W60" s="5" t="e">
-        <f>VLOOKUP(TEXT(T60,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W60" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X60" s="5" t="e">
-        <f>VLOOKUP(TEXT(T60,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y60" s="4" t="e">
-        <f>VLOOKUP(TEXT(T60,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U60,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y60" s="5" t="e">
+        <f>VLOOKUP(TEXT(U60,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z60" s="4" t="e">
+        <f>VLOOKUP(TEXT(U60,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B61" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B61" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 60</v>
       </c>
       <c r="C61">
@@ -6559,7 +6662,7 @@
         <v>26</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 60</v>
       </c>
       <c r="F61" s="3">
@@ -6568,81 +6671,82 @@
       <c r="G61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="3"/>
+      <c r="I61" t="s">
         <v>12</v>
       </c>
-      <c r="J61" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F61)&amp;"\"&amp;N61&amp;"\TXT"</f>
+      <c r="K61" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="K61" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L61" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 60\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L61" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M61" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>03/2023</v>
       </c>
-      <c r="M61" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N61" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="N61" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O61" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202303</v>
       </c>
-      <c r="O61" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P61" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 60</v>
       </c>
-      <c r="P61" s="2" t="str">
-        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIV - ",N61," - ",B61," SOS.txt")</f>
+      <c r="Q61" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 60 SOS.txt</v>
       </c>
-      <c r="Q61" s="2" t="str">
-        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIV - ",N61," - ",B61," Alicuota SOS.txt")</f>
+      <c r="R61" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 60 Alicuota SOS.txt</v>
       </c>
-      <c r="R61" s="2" t="str">
-        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIC - ",N61," - ",B61," SOS.txt")</f>
+      <c r="S61" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 60 SOS.txt</v>
       </c>
-      <c r="S61" s="2" t="str">
-        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIC - ",N61," - ",B61," Alicuota SOS.txt")</f>
+      <c r="T61" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 60 Alicuota SOS.txt</v>
       </c>
-      <c r="T61" s="4">
-        <f t="shared" si="10"/>
+      <c r="U61" s="4">
+        <f t="shared" si="22"/>
         <v>61</v>
       </c>
-      <c r="U61" s="4">
-        <f>IF(C61=C60,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V61" s="4">
-        <f>IF(C61=C62,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W61" s="5" t="e">
-        <f>VLOOKUP(TEXT(T61,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W61" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X61" s="5" t="e">
-        <f>VLOOKUP(TEXT(T61,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y61" s="4" t="e">
-        <f>VLOOKUP(TEXT(T61,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U61,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y61" s="5" t="e">
+        <f>VLOOKUP(TEXT(U61,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z61" s="4" t="e">
+        <f>VLOOKUP(TEXT(U61,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B62" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B62" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 61</v>
       </c>
       <c r="C62">
@@ -6652,7 +6756,7 @@
         <v>26</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 61</v>
       </c>
       <c r="F62" s="3">
@@ -6661,81 +6765,82 @@
       <c r="G62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="3"/>
+      <c r="I62" t="s">
         <v>13</v>
       </c>
-      <c r="J62" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F62)&amp;"\"&amp;N62&amp;"\TXT"</f>
+      <c r="K62" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K62" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L62" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 61\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L62" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M62" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M62" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N62" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N62" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O62" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O62" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P62" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 61</v>
       </c>
-      <c r="P62" s="2" t="str">
-        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIV - ",N62," - ",B62," SOS.txt")</f>
+      <c r="Q62" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 61 SOS.txt</v>
       </c>
-      <c r="Q62" s="2" t="str">
-        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIV - ",N62," - ",B62," Alicuota SOS.txt")</f>
+      <c r="R62" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 61 Alicuota SOS.txt</v>
       </c>
-      <c r="R62" s="2" t="str">
-        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIC - ",N62," - ",B62," SOS.txt")</f>
+      <c r="S62" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 61 SOS.txt</v>
       </c>
-      <c r="S62" s="2" t="str">
-        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIC - ",N62," - ",B62," Alicuota SOS.txt")</f>
+      <c r="T62" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 61 Alicuota SOS.txt</v>
       </c>
-      <c r="T62" s="4">
-        <f t="shared" si="10"/>
+      <c r="U62" s="4">
+        <f t="shared" si="22"/>
         <v>62</v>
       </c>
-      <c r="U62" s="4">
-        <f>IF(C62=C61,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V62" s="4">
-        <f>IF(C62=C63,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W62" s="5" t="e">
-        <f>VLOOKUP(TEXT(T62,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W62" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X62" s="5" t="e">
-        <f>VLOOKUP(TEXT(T62,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y62" s="4" t="e">
-        <f>VLOOKUP(TEXT(T62,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U62,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y62" s="5" t="e">
+        <f>VLOOKUP(TEXT(U62,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z62" s="4" t="e">
+        <f>VLOOKUP(TEXT(U62,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B63" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B63" t="str">
-        <f t="shared" si="2"/>
         <v>Nombre de cliente 62</v>
       </c>
       <c r="C63">
@@ -6745,7 +6850,7 @@
         <v>26</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>Clave 62</v>
       </c>
       <c r="F63" s="3">
@@ -6754,76 +6859,77 @@
       <c r="G63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="3"/>
+      <c r="I63" t="s">
         <v>13</v>
       </c>
-      <c r="J63" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F63)&amp;"\"&amp;N63&amp;"\TXT"</f>
+      <c r="K63" t="str">
+        <f t="shared" si="17"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="K63" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="L63" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 62\COMVEN LID\2023\04\</v>
       </c>
-      <c r="L63" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="M63" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>04/2023</v>
       </c>
-      <c r="M63" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="N63" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>Abril 2023</v>
       </c>
-      <c r="N63" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="O63" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202304</v>
       </c>
-      <c r="O63" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P63" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 62</v>
       </c>
-      <c r="P63" s="2" t="str">
-        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIV - ",N63," - ",B63," SOS.txt")</f>
+      <c r="Q63" s="2" t="str">
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 62 SOS.txt</v>
       </c>
-      <c r="Q63" s="2" t="str">
-        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIV - ",N63," - ",B63," Alicuota SOS.txt")</f>
+      <c r="R63" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 62 Alicuota SOS.txt</v>
       </c>
-      <c r="R63" s="2" t="str">
-        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIC - ",N63," - ",B63," SOS.txt")</f>
+      <c r="S63" s="2" t="str">
+        <f t="shared" si="20"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 62 SOS.txt</v>
       </c>
-      <c r="S63" s="2" t="str">
-        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIC - ",N63," - ",B63," Alicuota SOS.txt")</f>
+      <c r="T63" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 62 Alicuota SOS.txt</v>
       </c>
-      <c r="T63" s="4">
-        <f t="shared" si="10"/>
+      <c r="U63" s="4">
+        <f t="shared" si="22"/>
         <v>63</v>
       </c>
-      <c r="U63" s="4">
-        <f>IF(C63=C62,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V63" s="4">
-        <f>IF(C63=C64,1,0)</f>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W63" s="4">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W63" s="5" t="e">
-        <f>VLOOKUP(TEXT(T63,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
       <c r="X63" s="5" t="e">
-        <f>VLOOKUP(TEXT(T63,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y63" s="4" t="e">
-        <f>VLOOKUP(TEXT(T63,"0"),[1]Control!$A:$E,4,0)</f>
+        <f>VLOOKUP(TEXT(U63,"0"),[1]Control!$A:$E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y63" s="5" t="e">
+        <f>VLOOKUP(TEXT(U63,"0"),[1]Control!$A:$E,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z63" s="4" t="e">
+        <f>VLOOKUP(TEXT(U63,"0"),[1]Control!$A:$E,4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y63" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}"/>
+  <autoFilter ref="A1:Z63" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Lista TXT SOS.xlsx
+++ b/Lista TXT SOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga-y-Carga-COMVEN-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75A5F6E-F0BA-4009-B6EE-0F5CE60BC68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47906C4-D4A4-4E37-8B35-AF4C6D8E333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$Z$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$AB$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="34">
   <si>
     <t>Nro</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>Raiz TXT</t>
+  </si>
+  <si>
+    <t>Ubicación TXT</t>
   </si>
 </sst>
 </file>
@@ -956,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}">
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,16 +980,16 @@
     <col min="8" max="8" width="7.28515625" customWidth="1"/>
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.85546875" customWidth="1"/>
-    <col min="17" max="20" width="16.5703125" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="22" width="16.5703125" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,49 +1027,55 @@
         <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -1096,77 +1108,85 @@
         <v>13</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K33" si="1">"F:\Libros Compras y Ventas\"&amp;YEAR(F2)&amp;"\"&amp;O2&amp;"\TXT"</f>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F2)&amp;"\"&amp;Q2&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L2" s="4" t="str">
         <f>CONCATENATE(K2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 1\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M2" s="4" t="str">
+      <c r="M2" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F2)&amp;"\"&amp;Q2&amp;"\TXT"</f>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N2" s="4" t="str">
+        <f>CONCATENATE(M2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 1\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O2" s="4" t="str">
         <f>TEXT(MONTH(F2),"00")&amp;"/"&amp;YEAR(F2)</f>
         <v>04/2023</v>
       </c>
-      <c r="N2" s="2" t="str">
+      <c r="P2" s="2" t="str">
         <f>PROPER(TEXT(F2,"mmmm"))&amp;" "&amp;YEAR(F2)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O2" s="2" t="str">
+      <c r="Q2" s="2" t="str">
         <f>YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0"),"  - ",O2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="R2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0"),"  - ",Q2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0  - 202304 - 20000000000 - Nombre de cliente 1</v>
       </c>
-      <c r="Q2" s="2" t="str">
-        <f t="shared" ref="Q2:Q33" si="2">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",O2," - ",B2," SOS.txt")</f>
+      <c r="S2" s="2" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",Q2," - ",B2," SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 1 SOS.txt</v>
       </c>
-      <c r="R2" s="2" t="str">
-        <f t="shared" ref="R2:R33" si="3">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",O2," - ",B2," Alicuota SOS.txt")</f>
+      <c r="T2" s="2" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",Q2," - ",B2," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 1 Alicuota SOS.txt</v>
       </c>
-      <c r="S2" s="2" t="str">
-        <f t="shared" ref="S2:S33" si="4">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",O2," - ",B2," SOS.txt")</f>
+      <c r="U2" s="2" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",Q2," - ",B2," SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 1 SOS.txt</v>
       </c>
-      <c r="T2" s="2" t="str">
-        <f t="shared" ref="T2:T33" si="5">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",O2," - ",B2," Alicuota SOS.txt")</f>
+      <c r="V2" s="2" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",Q2," - ",B2," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 1 Alicuota SOS.txt</v>
       </c>
-      <c r="U2" s="4">
-        <f t="shared" ref="U2:U33" si="6">ROW(A2)</f>
+      <c r="W2" s="4">
+        <f>ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="V2" s="4">
-        <f t="shared" ref="V2:V33" si="7">IF(C2=C1,1,0)</f>
+      <c r="X2" s="4">
+        <f>IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="W2" s="4">
-        <f t="shared" ref="W2:W33" si="8">IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X2" s="5" t="e">
-        <f>VLOOKUP(TEXT(U2,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y2" s="5" t="e">
-        <f>VLOOKUP(TEXT(U2,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z2" s="4" t="e">
-        <f>VLOOKUP(TEXT(U2,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="Y2" s="4">
+        <f>IF(C2=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W2,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W2,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB2" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W2,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B63" si="9">"Nombre de cliente "&amp;(ROW()-1)</f>
+        <f t="shared" ref="B3:B63" si="1">"Nombre de cliente "&amp;(ROW()-1)</f>
         <v>Nombre de cliente 2</v>
       </c>
       <c r="C3">
@@ -1177,7 +1197,7 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E63" si="10">"Clave "&amp;(ROW()-1)</f>
+        <f t="shared" ref="E3:E63" si="2">"Clave "&amp;(ROW()-1)</f>
         <v>Clave 2</v>
       </c>
       <c r="F3" s="3">
@@ -1193,77 +1213,85 @@
         <v>13</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F3)&amp;"\"&amp;Q3&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L3" s="4" t="str">
-        <f t="shared" ref="L3:L63" si="11">CONCATENATE(K3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
+        <f>CONCATENATE(K3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 2\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M3" s="4" t="str">
-        <f t="shared" ref="M3:M63" si="12">TEXT(MONTH(F3),"00")&amp;"/"&amp;YEAR(F3)</f>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M63" si="3">"F:\Libros Compras y Ventas\"&amp;YEAR(F3)&amp;"\"&amp;Q3&amp;"\TXT"</f>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f t="shared" ref="N3:N63" si="4">CONCATENATE(M3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 2\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f>TEXT(MONTH(F3),"00")&amp;"/"&amp;YEAR(F3)</f>
         <v>04/2023</v>
       </c>
-      <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N63" si="13">PROPER(TEXT(F3,"mmmm"))&amp;" "&amp;YEAR(F3)</f>
+      <c r="P3" s="2" t="str">
+        <f>PROPER(TEXT(F3,"mmmm"))&amp;" "&amp;YEAR(F3)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O63" si="14">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
+      <c r="Q3" s="2" t="str">
+        <f>YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P3" s="2" t="str">
-        <f t="shared" ref="P3:P63" si="15">CONCATENATE(TEXT(A3,"0"),"  - ",O3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+      <c r="R3" s="2" t="str">
+        <f>CONCATENATE(TEXT(A3,"0"),"  - ",Q3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0  - 202304 - 20000000000 - Nombre de cliente 2</v>
       </c>
-      <c r="Q3" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S3" s="2" t="str">
+        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",Q3," - ",B3," SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 2 SOS.txt</v>
       </c>
-      <c r="R3" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T3" s="2" t="str">
+        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",Q3," - ",B3," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 2 Alicuota SOS.txt</v>
       </c>
-      <c r="S3" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U3" s="2" t="str">
+        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",Q3," - ",B3," SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 2 SOS.txt</v>
       </c>
-      <c r="T3" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V3" s="2" t="str">
+        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",Q3," - ",B3," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 2 Alicuota SOS.txt</v>
       </c>
-      <c r="U3" s="4">
-        <f t="shared" si="6"/>
+      <c r="W3" s="4">
+        <f>ROW(A3)</f>
         <v>3</v>
       </c>
-      <c r="V3" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W3" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X3" s="5" t="e">
-        <f>VLOOKUP(TEXT(U3,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y3" s="5" t="e">
-        <f>VLOOKUP(TEXT(U3,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z3" s="4" t="e">
-        <f>VLOOKUP(TEXT(U3,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X3" s="4">
+        <f>IF(C3=C2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>IF(C3=C4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W3,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W3,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB3" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W3,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 3</v>
       </c>
       <c r="C4">
@@ -1274,7 +1302,7 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 3</v>
       </c>
       <c r="F4" s="3">
@@ -1290,77 +1318,85 @@
         <v>13</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F4)&amp;"\"&amp;Q4&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K4,"\",B4,"\","COMVEN LID","\",YEAR(F4),"\",TEXT(MONTH(F4),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 3\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M4" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M4" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 3\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f>TEXT(MONTH(F4),"00")&amp;"/"&amp;YEAR(F4)</f>
         <v>04/2023</v>
       </c>
-      <c r="N4" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P4" s="2" t="str">
+        <f>PROPER(TEXT(F4,"mmmm"))&amp;" "&amp;YEAR(F4)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O4" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q4" s="2" t="str">
+        <f>YEAR(F4)&amp;TEXT(MONTH(F4),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P4" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R4" s="2" t="str">
+        <f>CONCATENATE(TEXT(A4,"0"),"  - ",Q4," - ",SUBSTITUTE(D4,"-","")," - ",B4)</f>
         <v>0  - 202304 - 20000000000 - Nombre de cliente 3</v>
       </c>
-      <c r="Q4" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S4" s="2" t="str">
+        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIV - ",Q4," - ",B4," SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 3 SOS.txt</v>
       </c>
-      <c r="R4" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T4" s="2" t="str">
+        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIV - ",Q4," - ",B4," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 3 Alicuota SOS.txt</v>
       </c>
-      <c r="S4" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U4" s="2" t="str">
+        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIC - ",Q4," - ",B4," SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 3 SOS.txt</v>
       </c>
-      <c r="T4" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V4" s="2" t="str">
+        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIC - ",Q4," - ",B4," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 3 Alicuota SOS.txt</v>
       </c>
-      <c r="U4" s="4">
-        <f t="shared" si="6"/>
+      <c r="W4" s="4">
+        <f>ROW(A4)</f>
         <v>4</v>
       </c>
-      <c r="V4" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W4" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X4" s="5" t="e">
-        <f>VLOOKUP(TEXT(U4,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y4" s="5" t="e">
-        <f>VLOOKUP(TEXT(U4,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z4" s="4" t="e">
-        <f>VLOOKUP(TEXT(U4,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X4" s="4">
+        <f>IF(C4=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>IF(C4=C5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W4,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W4,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB4" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W4,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 4</v>
       </c>
       <c r="C5">
@@ -1370,7 +1406,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 4</v>
       </c>
       <c r="F5" s="3">
@@ -1386,77 +1422,85 @@
         <v>13</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F5)&amp;"\"&amp;Q5&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L5" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K5,"\",B5,"\","COMVEN LID","\",YEAR(F5),"\",TEXT(MONTH(F5),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 4\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M5" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M5" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N5" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 4\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O5" s="4" t="str">
+        <f>TEXT(MONTH(F5),"00")&amp;"/"&amp;YEAR(F5)</f>
         <v>04/2023</v>
       </c>
-      <c r="N5" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P5" s="2" t="str">
+        <f>PROPER(TEXT(F5,"mmmm"))&amp;" "&amp;YEAR(F5)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O5" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q5" s="2" t="str">
+        <f>YEAR(F5)&amp;TEXT(MONTH(F5),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P5" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R5" s="2" t="str">
+        <f>CONCATENATE(TEXT(A5,"0"),"  - ",Q5," - ",SUBSTITUTE(D5,"-","")," - ",B5)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 4</v>
       </c>
-      <c r="Q5" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S5" s="2" t="str">
+        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIV - ",Q5," - ",B5," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 4 SOS.txt</v>
       </c>
-      <c r="R5" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T5" s="2" t="str">
+        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIV - ",Q5," - ",B5," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 4 Alicuota SOS.txt</v>
       </c>
-      <c r="S5" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U5" s="2" t="str">
+        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIC - ",Q5," - ",B5," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 4 SOS.txt</v>
       </c>
-      <c r="T5" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V5" s="2" t="str">
+        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIC - ",Q5," - ",B5," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 4 Alicuota SOS.txt</v>
       </c>
-      <c r="U5" s="4">
-        <f t="shared" si="6"/>
+      <c r="W5" s="4">
+        <f>ROW(A5)</f>
         <v>5</v>
       </c>
-      <c r="V5" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W5" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X5" s="5" t="e">
-        <f>VLOOKUP(TEXT(U5,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y5" s="5" t="e">
-        <f>VLOOKUP(TEXT(U5,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z5" s="4" t="e">
-        <f>VLOOKUP(TEXT(U5,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X5" s="4">
+        <f>IF(C5=C4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>IF(C5=C6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W5,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W5,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB5" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W5,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 5</v>
       </c>
       <c r="C6">
@@ -1466,7 +1510,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 5</v>
       </c>
       <c r="F6" s="3">
@@ -1480,77 +1524,85 @@
         <v>13</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F6)&amp;"\"&amp;Q6&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K6,"\",B6,"\","COMVEN LID","\",YEAR(F6),"\",TEXT(MONTH(F6),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 5\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M6" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M6" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 5\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f>TEXT(MONTH(F6),"00")&amp;"/"&amp;YEAR(F6)</f>
         <v>04/2023</v>
       </c>
-      <c r="N6" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P6" s="2" t="str">
+        <f>PROPER(TEXT(F6,"mmmm"))&amp;" "&amp;YEAR(F6)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O6" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q6" s="2" t="str">
+        <f>YEAR(F6)&amp;TEXT(MONTH(F6),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P6" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R6" s="2" t="str">
+        <f>CONCATENATE(TEXT(A6,"0"),"  - ",Q6," - ",SUBSTITUTE(D6,"-","")," - ",B6)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 5</v>
       </c>
-      <c r="Q6" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S6" s="2" t="str">
+        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIV - ",Q6," - ",B6," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 5 SOS.txt</v>
       </c>
-      <c r="R6" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T6" s="2" t="str">
+        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIV - ",Q6," - ",B6," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 5 Alicuota SOS.txt</v>
       </c>
-      <c r="S6" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U6" s="2" t="str">
+        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIC - ",Q6," - ",B6," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 5 SOS.txt</v>
       </c>
-      <c r="T6" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V6" s="2" t="str">
+        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIC - ",Q6," - ",B6," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 5 Alicuota SOS.txt</v>
       </c>
-      <c r="U6" s="4">
-        <f t="shared" si="6"/>
+      <c r="W6" s="4">
+        <f>ROW(A6)</f>
         <v>6</v>
       </c>
-      <c r="V6" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W6" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X6" s="5" t="e">
-        <f>VLOOKUP(TEXT(U6,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y6" s="5" t="e">
-        <f>VLOOKUP(TEXT(U6,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z6" s="4" t="e">
-        <f>VLOOKUP(TEXT(U6,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X6" s="4">
+        <f>IF(C6=C5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>IF(C6=C7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W6,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W6,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB6" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W6,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 6</v>
       </c>
       <c r="C7">
@@ -1560,7 +1612,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 6</v>
       </c>
       <c r="F7" s="3">
@@ -1574,77 +1626,85 @@
         <v>12</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F7)&amp;"\"&amp;Q7&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K7,"\",B7,"\","COMVEN LID","\",YEAR(F7),"\",TEXT(MONTH(F7),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 6\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M7" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M7" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N7" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 6\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>TEXT(MONTH(F7),"00")&amp;"/"&amp;YEAR(F7)</f>
         <v>03/2023</v>
       </c>
-      <c r="N7" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P7" s="2" t="str">
+        <f>PROPER(TEXT(F7,"mmmm"))&amp;" "&amp;YEAR(F7)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O7" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q7" s="2" t="str">
+        <f>YEAR(F7)&amp;TEXT(MONTH(F7),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P7" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R7" s="2" t="str">
+        <f>CONCATENATE(TEXT(A7,"0"),"  - ",Q7," - ",SUBSTITUTE(D7,"-","")," - ",B7)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 6</v>
       </c>
-      <c r="Q7" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S7" s="2" t="str">
+        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIV - ",Q7," - ",B7," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 6 SOS.txt</v>
       </c>
-      <c r="R7" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T7" s="2" t="str">
+        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIV - ",Q7," - ",B7," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 6 Alicuota SOS.txt</v>
       </c>
-      <c r="S7" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U7" s="2" t="str">
+        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIC - ",Q7," - ",B7," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 6 SOS.txt</v>
       </c>
-      <c r="T7" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V7" s="2" t="str">
+        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIC - ",Q7," - ",B7," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 6 Alicuota SOS.txt</v>
       </c>
-      <c r="U7" s="4">
-        <f t="shared" si="6"/>
+      <c r="W7" s="4">
+        <f>ROW(A7)</f>
         <v>7</v>
       </c>
-      <c r="V7" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W7" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X7" s="5" t="e">
-        <f>VLOOKUP(TEXT(U7,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y7" s="5" t="e">
-        <f>VLOOKUP(TEXT(U7,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z7" s="4" t="e">
-        <f>VLOOKUP(TEXT(U7,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X7" s="4">
+        <f>IF(C7=C6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>IF(C7=C8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W7,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W7,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB7" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W7,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 7</v>
       </c>
       <c r="C8">
@@ -1654,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 7</v>
       </c>
       <c r="F8" s="3">
@@ -1670,77 +1730,85 @@
         <v>13</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F8)&amp;"\"&amp;Q8&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K8,"\",B8,"\","COMVEN LID","\",YEAR(F8),"\",TEXT(MONTH(F8),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 7\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M8" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M8" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N8" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 7\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <f>TEXT(MONTH(F8),"00")&amp;"/"&amp;YEAR(F8)</f>
         <v>04/2023</v>
       </c>
-      <c r="N8" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P8" s="2" t="str">
+        <f>PROPER(TEXT(F8,"mmmm"))&amp;" "&amp;YEAR(F8)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O8" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q8" s="2" t="str">
+        <f>YEAR(F8)&amp;TEXT(MONTH(F8),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P8" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R8" s="2" t="str">
+        <f>CONCATENATE(TEXT(A8,"0"),"  - ",Q8," - ",SUBSTITUTE(D8,"-","")," - ",B8)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 7</v>
       </c>
-      <c r="Q8" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S8" s="2" t="str">
+        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIV - ",Q8," - ",B8," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 7 SOS.txt</v>
       </c>
-      <c r="R8" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T8" s="2" t="str">
+        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIV - ",Q8," - ",B8," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 7 Alicuota SOS.txt</v>
       </c>
-      <c r="S8" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U8" s="2" t="str">
+        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIC - ",Q8," - ",B8," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 7 SOS.txt</v>
       </c>
-      <c r="T8" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V8" s="2" t="str">
+        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIC - ",Q8," - ",B8," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 7 Alicuota SOS.txt</v>
       </c>
-      <c r="U8" s="4">
-        <f t="shared" si="6"/>
+      <c r="W8" s="4">
+        <f>ROW(A8)</f>
         <v>8</v>
       </c>
-      <c r="V8" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W8" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X8" s="5" t="e">
-        <f>VLOOKUP(TEXT(U8,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y8" s="5" t="e">
-        <f>VLOOKUP(TEXT(U8,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z8" s="4" t="e">
-        <f>VLOOKUP(TEXT(U8,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X8" s="4">
+        <f>IF(C8=C7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>IF(C8=C9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W8,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W8,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB8" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W8,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 8</v>
       </c>
       <c r="C9">
@@ -1750,7 +1818,7 @@
         <v>26</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 8</v>
       </c>
       <c r="F9" s="3">
@@ -1766,77 +1834,85 @@
         <v>13</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F9)&amp;"\"&amp;Q9&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K9,"\",B9,"\","COMVEN LID","\",YEAR(F9),"\",TEXT(MONTH(F9),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 8\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M9" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M9" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 8\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <f>TEXT(MONTH(F9),"00")&amp;"/"&amp;YEAR(F9)</f>
         <v>04/2023</v>
       </c>
-      <c r="N9" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P9" s="2" t="str">
+        <f>PROPER(TEXT(F9,"mmmm"))&amp;" "&amp;YEAR(F9)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O9" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q9" s="2" t="str">
+        <f>YEAR(F9)&amp;TEXT(MONTH(F9),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P9" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R9" s="2" t="str">
+        <f>CONCATENATE(TEXT(A9,"0"),"  - ",Q9," - ",SUBSTITUTE(D9,"-","")," - ",B9)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 8</v>
       </c>
-      <c r="Q9" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S9" s="2" t="str">
+        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIV - ",Q9," - ",B9," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 8 SOS.txt</v>
       </c>
-      <c r="R9" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T9" s="2" t="str">
+        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIV - ",Q9," - ",B9," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 8 Alicuota SOS.txt</v>
       </c>
-      <c r="S9" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U9" s="2" t="str">
+        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIC - ",Q9," - ",B9," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 8 SOS.txt</v>
       </c>
-      <c r="T9" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V9" s="2" t="str">
+        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIC - ",Q9," - ",B9," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 8 Alicuota SOS.txt</v>
       </c>
-      <c r="U9" s="4">
-        <f t="shared" si="6"/>
+      <c r="W9" s="4">
+        <f>ROW(A9)</f>
         <v>9</v>
       </c>
-      <c r="V9" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W9" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X9" s="5" t="e">
-        <f>VLOOKUP(TEXT(U9,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y9" s="5" t="e">
-        <f>VLOOKUP(TEXT(U9,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z9" s="4" t="e">
-        <f>VLOOKUP(TEXT(U9,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X9" s="4">
+        <f>IF(C9=C8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>IF(C9=C10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W9,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W9,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB9" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W9,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 9</v>
       </c>
       <c r="C10">
@@ -1846,7 +1922,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 9</v>
       </c>
       <c r="F10" s="3">
@@ -1860,77 +1936,85 @@
         <v>12</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F10)&amp;"\"&amp;Q10&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K10,"\",B10,"\","COMVEN LID","\",YEAR(F10),"\",TEXT(MONTH(F10),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 9\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M10" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M10" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 9\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O10" s="4" t="str">
+        <f>TEXT(MONTH(F10),"00")&amp;"/"&amp;YEAR(F10)</f>
         <v>03/2023</v>
       </c>
-      <c r="N10" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P10" s="2" t="str">
+        <f>PROPER(TEXT(F10,"mmmm"))&amp;" "&amp;YEAR(F10)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O10" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q10" s="2" t="str">
+        <f>YEAR(F10)&amp;TEXT(MONTH(F10),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P10" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R10" s="2" t="str">
+        <f>CONCATENATE(TEXT(A10,"0"),"  - ",Q10," - ",SUBSTITUTE(D10,"-","")," - ",B10)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 9</v>
       </c>
-      <c r="Q10" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S10" s="2" t="str">
+        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIV - ",Q10," - ",B10," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 9 SOS.txt</v>
       </c>
-      <c r="R10" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T10" s="2" t="str">
+        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIV - ",Q10," - ",B10," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 9 Alicuota SOS.txt</v>
       </c>
-      <c r="S10" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U10" s="2" t="str">
+        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIC - ",Q10," - ",B10," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 9 SOS.txt</v>
       </c>
-      <c r="T10" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V10" s="2" t="str">
+        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIC - ",Q10," - ",B10," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 9 Alicuota SOS.txt</v>
       </c>
-      <c r="U10" s="4">
-        <f t="shared" si="6"/>
+      <c r="W10" s="4">
+        <f>ROW(A10)</f>
         <v>10</v>
       </c>
-      <c r="V10" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W10" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X10" s="5" t="e">
-        <f>VLOOKUP(TEXT(U10,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y10" s="5" t="e">
-        <f>VLOOKUP(TEXT(U10,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z10" s="4" t="e">
-        <f>VLOOKUP(TEXT(U10,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X10" s="4">
+        <f>IF(C10=C9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="4">
+        <f>IF(C10=C11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W10,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W10,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB10" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W10,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 10</v>
       </c>
       <c r="C11">
@@ -1940,7 +2024,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 10</v>
       </c>
       <c r="F11" s="3">
@@ -1954,77 +2038,85 @@
         <v>13</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F11)&amp;"\"&amp;Q11&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L11" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K11,"\",B11,"\","COMVEN LID","\",YEAR(F11),"\",TEXT(MONTH(F11),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 10\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M11" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M11" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N11" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 10\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O11" s="4" t="str">
+        <f>TEXT(MONTH(F11),"00")&amp;"/"&amp;YEAR(F11)</f>
         <v>04/2023</v>
       </c>
-      <c r="N11" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P11" s="2" t="str">
+        <f>PROPER(TEXT(F11,"mmmm"))&amp;" "&amp;YEAR(F11)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O11" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q11" s="2" t="str">
+        <f>YEAR(F11)&amp;TEXT(MONTH(F11),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P11" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R11" s="2" t="str">
+        <f>CONCATENATE(TEXT(A11,"0"),"  - ",Q11," - ",SUBSTITUTE(D11,"-","")," - ",B11)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 10</v>
       </c>
-      <c r="Q11" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S11" s="2" t="str">
+        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIV - ",Q11," - ",B11," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 10 SOS.txt</v>
       </c>
-      <c r="R11" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T11" s="2" t="str">
+        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIV - ",Q11," - ",B11," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 10 Alicuota SOS.txt</v>
       </c>
-      <c r="S11" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U11" s="2" t="str">
+        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIC - ",Q11," - ",B11," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 10 SOS.txt</v>
       </c>
-      <c r="T11" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V11" s="2" t="str">
+        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIC - ",Q11," - ",B11," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 10 Alicuota SOS.txt</v>
       </c>
-      <c r="U11" s="4">
-        <f t="shared" si="6"/>
+      <c r="W11" s="4">
+        <f>ROW(A11)</f>
         <v>11</v>
       </c>
-      <c r="V11" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W11" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X11" s="5" t="e">
-        <f>VLOOKUP(TEXT(U11,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y11" s="5" t="e">
-        <f>VLOOKUP(TEXT(U11,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z11" s="4" t="e">
-        <f>VLOOKUP(TEXT(U11,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X11" s="4">
+        <f>IF(C11=C10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>IF(C11=C12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W11,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W11,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W11,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 11</v>
       </c>
       <c r="C12">
@@ -2034,7 +2126,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 11</v>
       </c>
       <c r="F12" s="3">
@@ -2048,77 +2140,85 @@
         <v>13</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F12)&amp;"\"&amp;Q12&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L12" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K12,"\",B12,"\","COMVEN LID","\",YEAR(F12),"\",TEXT(MONTH(F12),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 11\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M12" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M12" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 11\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O12" s="4" t="str">
+        <f>TEXT(MONTH(F12),"00")&amp;"/"&amp;YEAR(F12)</f>
         <v>04/2023</v>
       </c>
-      <c r="N12" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P12" s="2" t="str">
+        <f>PROPER(TEXT(F12,"mmmm"))&amp;" "&amp;YEAR(F12)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O12" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q12" s="2" t="str">
+        <f>YEAR(F12)&amp;TEXT(MONTH(F12),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P12" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R12" s="2" t="str">
+        <f>CONCATENATE(TEXT(A12,"0"),"  - ",Q12," - ",SUBSTITUTE(D12,"-","")," - ",B12)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 11</v>
       </c>
-      <c r="Q12" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S12" s="2" t="str">
+        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIV - ",Q12," - ",B12," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 11 SOS.txt</v>
       </c>
-      <c r="R12" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T12" s="2" t="str">
+        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIV - ",Q12," - ",B12," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 11 Alicuota SOS.txt</v>
       </c>
-      <c r="S12" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U12" s="2" t="str">
+        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIC - ",Q12," - ",B12," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 11 SOS.txt</v>
       </c>
-      <c r="T12" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V12" s="2" t="str">
+        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIC - ",Q12," - ",B12," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 11 Alicuota SOS.txt</v>
       </c>
-      <c r="U12" s="4">
-        <f t="shared" si="6"/>
+      <c r="W12" s="4">
+        <f>ROW(A12)</f>
         <v>12</v>
       </c>
-      <c r="V12" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W12" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X12" s="5" t="e">
-        <f>VLOOKUP(TEXT(U12,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y12" s="5" t="e">
-        <f>VLOOKUP(TEXT(U12,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z12" s="4" t="e">
-        <f>VLOOKUP(TEXT(U12,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X12" s="4">
+        <f>IF(C12=C11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>IF(C12=C13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W12,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W12,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W12,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 12</v>
       </c>
       <c r="C13">
@@ -2128,7 +2228,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 12</v>
       </c>
       <c r="F13" s="3">
@@ -2142,77 +2242,85 @@
         <v>13</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F13)&amp;"\"&amp;Q13&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K13,"\",B13,"\","COMVEN LID","\",YEAR(F13),"\",TEXT(MONTH(F13),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 12\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M13" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M13" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N13" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 12\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O13" s="4" t="str">
+        <f>TEXT(MONTH(F13),"00")&amp;"/"&amp;YEAR(F13)</f>
         <v>04/2023</v>
       </c>
-      <c r="N13" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P13" s="2" t="str">
+        <f>PROPER(TEXT(F13,"mmmm"))&amp;" "&amp;YEAR(F13)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O13" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q13" s="2" t="str">
+        <f>YEAR(F13)&amp;TEXT(MONTH(F13),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P13" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R13" s="2" t="str">
+        <f>CONCATENATE(TEXT(A13,"0"),"  - ",Q13," - ",SUBSTITUTE(D13,"-","")," - ",B13)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 12</v>
       </c>
-      <c r="Q13" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S13" s="2" t="str">
+        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIV - ",Q13," - ",B13," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 12 SOS.txt</v>
       </c>
-      <c r="R13" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T13" s="2" t="str">
+        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIV - ",Q13," - ",B13," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 12 Alicuota SOS.txt</v>
       </c>
-      <c r="S13" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U13" s="2" t="str">
+        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIC - ",Q13," - ",B13," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 12 SOS.txt</v>
       </c>
-      <c r="T13" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V13" s="2" t="str">
+        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIC - ",Q13," - ",B13," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 12 Alicuota SOS.txt</v>
       </c>
-      <c r="U13" s="4">
-        <f t="shared" si="6"/>
+      <c r="W13" s="4">
+        <f>ROW(A13)</f>
         <v>13</v>
       </c>
-      <c r="V13" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W13" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="5" t="e">
-        <f>VLOOKUP(TEXT(U13,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y13" s="5" t="e">
-        <f>VLOOKUP(TEXT(U13,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z13" s="4" t="e">
-        <f>VLOOKUP(TEXT(U13,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X13" s="4">
+        <f>IF(C13=C12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>IF(C13=C14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W13,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W13,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W13,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 13</v>
       </c>
       <c r="C14">
@@ -2222,7 +2330,7 @@
         <v>26</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 13</v>
       </c>
       <c r="F14" s="3">
@@ -2238,77 +2346,85 @@
         <v>13</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F14)&amp;"\"&amp;Q14&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K14,"\",B14,"\","COMVEN LID","\",YEAR(F14),"\",TEXT(MONTH(F14),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 13\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M14" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M14" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N14" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 13\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O14" s="4" t="str">
+        <f>TEXT(MONTH(F14),"00")&amp;"/"&amp;YEAR(F14)</f>
         <v>04/2023</v>
       </c>
-      <c r="N14" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P14" s="2" t="str">
+        <f>PROPER(TEXT(F14,"mmmm"))&amp;" "&amp;YEAR(F14)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O14" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q14" s="2" t="str">
+        <f>YEAR(F14)&amp;TEXT(MONTH(F14),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P14" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R14" s="2" t="str">
+        <f>CONCATENATE(TEXT(A14,"0"),"  - ",Q14," - ",SUBSTITUTE(D14,"-","")," - ",B14)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 13</v>
       </c>
-      <c r="Q14" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S14" s="2" t="str">
+        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIV - ",Q14," - ",B14," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 13 SOS.txt</v>
       </c>
-      <c r="R14" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T14" s="2" t="str">
+        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIV - ",Q14," - ",B14," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 13 Alicuota SOS.txt</v>
       </c>
-      <c r="S14" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U14" s="2" t="str">
+        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIC - ",Q14," - ",B14," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 13 SOS.txt</v>
       </c>
-      <c r="T14" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V14" s="2" t="str">
+        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIC - ",Q14," - ",B14," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 13 Alicuota SOS.txt</v>
       </c>
-      <c r="U14" s="4">
-        <f t="shared" si="6"/>
+      <c r="W14" s="4">
+        <f>ROW(A14)</f>
         <v>14</v>
       </c>
-      <c r="V14" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W14" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X14" s="5" t="e">
-        <f>VLOOKUP(TEXT(U14,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y14" s="5" t="e">
-        <f>VLOOKUP(TEXT(U14,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z14" s="4" t="e">
-        <f>VLOOKUP(TEXT(U14,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X14" s="4">
+        <f>IF(C14=C13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>IF(C14=C15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W14,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W14,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W14,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 14</v>
       </c>
       <c r="C15">
@@ -2318,7 +2434,7 @@
         <v>26</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 14</v>
       </c>
       <c r="F15" s="3">
@@ -2332,77 +2448,85 @@
         <v>12</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F15)&amp;"\"&amp;Q15&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K15,"\",B15,"\","COMVEN LID","\",YEAR(F15),"\",TEXT(MONTH(F15),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 14\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M15" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M15" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N15" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 14\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O15" s="4" t="str">
+        <f>TEXT(MONTH(F15),"00")&amp;"/"&amp;YEAR(F15)</f>
         <v>03/2023</v>
       </c>
-      <c r="N15" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P15" s="2" t="str">
+        <f>PROPER(TEXT(F15,"mmmm"))&amp;" "&amp;YEAR(F15)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O15" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q15" s="2" t="str">
+        <f>YEAR(F15)&amp;TEXT(MONTH(F15),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P15" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R15" s="2" t="str">
+        <f>CONCATENATE(TEXT(A15,"0"),"  - ",Q15," - ",SUBSTITUTE(D15,"-","")," - ",B15)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 14</v>
       </c>
-      <c r="Q15" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S15" s="2" t="str">
+        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIV - ",Q15," - ",B15," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 14 SOS.txt</v>
       </c>
-      <c r="R15" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T15" s="2" t="str">
+        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIV - ",Q15," - ",B15," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 14 Alicuota SOS.txt</v>
       </c>
-      <c r="S15" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U15" s="2" t="str">
+        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIC - ",Q15," - ",B15," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 14 SOS.txt</v>
       </c>
-      <c r="T15" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V15" s="2" t="str">
+        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIC - ",Q15," - ",B15," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 14 Alicuota SOS.txt</v>
       </c>
-      <c r="U15" s="4">
-        <f t="shared" si="6"/>
+      <c r="W15" s="4">
+        <f>ROW(A15)</f>
         <v>15</v>
       </c>
-      <c r="V15" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W15" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X15" s="5" t="e">
-        <f>VLOOKUP(TEXT(U15,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y15" s="5" t="e">
-        <f>VLOOKUP(TEXT(U15,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z15" s="4" t="e">
-        <f>VLOOKUP(TEXT(U15,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X15" s="4">
+        <f>IF(C15=C14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="4">
+        <f>IF(C15=C16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W15,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W15,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W15,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 15</v>
       </c>
       <c r="C16">
@@ -2412,7 +2536,7 @@
         <v>26</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 15</v>
       </c>
       <c r="F16" s="3">
@@ -2428,77 +2552,85 @@
         <v>13</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F16)&amp;"\"&amp;Q16&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K16,"\",B16,"\","COMVEN LID","\",YEAR(F16),"\",TEXT(MONTH(F16),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 15\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M16" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M16" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N16" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 15\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O16" s="4" t="str">
+        <f>TEXT(MONTH(F16),"00")&amp;"/"&amp;YEAR(F16)</f>
         <v>04/2023</v>
       </c>
-      <c r="N16" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P16" s="2" t="str">
+        <f>PROPER(TEXT(F16,"mmmm"))&amp;" "&amp;YEAR(F16)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O16" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q16" s="2" t="str">
+        <f>YEAR(F16)&amp;TEXT(MONTH(F16),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P16" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R16" s="2" t="str">
+        <f>CONCATENATE(TEXT(A16,"0"),"  - ",Q16," - ",SUBSTITUTE(D16,"-","")," - ",B16)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 15</v>
       </c>
-      <c r="Q16" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S16" s="2" t="str">
+        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIV - ",Q16," - ",B16," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 15 SOS.txt</v>
       </c>
-      <c r="R16" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T16" s="2" t="str">
+        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIV - ",Q16," - ",B16," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 15 Alicuota SOS.txt</v>
       </c>
-      <c r="S16" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U16" s="2" t="str">
+        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIC - ",Q16," - ",B16," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 15 SOS.txt</v>
       </c>
-      <c r="T16" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V16" s="2" t="str">
+        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIC - ",Q16," - ",B16," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 15 Alicuota SOS.txt</v>
       </c>
-      <c r="U16" s="4">
-        <f t="shared" si="6"/>
+      <c r="W16" s="4">
+        <f>ROW(A16)</f>
         <v>16</v>
       </c>
-      <c r="V16" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W16" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X16" s="5" t="e">
-        <f>VLOOKUP(TEXT(U16,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y16" s="5" t="e">
-        <f>VLOOKUP(TEXT(U16,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z16" s="4" t="e">
-        <f>VLOOKUP(TEXT(U16,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X16" s="4">
+        <f>IF(C16=C15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
+        <f>IF(C16=C17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W16,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W16,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB16" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W16,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 16</v>
       </c>
       <c r="C17">
@@ -2508,7 +2640,7 @@
         <v>26</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 16</v>
       </c>
       <c r="F17" s="3">
@@ -2524,77 +2656,85 @@
         <v>13</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F17)&amp;"\"&amp;Q17&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K17,"\",B17,"\","COMVEN LID","\",YEAR(F17),"\",TEXT(MONTH(F17),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 16\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M17" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M17" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N17" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 16\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O17" s="4" t="str">
+        <f>TEXT(MONTH(F17),"00")&amp;"/"&amp;YEAR(F17)</f>
         <v>04/2023</v>
       </c>
-      <c r="N17" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P17" s="2" t="str">
+        <f>PROPER(TEXT(F17,"mmmm"))&amp;" "&amp;YEAR(F17)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O17" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q17" s="2" t="str">
+        <f>YEAR(F17)&amp;TEXT(MONTH(F17),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P17" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R17" s="2" t="str">
+        <f>CONCATENATE(TEXT(A17,"0"),"  - ",Q17," - ",SUBSTITUTE(D17,"-","")," - ",B17)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 16</v>
       </c>
-      <c r="Q17" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S17" s="2" t="str">
+        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIV - ",Q17," - ",B17," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 16 SOS.txt</v>
       </c>
-      <c r="R17" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T17" s="2" t="str">
+        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIV - ",Q17," - ",B17," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 16 Alicuota SOS.txt</v>
       </c>
-      <c r="S17" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U17" s="2" t="str">
+        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIC - ",Q17," - ",B17," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 16 SOS.txt</v>
       </c>
-      <c r="T17" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V17" s="2" t="str">
+        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIC - ",Q17," - ",B17," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 16 Alicuota SOS.txt</v>
       </c>
-      <c r="U17" s="4">
-        <f t="shared" si="6"/>
+      <c r="W17" s="4">
+        <f>ROW(A17)</f>
         <v>17</v>
       </c>
-      <c r="V17" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W17" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X17" s="5" t="e">
-        <f>VLOOKUP(TEXT(U17,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y17" s="5" t="e">
-        <f>VLOOKUP(TEXT(U17,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z17" s="4" t="e">
-        <f>VLOOKUP(TEXT(U17,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X17" s="4">
+        <f>IF(C17=C16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="4">
+        <f>IF(C17=C18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W17,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W17,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB17" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W17,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 17</v>
       </c>
       <c r="C18">
@@ -2604,7 +2744,7 @@
         <v>26</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 17</v>
       </c>
       <c r="F18" s="3">
@@ -2618,77 +2758,85 @@
         <v>12</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F18)&amp;"\"&amp;Q18&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L18" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K18,"\",B18,"\","COMVEN LID","\",YEAR(F18),"\",TEXT(MONTH(F18),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 17\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M18" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M18" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N18" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 17\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O18" s="4" t="str">
+        <f>TEXT(MONTH(F18),"00")&amp;"/"&amp;YEAR(F18)</f>
         <v>03/2023</v>
       </c>
-      <c r="N18" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P18" s="2" t="str">
+        <f>PROPER(TEXT(F18,"mmmm"))&amp;" "&amp;YEAR(F18)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O18" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q18" s="2" t="str">
+        <f>YEAR(F18)&amp;TEXT(MONTH(F18),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P18" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R18" s="2" t="str">
+        <f>CONCATENATE(TEXT(A18,"0"),"  - ",Q18," - ",SUBSTITUTE(D18,"-","")," - ",B18)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 17</v>
       </c>
-      <c r="Q18" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S18" s="2" t="str">
+        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIV - ",Q18," - ",B18," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 17 SOS.txt</v>
       </c>
-      <c r="R18" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T18" s="2" t="str">
+        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIV - ",Q18," - ",B18," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 17 Alicuota SOS.txt</v>
       </c>
-      <c r="S18" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U18" s="2" t="str">
+        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIC - ",Q18," - ",B18," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 17 SOS.txt</v>
       </c>
-      <c r="T18" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V18" s="2" t="str">
+        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIC - ",Q18," - ",B18," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 17 Alicuota SOS.txt</v>
       </c>
-      <c r="U18" s="4">
-        <f t="shared" si="6"/>
+      <c r="W18" s="4">
+        <f>ROW(A18)</f>
         <v>18</v>
       </c>
-      <c r="V18" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W18" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X18" s="5" t="e">
-        <f>VLOOKUP(TEXT(U18,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y18" s="5" t="e">
-        <f>VLOOKUP(TEXT(U18,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z18" s="4" t="e">
-        <f>VLOOKUP(TEXT(U18,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X18" s="4">
+        <f>IF(C18=C17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="4">
+        <f>IF(C18=C19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W18,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W18,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB18" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W18,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 18</v>
       </c>
       <c r="C19">
@@ -2698,7 +2846,7 @@
         <v>26</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 18</v>
       </c>
       <c r="F19" s="3">
@@ -2712,77 +2860,85 @@
         <v>13</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F19)&amp;"\"&amp;Q19&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L19" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K19,"\",B19,"\","COMVEN LID","\",YEAR(F19),"\",TEXT(MONTH(F19),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 18\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M19" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M19" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N19" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 18\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O19" s="4" t="str">
+        <f>TEXT(MONTH(F19),"00")&amp;"/"&amp;YEAR(F19)</f>
         <v>04/2023</v>
       </c>
-      <c r="N19" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P19" s="2" t="str">
+        <f>PROPER(TEXT(F19,"mmmm"))&amp;" "&amp;YEAR(F19)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O19" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q19" s="2" t="str">
+        <f>YEAR(F19)&amp;TEXT(MONTH(F19),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P19" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R19" s="2" t="str">
+        <f>CONCATENATE(TEXT(A19,"0"),"  - ",Q19," - ",SUBSTITUTE(D19,"-","")," - ",B19)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 18</v>
       </c>
-      <c r="Q19" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S19" s="2" t="str">
+        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIV - ",Q19," - ",B19," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 18 SOS.txt</v>
       </c>
-      <c r="R19" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T19" s="2" t="str">
+        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIV - ",Q19," - ",B19," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 18 Alicuota SOS.txt</v>
       </c>
-      <c r="S19" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U19" s="2" t="str">
+        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIC - ",Q19," - ",B19," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 18 SOS.txt</v>
       </c>
-      <c r="T19" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V19" s="2" t="str">
+        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIC - ",Q19," - ",B19," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 18 Alicuota SOS.txt</v>
       </c>
-      <c r="U19" s="4">
-        <f t="shared" si="6"/>
+      <c r="W19" s="4">
+        <f>ROW(A19)</f>
         <v>19</v>
       </c>
-      <c r="V19" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W19" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X19" s="5" t="e">
-        <f>VLOOKUP(TEXT(U19,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y19" s="5" t="e">
-        <f>VLOOKUP(TEXT(U19,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z19" s="4" t="e">
-        <f>VLOOKUP(TEXT(U19,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X19" s="4">
+        <f>IF(C19=C18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="4">
+        <f>IF(C19=C20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W19,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W19,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB19" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W19,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 19</v>
       </c>
       <c r="C20">
@@ -2792,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 19</v>
       </c>
       <c r="F20" s="3">
@@ -2806,77 +2962,85 @@
         <v>12</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F20)&amp;"\"&amp;Q20&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L20" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K20,"\",B20,"\","COMVEN LID","\",YEAR(F20),"\",TEXT(MONTH(F20),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 19\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M20" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M20" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 19\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O20" s="4" t="str">
+        <f>TEXT(MONTH(F20),"00")&amp;"/"&amp;YEAR(F20)</f>
         <v>03/2023</v>
       </c>
-      <c r="N20" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P20" s="2" t="str">
+        <f>PROPER(TEXT(F20,"mmmm"))&amp;" "&amp;YEAR(F20)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O20" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q20" s="2" t="str">
+        <f>YEAR(F20)&amp;TEXT(MONTH(F20),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P20" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R20" s="2" t="str">
+        <f>CONCATENATE(TEXT(A20,"0"),"  - ",Q20," - ",SUBSTITUTE(D20,"-","")," - ",B20)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 19</v>
       </c>
-      <c r="Q20" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S20" s="2" t="str">
+        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIV - ",Q20," - ",B20," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 19 SOS.txt</v>
       </c>
-      <c r="R20" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T20" s="2" t="str">
+        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIV - ",Q20," - ",B20," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 19 Alicuota SOS.txt</v>
       </c>
-      <c r="S20" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U20" s="2" t="str">
+        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIC - ",Q20," - ",B20," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 19 SOS.txt</v>
       </c>
-      <c r="T20" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V20" s="2" t="str">
+        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIC - ",Q20," - ",B20," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 19 Alicuota SOS.txt</v>
       </c>
-      <c r="U20" s="4">
-        <f t="shared" si="6"/>
+      <c r="W20" s="4">
+        <f>ROW(A20)</f>
         <v>20</v>
       </c>
-      <c r="V20" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W20" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X20" s="5" t="e">
-        <f>VLOOKUP(TEXT(U20,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y20" s="5" t="e">
-        <f>VLOOKUP(TEXT(U20,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z20" s="4" t="e">
-        <f>VLOOKUP(TEXT(U20,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X20" s="4">
+        <f>IF(C20=C19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="4">
+        <f>IF(C20=C21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W20,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W20,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB20" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W20,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 20</v>
       </c>
       <c r="C21">
@@ -2886,7 +3050,7 @@
         <v>26</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 20</v>
       </c>
       <c r="F21" s="3">
@@ -2900,77 +3064,85 @@
         <v>12</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F21)&amp;"\"&amp;Q21&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L21" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K21,"\",B21,"\","COMVEN LID","\",YEAR(F21),"\",TEXT(MONTH(F21),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 20\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M21" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M21" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N21" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 20\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O21" s="4" t="str">
+        <f>TEXT(MONTH(F21),"00")&amp;"/"&amp;YEAR(F21)</f>
         <v>03/2023</v>
       </c>
-      <c r="N21" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P21" s="2" t="str">
+        <f>PROPER(TEXT(F21,"mmmm"))&amp;" "&amp;YEAR(F21)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O21" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q21" s="2" t="str">
+        <f>YEAR(F21)&amp;TEXT(MONTH(F21),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P21" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R21" s="2" t="str">
+        <f>CONCATENATE(TEXT(A21,"0"),"  - ",Q21," - ",SUBSTITUTE(D21,"-","")," - ",B21)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 20</v>
       </c>
-      <c r="Q21" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S21" s="2" t="str">
+        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIV - ",Q21," - ",B21," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 20 SOS.txt</v>
       </c>
-      <c r="R21" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T21" s="2" t="str">
+        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIV - ",Q21," - ",B21," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 20 Alicuota SOS.txt</v>
       </c>
-      <c r="S21" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U21" s="2" t="str">
+        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIC - ",Q21," - ",B21," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 20 SOS.txt</v>
       </c>
-      <c r="T21" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V21" s="2" t="str">
+        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIC - ",Q21," - ",B21," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 20 Alicuota SOS.txt</v>
       </c>
-      <c r="U21" s="4">
-        <f t="shared" si="6"/>
+      <c r="W21" s="4">
+        <f>ROW(A21)</f>
         <v>21</v>
       </c>
-      <c r="V21" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W21" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X21" s="5" t="e">
-        <f>VLOOKUP(TEXT(U21,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y21" s="5" t="e">
-        <f>VLOOKUP(TEXT(U21,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z21" s="4" t="e">
-        <f>VLOOKUP(TEXT(U21,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X21" s="4">
+        <f>IF(C21=C20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="4">
+        <f>IF(C21=C22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W21,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W21,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB21" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W21,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 21</v>
       </c>
       <c r="C22">
@@ -2980,7 +3152,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 21</v>
       </c>
       <c r="F22" s="3">
@@ -2996,77 +3168,85 @@
         <v>13</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F22)&amp;"\"&amp;Q22&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K22,"\",B22,"\","COMVEN LID","\",YEAR(F22),"\",TEXT(MONTH(F22),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 21\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M22" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M22" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N22" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 21\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O22" s="4" t="str">
+        <f>TEXT(MONTH(F22),"00")&amp;"/"&amp;YEAR(F22)</f>
         <v>04/2023</v>
       </c>
-      <c r="N22" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P22" s="2" t="str">
+        <f>PROPER(TEXT(F22,"mmmm"))&amp;" "&amp;YEAR(F22)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O22" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q22" s="2" t="str">
+        <f>YEAR(F22)&amp;TEXT(MONTH(F22),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P22" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R22" s="2" t="str">
+        <f>CONCATENATE(TEXT(A22,"0"),"  - ",Q22," - ",SUBSTITUTE(D22,"-","")," - ",B22)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 21</v>
       </c>
-      <c r="Q22" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S22" s="2" t="str">
+        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIV - ",Q22," - ",B22," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 21 SOS.txt</v>
       </c>
-      <c r="R22" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T22" s="2" t="str">
+        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIV - ",Q22," - ",B22," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 21 Alicuota SOS.txt</v>
       </c>
-      <c r="S22" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U22" s="2" t="str">
+        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIC - ",Q22," - ",B22," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 21 SOS.txt</v>
       </c>
-      <c r="T22" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V22" s="2" t="str">
+        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIC - ",Q22," - ",B22," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 21 Alicuota SOS.txt</v>
       </c>
-      <c r="U22" s="4">
-        <f t="shared" si="6"/>
+      <c r="W22" s="4">
+        <f>ROW(A22)</f>
         <v>22</v>
       </c>
-      <c r="V22" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W22" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X22" s="5" t="e">
-        <f>VLOOKUP(TEXT(U22,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y22" s="5" t="e">
-        <f>VLOOKUP(TEXT(U22,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z22" s="4" t="e">
-        <f>VLOOKUP(TEXT(U22,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X22" s="4">
+        <f>IF(C22=C21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="4">
+        <f>IF(C22=C23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W22,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W22,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB22" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W22,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 22</v>
       </c>
       <c r="C23">
@@ -3076,7 +3256,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 22</v>
       </c>
       <c r="F23" s="3">
@@ -3092,77 +3272,85 @@
         <v>13</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F23)&amp;"\"&amp;Q23&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L23" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K23,"\",B23,"\","COMVEN LID","\",YEAR(F23),"\",TEXT(MONTH(F23),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 22\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M23" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M23" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N23" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 22\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O23" s="4" t="str">
+        <f>TEXT(MONTH(F23),"00")&amp;"/"&amp;YEAR(F23)</f>
         <v>04/2023</v>
       </c>
-      <c r="N23" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P23" s="2" t="str">
+        <f>PROPER(TEXT(F23,"mmmm"))&amp;" "&amp;YEAR(F23)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O23" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q23" s="2" t="str">
+        <f>YEAR(F23)&amp;TEXT(MONTH(F23),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P23" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R23" s="2" t="str">
+        <f>CONCATENATE(TEXT(A23,"0"),"  - ",Q23," - ",SUBSTITUTE(D23,"-","")," - ",B23)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 22</v>
       </c>
-      <c r="Q23" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S23" s="2" t="str">
+        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIV - ",Q23," - ",B23," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 22 SOS.txt</v>
       </c>
-      <c r="R23" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T23" s="2" t="str">
+        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIV - ",Q23," - ",B23," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 22 Alicuota SOS.txt</v>
       </c>
-      <c r="S23" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U23" s="2" t="str">
+        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIC - ",Q23," - ",B23," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 22 SOS.txt</v>
       </c>
-      <c r="T23" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V23" s="2" t="str">
+        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIC - ",Q23," - ",B23," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 22 Alicuota SOS.txt</v>
       </c>
-      <c r="U23" s="4">
-        <f t="shared" si="6"/>
+      <c r="W23" s="4">
+        <f>ROW(A23)</f>
         <v>23</v>
       </c>
-      <c r="V23" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W23" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X23" s="5" t="e">
-        <f>VLOOKUP(TEXT(U23,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y23" s="5" t="e">
-        <f>VLOOKUP(TEXT(U23,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z23" s="4" t="e">
-        <f>VLOOKUP(TEXT(U23,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X23" s="4">
+        <f>IF(C23=C22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="4">
+        <f>IF(C23=C24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W23,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W23,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB23" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W23,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 23</v>
       </c>
       <c r="C24">
@@ -3172,7 +3360,7 @@
         <v>26</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 23</v>
       </c>
       <c r="F24" s="3">
@@ -3188,77 +3376,85 @@
         <v>13</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F24)&amp;"\"&amp;Q24&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L24" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K24,"\",B24,"\","COMVEN LID","\",YEAR(F24),"\",TEXT(MONTH(F24),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 23\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M24" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M24" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N24" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 23\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O24" s="4" t="str">
+        <f>TEXT(MONTH(F24),"00")&amp;"/"&amp;YEAR(F24)</f>
         <v>04/2023</v>
       </c>
-      <c r="N24" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P24" s="2" t="str">
+        <f>PROPER(TEXT(F24,"mmmm"))&amp;" "&amp;YEAR(F24)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O24" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q24" s="2" t="str">
+        <f>YEAR(F24)&amp;TEXT(MONTH(F24),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P24" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R24" s="2" t="str">
+        <f>CONCATENATE(TEXT(A24,"0"),"  - ",Q24," - ",SUBSTITUTE(D24,"-","")," - ",B24)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 23</v>
       </c>
-      <c r="Q24" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S24" s="2" t="str">
+        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIV - ",Q24," - ",B24," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 23 SOS.txt</v>
       </c>
-      <c r="R24" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T24" s="2" t="str">
+        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIV - ",Q24," - ",B24," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 23 Alicuota SOS.txt</v>
       </c>
-      <c r="S24" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U24" s="2" t="str">
+        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIC - ",Q24," - ",B24," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 23 SOS.txt</v>
       </c>
-      <c r="T24" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V24" s="2" t="str">
+        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIC - ",Q24," - ",B24," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 23 Alicuota SOS.txt</v>
       </c>
-      <c r="U24" s="4">
-        <f t="shared" si="6"/>
+      <c r="W24" s="4">
+        <f>ROW(A24)</f>
         <v>24</v>
       </c>
-      <c r="V24" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W24" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X24" s="5" t="e">
-        <f>VLOOKUP(TEXT(U24,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y24" s="5" t="e">
-        <f>VLOOKUP(TEXT(U24,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z24" s="4" t="e">
-        <f>VLOOKUP(TEXT(U24,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X24" s="4">
+        <f>IF(C24=C23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="4">
+        <f>IF(C24=C25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W24,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W24,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB24" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W24,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 24</v>
       </c>
       <c r="C25">
@@ -3268,7 +3464,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 24</v>
       </c>
       <c r="F25" s="3">
@@ -3282,77 +3478,85 @@
         <v>13</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F25)&amp;"\"&amp;Q25&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L25" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K25,"\",B25,"\","COMVEN LID","\",YEAR(F25),"\",TEXT(MONTH(F25),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 24\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M25" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M25" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N25" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 24\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O25" s="4" t="str">
+        <f>TEXT(MONTH(F25),"00")&amp;"/"&amp;YEAR(F25)</f>
         <v>04/2023</v>
       </c>
-      <c r="N25" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P25" s="2" t="str">
+        <f>PROPER(TEXT(F25,"mmmm"))&amp;" "&amp;YEAR(F25)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O25" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q25" s="2" t="str">
+        <f>YEAR(F25)&amp;TEXT(MONTH(F25),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P25" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R25" s="2" t="str">
+        <f>CONCATENATE(TEXT(A25,"0"),"  - ",Q25," - ",SUBSTITUTE(D25,"-","")," - ",B25)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 24</v>
       </c>
-      <c r="Q25" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S25" s="2" t="str">
+        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIV - ",Q25," - ",B25," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 24 SOS.txt</v>
       </c>
-      <c r="R25" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T25" s="2" t="str">
+        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIV - ",Q25," - ",B25," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 24 Alicuota SOS.txt</v>
       </c>
-      <c r="S25" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U25" s="2" t="str">
+        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIC - ",Q25," - ",B25," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 24 SOS.txt</v>
       </c>
-      <c r="T25" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V25" s="2" t="str">
+        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIC - ",Q25," - ",B25," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 24 Alicuota SOS.txt</v>
       </c>
-      <c r="U25" s="4">
-        <f t="shared" si="6"/>
+      <c r="W25" s="4">
+        <f>ROW(A25)</f>
         <v>25</v>
       </c>
-      <c r="V25" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W25" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X25" s="5" t="e">
-        <f>VLOOKUP(TEXT(U25,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y25" s="5" t="e">
-        <f>VLOOKUP(TEXT(U25,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z25" s="4" t="e">
-        <f>VLOOKUP(TEXT(U25,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X25" s="4">
+        <f>IF(C25=C24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="4">
+        <f>IF(C25=C26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W25,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W25,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB25" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W25,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 25</v>
       </c>
       <c r="C26">
@@ -3362,7 +3566,7 @@
         <v>26</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 25</v>
       </c>
       <c r="F26" s="3">
@@ -3376,77 +3580,85 @@
         <v>13</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F26)&amp;"\"&amp;Q26&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L26" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K26,"\",B26,"\","COMVEN LID","\",YEAR(F26),"\",TEXT(MONTH(F26),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 25\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M26" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M26" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N26" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 25\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O26" s="4" t="str">
+        <f>TEXT(MONTH(F26),"00")&amp;"/"&amp;YEAR(F26)</f>
         <v>04/2023</v>
       </c>
-      <c r="N26" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P26" s="2" t="str">
+        <f>PROPER(TEXT(F26,"mmmm"))&amp;" "&amp;YEAR(F26)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O26" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q26" s="2" t="str">
+        <f>YEAR(F26)&amp;TEXT(MONTH(F26),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P26" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R26" s="2" t="str">
+        <f>CONCATENATE(TEXT(A26,"0"),"  - ",Q26," - ",SUBSTITUTE(D26,"-","")," - ",B26)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 25</v>
       </c>
-      <c r="Q26" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S26" s="2" t="str">
+        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIV - ",Q26," - ",B26," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 25 SOS.txt</v>
       </c>
-      <c r="R26" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T26" s="2" t="str">
+        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIV - ",Q26," - ",B26," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 25 Alicuota SOS.txt</v>
       </c>
-      <c r="S26" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U26" s="2" t="str">
+        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIC - ",Q26," - ",B26," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 25 SOS.txt</v>
       </c>
-      <c r="T26" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V26" s="2" t="str">
+        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIC - ",Q26," - ",B26," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 25 Alicuota SOS.txt</v>
       </c>
-      <c r="U26" s="4">
-        <f t="shared" si="6"/>
+      <c r="W26" s="4">
+        <f>ROW(A26)</f>
         <v>26</v>
       </c>
-      <c r="V26" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W26" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X26" s="5" t="e">
-        <f>VLOOKUP(TEXT(U26,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y26" s="5" t="e">
-        <f>VLOOKUP(TEXT(U26,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z26" s="4" t="e">
-        <f>VLOOKUP(TEXT(U26,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X26" s="4">
+        <f>IF(C26=C25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="4">
+        <f>IF(C26=C27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W26,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W26,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB26" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W26,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 26</v>
       </c>
       <c r="C27">
@@ -3456,7 +3668,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 26</v>
       </c>
       <c r="F27" s="3">
@@ -3470,77 +3682,85 @@
         <v>13</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F27)&amp;"\"&amp;Q27&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L27" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K27,"\",B27,"\","COMVEN LID","\",YEAR(F27),"\",TEXT(MONTH(F27),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 26\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M27" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M27" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N27" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 26\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O27" s="4" t="str">
+        <f>TEXT(MONTH(F27),"00")&amp;"/"&amp;YEAR(F27)</f>
         <v>04/2023</v>
       </c>
-      <c r="N27" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P27" s="2" t="str">
+        <f>PROPER(TEXT(F27,"mmmm"))&amp;" "&amp;YEAR(F27)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O27" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q27" s="2" t="str">
+        <f>YEAR(F27)&amp;TEXT(MONTH(F27),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P27" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R27" s="2" t="str">
+        <f>CONCATENATE(TEXT(A27,"0"),"  - ",Q27," - ",SUBSTITUTE(D27,"-","")," - ",B27)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 26</v>
       </c>
-      <c r="Q27" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S27" s="2" t="str">
+        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIV - ",Q27," - ",B27," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 26 SOS.txt</v>
       </c>
-      <c r="R27" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T27" s="2" t="str">
+        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIV - ",Q27," - ",B27," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 26 Alicuota SOS.txt</v>
       </c>
-      <c r="S27" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U27" s="2" t="str">
+        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIC - ",Q27," - ",B27," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 26 SOS.txt</v>
       </c>
-      <c r="T27" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V27" s="2" t="str">
+        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIC - ",Q27," - ",B27," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 26 Alicuota SOS.txt</v>
       </c>
-      <c r="U27" s="4">
-        <f t="shared" si="6"/>
+      <c r="W27" s="4">
+        <f>ROW(A27)</f>
         <v>27</v>
       </c>
-      <c r="V27" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W27" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X27" s="5" t="e">
-        <f>VLOOKUP(TEXT(U27,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y27" s="5" t="e">
-        <f>VLOOKUP(TEXT(U27,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z27" s="4" t="e">
-        <f>VLOOKUP(TEXT(U27,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X27" s="4">
+        <f>IF(C27=C26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y27" s="4">
+        <f>IF(C27=C28,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W27,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W27,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB27" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W27,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 27</v>
       </c>
       <c r="C28">
@@ -3550,7 +3770,7 @@
         <v>26</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 27</v>
       </c>
       <c r="F28" s="3">
@@ -3566,77 +3786,85 @@
         <v>13</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F28)&amp;"\"&amp;Q28&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K28,"\",B28,"\","COMVEN LID","\",YEAR(F28),"\",TEXT(MONTH(F28),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 27\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M28" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M28" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N28" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 27\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O28" s="4" t="str">
+        <f>TEXT(MONTH(F28),"00")&amp;"/"&amp;YEAR(F28)</f>
         <v>04/2023</v>
       </c>
-      <c r="N28" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P28" s="2" t="str">
+        <f>PROPER(TEXT(F28,"mmmm"))&amp;" "&amp;YEAR(F28)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O28" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q28" s="2" t="str">
+        <f>YEAR(F28)&amp;TEXT(MONTH(F28),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P28" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R28" s="2" t="str">
+        <f>CONCATENATE(TEXT(A28,"0"),"  - ",Q28," - ",SUBSTITUTE(D28,"-","")," - ",B28)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 27</v>
       </c>
-      <c r="Q28" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S28" s="2" t="str">
+        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIV - ",Q28," - ",B28," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 27 SOS.txt</v>
       </c>
-      <c r="R28" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T28" s="2" t="str">
+        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIV - ",Q28," - ",B28," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 27 Alicuota SOS.txt</v>
       </c>
-      <c r="S28" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U28" s="2" t="str">
+        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIC - ",Q28," - ",B28," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 27 SOS.txt</v>
       </c>
-      <c r="T28" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V28" s="2" t="str">
+        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIC - ",Q28," - ",B28," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 27 Alicuota SOS.txt</v>
       </c>
-      <c r="U28" s="4">
-        <f t="shared" si="6"/>
+      <c r="W28" s="4">
+        <f>ROW(A28)</f>
         <v>28</v>
       </c>
-      <c r="V28" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W28" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X28" s="5" t="e">
-        <f>VLOOKUP(TEXT(U28,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y28" s="5" t="e">
-        <f>VLOOKUP(TEXT(U28,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z28" s="4" t="e">
-        <f>VLOOKUP(TEXT(U28,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X28" s="4">
+        <f>IF(C28=C27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="4">
+        <f>IF(C28=C29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W28,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W28,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB28" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W28,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 28</v>
       </c>
       <c r="C29">
@@ -3646,7 +3874,7 @@
         <v>26</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 28</v>
       </c>
       <c r="F29" s="3">
@@ -3660,77 +3888,85 @@
         <v>13</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F29)&amp;"\"&amp;Q29&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K29,"\",B29,"\","COMVEN LID","\",YEAR(F29),"\",TEXT(MONTH(F29),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 28\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M29" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M29" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N29" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 28\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O29" s="4" t="str">
+        <f>TEXT(MONTH(F29),"00")&amp;"/"&amp;YEAR(F29)</f>
         <v>04/2023</v>
       </c>
-      <c r="N29" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P29" s="2" t="str">
+        <f>PROPER(TEXT(F29,"mmmm"))&amp;" "&amp;YEAR(F29)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O29" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q29" s="2" t="str">
+        <f>YEAR(F29)&amp;TEXT(MONTH(F29),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P29" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R29" s="2" t="str">
+        <f>CONCATENATE(TEXT(A29,"0"),"  - ",Q29," - ",SUBSTITUTE(D29,"-","")," - ",B29)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 28</v>
       </c>
-      <c r="Q29" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S29" s="2" t="str">
+        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIV - ",Q29," - ",B29," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 28 SOS.txt</v>
       </c>
-      <c r="R29" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T29" s="2" t="str">
+        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIV - ",Q29," - ",B29," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 28 Alicuota SOS.txt</v>
       </c>
-      <c r="S29" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U29" s="2" t="str">
+        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIC - ",Q29," - ",B29," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 28 SOS.txt</v>
       </c>
-      <c r="T29" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V29" s="2" t="str">
+        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIC - ",Q29," - ",B29," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 28 Alicuota SOS.txt</v>
       </c>
-      <c r="U29" s="4">
-        <f t="shared" si="6"/>
+      <c r="W29" s="4">
+        <f>ROW(A29)</f>
         <v>29</v>
       </c>
-      <c r="V29" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W29" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X29" s="5" t="e">
-        <f>VLOOKUP(TEXT(U29,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y29" s="5" t="e">
-        <f>VLOOKUP(TEXT(U29,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z29" s="4" t="e">
-        <f>VLOOKUP(TEXT(U29,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X29" s="4">
+        <f>IF(C29=C28,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="4">
+        <f>IF(C29=C30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W29,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W29,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB29" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W29,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 29</v>
       </c>
       <c r="C30">
@@ -3740,7 +3976,7 @@
         <v>26</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 29</v>
       </c>
       <c r="F30" s="3">
@@ -3754,77 +3990,85 @@
         <v>12</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F30)&amp;"\"&amp;Q30&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K30,"\",B30,"\","COMVEN LID","\",YEAR(F30),"\",TEXT(MONTH(F30),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 29\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M30" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M30" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N30" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 29\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O30" s="4" t="str">
+        <f>TEXT(MONTH(F30),"00")&amp;"/"&amp;YEAR(F30)</f>
         <v>03/2023</v>
       </c>
-      <c r="N30" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P30" s="2" t="str">
+        <f>PROPER(TEXT(F30,"mmmm"))&amp;" "&amp;YEAR(F30)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O30" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q30" s="2" t="str">
+        <f>YEAR(F30)&amp;TEXT(MONTH(F30),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P30" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R30" s="2" t="str">
+        <f>CONCATENATE(TEXT(A30,"0"),"  - ",Q30," - ",SUBSTITUTE(D30,"-","")," - ",B30)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 29</v>
       </c>
-      <c r="Q30" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S30" s="2" t="str">
+        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIV - ",Q30," - ",B30," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 29 SOS.txt</v>
       </c>
-      <c r="R30" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T30" s="2" t="str">
+        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIV - ",Q30," - ",B30," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 29 Alicuota SOS.txt</v>
       </c>
-      <c r="S30" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U30" s="2" t="str">
+        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIC - ",Q30," - ",B30," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 29 SOS.txt</v>
       </c>
-      <c r="T30" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V30" s="2" t="str">
+        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIC - ",Q30," - ",B30," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 29 Alicuota SOS.txt</v>
       </c>
-      <c r="U30" s="4">
-        <f t="shared" si="6"/>
+      <c r="W30" s="4">
+        <f>ROW(A30)</f>
         <v>30</v>
       </c>
-      <c r="V30" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W30" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X30" s="5" t="e">
-        <f>VLOOKUP(TEXT(U30,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y30" s="5" t="e">
-        <f>VLOOKUP(TEXT(U30,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z30" s="4" t="e">
-        <f>VLOOKUP(TEXT(U30,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X30" s="4">
+        <f>IF(C30=C29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y30" s="4">
+        <f>IF(C30=C31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W30,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W30,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB30" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W30,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 30</v>
       </c>
       <c r="C31">
@@ -3834,7 +4078,7 @@
         <v>26</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 30</v>
       </c>
       <c r="F31" s="3">
@@ -3848,77 +4092,85 @@
         <v>13</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F31)&amp;"\"&amp;Q31&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L31" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K31,"\",B31,"\","COMVEN LID","\",YEAR(F31),"\",TEXT(MONTH(F31),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 30\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M31" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M31" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N31" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 30\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O31" s="4" t="str">
+        <f>TEXT(MONTH(F31),"00")&amp;"/"&amp;YEAR(F31)</f>
         <v>04/2023</v>
       </c>
-      <c r="N31" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P31" s="2" t="str">
+        <f>PROPER(TEXT(F31,"mmmm"))&amp;" "&amp;YEAR(F31)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O31" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q31" s="2" t="str">
+        <f>YEAR(F31)&amp;TEXT(MONTH(F31),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P31" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R31" s="2" t="str">
+        <f>CONCATENATE(TEXT(A31,"0"),"  - ",Q31," - ",SUBSTITUTE(D31,"-","")," - ",B31)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 30</v>
       </c>
-      <c r="Q31" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S31" s="2" t="str">
+        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIV - ",Q31," - ",B31," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 30 SOS.txt</v>
       </c>
-      <c r="R31" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T31" s="2" t="str">
+        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIV - ",Q31," - ",B31," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 30 Alicuota SOS.txt</v>
       </c>
-      <c r="S31" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U31" s="2" t="str">
+        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIC - ",Q31," - ",B31," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 30 SOS.txt</v>
       </c>
-      <c r="T31" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V31" s="2" t="str">
+        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIC - ",Q31," - ",B31," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 30 Alicuota SOS.txt</v>
       </c>
-      <c r="U31" s="4">
-        <f t="shared" si="6"/>
+      <c r="W31" s="4">
+        <f>ROW(A31)</f>
         <v>31</v>
       </c>
-      <c r="V31" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W31" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X31" s="5" t="e">
-        <f>VLOOKUP(TEXT(U31,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y31" s="5" t="e">
-        <f>VLOOKUP(TEXT(U31,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z31" s="4" t="e">
-        <f>VLOOKUP(TEXT(U31,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X31" s="4">
+        <f>IF(C31=C30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y31" s="4">
+        <f>IF(C31=C32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W31,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W31,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB31" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W31,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 31</v>
       </c>
       <c r="C32">
@@ -3928,7 +4180,7 @@
         <v>26</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 31</v>
       </c>
       <c r="F32" s="3">
@@ -3942,77 +4194,85 @@
         <v>12</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="1"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F32)&amp;"\"&amp;Q32&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K32,"\",B32,"\","COMVEN LID","\",YEAR(F32),"\",TEXT(MONTH(F32),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 31\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M32" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M32" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N32" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 31\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O32" s="4" t="str">
+        <f>TEXT(MONTH(F32),"00")&amp;"/"&amp;YEAR(F32)</f>
         <v>03/2023</v>
       </c>
-      <c r="N32" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P32" s="2" t="str">
+        <f>PROPER(TEXT(F32,"mmmm"))&amp;" "&amp;YEAR(F32)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O32" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q32" s="2" t="str">
+        <f>YEAR(F32)&amp;TEXT(MONTH(F32),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P32" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R32" s="2" t="str">
+        <f>CONCATENATE(TEXT(A32,"0"),"  - ",Q32," - ",SUBSTITUTE(D32,"-","")," - ",B32)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 31</v>
       </c>
-      <c r="Q32" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="S32" s="2" t="str">
+        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIV - ",Q32," - ",B32," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 31 SOS.txt</v>
       </c>
-      <c r="R32" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="T32" s="2" t="str">
+        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIV - ",Q32," - ",B32," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 31 Alicuota SOS.txt</v>
       </c>
-      <c r="S32" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="U32" s="2" t="str">
+        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIC - ",Q32," - ",B32," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 31 SOS.txt</v>
       </c>
-      <c r="T32" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="V32" s="2" t="str">
+        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIC - ",Q32," - ",B32," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 31 Alicuota SOS.txt</v>
       </c>
-      <c r="U32" s="4">
-        <f t="shared" si="6"/>
+      <c r="W32" s="4">
+        <f>ROW(A32)</f>
         <v>32</v>
       </c>
-      <c r="V32" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W32" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X32" s="5" t="e">
-        <f>VLOOKUP(TEXT(U32,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y32" s="5" t="e">
-        <f>VLOOKUP(TEXT(U32,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z32" s="4" t="e">
-        <f>VLOOKUP(TEXT(U32,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X32" s="4">
+        <f>IF(C32=C31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y32" s="4">
+        <f>IF(C32=C33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W32,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W32,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB32" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W32,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 32</v>
       </c>
       <c r="C33">
@@ -4022,7 +4282,7 @@
         <v>26</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 32</v>
       </c>
       <c r="F33" s="3">
@@ -4036,77 +4296,85 @@
         <v>13</v>
       </c>
       <c r="K33" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F33)&amp;"\"&amp;Q33&amp;"\TXT"</f>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="L33" s="4" t="str">
+        <f>CONCATENATE(K33,"\",B33,"\","COMVEN LID","\",YEAR(F33),"\",TEXT(MONTH(F33),"00"),"\")</f>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 32\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N33" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 32\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O33" s="4" t="str">
+        <f>TEXT(MONTH(F33),"00")&amp;"/"&amp;YEAR(F33)</f>
+        <v>04/2023</v>
+      </c>
+      <c r="P33" s="2" t="str">
+        <f>PROPER(TEXT(F33,"mmmm"))&amp;" "&amp;YEAR(F33)</f>
+        <v>Abril 2023</v>
+      </c>
+      <c r="Q33" s="2" t="str">
+        <f>YEAR(F33)&amp;TEXT(MONTH(F33),"00")</f>
+        <v>202304</v>
+      </c>
+      <c r="R33" s="2" t="str">
+        <f>CONCATENATE(TEXT(A33,"0"),"  - ",Q33," - ",SUBSTITUTE(D33,"-","")," - ",B33)</f>
+        <v>0  - 202304 - 30000000000 - Nombre de cliente 32</v>
+      </c>
+      <c r="S33" s="2" t="str">
+        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIV - ",Q33," - ",B33," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 SOS.txt</v>
+      </c>
+      <c r="T33" s="2" t="str">
+        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIV - ",Q33," - ",B33," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
+      </c>
+      <c r="U33" s="2" t="str">
+        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIC - ",Q33," - ",B33," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 SOS.txt</v>
+      </c>
+      <c r="V33" s="2" t="str">
+        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIC - ",Q33," - ",B33," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
+      </c>
+      <c r="W33" s="4">
+        <f>ROW(A33)</f>
+        <v>33</v>
+      </c>
+      <c r="X33" s="4">
+        <f>IF(C33=C32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y33" s="4">
+        <f>IF(C33=C34,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W33,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W33,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB33" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W33,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f t="shared" ref="A34:A63" si="5">RIGHT(D34,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B34" t="str">
         <f t="shared" si="1"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="L33" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 32\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="M33" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>04/2023</v>
-      </c>
-      <c r="N33" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>Abril 2023</v>
-      </c>
-      <c r="O33" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>202304</v>
-      </c>
-      <c r="P33" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>0  - 202304 - 30000000000 - Nombre de cliente 32</v>
-      </c>
-      <c r="Q33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 SOS.txt</v>
-      </c>
-      <c r="R33" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
-      </c>
-      <c r="S33" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 SOS.txt</v>
-      </c>
-      <c r="T33" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
-      </c>
-      <c r="U33" s="4">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="V33" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W33" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X33" s="5" t="e">
-        <f>VLOOKUP(TEXT(U33,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y33" s="5" t="e">
-        <f>VLOOKUP(TEXT(U33,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z33" s="4" t="e">
-        <f>VLOOKUP(TEXT(U33,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A63" si="16">RIGHT(D34,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="9"/>
         <v>Nombre de cliente 33</v>
       </c>
       <c r="C34">
@@ -4116,7 +4384,7 @@
         <v>26</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 33</v>
       </c>
       <c r="F34" s="3">
@@ -4130,77 +4398,85 @@
         <v>12</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" ref="K34:K63" si="17">"F:\Libros Compras y Ventas\"&amp;YEAR(F34)&amp;"\"&amp;O34&amp;"\TXT"</f>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F34)&amp;"\"&amp;Q34&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K34,"\",B34,"\","COMVEN LID","\",YEAR(F34),"\",TEXT(MONTH(F34),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 33\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M34" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M34" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N34" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 33\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O34" s="4" t="str">
+        <f>TEXT(MONTH(F34),"00")&amp;"/"&amp;YEAR(F34)</f>
         <v>03/2023</v>
       </c>
-      <c r="N34" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P34" s="2" t="str">
+        <f>PROPER(TEXT(F34,"mmmm"))&amp;" "&amp;YEAR(F34)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O34" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q34" s="2" t="str">
+        <f>YEAR(F34)&amp;TEXT(MONTH(F34),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P34" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R34" s="2" t="str">
+        <f>CONCATENATE(TEXT(A34,"0"),"  - ",Q34," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 33</v>
       </c>
-      <c r="Q34" s="2" t="str">
-        <f t="shared" ref="Q34:Q63" si="18">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",O34," - ",B34," SOS.txt")</f>
+      <c r="S34" s="2" t="str">
+        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",Q34," - ",B34," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 33 SOS.txt</v>
       </c>
-      <c r="R34" s="2" t="str">
-        <f t="shared" ref="R34:R63" si="19">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",O34," - ",B34," Alicuota SOS.txt")</f>
+      <c r="T34" s="2" t="str">
+        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",Q34," - ",B34," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 33 Alicuota SOS.txt</v>
       </c>
-      <c r="S34" s="2" t="str">
-        <f t="shared" ref="S34:S63" si="20">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",O34," - ",B34," SOS.txt")</f>
+      <c r="U34" s="2" t="str">
+        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",Q34," - ",B34," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 33 SOS.txt</v>
       </c>
-      <c r="T34" s="2" t="str">
-        <f t="shared" ref="T34:T63" si="21">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",O34," - ",B34," Alicuota SOS.txt")</f>
+      <c r="V34" s="2" t="str">
+        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",Q34," - ",B34," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 33 Alicuota SOS.txt</v>
       </c>
-      <c r="U34" s="4">
-        <f t="shared" ref="U34:U63" si="22">ROW(A34)</f>
+      <c r="W34" s="4">
+        <f t="shared" ref="W34:W63" si="6">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="V34" s="4">
-        <f t="shared" ref="V34:V63" si="23">IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W34" s="4">
-        <f t="shared" ref="W34:W63" si="24">IF(C34=C35,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X34" s="5" t="e">
-        <f>VLOOKUP(TEXT(U34,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y34" s="5" t="e">
-        <f>VLOOKUP(TEXT(U34,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z34" s="4" t="e">
-        <f>VLOOKUP(TEXT(U34,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X34" s="4">
+        <f t="shared" ref="X34:X63" si="7">IF(C34=C33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y34" s="4">
+        <f t="shared" ref="Y34:Y63" si="8">IF(C34=C35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W34,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W34,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB34" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W34,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 34</v>
       </c>
       <c r="C35">
@@ -4210,7 +4486,7 @@
         <v>26</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 34</v>
       </c>
       <c r="F35" s="3">
@@ -4224,77 +4500,85 @@
         <v>13</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F35)&amp;"\"&amp;Q35&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K35,"\",B35,"\","COMVEN LID","\",YEAR(F35),"\",TEXT(MONTH(F35),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 34\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M35" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M35" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N35" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 34\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O35" s="4" t="str">
+        <f>TEXT(MONTH(F35),"00")&amp;"/"&amp;YEAR(F35)</f>
         <v>04/2023</v>
       </c>
-      <c r="N35" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P35" s="2" t="str">
+        <f>PROPER(TEXT(F35,"mmmm"))&amp;" "&amp;YEAR(F35)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O35" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q35" s="2" t="str">
+        <f>YEAR(F35)&amp;TEXT(MONTH(F35),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P35" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R35" s="2" t="str">
+        <f>CONCATENATE(TEXT(A35,"0"),"  - ",Q35," - ",SUBSTITUTE(D35,"-","")," - ",B35)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 34</v>
       </c>
-      <c r="Q35" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S35" s="2" t="str">
+        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIV - ",Q35," - ",B35," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 34 SOS.txt</v>
       </c>
-      <c r="R35" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T35" s="2" t="str">
+        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIV - ",Q35," - ",B35," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 34 Alicuota SOS.txt</v>
       </c>
-      <c r="S35" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U35" s="2" t="str">
+        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIC - ",Q35," - ",B35," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 34 SOS.txt</v>
       </c>
-      <c r="T35" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V35" s="2" t="str">
+        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIC - ",Q35," - ",B35," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 34 Alicuota SOS.txt</v>
       </c>
-      <c r="U35" s="4">
-        <f t="shared" si="22"/>
+      <c r="W35" s="4">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="V35" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W35" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X35" s="5" t="e">
-        <f>VLOOKUP(TEXT(U35,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y35" s="5" t="e">
-        <f>VLOOKUP(TEXT(U35,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z35" s="4" t="e">
-        <f>VLOOKUP(TEXT(U35,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X35" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y35" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W35,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W35,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB35" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W35,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 35</v>
       </c>
       <c r="C36">
@@ -4304,7 +4588,7 @@
         <v>26</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 35</v>
       </c>
       <c r="F36" s="3">
@@ -4320,77 +4604,85 @@
         <v>13</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F36)&amp;"\"&amp;Q36&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L36" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K36,"\",B36,"\","COMVEN LID","\",YEAR(F36),"\",TEXT(MONTH(F36),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 35\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M36" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M36" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N36" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 35\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O36" s="4" t="str">
+        <f>TEXT(MONTH(F36),"00")&amp;"/"&amp;YEAR(F36)</f>
         <v>04/2023</v>
       </c>
-      <c r="N36" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P36" s="2" t="str">
+        <f>PROPER(TEXT(F36,"mmmm"))&amp;" "&amp;YEAR(F36)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O36" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q36" s="2" t="str">
+        <f>YEAR(F36)&amp;TEXT(MONTH(F36),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P36" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R36" s="2" t="str">
+        <f>CONCATENATE(TEXT(A36,"0"),"  - ",Q36," - ",SUBSTITUTE(D36,"-","")," - ",B36)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 35</v>
       </c>
-      <c r="Q36" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S36" s="2" t="str">
+        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIV - ",Q36," - ",B36," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 35 SOS.txt</v>
       </c>
-      <c r="R36" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T36" s="2" t="str">
+        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIV - ",Q36," - ",B36," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 35 Alicuota SOS.txt</v>
       </c>
-      <c r="S36" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U36" s="2" t="str">
+        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIC - ",Q36," - ",B36," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 35 SOS.txt</v>
       </c>
-      <c r="T36" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V36" s="2" t="str">
+        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIC - ",Q36," - ",B36," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 35 Alicuota SOS.txt</v>
       </c>
-      <c r="U36" s="4">
-        <f t="shared" si="22"/>
+      <c r="W36" s="4">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="V36" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W36" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X36" s="5" t="e">
-        <f>VLOOKUP(TEXT(U36,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y36" s="5" t="e">
-        <f>VLOOKUP(TEXT(U36,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z36" s="4" t="e">
-        <f>VLOOKUP(TEXT(U36,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X36" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y36" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W36,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W36,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB36" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W36,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 36</v>
       </c>
       <c r="C37">
@@ -4400,7 +4692,7 @@
         <v>26</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 36</v>
       </c>
       <c r="F37" s="3">
@@ -4414,77 +4706,85 @@
         <v>13</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F37)&amp;"\"&amp;Q37&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K37,"\",B37,"\","COMVEN LID","\",YEAR(F37),"\",TEXT(MONTH(F37),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 36\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M37" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M37" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N37" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 36\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O37" s="4" t="str">
+        <f>TEXT(MONTH(F37),"00")&amp;"/"&amp;YEAR(F37)</f>
         <v>04/2023</v>
       </c>
-      <c r="N37" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P37" s="2" t="str">
+        <f>PROPER(TEXT(F37,"mmmm"))&amp;" "&amp;YEAR(F37)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O37" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q37" s="2" t="str">
+        <f>YEAR(F37)&amp;TEXT(MONTH(F37),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P37" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R37" s="2" t="str">
+        <f>CONCATENATE(TEXT(A37,"0"),"  - ",Q37," - ",SUBSTITUTE(D37,"-","")," - ",B37)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 36</v>
       </c>
-      <c r="Q37" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S37" s="2" t="str">
+        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIV - ",Q37," - ",B37," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 36 SOS.txt</v>
       </c>
-      <c r="R37" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T37" s="2" t="str">
+        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIV - ",Q37," - ",B37," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 36 Alicuota SOS.txt</v>
       </c>
-      <c r="S37" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U37" s="2" t="str">
+        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIC - ",Q37," - ",B37," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 36 SOS.txt</v>
       </c>
-      <c r="T37" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V37" s="2" t="str">
+        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIC - ",Q37," - ",B37," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 36 Alicuota SOS.txt</v>
       </c>
-      <c r="U37" s="4">
-        <f t="shared" si="22"/>
+      <c r="W37" s="4">
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="V37" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W37" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X37" s="5" t="e">
-        <f>VLOOKUP(TEXT(U37,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y37" s="5" t="e">
-        <f>VLOOKUP(TEXT(U37,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z37" s="4" t="e">
-        <f>VLOOKUP(TEXT(U37,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X37" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y37" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W37,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W37,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB37" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W37,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 37</v>
       </c>
       <c r="C38">
@@ -4494,7 +4794,7 @@
         <v>26</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 37</v>
       </c>
       <c r="F38" s="3">
@@ -4508,77 +4808,85 @@
         <v>13</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F38)&amp;"\"&amp;Q38&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K38,"\",B38,"\","COMVEN LID","\",YEAR(F38),"\",TEXT(MONTH(F38),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 37\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M38" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M38" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N38" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 37\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O38" s="4" t="str">
+        <f>TEXT(MONTH(F38),"00")&amp;"/"&amp;YEAR(F38)</f>
         <v>04/2023</v>
       </c>
-      <c r="N38" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P38" s="2" t="str">
+        <f>PROPER(TEXT(F38,"mmmm"))&amp;" "&amp;YEAR(F38)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O38" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q38" s="2" t="str">
+        <f>YEAR(F38)&amp;TEXT(MONTH(F38),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P38" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R38" s="2" t="str">
+        <f>CONCATENATE(TEXT(A38,"0"),"  - ",Q38," - ",SUBSTITUTE(D38,"-","")," - ",B38)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 37</v>
       </c>
-      <c r="Q38" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S38" s="2" t="str">
+        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIV - ",Q38," - ",B38," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 37 SOS.txt</v>
       </c>
-      <c r="R38" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T38" s="2" t="str">
+        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIV - ",Q38," - ",B38," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 37 Alicuota SOS.txt</v>
       </c>
-      <c r="S38" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U38" s="2" t="str">
+        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIC - ",Q38," - ",B38," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 37 SOS.txt</v>
       </c>
-      <c r="T38" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V38" s="2" t="str">
+        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIC - ",Q38," - ",B38," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 37 Alicuota SOS.txt</v>
       </c>
-      <c r="U38" s="4">
-        <f t="shared" si="22"/>
+      <c r="W38" s="4">
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="V38" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W38" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X38" s="5" t="e">
-        <f>VLOOKUP(TEXT(U38,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y38" s="5" t="e">
-        <f>VLOOKUP(TEXT(U38,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z38" s="4" t="e">
-        <f>VLOOKUP(TEXT(U38,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X38" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y38" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W38,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W38,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB38" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W38,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 38</v>
       </c>
       <c r="C39">
@@ -4588,7 +4896,7 @@
         <v>26</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 38</v>
       </c>
       <c r="F39" s="3">
@@ -4604,77 +4912,85 @@
         <v>13</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F39)&amp;"\"&amp;Q39&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L39" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K39,"\",B39,"\","COMVEN LID","\",YEAR(F39),"\",TEXT(MONTH(F39),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 38\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M39" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M39" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N39" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 38\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O39" s="4" t="str">
+        <f>TEXT(MONTH(F39),"00")&amp;"/"&amp;YEAR(F39)</f>
         <v>04/2023</v>
       </c>
-      <c r="N39" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P39" s="2" t="str">
+        <f>PROPER(TEXT(F39,"mmmm"))&amp;" "&amp;YEAR(F39)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O39" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q39" s="2" t="str">
+        <f>YEAR(F39)&amp;TEXT(MONTH(F39),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P39" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R39" s="2" t="str">
+        <f>CONCATENATE(TEXT(A39,"0"),"  - ",Q39," - ",SUBSTITUTE(D39,"-","")," - ",B39)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 38</v>
       </c>
-      <c r="Q39" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S39" s="2" t="str">
+        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIV - ",Q39," - ",B39," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 38 SOS.txt</v>
       </c>
-      <c r="R39" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T39" s="2" t="str">
+        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIV - ",Q39," - ",B39," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 38 Alicuota SOS.txt</v>
       </c>
-      <c r="S39" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U39" s="2" t="str">
+        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIC - ",Q39," - ",B39," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 38 SOS.txt</v>
       </c>
-      <c r="T39" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V39" s="2" t="str">
+        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIC - ",Q39," - ",B39," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 38 Alicuota SOS.txt</v>
       </c>
-      <c r="U39" s="4">
-        <f t="shared" si="22"/>
+      <c r="W39" s="4">
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="V39" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W39" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X39" s="5" t="e">
-        <f>VLOOKUP(TEXT(U39,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y39" s="5" t="e">
-        <f>VLOOKUP(TEXT(U39,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z39" s="4" t="e">
-        <f>VLOOKUP(TEXT(U39,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X39" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W39,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W39,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB39" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W39,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 39</v>
       </c>
       <c r="C40">
@@ -4684,7 +5000,7 @@
         <v>26</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 39</v>
       </c>
       <c r="F40" s="3">
@@ -4698,77 +5014,85 @@
         <v>13</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F40)&amp;"\"&amp;Q40&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L40" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K40,"\",B40,"\","COMVEN LID","\",YEAR(F40),"\",TEXT(MONTH(F40),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 39\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M40" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M40" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N40" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 39\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O40" s="4" t="str">
+        <f>TEXT(MONTH(F40),"00")&amp;"/"&amp;YEAR(F40)</f>
         <v>04/2023</v>
       </c>
-      <c r="N40" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P40" s="2" t="str">
+        <f>PROPER(TEXT(F40,"mmmm"))&amp;" "&amp;YEAR(F40)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O40" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q40" s="2" t="str">
+        <f>YEAR(F40)&amp;TEXT(MONTH(F40),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P40" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R40" s="2" t="str">
+        <f>CONCATENATE(TEXT(A40,"0"),"  - ",Q40," - ",SUBSTITUTE(D40,"-","")," - ",B40)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 39</v>
       </c>
-      <c r="Q40" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S40" s="2" t="str">
+        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIV - ",Q40," - ",B40," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 39 SOS.txt</v>
       </c>
-      <c r="R40" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T40" s="2" t="str">
+        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIV - ",Q40," - ",B40," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 39 Alicuota SOS.txt</v>
       </c>
-      <c r="S40" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U40" s="2" t="str">
+        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIC - ",Q40," - ",B40," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 39 SOS.txt</v>
       </c>
-      <c r="T40" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V40" s="2" t="str">
+        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIC - ",Q40," - ",B40," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 39 Alicuota SOS.txt</v>
       </c>
-      <c r="U40" s="4">
-        <f t="shared" si="22"/>
+      <c r="W40" s="4">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="V40" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W40" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X40" s="5" t="e">
-        <f>VLOOKUP(TEXT(U40,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y40" s="5" t="e">
-        <f>VLOOKUP(TEXT(U40,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z40" s="4" t="e">
-        <f>VLOOKUP(TEXT(U40,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X40" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y40" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W40,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W40,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB40" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W40,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 40</v>
       </c>
       <c r="C41">
@@ -4778,7 +5102,7 @@
         <v>26</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 40</v>
       </c>
       <c r="F41" s="3">
@@ -4792,77 +5116,85 @@
         <v>13</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F41)&amp;"\"&amp;Q41&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L41" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K41,"\",B41,"\","COMVEN LID","\",YEAR(F41),"\",TEXT(MONTH(F41),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 40\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M41" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M41" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N41" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 40\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O41" s="4" t="str">
+        <f>TEXT(MONTH(F41),"00")&amp;"/"&amp;YEAR(F41)</f>
         <v>04/2023</v>
       </c>
-      <c r="N41" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P41" s="2" t="str">
+        <f>PROPER(TEXT(F41,"mmmm"))&amp;" "&amp;YEAR(F41)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O41" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q41" s="2" t="str">
+        <f>YEAR(F41)&amp;TEXT(MONTH(F41),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P41" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R41" s="2" t="str">
+        <f>CONCATENATE(TEXT(A41,"0"),"  - ",Q41," - ",SUBSTITUTE(D41,"-","")," - ",B41)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 40</v>
       </c>
-      <c r="Q41" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S41" s="2" t="str">
+        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIV - ",Q41," - ",B41," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 40 SOS.txt</v>
       </c>
-      <c r="R41" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T41" s="2" t="str">
+        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIV - ",Q41," - ",B41," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 40 Alicuota SOS.txt</v>
       </c>
-      <c r="S41" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U41" s="2" t="str">
+        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIC - ",Q41," - ",B41," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 40 SOS.txt</v>
       </c>
-      <c r="T41" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V41" s="2" t="str">
+        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIC - ",Q41," - ",B41," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 40 Alicuota SOS.txt</v>
       </c>
-      <c r="U41" s="4">
-        <f t="shared" si="22"/>
+      <c r="W41" s="4">
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="V41" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W41" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X41" s="5" t="e">
-        <f>VLOOKUP(TEXT(U41,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y41" s="5" t="e">
-        <f>VLOOKUP(TEXT(U41,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z41" s="4" t="e">
-        <f>VLOOKUP(TEXT(U41,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X41" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y41" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W41,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W41,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB41" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W41,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 41</v>
       </c>
       <c r="C42">
@@ -4872,7 +5204,7 @@
         <v>26</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 41</v>
       </c>
       <c r="F42" s="3">
@@ -4888,77 +5220,85 @@
         <v>13</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F42)&amp;"\"&amp;Q42&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L42" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K42,"\",B42,"\","COMVEN LID","\",YEAR(F42),"\",TEXT(MONTH(F42),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 41\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M42" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M42" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N42" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 41\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O42" s="4" t="str">
+        <f>TEXT(MONTH(F42),"00")&amp;"/"&amp;YEAR(F42)</f>
         <v>04/2023</v>
       </c>
-      <c r="N42" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P42" s="2" t="str">
+        <f>PROPER(TEXT(F42,"mmmm"))&amp;" "&amp;YEAR(F42)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O42" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q42" s="2" t="str">
+        <f>YEAR(F42)&amp;TEXT(MONTH(F42),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P42" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R42" s="2" t="str">
+        <f>CONCATENATE(TEXT(A42,"0"),"  - ",Q42," - ",SUBSTITUTE(D42,"-","")," - ",B42)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 41</v>
       </c>
-      <c r="Q42" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S42" s="2" t="str">
+        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIV - ",Q42," - ",B42," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 41 SOS.txt</v>
       </c>
-      <c r="R42" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T42" s="2" t="str">
+        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIV - ",Q42," - ",B42," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 41 Alicuota SOS.txt</v>
       </c>
-      <c r="S42" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U42" s="2" t="str">
+        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIC - ",Q42," - ",B42," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 41 SOS.txt</v>
       </c>
-      <c r="T42" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V42" s="2" t="str">
+        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIC - ",Q42," - ",B42," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 41 Alicuota SOS.txt</v>
       </c>
-      <c r="U42" s="4">
-        <f t="shared" si="22"/>
+      <c r="W42" s="4">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="V42" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W42" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X42" s="5" t="e">
-        <f>VLOOKUP(TEXT(U42,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y42" s="5" t="e">
-        <f>VLOOKUP(TEXT(U42,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z42" s="4" t="e">
-        <f>VLOOKUP(TEXT(U42,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X42" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y42" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W42,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W42,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB42" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W42,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 42</v>
       </c>
       <c r="C43">
@@ -4968,7 +5308,7 @@
         <v>26</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 42</v>
       </c>
       <c r="F43" s="3">
@@ -4982,77 +5322,85 @@
         <v>12</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F43)&amp;"\"&amp;Q43&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L43" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K43,"\",B43,"\","COMVEN LID","\",YEAR(F43),"\",TEXT(MONTH(F43),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 42\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M43" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M43" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N43" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 42\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O43" s="4" t="str">
+        <f>TEXT(MONTH(F43),"00")&amp;"/"&amp;YEAR(F43)</f>
         <v>03/2023</v>
       </c>
-      <c r="N43" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P43" s="2" t="str">
+        <f>PROPER(TEXT(F43,"mmmm"))&amp;" "&amp;YEAR(F43)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O43" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q43" s="2" t="str">
+        <f>YEAR(F43)&amp;TEXT(MONTH(F43),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P43" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R43" s="2" t="str">
+        <f>CONCATENATE(TEXT(A43,"0"),"  - ",Q43," - ",SUBSTITUTE(D43,"-","")," - ",B43)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 42</v>
       </c>
-      <c r="Q43" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S43" s="2" t="str">
+        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIV - ",Q43," - ",B43," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 42 SOS.txt</v>
       </c>
-      <c r="R43" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T43" s="2" t="str">
+        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIV - ",Q43," - ",B43," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 42 Alicuota SOS.txt</v>
       </c>
-      <c r="S43" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U43" s="2" t="str">
+        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIC - ",Q43," - ",B43," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 42 SOS.txt</v>
       </c>
-      <c r="T43" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V43" s="2" t="str">
+        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIC - ",Q43," - ",B43," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 42 Alicuota SOS.txt</v>
       </c>
-      <c r="U43" s="4">
-        <f t="shared" si="22"/>
+      <c r="W43" s="4">
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="V43" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W43" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X43" s="5" t="e">
-        <f>VLOOKUP(TEXT(U43,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y43" s="5" t="e">
-        <f>VLOOKUP(TEXT(U43,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z43" s="4" t="e">
-        <f>VLOOKUP(TEXT(U43,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X43" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y43" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W43,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W43,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB43" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W43,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 43</v>
       </c>
       <c r="C44">
@@ -5062,7 +5410,7 @@
         <v>26</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 43</v>
       </c>
       <c r="F44" s="3">
@@ -5076,77 +5424,85 @@
         <v>12</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F44)&amp;"\"&amp;Q44&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L44" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K44,"\",B44,"\","COMVEN LID","\",YEAR(F44),"\",TEXT(MONTH(F44),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 43\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M44" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M44" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N44" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 43\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O44" s="4" t="str">
+        <f>TEXT(MONTH(F44),"00")&amp;"/"&amp;YEAR(F44)</f>
         <v>03/2023</v>
       </c>
-      <c r="N44" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P44" s="2" t="str">
+        <f>PROPER(TEXT(F44,"mmmm"))&amp;" "&amp;YEAR(F44)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O44" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q44" s="2" t="str">
+        <f>YEAR(F44)&amp;TEXT(MONTH(F44),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P44" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R44" s="2" t="str">
+        <f>CONCATENATE(TEXT(A44,"0"),"  - ",Q44," - ",SUBSTITUTE(D44,"-","")," - ",B44)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 43</v>
       </c>
-      <c r="Q44" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S44" s="2" t="str">
+        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIV - ",Q44," - ",B44," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 43 SOS.txt</v>
       </c>
-      <c r="R44" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T44" s="2" t="str">
+        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIV - ",Q44," - ",B44," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 43 Alicuota SOS.txt</v>
       </c>
-      <c r="S44" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U44" s="2" t="str">
+        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIC - ",Q44," - ",B44," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 43 SOS.txt</v>
       </c>
-      <c r="T44" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V44" s="2" t="str">
+        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIC - ",Q44," - ",B44," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 43 Alicuota SOS.txt</v>
       </c>
-      <c r="U44" s="4">
-        <f t="shared" si="22"/>
+      <c r="W44" s="4">
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="V44" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W44" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X44" s="5" t="e">
-        <f>VLOOKUP(TEXT(U44,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y44" s="5" t="e">
-        <f>VLOOKUP(TEXT(U44,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z44" s="4" t="e">
-        <f>VLOOKUP(TEXT(U44,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X44" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y44" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W44,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W44,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB44" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W44,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 44</v>
       </c>
       <c r="C45">
@@ -5156,7 +5512,7 @@
         <v>26</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 44</v>
       </c>
       <c r="F45" s="3">
@@ -5170,77 +5526,85 @@
         <v>13</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F45)&amp;"\"&amp;Q45&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L45" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K45,"\",B45,"\","COMVEN LID","\",YEAR(F45),"\",TEXT(MONTH(F45),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 44\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M45" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M45" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N45" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 44\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O45" s="4" t="str">
+        <f>TEXT(MONTH(F45),"00")&amp;"/"&amp;YEAR(F45)</f>
         <v>04/2023</v>
       </c>
-      <c r="N45" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P45" s="2" t="str">
+        <f>PROPER(TEXT(F45,"mmmm"))&amp;" "&amp;YEAR(F45)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O45" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q45" s="2" t="str">
+        <f>YEAR(F45)&amp;TEXT(MONTH(F45),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P45" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R45" s="2" t="str">
+        <f>CONCATENATE(TEXT(A45,"0"),"  - ",Q45," - ",SUBSTITUTE(D45,"-","")," - ",B45)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 44</v>
       </c>
-      <c r="Q45" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S45" s="2" t="str">
+        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIV - ",Q45," - ",B45," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 44 SOS.txt</v>
       </c>
-      <c r="R45" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T45" s="2" t="str">
+        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIV - ",Q45," - ",B45," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 44 Alicuota SOS.txt</v>
       </c>
-      <c r="S45" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U45" s="2" t="str">
+        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIC - ",Q45," - ",B45," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 44 SOS.txt</v>
       </c>
-      <c r="T45" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V45" s="2" t="str">
+        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIC - ",Q45," - ",B45," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 44 Alicuota SOS.txt</v>
       </c>
-      <c r="U45" s="4">
-        <f t="shared" si="22"/>
+      <c r="W45" s="4">
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="V45" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W45" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X45" s="5" t="e">
-        <f>VLOOKUP(TEXT(U45,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y45" s="5" t="e">
-        <f>VLOOKUP(TEXT(U45,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z45" s="4" t="e">
-        <f>VLOOKUP(TEXT(U45,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X45" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y45" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W45,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W45,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB45" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W45,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 45</v>
       </c>
       <c r="C46">
@@ -5250,7 +5614,7 @@
         <v>26</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 45</v>
       </c>
       <c r="F46" s="3">
@@ -5264,77 +5628,85 @@
         <v>13</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F46)&amp;"\"&amp;Q46&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L46" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K46,"\",B46,"\","COMVEN LID","\",YEAR(F46),"\",TEXT(MONTH(F46),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 45\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M46" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M46" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N46" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 45\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O46" s="4" t="str">
+        <f>TEXT(MONTH(F46),"00")&amp;"/"&amp;YEAR(F46)</f>
         <v>04/2023</v>
       </c>
-      <c r="N46" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P46" s="2" t="str">
+        <f>PROPER(TEXT(F46,"mmmm"))&amp;" "&amp;YEAR(F46)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O46" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q46" s="2" t="str">
+        <f>YEAR(F46)&amp;TEXT(MONTH(F46),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P46" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R46" s="2" t="str">
+        <f>CONCATENATE(TEXT(A46,"0"),"  - ",Q46," - ",SUBSTITUTE(D46,"-","")," - ",B46)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 45</v>
       </c>
-      <c r="Q46" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S46" s="2" t="str">
+        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIV - ",Q46," - ",B46," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 45 SOS.txt</v>
       </c>
-      <c r="R46" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T46" s="2" t="str">
+        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIV - ",Q46," - ",B46," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 45 Alicuota SOS.txt</v>
       </c>
-      <c r="S46" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U46" s="2" t="str">
+        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIC - ",Q46," - ",B46," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 45 SOS.txt</v>
       </c>
-      <c r="T46" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V46" s="2" t="str">
+        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIC - ",Q46," - ",B46," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 45 Alicuota SOS.txt</v>
       </c>
-      <c r="U46" s="4">
-        <f t="shared" si="22"/>
+      <c r="W46" s="4">
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="V46" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W46" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X46" s="5" t="e">
-        <f>VLOOKUP(TEXT(U46,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y46" s="5" t="e">
-        <f>VLOOKUP(TEXT(U46,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z46" s="4" t="e">
-        <f>VLOOKUP(TEXT(U46,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X46" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y46" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W46,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W46,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB46" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W46,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 46</v>
       </c>
       <c r="C47">
@@ -5344,7 +5716,7 @@
         <v>26</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 46</v>
       </c>
       <c r="F47" s="3">
@@ -5358,77 +5730,85 @@
         <v>12</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F47)&amp;"\"&amp;Q47&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L47" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K47,"\",B47,"\","COMVEN LID","\",YEAR(F47),"\",TEXT(MONTH(F47),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 46\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M47" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M47" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N47" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 46\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O47" s="4" t="str">
+        <f>TEXT(MONTH(F47),"00")&amp;"/"&amp;YEAR(F47)</f>
         <v>03/2023</v>
       </c>
-      <c r="N47" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P47" s="2" t="str">
+        <f>PROPER(TEXT(F47,"mmmm"))&amp;" "&amp;YEAR(F47)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O47" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q47" s="2" t="str">
+        <f>YEAR(F47)&amp;TEXT(MONTH(F47),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P47" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R47" s="2" t="str">
+        <f>CONCATENATE(TEXT(A47,"0"),"  - ",Q47," - ",SUBSTITUTE(D47,"-","")," - ",B47)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 46</v>
       </c>
-      <c r="Q47" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S47" s="2" t="str">
+        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIV - ",Q47," - ",B47," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 46 SOS.txt</v>
       </c>
-      <c r="R47" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T47" s="2" t="str">
+        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIV - ",Q47," - ",B47," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 46 Alicuota SOS.txt</v>
       </c>
-      <c r="S47" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U47" s="2" t="str">
+        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIC - ",Q47," - ",B47," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 46 SOS.txt</v>
       </c>
-      <c r="T47" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V47" s="2" t="str">
+        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIC - ",Q47," - ",B47," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 46 Alicuota SOS.txt</v>
       </c>
-      <c r="U47" s="4">
-        <f t="shared" si="22"/>
+      <c r="W47" s="4">
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="V47" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W47" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X47" s="5" t="e">
-        <f>VLOOKUP(TEXT(U47,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y47" s="5" t="e">
-        <f>VLOOKUP(TEXT(U47,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z47" s="4" t="e">
-        <f>VLOOKUP(TEXT(U47,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X47" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y47" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W47,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W47,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB47" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W47,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 47</v>
       </c>
       <c r="C48">
@@ -5438,7 +5818,7 @@
         <v>26</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 47</v>
       </c>
       <c r="F48" s="3">
@@ -5452,77 +5832,85 @@
         <v>13</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F48)&amp;"\"&amp;Q48&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L48" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K48,"\",B48,"\","COMVEN LID","\",YEAR(F48),"\",TEXT(MONTH(F48),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 47\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M48" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M48" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N48" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 47\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O48" s="4" t="str">
+        <f>TEXT(MONTH(F48),"00")&amp;"/"&amp;YEAR(F48)</f>
         <v>04/2023</v>
       </c>
-      <c r="N48" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P48" s="2" t="str">
+        <f>PROPER(TEXT(F48,"mmmm"))&amp;" "&amp;YEAR(F48)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O48" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q48" s="2" t="str">
+        <f>YEAR(F48)&amp;TEXT(MONTH(F48),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P48" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R48" s="2" t="str">
+        <f>CONCATENATE(TEXT(A48,"0"),"  - ",Q48," - ",SUBSTITUTE(D48,"-","")," - ",B48)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 47</v>
       </c>
-      <c r="Q48" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S48" s="2" t="str">
+        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIV - ",Q48," - ",B48," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 47 SOS.txt</v>
       </c>
-      <c r="R48" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T48" s="2" t="str">
+        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIV - ",Q48," - ",B48," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 47 Alicuota SOS.txt</v>
       </c>
-      <c r="S48" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U48" s="2" t="str">
+        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIC - ",Q48," - ",B48," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 47 SOS.txt</v>
       </c>
-      <c r="T48" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V48" s="2" t="str">
+        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIC - ",Q48," - ",B48," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 47 Alicuota SOS.txt</v>
       </c>
-      <c r="U48" s="4">
-        <f t="shared" si="22"/>
+      <c r="W48" s="4">
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="V48" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W48" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X48" s="5" t="e">
-        <f>VLOOKUP(TEXT(U48,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y48" s="5" t="e">
-        <f>VLOOKUP(TEXT(U48,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z48" s="4" t="e">
-        <f>VLOOKUP(TEXT(U48,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X48" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y48" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W48,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W48,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB48" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W48,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 48</v>
       </c>
       <c r="C49">
@@ -5532,7 +5920,7 @@
         <v>26</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 48</v>
       </c>
       <c r="F49" s="3">
@@ -5546,77 +5934,85 @@
         <v>13</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F49)&amp;"\"&amp;Q49&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L49" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K49,"\",B49,"\","COMVEN LID","\",YEAR(F49),"\",TEXT(MONTH(F49),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 48\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M49" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M49" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N49" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 48\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O49" s="4" t="str">
+        <f>TEXT(MONTH(F49),"00")&amp;"/"&amp;YEAR(F49)</f>
         <v>04/2023</v>
       </c>
-      <c r="N49" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P49" s="2" t="str">
+        <f>PROPER(TEXT(F49,"mmmm"))&amp;" "&amp;YEAR(F49)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O49" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q49" s="2" t="str">
+        <f>YEAR(F49)&amp;TEXT(MONTH(F49),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P49" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R49" s="2" t="str">
+        <f>CONCATENATE(TEXT(A49,"0"),"  - ",Q49," - ",SUBSTITUTE(D49,"-","")," - ",B49)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 48</v>
       </c>
-      <c r="Q49" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S49" s="2" t="str">
+        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIV - ",Q49," - ",B49," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 48 SOS.txt</v>
       </c>
-      <c r="R49" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T49" s="2" t="str">
+        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIV - ",Q49," - ",B49," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 48 Alicuota SOS.txt</v>
       </c>
-      <c r="S49" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U49" s="2" t="str">
+        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIC - ",Q49," - ",B49," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 48 SOS.txt</v>
       </c>
-      <c r="T49" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V49" s="2" t="str">
+        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIC - ",Q49," - ",B49," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 48 Alicuota SOS.txt</v>
       </c>
-      <c r="U49" s="4">
-        <f t="shared" si="22"/>
+      <c r="W49" s="4">
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="V49" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W49" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X49" s="5" t="e">
-        <f>VLOOKUP(TEXT(U49,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y49" s="5" t="e">
-        <f>VLOOKUP(TEXT(U49,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z49" s="4" t="e">
-        <f>VLOOKUP(TEXT(U49,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X49" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y49" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W49,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W49,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB49" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W49,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 49</v>
       </c>
       <c r="C50">
@@ -5626,7 +6022,7 @@
         <v>26</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 49</v>
       </c>
       <c r="F50" s="3">
@@ -5640,77 +6036,85 @@
         <v>12</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F50)&amp;"\"&amp;Q50&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L50" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K50,"\",B50,"\","COMVEN LID","\",YEAR(F50),"\",TEXT(MONTH(F50),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 49\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M50" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M50" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N50" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 49\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O50" s="4" t="str">
+        <f>TEXT(MONTH(F50),"00")&amp;"/"&amp;YEAR(F50)</f>
         <v>03/2023</v>
       </c>
-      <c r="N50" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P50" s="2" t="str">
+        <f>PROPER(TEXT(F50,"mmmm"))&amp;" "&amp;YEAR(F50)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O50" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q50" s="2" t="str">
+        <f>YEAR(F50)&amp;TEXT(MONTH(F50),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P50" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R50" s="2" t="str">
+        <f>CONCATENATE(TEXT(A50,"0"),"  - ",Q50," - ",SUBSTITUTE(D50,"-","")," - ",B50)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 49</v>
       </c>
-      <c r="Q50" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S50" s="2" t="str">
+        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIV - ",Q50," - ",B50," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 49 SOS.txt</v>
       </c>
-      <c r="R50" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T50" s="2" t="str">
+        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIV - ",Q50," - ",B50," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 49 Alicuota SOS.txt</v>
       </c>
-      <c r="S50" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U50" s="2" t="str">
+        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIC - ",Q50," - ",B50," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 49 SOS.txt</v>
       </c>
-      <c r="T50" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V50" s="2" t="str">
+        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIC - ",Q50," - ",B50," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 49 Alicuota SOS.txt</v>
       </c>
-      <c r="U50" s="4">
-        <f t="shared" si="22"/>
+      <c r="W50" s="4">
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="V50" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W50" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X50" s="5" t="e">
-        <f>VLOOKUP(TEXT(U50,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y50" s="5" t="e">
-        <f>VLOOKUP(TEXT(U50,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z50" s="4" t="e">
-        <f>VLOOKUP(TEXT(U50,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X50" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y50" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W50,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W50,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB50" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W50,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 50</v>
       </c>
       <c r="C51">
@@ -5720,7 +6124,7 @@
         <v>26</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 50</v>
       </c>
       <c r="F51" s="3">
@@ -5734,77 +6138,85 @@
         <v>12</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F51)&amp;"\"&amp;Q51&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L51" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K51,"\",B51,"\","COMVEN LID","\",YEAR(F51),"\",TEXT(MONTH(F51),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 50\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M51" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M51" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N51" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 50\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O51" s="4" t="str">
+        <f>TEXT(MONTH(F51),"00")&amp;"/"&amp;YEAR(F51)</f>
         <v>03/2023</v>
       </c>
-      <c r="N51" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P51" s="2" t="str">
+        <f>PROPER(TEXT(F51,"mmmm"))&amp;" "&amp;YEAR(F51)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O51" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q51" s="2" t="str">
+        <f>YEAR(F51)&amp;TEXT(MONTH(F51),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P51" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R51" s="2" t="str">
+        <f>CONCATENATE(TEXT(A51,"0"),"  - ",Q51," - ",SUBSTITUTE(D51,"-","")," - ",B51)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 50</v>
       </c>
-      <c r="Q51" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S51" s="2" t="str">
+        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIV - ",Q51," - ",B51," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 50 SOS.txt</v>
       </c>
-      <c r="R51" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T51" s="2" t="str">
+        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIV - ",Q51," - ",B51," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 50 Alicuota SOS.txt</v>
       </c>
-      <c r="S51" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U51" s="2" t="str">
+        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIC - ",Q51," - ",B51," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 50 SOS.txt</v>
       </c>
-      <c r="T51" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V51" s="2" t="str">
+        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIC - ",Q51," - ",B51," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 50 Alicuota SOS.txt</v>
       </c>
-      <c r="U51" s="4">
-        <f t="shared" si="22"/>
+      <c r="W51" s="4">
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="V51" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W51" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X51" s="5" t="e">
-        <f>VLOOKUP(TEXT(U51,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y51" s="5" t="e">
-        <f>VLOOKUP(TEXT(U51,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z51" s="4" t="e">
-        <f>VLOOKUP(TEXT(U51,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X51" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y51" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W51,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W51,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB51" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W51,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 51</v>
       </c>
       <c r="C52">
@@ -5814,7 +6226,7 @@
         <v>26</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 51</v>
       </c>
       <c r="F52" s="3">
@@ -5828,77 +6240,85 @@
         <v>12</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F52)&amp;"\"&amp;Q52&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L52" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K52,"\",B52,"\","COMVEN LID","\",YEAR(F52),"\",TEXT(MONTH(F52),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 51\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M52" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M52" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N52" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 51\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O52" s="4" t="str">
+        <f>TEXT(MONTH(F52),"00")&amp;"/"&amp;YEAR(F52)</f>
         <v>03/2023</v>
       </c>
-      <c r="N52" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P52" s="2" t="str">
+        <f>PROPER(TEXT(F52,"mmmm"))&amp;" "&amp;YEAR(F52)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O52" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q52" s="2" t="str">
+        <f>YEAR(F52)&amp;TEXT(MONTH(F52),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P52" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R52" s="2" t="str">
+        <f>CONCATENATE(TEXT(A52,"0"),"  - ",Q52," - ",SUBSTITUTE(D52,"-","")," - ",B52)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 51</v>
       </c>
-      <c r="Q52" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S52" s="2" t="str">
+        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIV - ",Q52," - ",B52," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 51 SOS.txt</v>
       </c>
-      <c r="R52" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T52" s="2" t="str">
+        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIV - ",Q52," - ",B52," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 51 Alicuota SOS.txt</v>
       </c>
-      <c r="S52" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U52" s="2" t="str">
+        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIC - ",Q52," - ",B52," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 51 SOS.txt</v>
       </c>
-      <c r="T52" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V52" s="2" t="str">
+        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIC - ",Q52," - ",B52," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 51 Alicuota SOS.txt</v>
       </c>
-      <c r="U52" s="4">
-        <f t="shared" si="22"/>
+      <c r="W52" s="4">
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="V52" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W52" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X52" s="5" t="e">
-        <f>VLOOKUP(TEXT(U52,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y52" s="5" t="e">
-        <f>VLOOKUP(TEXT(U52,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z52" s="4" t="e">
-        <f>VLOOKUP(TEXT(U52,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X52" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y52" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W52,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W52,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB52" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W52,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 52</v>
       </c>
       <c r="C53">
@@ -5908,7 +6328,7 @@
         <v>26</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 52</v>
       </c>
       <c r="F53" s="3">
@@ -5922,77 +6342,85 @@
         <v>13</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F53)&amp;"\"&amp;Q53&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L53" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K53,"\",B53,"\","COMVEN LID","\",YEAR(F53),"\",TEXT(MONTH(F53),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 52\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M53" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M53" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N53" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 52\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O53" s="4" t="str">
+        <f>TEXT(MONTH(F53),"00")&amp;"/"&amp;YEAR(F53)</f>
         <v>04/2023</v>
       </c>
-      <c r="N53" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P53" s="2" t="str">
+        <f>PROPER(TEXT(F53,"mmmm"))&amp;" "&amp;YEAR(F53)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O53" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q53" s="2" t="str">
+        <f>YEAR(F53)&amp;TEXT(MONTH(F53),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P53" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R53" s="2" t="str">
+        <f>CONCATENATE(TEXT(A53,"0"),"  - ",Q53," - ",SUBSTITUTE(D53,"-","")," - ",B53)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 52</v>
       </c>
-      <c r="Q53" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S53" s="2" t="str">
+        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIV - ",Q53," - ",B53," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 52 SOS.txt</v>
       </c>
-      <c r="R53" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T53" s="2" t="str">
+        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIV - ",Q53," - ",B53," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 52 Alicuota SOS.txt</v>
       </c>
-      <c r="S53" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U53" s="2" t="str">
+        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIC - ",Q53," - ",B53," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 52 SOS.txt</v>
       </c>
-      <c r="T53" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V53" s="2" t="str">
+        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIC - ",Q53," - ",B53," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 52 Alicuota SOS.txt</v>
       </c>
-      <c r="U53" s="4">
-        <f t="shared" si="22"/>
+      <c r="W53" s="4">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="V53" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W53" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X53" s="5" t="e">
-        <f>VLOOKUP(TEXT(U53,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y53" s="5" t="e">
-        <f>VLOOKUP(TEXT(U53,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z53" s="4" t="e">
-        <f>VLOOKUP(TEXT(U53,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X53" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y53" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W53,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W53,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB53" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W53,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 53</v>
       </c>
       <c r="C54">
@@ -6002,7 +6430,7 @@
         <v>26</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 53</v>
       </c>
       <c r="F54" s="3">
@@ -6016,77 +6444,85 @@
         <v>12</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F54)&amp;"\"&amp;Q54&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L54" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K54,"\",B54,"\","COMVEN LID","\",YEAR(F54),"\",TEXT(MONTH(F54),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 53\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M54" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M54" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N54" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 53\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O54" s="4" t="str">
+        <f>TEXT(MONTH(F54),"00")&amp;"/"&amp;YEAR(F54)</f>
         <v>03/2023</v>
       </c>
-      <c r="N54" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P54" s="2" t="str">
+        <f>PROPER(TEXT(F54,"mmmm"))&amp;" "&amp;YEAR(F54)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O54" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q54" s="2" t="str">
+        <f>YEAR(F54)&amp;TEXT(MONTH(F54),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P54" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R54" s="2" t="str">
+        <f>CONCATENATE(TEXT(A54,"0"),"  - ",Q54," - ",SUBSTITUTE(D54,"-","")," - ",B54)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 53</v>
       </c>
-      <c r="Q54" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S54" s="2" t="str">
+        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIV - ",Q54," - ",B54," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 53 SOS.txt</v>
       </c>
-      <c r="R54" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T54" s="2" t="str">
+        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIV - ",Q54," - ",B54," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 53 Alicuota SOS.txt</v>
       </c>
-      <c r="S54" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U54" s="2" t="str">
+        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIC - ",Q54," - ",B54," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 53 SOS.txt</v>
       </c>
-      <c r="T54" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V54" s="2" t="str">
+        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIC - ",Q54," - ",B54," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 53 Alicuota SOS.txt</v>
       </c>
-      <c r="U54" s="4">
-        <f t="shared" si="22"/>
+      <c r="W54" s="4">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="V54" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W54" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X54" s="5" t="e">
-        <f>VLOOKUP(TEXT(U54,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y54" s="5" t="e">
-        <f>VLOOKUP(TEXT(U54,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z54" s="4" t="e">
-        <f>VLOOKUP(TEXT(U54,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X54" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y54" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W54,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W54,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB54" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W54,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 54</v>
       </c>
       <c r="C55">
@@ -6096,7 +6532,7 @@
         <v>26</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 54</v>
       </c>
       <c r="F55" s="3">
@@ -6112,77 +6548,85 @@
         <v>13</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F55)&amp;"\"&amp;Q55&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L55" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K55,"\",B55,"\","COMVEN LID","\",YEAR(F55),"\",TEXT(MONTH(F55),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 54\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M55" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M55" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N55" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 54\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O55" s="4" t="str">
+        <f>TEXT(MONTH(F55),"00")&amp;"/"&amp;YEAR(F55)</f>
         <v>04/2023</v>
       </c>
-      <c r="N55" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P55" s="2" t="str">
+        <f>PROPER(TEXT(F55,"mmmm"))&amp;" "&amp;YEAR(F55)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O55" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q55" s="2" t="str">
+        <f>YEAR(F55)&amp;TEXT(MONTH(F55),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P55" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R55" s="2" t="str">
+        <f>CONCATENATE(TEXT(A55,"0"),"  - ",Q55," - ",SUBSTITUTE(D55,"-","")," - ",B55)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 54</v>
       </c>
-      <c r="Q55" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S55" s="2" t="str">
+        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIV - ",Q55," - ",B55," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 54 SOS.txt</v>
       </c>
-      <c r="R55" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T55" s="2" t="str">
+        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIV - ",Q55," - ",B55," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 54 Alicuota SOS.txt</v>
       </c>
-      <c r="S55" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U55" s="2" t="str">
+        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIC - ",Q55," - ",B55," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 54 SOS.txt</v>
       </c>
-      <c r="T55" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V55" s="2" t="str">
+        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIC - ",Q55," - ",B55," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 54 Alicuota SOS.txt</v>
       </c>
-      <c r="U55" s="4">
-        <f t="shared" si="22"/>
+      <c r="W55" s="4">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="V55" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W55" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X55" s="5" t="e">
-        <f>VLOOKUP(TEXT(U55,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y55" s="5" t="e">
-        <f>VLOOKUP(TEXT(U55,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z55" s="4" t="e">
-        <f>VLOOKUP(TEXT(U55,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X55" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y55" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W55,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W55,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB55" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W55,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 55</v>
       </c>
       <c r="C56">
@@ -6192,7 +6636,7 @@
         <v>26</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 55</v>
       </c>
       <c r="F56" s="3">
@@ -6206,77 +6650,85 @@
         <v>12</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F56)&amp;"\"&amp;Q56&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L56" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K56,"\",B56,"\","COMVEN LID","\",YEAR(F56),"\",TEXT(MONTH(F56),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 55\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M56" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M56" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N56" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 55\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O56" s="4" t="str">
+        <f>TEXT(MONTH(F56),"00")&amp;"/"&amp;YEAR(F56)</f>
         <v>03/2023</v>
       </c>
-      <c r="N56" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P56" s="2" t="str">
+        <f>PROPER(TEXT(F56,"mmmm"))&amp;" "&amp;YEAR(F56)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O56" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q56" s="2" t="str">
+        <f>YEAR(F56)&amp;TEXT(MONTH(F56),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P56" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R56" s="2" t="str">
+        <f>CONCATENATE(TEXT(A56,"0"),"  - ",Q56," - ",SUBSTITUTE(D56,"-","")," - ",B56)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 55</v>
       </c>
-      <c r="Q56" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S56" s="2" t="str">
+        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIV - ",Q56," - ",B56," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 55 SOS.txt</v>
       </c>
-      <c r="R56" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T56" s="2" t="str">
+        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIV - ",Q56," - ",B56," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 55 Alicuota SOS.txt</v>
       </c>
-      <c r="S56" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U56" s="2" t="str">
+        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIC - ",Q56," - ",B56," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 55 SOS.txt</v>
       </c>
-      <c r="T56" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V56" s="2" t="str">
+        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIC - ",Q56," - ",B56," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 55 Alicuota SOS.txt</v>
       </c>
-      <c r="U56" s="4">
-        <f t="shared" si="22"/>
+      <c r="W56" s="4">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="V56" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W56" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X56" s="5" t="e">
-        <f>VLOOKUP(TEXT(U56,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y56" s="5" t="e">
-        <f>VLOOKUP(TEXT(U56,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z56" s="4" t="e">
-        <f>VLOOKUP(TEXT(U56,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X56" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y56" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W56,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W56,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB56" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W56,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 56</v>
       </c>
       <c r="C57">
@@ -6286,7 +6738,7 @@
         <v>26</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 56</v>
       </c>
       <c r="F57" s="3">
@@ -6300,77 +6752,85 @@
         <v>12</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F57)&amp;"\"&amp;Q57&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L57" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K57,"\",B57,"\","COMVEN LID","\",YEAR(F57),"\",TEXT(MONTH(F57),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 56\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M57" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M57" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N57" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 56\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O57" s="4" t="str">
+        <f>TEXT(MONTH(F57),"00")&amp;"/"&amp;YEAR(F57)</f>
         <v>03/2023</v>
       </c>
-      <c r="N57" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P57" s="2" t="str">
+        <f>PROPER(TEXT(F57,"mmmm"))&amp;" "&amp;YEAR(F57)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O57" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q57" s="2" t="str">
+        <f>YEAR(F57)&amp;TEXT(MONTH(F57),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P57" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R57" s="2" t="str">
+        <f>CONCATENATE(TEXT(A57,"0"),"  - ",Q57," - ",SUBSTITUTE(D57,"-","")," - ",B57)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 56</v>
       </c>
-      <c r="Q57" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S57" s="2" t="str">
+        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIV - ",Q57," - ",B57," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 56 SOS.txt</v>
       </c>
-      <c r="R57" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T57" s="2" t="str">
+        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIV - ",Q57," - ",B57," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 56 Alicuota SOS.txt</v>
       </c>
-      <c r="S57" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U57" s="2" t="str">
+        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIC - ",Q57," - ",B57," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 56 SOS.txt</v>
       </c>
-      <c r="T57" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V57" s="2" t="str">
+        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIC - ",Q57," - ",B57," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 56 Alicuota SOS.txt</v>
       </c>
-      <c r="U57" s="4">
-        <f t="shared" si="22"/>
+      <c r="W57" s="4">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="V57" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W57" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X57" s="5" t="e">
-        <f>VLOOKUP(TEXT(U57,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y57" s="5" t="e">
-        <f>VLOOKUP(TEXT(U57,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z57" s="4" t="e">
-        <f>VLOOKUP(TEXT(U57,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X57" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y57" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W57,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W57,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB57" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W57,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 57</v>
       </c>
       <c r="C58">
@@ -6380,7 +6840,7 @@
         <v>26</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 57</v>
       </c>
       <c r="F58" s="3">
@@ -6394,77 +6854,85 @@
         <v>12</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F58)&amp;"\"&amp;Q58&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L58" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K58,"\",B58,"\","COMVEN LID","\",YEAR(F58),"\",TEXT(MONTH(F58),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 57\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M58" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M58" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N58" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 57\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O58" s="4" t="str">
+        <f>TEXT(MONTH(F58),"00")&amp;"/"&amp;YEAR(F58)</f>
         <v>03/2023</v>
       </c>
-      <c r="N58" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P58" s="2" t="str">
+        <f>PROPER(TEXT(F58,"mmmm"))&amp;" "&amp;YEAR(F58)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O58" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q58" s="2" t="str">
+        <f>YEAR(F58)&amp;TEXT(MONTH(F58),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P58" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R58" s="2" t="str">
+        <f>CONCATENATE(TEXT(A58,"0"),"  - ",Q58," - ",SUBSTITUTE(D58,"-","")," - ",B58)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 57</v>
       </c>
-      <c r="Q58" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S58" s="2" t="str">
+        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIV - ",Q58," - ",B58," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 57 SOS.txt</v>
       </c>
-      <c r="R58" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T58" s="2" t="str">
+        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIV - ",Q58," - ",B58," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 57 Alicuota SOS.txt</v>
       </c>
-      <c r="S58" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U58" s="2" t="str">
+        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIC - ",Q58," - ",B58," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 57 SOS.txt</v>
       </c>
-      <c r="T58" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V58" s="2" t="str">
+        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIC - ",Q58," - ",B58," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 57 Alicuota SOS.txt</v>
       </c>
-      <c r="U58" s="4">
-        <f t="shared" si="22"/>
+      <c r="W58" s="4">
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="V58" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W58" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X58" s="5" t="e">
-        <f>VLOOKUP(TEXT(U58,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y58" s="5" t="e">
-        <f>VLOOKUP(TEXT(U58,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z58" s="4" t="e">
-        <f>VLOOKUP(TEXT(U58,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X58" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y58" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W58,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W58,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB58" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W58,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 58</v>
       </c>
       <c r="C59">
@@ -6474,7 +6942,7 @@
         <v>26</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 58</v>
       </c>
       <c r="F59" s="3">
@@ -6488,77 +6956,85 @@
         <v>12</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F59)&amp;"\"&amp;Q59&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L59" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K59,"\",B59,"\","COMVEN LID","\",YEAR(F59),"\",TEXT(MONTH(F59),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 58\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M59" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M59" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N59" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 58\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O59" s="4" t="str">
+        <f>TEXT(MONTH(F59),"00")&amp;"/"&amp;YEAR(F59)</f>
         <v>03/2023</v>
       </c>
-      <c r="N59" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P59" s="2" t="str">
+        <f>PROPER(TEXT(F59,"mmmm"))&amp;" "&amp;YEAR(F59)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O59" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q59" s="2" t="str">
+        <f>YEAR(F59)&amp;TEXT(MONTH(F59),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P59" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R59" s="2" t="str">
+        <f>CONCATENATE(TEXT(A59,"0"),"  - ",Q59," - ",SUBSTITUTE(D59,"-","")," - ",B59)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 58</v>
       </c>
-      <c r="Q59" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S59" s="2" t="str">
+        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIV - ",Q59," - ",B59," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 58 SOS.txt</v>
       </c>
-      <c r="R59" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T59" s="2" t="str">
+        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIV - ",Q59," - ",B59," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 58 Alicuota SOS.txt</v>
       </c>
-      <c r="S59" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U59" s="2" t="str">
+        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIC - ",Q59," - ",B59," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 58 SOS.txt</v>
       </c>
-      <c r="T59" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V59" s="2" t="str">
+        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIC - ",Q59," - ",B59," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 58 Alicuota SOS.txt</v>
       </c>
-      <c r="U59" s="4">
-        <f t="shared" si="22"/>
+      <c r="W59" s="4">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="V59" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W59" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X59" s="5" t="e">
-        <f>VLOOKUP(TEXT(U59,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y59" s="5" t="e">
-        <f>VLOOKUP(TEXT(U59,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z59" s="4" t="e">
-        <f>VLOOKUP(TEXT(U59,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X59" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y59" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W59,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W59,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB59" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W59,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 59</v>
       </c>
       <c r="C60">
@@ -6568,7 +7044,7 @@
         <v>26</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 59</v>
       </c>
       <c r="F60" s="3">
@@ -6582,77 +7058,85 @@
         <v>13</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F60)&amp;"\"&amp;Q60&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L60" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K60,"\",B60,"\","COMVEN LID","\",YEAR(F60),"\",TEXT(MONTH(F60),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 59\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M60" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M60" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N60" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 59\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O60" s="4" t="str">
+        <f>TEXT(MONTH(F60),"00")&amp;"/"&amp;YEAR(F60)</f>
         <v>04/2023</v>
       </c>
-      <c r="N60" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P60" s="2" t="str">
+        <f>PROPER(TEXT(F60,"mmmm"))&amp;" "&amp;YEAR(F60)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O60" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q60" s="2" t="str">
+        <f>YEAR(F60)&amp;TEXT(MONTH(F60),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P60" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R60" s="2" t="str">
+        <f>CONCATENATE(TEXT(A60,"0"),"  - ",Q60," - ",SUBSTITUTE(D60,"-","")," - ",B60)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 59</v>
       </c>
-      <c r="Q60" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S60" s="2" t="str">
+        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIV - ",Q60," - ",B60," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 59 SOS.txt</v>
       </c>
-      <c r="R60" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T60" s="2" t="str">
+        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIV - ",Q60," - ",B60," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 59 Alicuota SOS.txt</v>
       </c>
-      <c r="S60" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U60" s="2" t="str">
+        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIC - ",Q60," - ",B60," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 59 SOS.txt</v>
       </c>
-      <c r="T60" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V60" s="2" t="str">
+        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIC - ",Q60," - ",B60," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 59 Alicuota SOS.txt</v>
       </c>
-      <c r="U60" s="4">
-        <f t="shared" si="22"/>
+      <c r="W60" s="4">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="V60" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W60" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X60" s="5" t="e">
-        <f>VLOOKUP(TEXT(U60,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y60" s="5" t="e">
-        <f>VLOOKUP(TEXT(U60,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z60" s="4" t="e">
-        <f>VLOOKUP(TEXT(U60,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X60" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y60" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W60,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W60,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB60" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W60,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 60</v>
       </c>
       <c r="C61">
@@ -6662,7 +7146,7 @@
         <v>26</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 60</v>
       </c>
       <c r="F61" s="3">
@@ -6676,77 +7160,85 @@
         <v>12</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F61)&amp;"\"&amp;Q61&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L61" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K61,"\",B61,"\","COMVEN LID","\",YEAR(F61),"\",TEXT(MONTH(F61),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 60\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M61" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M61" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N61" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 60\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O61" s="4" t="str">
+        <f>TEXT(MONTH(F61),"00")&amp;"/"&amp;YEAR(F61)</f>
         <v>03/2023</v>
       </c>
-      <c r="N61" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P61" s="2" t="str">
+        <f>PROPER(TEXT(F61,"mmmm"))&amp;" "&amp;YEAR(F61)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="O61" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q61" s="2" t="str">
+        <f>YEAR(F61)&amp;TEXT(MONTH(F61),"00")</f>
         <v>202303</v>
       </c>
-      <c r="P61" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R61" s="2" t="str">
+        <f>CONCATENATE(TEXT(A61,"0"),"  - ",Q61," - ",SUBSTITUTE(D61,"-","")," - ",B61)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 60</v>
       </c>
-      <c r="Q61" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S61" s="2" t="str">
+        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIV - ",Q61," - ",B61," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 60 SOS.txt</v>
       </c>
-      <c r="R61" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T61" s="2" t="str">
+        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIV - ",Q61," - ",B61," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 60 Alicuota SOS.txt</v>
       </c>
-      <c r="S61" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U61" s="2" t="str">
+        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIC - ",Q61," - ",B61," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 60 SOS.txt</v>
       </c>
-      <c r="T61" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V61" s="2" t="str">
+        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIC - ",Q61," - ",B61," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 60 Alicuota SOS.txt</v>
       </c>
-      <c r="U61" s="4">
-        <f t="shared" si="22"/>
+      <c r="W61" s="4">
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="V61" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W61" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X61" s="5" t="e">
-        <f>VLOOKUP(TEXT(U61,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y61" s="5" t="e">
-        <f>VLOOKUP(TEXT(U61,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z61" s="4" t="e">
-        <f>VLOOKUP(TEXT(U61,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X61" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y61" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W61,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W61,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB61" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W61,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 61</v>
       </c>
       <c r="C62">
@@ -6756,7 +7248,7 @@
         <v>26</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 61</v>
       </c>
       <c r="F62" s="3">
@@ -6770,77 +7262,85 @@
         <v>13</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F62)&amp;"\"&amp;Q62&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L62" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K62,"\",B62,"\","COMVEN LID","\",YEAR(F62),"\",TEXT(MONTH(F62),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 61\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M62" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M62" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N62" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 61\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O62" s="4" t="str">
+        <f>TEXT(MONTH(F62),"00")&amp;"/"&amp;YEAR(F62)</f>
         <v>04/2023</v>
       </c>
-      <c r="N62" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P62" s="2" t="str">
+        <f>PROPER(TEXT(F62,"mmmm"))&amp;" "&amp;YEAR(F62)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O62" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q62" s="2" t="str">
+        <f>YEAR(F62)&amp;TEXT(MONTH(F62),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P62" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R62" s="2" t="str">
+        <f>CONCATENATE(TEXT(A62,"0"),"  - ",Q62," - ",SUBSTITUTE(D62,"-","")," - ",B62)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 61</v>
       </c>
-      <c r="Q62" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S62" s="2" t="str">
+        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIV - ",Q62," - ",B62," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 61 SOS.txt</v>
       </c>
-      <c r="R62" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T62" s="2" t="str">
+        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIV - ",Q62," - ",B62," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 61 Alicuota SOS.txt</v>
       </c>
-      <c r="S62" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U62" s="2" t="str">
+        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIC - ",Q62," - ",B62," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 61 SOS.txt</v>
       </c>
-      <c r="T62" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V62" s="2" t="str">
+        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIC - ",Q62," - ",B62," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 61 Alicuota SOS.txt</v>
       </c>
-      <c r="U62" s="4">
-        <f t="shared" si="22"/>
+      <c r="W62" s="4">
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="V62" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W62" s="4">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X62" s="5" t="e">
-        <f>VLOOKUP(TEXT(U62,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y62" s="5" t="e">
-        <f>VLOOKUP(TEXT(U62,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z62" s="4" t="e">
-        <f>VLOOKUP(TEXT(U62,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="X62" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y62" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W62,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W62,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB62" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W62,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>Nombre de cliente 62</v>
       </c>
       <c r="C63">
@@ -6850,7 +7350,7 @@
         <v>26</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>Clave 62</v>
       </c>
       <c r="F63" s="3">
@@ -6864,72 +7364,80 @@
         <v>13</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="17"/>
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F63)&amp;"\"&amp;Q63&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L63" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(K63,"\",B63,"\","COMVEN LID","\",YEAR(F63),"\",TEXT(MONTH(F63),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 62\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M63" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="M63" t="str">
+        <f t="shared" si="3"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N63" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 62\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O63" s="4" t="str">
+        <f>TEXT(MONTH(F63),"00")&amp;"/"&amp;YEAR(F63)</f>
         <v>04/2023</v>
       </c>
-      <c r="N63" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="P63" s="2" t="str">
+        <f>PROPER(TEXT(F63,"mmmm"))&amp;" "&amp;YEAR(F63)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="O63" s="2" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q63" s="2" t="str">
+        <f>YEAR(F63)&amp;TEXT(MONTH(F63),"00")</f>
         <v>202304</v>
       </c>
-      <c r="P63" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R63" s="2" t="str">
+        <f>CONCATENATE(TEXT(A63,"0"),"  - ",Q63," - ",SUBSTITUTE(D63,"-","")," - ",B63)</f>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 62</v>
       </c>
-      <c r="Q63" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="S63" s="2" t="str">
+        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIV - ",Q63," - ",B63," SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 62 SOS.txt</v>
       </c>
-      <c r="R63" s="2" t="str">
-        <f t="shared" si="19"/>
+      <c r="T63" s="2" t="str">
+        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIV - ",Q63," - ",B63," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 62 Alicuota SOS.txt</v>
       </c>
-      <c r="S63" s="2" t="str">
-        <f t="shared" si="20"/>
+      <c r="U63" s="2" t="str">
+        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIC - ",Q63," - ",B63," SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 62 SOS.txt</v>
       </c>
-      <c r="T63" s="2" t="str">
-        <f t="shared" si="21"/>
+      <c r="V63" s="2" t="str">
+        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIC - ",Q63," - ",B63," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 62 Alicuota SOS.txt</v>
       </c>
-      <c r="U63" s="4">
-        <f t="shared" si="22"/>
+      <c r="W63" s="4">
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="V63" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W63" s="4">
-        <f t="shared" si="24"/>
+      <c r="X63" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y63" s="4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X63" s="5" t="e">
-        <f>VLOOKUP(TEXT(U63,"0"),[1]Control!$A:$E,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y63" s="5" t="e">
-        <f>VLOOKUP(TEXT(U63,"0"),[1]Control!$A:$E,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z63" s="4" t="e">
-        <f>VLOOKUP(TEXT(U63,"0"),[1]Control!$A:$E,4,0)</f>
-        <v>#N/A</v>
+      <c r="Z63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W63,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AA63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W63,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB63" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(W63,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z63" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}"/>
+  <autoFilter ref="A1:AB63" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Lista TXT SOS.xlsx
+++ b/Lista TXT SOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga-y-Carga-COMVEN-LID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga-y-Carga-COMVEN-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47906C4-D4A4-4E37-8B35-AF4C6D8E333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F046866-18D5-448B-8991-7C6229C2A629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,9 +964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,11 +1108,11 @@
         <v>13</v>
       </c>
       <c r="K2" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F2)&amp;"\"&amp;Q2&amp;"\TXT"</f>
+        <f t="shared" ref="K2:K33" si="1">"F:\Libros Compras y Ventas\"&amp;YEAR(F2)&amp;"\"&amp;Q2&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L2" s="4" t="str">
-        <f>CONCATENATE(K2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
+        <f t="shared" ref="L2:L33" si="2">CONCATENATE(K2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 1\COMVEN LID\2023\04\</v>
       </c>
       <c r="M2" t="str">
@@ -1124,47 +1124,47 @@
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 1\COMVEN LID\2023\04\</v>
       </c>
       <c r="O2" s="4" t="str">
-        <f>TEXT(MONTH(F2),"00")&amp;"/"&amp;YEAR(F2)</f>
+        <f t="shared" ref="O2:O33" si="3">TEXT(MONTH(F2),"00")&amp;"/"&amp;YEAR(F2)</f>
         <v>04/2023</v>
       </c>
       <c r="P2" s="2" t="str">
-        <f>PROPER(TEXT(F2,"mmmm"))&amp;" "&amp;YEAR(F2)</f>
+        <f t="shared" ref="P2:P33" si="4">PROPER(TEXT(F2,"mmmm"))&amp;" "&amp;YEAR(F2)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q2" s="2" t="str">
-        <f>YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
+        <f t="shared" ref="Q2:Q33" si="5">YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
         <v>202304</v>
       </c>
       <c r="R2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0"),"  - ",Q2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <f t="shared" ref="R2:R33" si="6">CONCATENATE(TEXT(A2,"0"),"  - ",Q2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0  - 202304 - 20000000000 - Nombre de cliente 1</v>
       </c>
       <c r="S2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",Q2," - ",B2," SOS.txt")</f>
-        <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 1 SOS.txt</v>
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",Q2," - ",B2," CBTE SOS.txt")</f>
+        <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 1 CBTE SOS.txt</v>
       </c>
       <c r="T2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",Q2," - ",B2," Alicuota SOS.txt")</f>
+        <f t="shared" ref="T2:T33" si="7">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",Q2," - ",B2," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 1 Alicuota SOS.txt</v>
       </c>
       <c r="U2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",Q2," - ",B2," SOS.txt")</f>
-        <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 1 SOS.txt</v>
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",Q2," - ",B2," CBTE SOS.txt")</f>
+        <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 1 CBTE SOS.txt</v>
       </c>
       <c r="V2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",Q2," - ",B2," Alicuota SOS.txt")</f>
+        <f t="shared" ref="V2:V33" si="8">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",Q2," - ",B2," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 1 Alicuota SOS.txt</v>
       </c>
       <c r="W2" s="4">
-        <f>ROW(A2)</f>
+        <f t="shared" ref="W2:W33" si="9">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="X2" s="4">
-        <f>IF(C2=C1,1,0)</f>
+        <f t="shared" ref="X2:X33" si="10">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="4">
-        <f>IF(C2=C3,1,0)</f>
+        <f t="shared" ref="Y2:Y33" si="11">IF(C2=C3,1,0)</f>
         <v>1</v>
       </c>
       <c r="Z2" s="5" t="str">
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B63" si="1">"Nombre de cliente "&amp;(ROW()-1)</f>
+        <f t="shared" ref="B3:B63" si="12">"Nombre de cliente "&amp;(ROW()-1)</f>
         <v>Nombre de cliente 2</v>
       </c>
       <c r="C3">
@@ -1197,7 +1197,7 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E63" si="2">"Clave "&amp;(ROW()-1)</f>
+        <f t="shared" ref="E3:E63" si="13">"Clave "&amp;(ROW()-1)</f>
         <v>Clave 2</v>
       </c>
       <c r="F3" s="3">
@@ -1213,63 +1213,63 @@
         <v>13</v>
       </c>
       <c r="K3" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F3)&amp;"\"&amp;Q3&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L3" s="4" t="str">
-        <f>CONCATENATE(K3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 2\COMVEN LID\2023\04\</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M63" si="3">"F:\Libros Compras y Ventas\"&amp;YEAR(F3)&amp;"\"&amp;Q3&amp;"\TXT"</f>
+        <f t="shared" ref="M3:M63" si="14">"F:\Libros Compras y Ventas\"&amp;YEAR(F3)&amp;"\"&amp;Q3&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N63" si="4">CONCATENATE(M3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
+        <f t="shared" ref="N3:N63" si="15">CONCATENATE(M3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 2\COMVEN LID\2023\04\</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f>TEXT(MONTH(F3),"00")&amp;"/"&amp;YEAR(F3)</f>
+        <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
       <c r="P3" s="2" t="str">
-        <f>PROPER(TEXT(F3,"mmmm"))&amp;" "&amp;YEAR(F3)</f>
+        <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q3" s="2" t="str">
-        <f>YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R3" s="2" t="str">
-        <f>CONCATENATE(TEXT(A3,"0"),"  - ",Q3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 20000000000 - Nombre de cliente 2</v>
       </c>
       <c r="S3" s="2" t="str">
-        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",Q3," - ",B3," SOS.txt")</f>
-        <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 2 SOS.txt</v>
+        <f t="shared" ref="S3:S63" si="16">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",Q3," - ",B3," CBTE SOS.txt")</f>
+        <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 2 CBTE SOS.txt</v>
       </c>
       <c r="T3" s="2" t="str">
-        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",Q3," - ",B3," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 2 Alicuota SOS.txt</v>
       </c>
       <c r="U3" s="2" t="str">
-        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",Q3," - ",B3," SOS.txt")</f>
-        <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 2 SOS.txt</v>
+        <f t="shared" ref="U3:U63" si="17">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",Q3," - ",B3," CBTE SOS.txt")</f>
+        <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 2 CBTE SOS.txt</v>
       </c>
       <c r="V3" s="2" t="str">
-        <f>CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",Q3," - ",B3," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 2 Alicuota SOS.txt</v>
       </c>
       <c r="W3" s="4">
-        <f>ROW(A3)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X3" s="4">
-        <f>IF(C3=C2,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y3" s="4">
-        <f>IF(C3=C4,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z3" s="5" t="str">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 3</v>
       </c>
       <c r="C4">
@@ -1302,7 +1302,7 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 3</v>
       </c>
       <c r="F4" s="3">
@@ -1318,63 +1318,63 @@
         <v>13</v>
       </c>
       <c r="K4" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F4)&amp;"\"&amp;Q4&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f>CONCATENATE(K4,"\",B4,"\","COMVEN LID","\",YEAR(F4),"\",TEXT(MONTH(F4),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 3\COMVEN LID\2023\04\</v>
       </c>
       <c r="M4" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 3\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N4" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P4" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 3\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O4" s="4" t="str">
-        <f>TEXT(MONTH(F4),"00")&amp;"/"&amp;YEAR(F4)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P4" s="2" t="str">
-        <f>PROPER(TEXT(F4,"mmmm"))&amp;" "&amp;YEAR(F4)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q4" s="2" t="str">
-        <f>YEAR(F4)&amp;TEXT(MONTH(F4),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R4" s="2" t="str">
-        <f>CONCATENATE(TEXT(A4,"0"),"  - ",Q4," - ",SUBSTITUTE(D4,"-","")," - ",B4)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 20000000000 - Nombre de cliente 3</v>
       </c>
       <c r="S4" s="2" t="str">
-        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIV - ",Q4," - ",B4," SOS.txt")</f>
-        <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 3 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 3 CBTE SOS.txt</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIV - ",Q4," - ",B4," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 3 Alicuota SOS.txt</v>
       </c>
       <c r="U4" s="2" t="str">
-        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIC - ",Q4," - ",B4," SOS.txt")</f>
-        <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 3 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 3 CBTE SOS.txt</v>
       </c>
       <c r="V4" s="2" t="str">
-        <f>CONCATENATE(A4," - ",SUBSTITUTE(D4,"-","")," - ","LIC - ",Q4," - ",B4," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 3 Alicuota SOS.txt</v>
       </c>
       <c r="W4" s="4">
-        <f>ROW(A4)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="X4" s="4">
-        <f>IF(C4=C3,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y4" s="4">
-        <f>IF(C4=C5,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z4" s="5" t="str">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 4</v>
       </c>
       <c r="C5">
@@ -1406,7 +1406,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 4</v>
       </c>
       <c r="F5" s="3">
@@ -1422,63 +1422,63 @@
         <v>13</v>
       </c>
       <c r="K5" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F5)&amp;"\"&amp;Q5&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L5" s="4" t="str">
-        <f>CONCATENATE(K5,"\",B5,"\","COMVEN LID","\",YEAR(F5),"\",TEXT(MONTH(F5),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 4\COMVEN LID\2023\04\</v>
       </c>
       <c r="M5" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N5" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 4\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N5" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P5" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 4\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O5" s="4" t="str">
-        <f>TEXT(MONTH(F5),"00")&amp;"/"&amp;YEAR(F5)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P5" s="2" t="str">
-        <f>PROPER(TEXT(F5,"mmmm"))&amp;" "&amp;YEAR(F5)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q5" s="2" t="str">
-        <f>YEAR(F5)&amp;TEXT(MONTH(F5),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R5" s="2" t="str">
-        <f>CONCATENATE(TEXT(A5,"0"),"  - ",Q5," - ",SUBSTITUTE(D5,"-","")," - ",B5)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 4</v>
       </c>
       <c r="S5" s="2" t="str">
-        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIV - ",Q5," - ",B5," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 4 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 4 CBTE SOS.txt</v>
       </c>
       <c r="T5" s="2" t="str">
-        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIV - ",Q5," - ",B5," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 4 Alicuota SOS.txt</v>
       </c>
       <c r="U5" s="2" t="str">
-        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIC - ",Q5," - ",B5," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 4 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 4 CBTE SOS.txt</v>
       </c>
       <c r="V5" s="2" t="str">
-        <f>CONCATENATE(A5," - ",SUBSTITUTE(D5,"-","")," - ","LIC - ",Q5," - ",B5," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 4 Alicuota SOS.txt</v>
       </c>
       <c r="W5" s="4">
-        <f>ROW(A5)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="X5" s="4">
-        <f>IF(C5=C4,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y5" s="4">
-        <f>IF(C5=C6,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z5" s="5" t="str">
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 5</v>
       </c>
       <c r="C6">
@@ -1510,7 +1510,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 5</v>
       </c>
       <c r="F6" s="3">
@@ -1524,63 +1524,63 @@
         <v>13</v>
       </c>
       <c r="K6" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F6)&amp;"\"&amp;Q6&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f>CONCATENATE(K6,"\",B6,"\","COMVEN LID","\",YEAR(F6),"\",TEXT(MONTH(F6),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 5\COMVEN LID\2023\04\</v>
       </c>
       <c r="M6" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 5\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N6" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P6" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 5\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O6" s="4" t="str">
-        <f>TEXT(MONTH(F6),"00")&amp;"/"&amp;YEAR(F6)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P6" s="2" t="str">
-        <f>PROPER(TEXT(F6,"mmmm"))&amp;" "&amp;YEAR(F6)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q6" s="2" t="str">
-        <f>YEAR(F6)&amp;TEXT(MONTH(F6),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R6" s="2" t="str">
-        <f>CONCATENATE(TEXT(A6,"0"),"  - ",Q6," - ",SUBSTITUTE(D6,"-","")," - ",B6)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 5</v>
       </c>
       <c r="S6" s="2" t="str">
-        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIV - ",Q6," - ",B6," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 5 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 5 CBTE SOS.txt</v>
       </c>
       <c r="T6" s="2" t="str">
-        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIV - ",Q6," - ",B6," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 5 Alicuota SOS.txt</v>
       </c>
       <c r="U6" s="2" t="str">
-        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIC - ",Q6," - ",B6," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 5 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 5 CBTE SOS.txt</v>
       </c>
       <c r="V6" s="2" t="str">
-        <f>CONCATENATE(A6," - ",SUBSTITUTE(D6,"-","")," - ","LIC - ",Q6," - ",B6," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 5 Alicuota SOS.txt</v>
       </c>
       <c r="W6" s="4">
-        <f>ROW(A6)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="X6" s="4">
-        <f>IF(C6=C5,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y6" s="4">
-        <f>IF(C6=C7,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z6" s="5" t="str">
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 6</v>
       </c>
       <c r="C7">
@@ -1612,7 +1612,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 6</v>
       </c>
       <c r="F7" s="3">
@@ -1626,63 +1626,63 @@
         <v>12</v>
       </c>
       <c r="K7" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F7)&amp;"\"&amp;Q7&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f>CONCATENATE(K7,"\",B7,"\","COMVEN LID","\",YEAR(F7),"\",TEXT(MONTH(F7),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 6\COMVEN LID\2023\03\</v>
       </c>
       <c r="M7" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N7" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 6\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
-      </c>
-      <c r="N7" s="4" t="str">
+        <v>03/2023</v>
+      </c>
+      <c r="P7" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 6\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="O7" s="4" t="str">
-        <f>TEXT(MONTH(F7),"00")&amp;"/"&amp;YEAR(F7)</f>
-        <v>03/2023</v>
-      </c>
-      <c r="P7" s="2" t="str">
-        <f>PROPER(TEXT(F7,"mmmm"))&amp;" "&amp;YEAR(F7)</f>
         <v>Marzo 2023</v>
       </c>
       <c r="Q7" s="2" t="str">
-        <f>YEAR(F7)&amp;TEXT(MONTH(F7),"00")</f>
+        <f t="shared" si="5"/>
         <v>202303</v>
       </c>
       <c r="R7" s="2" t="str">
-        <f>CONCATENATE(TEXT(A7,"0"),"  - ",Q7," - ",SUBSTITUTE(D7,"-","")," - ",B7)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 6</v>
       </c>
       <c r="S7" s="2" t="str">
-        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIV - ",Q7," - ",B7," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 6 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 6 CBTE SOS.txt</v>
       </c>
       <c r="T7" s="2" t="str">
-        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIV - ",Q7," - ",B7," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 6 Alicuota SOS.txt</v>
       </c>
       <c r="U7" s="2" t="str">
-        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIC - ",Q7," - ",B7," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 6 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 6 CBTE SOS.txt</v>
       </c>
       <c r="V7" s="2" t="str">
-        <f>CONCATENATE(A7," - ",SUBSTITUTE(D7,"-","")," - ","LIC - ",Q7," - ",B7," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 6 Alicuota SOS.txt</v>
       </c>
       <c r="W7" s="4">
-        <f>ROW(A7)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="X7" s="4">
-        <f>IF(C7=C6,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y7" s="4">
-        <f>IF(C7=C8,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z7" s="5" t="str">
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 7</v>
       </c>
       <c r="C8">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 7</v>
       </c>
       <c r="F8" s="3">
@@ -1730,63 +1730,63 @@
         <v>13</v>
       </c>
       <c r="K8" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F8)&amp;"\"&amp;Q8&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f>CONCATENATE(K8,"\",B8,"\","COMVEN LID","\",YEAR(F8),"\",TEXT(MONTH(F8),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 7\COMVEN LID\2023\04\</v>
       </c>
       <c r="M8" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N8" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 7\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N8" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P8" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 7\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O8" s="4" t="str">
-        <f>TEXT(MONTH(F8),"00")&amp;"/"&amp;YEAR(F8)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P8" s="2" t="str">
-        <f>PROPER(TEXT(F8,"mmmm"))&amp;" "&amp;YEAR(F8)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q8" s="2" t="str">
-        <f>YEAR(F8)&amp;TEXT(MONTH(F8),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R8" s="2" t="str">
-        <f>CONCATENATE(TEXT(A8,"0"),"  - ",Q8," - ",SUBSTITUTE(D8,"-","")," - ",B8)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 7</v>
       </c>
       <c r="S8" s="2" t="str">
-        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIV - ",Q8," - ",B8," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 7 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 7 CBTE SOS.txt</v>
       </c>
       <c r="T8" s="2" t="str">
-        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIV - ",Q8," - ",B8," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 7 Alicuota SOS.txt</v>
       </c>
       <c r="U8" s="2" t="str">
-        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIC - ",Q8," - ",B8," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 7 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 7 CBTE SOS.txt</v>
       </c>
       <c r="V8" s="2" t="str">
-        <f>CONCATENATE(A8," - ",SUBSTITUTE(D8,"-","")," - ","LIC - ",Q8," - ",B8," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 7 Alicuota SOS.txt</v>
       </c>
       <c r="W8" s="4">
-        <f>ROW(A8)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="X8" s="4">
-        <f>IF(C8=C7,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y8" s="4">
-        <f>IF(C8=C9,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z8" s="5" t="str">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 8</v>
       </c>
       <c r="C9">
@@ -1818,7 +1818,7 @@
         <v>26</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 8</v>
       </c>
       <c r="F9" s="3">
@@ -1834,63 +1834,63 @@
         <v>13</v>
       </c>
       <c r="K9" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F9)&amp;"\"&amp;Q9&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f>CONCATENATE(K9,"\",B9,"\","COMVEN LID","\",YEAR(F9),"\",TEXT(MONTH(F9),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 8\COMVEN LID\2023\04\</v>
       </c>
       <c r="M9" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 8\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N9" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P9" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 8\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O9" s="4" t="str">
-        <f>TEXT(MONTH(F9),"00")&amp;"/"&amp;YEAR(F9)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P9" s="2" t="str">
-        <f>PROPER(TEXT(F9,"mmmm"))&amp;" "&amp;YEAR(F9)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q9" s="2" t="str">
-        <f>YEAR(F9)&amp;TEXT(MONTH(F9),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R9" s="2" t="str">
-        <f>CONCATENATE(TEXT(A9,"0"),"  - ",Q9," - ",SUBSTITUTE(D9,"-","")," - ",B9)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 8</v>
       </c>
       <c r="S9" s="2" t="str">
-        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIV - ",Q9," - ",B9," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 8 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 8 CBTE SOS.txt</v>
       </c>
       <c r="T9" s="2" t="str">
-        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIV - ",Q9," - ",B9," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 8 Alicuota SOS.txt</v>
       </c>
       <c r="U9" s="2" t="str">
-        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIC - ",Q9," - ",B9," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 8 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 8 CBTE SOS.txt</v>
       </c>
       <c r="V9" s="2" t="str">
-        <f>CONCATENATE(A9," - ",SUBSTITUTE(D9,"-","")," - ","LIC - ",Q9," - ",B9," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 8 Alicuota SOS.txt</v>
       </c>
       <c r="W9" s="4">
-        <f>ROW(A9)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="X9" s="4">
-        <f>IF(C9=C8,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y9" s="4">
-        <f>IF(C9=C10,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z9" s="5" t="str">
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 9</v>
       </c>
       <c r="C10">
@@ -1922,7 +1922,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 9</v>
       </c>
       <c r="F10" s="3">
@@ -1936,63 +1936,63 @@
         <v>12</v>
       </c>
       <c r="K10" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F10)&amp;"\"&amp;Q10&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f>CONCATENATE(K10,"\",B10,"\","COMVEN LID","\",YEAR(F10),"\",TEXT(MONTH(F10),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 9\COMVEN LID\2023\03\</v>
       </c>
       <c r="M10" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N10" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 9\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
-      </c>
-      <c r="N10" s="4" t="str">
+        <v>03/2023</v>
+      </c>
+      <c r="P10" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 9\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="O10" s="4" t="str">
-        <f>TEXT(MONTH(F10),"00")&amp;"/"&amp;YEAR(F10)</f>
-        <v>03/2023</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <f>PROPER(TEXT(F10,"mmmm"))&amp;" "&amp;YEAR(F10)</f>
         <v>Marzo 2023</v>
       </c>
       <c r="Q10" s="2" t="str">
-        <f>YEAR(F10)&amp;TEXT(MONTH(F10),"00")</f>
+        <f t="shared" si="5"/>
         <v>202303</v>
       </c>
       <c r="R10" s="2" t="str">
-        <f>CONCATENATE(TEXT(A10,"0"),"  - ",Q10," - ",SUBSTITUTE(D10,"-","")," - ",B10)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 9</v>
       </c>
       <c r="S10" s="2" t="str">
-        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIV - ",Q10," - ",B10," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 9 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 9 CBTE SOS.txt</v>
       </c>
       <c r="T10" s="2" t="str">
-        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIV - ",Q10," - ",B10," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 9 Alicuota SOS.txt</v>
       </c>
       <c r="U10" s="2" t="str">
-        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIC - ",Q10," - ",B10," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 9 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 9 CBTE SOS.txt</v>
       </c>
       <c r="V10" s="2" t="str">
-        <f>CONCATENATE(A10," - ",SUBSTITUTE(D10,"-","")," - ","LIC - ",Q10," - ",B10," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 9 Alicuota SOS.txt</v>
       </c>
       <c r="W10" s="4">
-        <f>ROW(A10)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="X10" s="4">
-        <f>IF(C10=C9,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y10" s="4">
-        <f>IF(C10=C11,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z10" s="5" t="str">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 10</v>
       </c>
       <c r="C11">
@@ -2024,7 +2024,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 10</v>
       </c>
       <c r="F11" s="3">
@@ -2038,63 +2038,63 @@
         <v>13</v>
       </c>
       <c r="K11" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F11)&amp;"\"&amp;Q11&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L11" s="4" t="str">
-        <f>CONCATENATE(K11,"\",B11,"\","COMVEN LID","\",YEAR(F11),"\",TEXT(MONTH(F11),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 10\COMVEN LID\2023\04\</v>
       </c>
       <c r="M11" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N11" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 10\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N11" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P11" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 10\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O11" s="4" t="str">
-        <f>TEXT(MONTH(F11),"00")&amp;"/"&amp;YEAR(F11)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P11" s="2" t="str">
-        <f>PROPER(TEXT(F11,"mmmm"))&amp;" "&amp;YEAR(F11)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q11" s="2" t="str">
-        <f>YEAR(F11)&amp;TEXT(MONTH(F11),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R11" s="2" t="str">
-        <f>CONCATENATE(TEXT(A11,"0"),"  - ",Q11," - ",SUBSTITUTE(D11,"-","")," - ",B11)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 10</v>
       </c>
       <c r="S11" s="2" t="str">
-        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIV - ",Q11," - ",B11," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 10 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 10 CBTE SOS.txt</v>
       </c>
       <c r="T11" s="2" t="str">
-        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIV - ",Q11," - ",B11," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 10 Alicuota SOS.txt</v>
       </c>
       <c r="U11" s="2" t="str">
-        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIC - ",Q11," - ",B11," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 10 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 10 CBTE SOS.txt</v>
       </c>
       <c r="V11" s="2" t="str">
-        <f>CONCATENATE(A11," - ",SUBSTITUTE(D11,"-","")," - ","LIC - ",Q11," - ",B11," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 10 Alicuota SOS.txt</v>
       </c>
       <c r="W11" s="4">
-        <f>ROW(A11)</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="X11" s="4">
-        <f>IF(C11=C10,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y11" s="4">
-        <f>IF(C11=C12,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z11" s="5" t="str">
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 11</v>
       </c>
       <c r="C12">
@@ -2126,7 +2126,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 11</v>
       </c>
       <c r="F12" s="3">
@@ -2140,63 +2140,63 @@
         <v>13</v>
       </c>
       <c r="K12" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F12)&amp;"\"&amp;Q12&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L12" s="4" t="str">
-        <f>CONCATENATE(K12,"\",B12,"\","COMVEN LID","\",YEAR(F12),"\",TEXT(MONTH(F12),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 11\COMVEN LID\2023\04\</v>
       </c>
       <c r="M12" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 11\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N12" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P12" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 11\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O12" s="4" t="str">
-        <f>TEXT(MONTH(F12),"00")&amp;"/"&amp;YEAR(F12)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P12" s="2" t="str">
-        <f>PROPER(TEXT(F12,"mmmm"))&amp;" "&amp;YEAR(F12)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q12" s="2" t="str">
-        <f>YEAR(F12)&amp;TEXT(MONTH(F12),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R12" s="2" t="str">
-        <f>CONCATENATE(TEXT(A12,"0"),"  - ",Q12," - ",SUBSTITUTE(D12,"-","")," - ",B12)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 11</v>
       </c>
       <c r="S12" s="2" t="str">
-        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIV - ",Q12," - ",B12," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 11 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 11 CBTE SOS.txt</v>
       </c>
       <c r="T12" s="2" t="str">
-        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIV - ",Q12," - ",B12," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 11 Alicuota SOS.txt</v>
       </c>
       <c r="U12" s="2" t="str">
-        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIC - ",Q12," - ",B12," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 11 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 11 CBTE SOS.txt</v>
       </c>
       <c r="V12" s="2" t="str">
-        <f>CONCATENATE(A12," - ",SUBSTITUTE(D12,"-","")," - ","LIC - ",Q12," - ",B12," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 11 Alicuota SOS.txt</v>
       </c>
       <c r="W12" s="4">
-        <f>ROW(A12)</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="X12" s="4">
-        <f>IF(C12=C11,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y12" s="4">
-        <f>IF(C12=C13,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z12" s="5" t="str">
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 12</v>
       </c>
       <c r="C13">
@@ -2228,7 +2228,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 12</v>
       </c>
       <c r="F13" s="3">
@@ -2242,63 +2242,63 @@
         <v>13</v>
       </c>
       <c r="K13" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F13)&amp;"\"&amp;Q13&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f>CONCATENATE(K13,"\",B13,"\","COMVEN LID","\",YEAR(F13),"\",TEXT(MONTH(F13),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 12\COMVEN LID\2023\04\</v>
       </c>
       <c r="M13" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N13" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 12\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N13" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P13" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 12\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O13" s="4" t="str">
-        <f>TEXT(MONTH(F13),"00")&amp;"/"&amp;YEAR(F13)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P13" s="2" t="str">
-        <f>PROPER(TEXT(F13,"mmmm"))&amp;" "&amp;YEAR(F13)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q13" s="2" t="str">
-        <f>YEAR(F13)&amp;TEXT(MONTH(F13),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R13" s="2" t="str">
-        <f>CONCATENATE(TEXT(A13,"0"),"  - ",Q13," - ",SUBSTITUTE(D13,"-","")," - ",B13)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 12</v>
       </c>
       <c r="S13" s="2" t="str">
-        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIV - ",Q13," - ",B13," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 12 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 12 CBTE SOS.txt</v>
       </c>
       <c r="T13" s="2" t="str">
-        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIV - ",Q13," - ",B13," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 12 Alicuota SOS.txt</v>
       </c>
       <c r="U13" s="2" t="str">
-        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIC - ",Q13," - ",B13," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 12 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 12 CBTE SOS.txt</v>
       </c>
       <c r="V13" s="2" t="str">
-        <f>CONCATENATE(A13," - ",SUBSTITUTE(D13,"-","")," - ","LIC - ",Q13," - ",B13," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 12 Alicuota SOS.txt</v>
       </c>
       <c r="W13" s="4">
-        <f>ROW(A13)</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="X13" s="4">
-        <f>IF(C13=C12,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y13" s="4">
-        <f>IF(C13=C14,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z13" s="5" t="str">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 13</v>
       </c>
       <c r="C14">
@@ -2330,7 +2330,7 @@
         <v>26</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 13</v>
       </c>
       <c r="F14" s="3">
@@ -2346,63 +2346,63 @@
         <v>13</v>
       </c>
       <c r="K14" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F14)&amp;"\"&amp;Q14&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f>CONCATENATE(K14,"\",B14,"\","COMVEN LID","\",YEAR(F14),"\",TEXT(MONTH(F14),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 13\COMVEN LID\2023\04\</v>
       </c>
       <c r="M14" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N14" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 13\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N14" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P14" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 13\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O14" s="4" t="str">
-        <f>TEXT(MONTH(F14),"00")&amp;"/"&amp;YEAR(F14)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P14" s="2" t="str">
-        <f>PROPER(TEXT(F14,"mmmm"))&amp;" "&amp;YEAR(F14)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q14" s="2" t="str">
-        <f>YEAR(F14)&amp;TEXT(MONTH(F14),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R14" s="2" t="str">
-        <f>CONCATENATE(TEXT(A14,"0"),"  - ",Q14," - ",SUBSTITUTE(D14,"-","")," - ",B14)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 13</v>
       </c>
       <c r="S14" s="2" t="str">
-        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIV - ",Q14," - ",B14," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 13 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 13 CBTE SOS.txt</v>
       </c>
       <c r="T14" s="2" t="str">
-        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIV - ",Q14," - ",B14," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 13 Alicuota SOS.txt</v>
       </c>
       <c r="U14" s="2" t="str">
-        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIC - ",Q14," - ",B14," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 13 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 13 CBTE SOS.txt</v>
       </c>
       <c r="V14" s="2" t="str">
-        <f>CONCATENATE(A14," - ",SUBSTITUTE(D14,"-","")," - ","LIC - ",Q14," - ",B14," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 13 Alicuota SOS.txt</v>
       </c>
       <c r="W14" s="4">
-        <f>ROW(A14)</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="X14" s="4">
-        <f>IF(C14=C13,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y14" s="4">
-        <f>IF(C14=C15,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z14" s="5" t="str">
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 14</v>
       </c>
       <c r="C15">
@@ -2434,7 +2434,7 @@
         <v>26</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 14</v>
       </c>
       <c r="F15" s="3">
@@ -2448,63 +2448,63 @@
         <v>12</v>
       </c>
       <c r="K15" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F15)&amp;"\"&amp;Q15&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f>CONCATENATE(K15,"\",B15,"\","COMVEN LID","\",YEAR(F15),"\",TEXT(MONTH(F15),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 14\COMVEN LID\2023\03\</v>
       </c>
       <c r="M15" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N15" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 14\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
-      </c>
-      <c r="N15" s="4" t="str">
+        <v>03/2023</v>
+      </c>
+      <c r="P15" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 14\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="O15" s="4" t="str">
-        <f>TEXT(MONTH(F15),"00")&amp;"/"&amp;YEAR(F15)</f>
-        <v>03/2023</v>
-      </c>
-      <c r="P15" s="2" t="str">
-        <f>PROPER(TEXT(F15,"mmmm"))&amp;" "&amp;YEAR(F15)</f>
         <v>Marzo 2023</v>
       </c>
       <c r="Q15" s="2" t="str">
-        <f>YEAR(F15)&amp;TEXT(MONTH(F15),"00")</f>
+        <f t="shared" si="5"/>
         <v>202303</v>
       </c>
       <c r="R15" s="2" t="str">
-        <f>CONCATENATE(TEXT(A15,"0"),"  - ",Q15," - ",SUBSTITUTE(D15,"-","")," - ",B15)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 14</v>
       </c>
       <c r="S15" s="2" t="str">
-        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIV - ",Q15," - ",B15," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 14 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 14 CBTE SOS.txt</v>
       </c>
       <c r="T15" s="2" t="str">
-        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIV - ",Q15," - ",B15," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 14 Alicuota SOS.txt</v>
       </c>
       <c r="U15" s="2" t="str">
-        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIC - ",Q15," - ",B15," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 14 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 14 CBTE SOS.txt</v>
       </c>
       <c r="V15" s="2" t="str">
-        <f>CONCATENATE(A15," - ",SUBSTITUTE(D15,"-","")," - ","LIC - ",Q15," - ",B15," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 14 Alicuota SOS.txt</v>
       </c>
       <c r="W15" s="4">
-        <f>ROW(A15)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="X15" s="4">
-        <f>IF(C15=C14,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y15" s="4">
-        <f>IF(C15=C16,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z15" s="5" t="str">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 15</v>
       </c>
       <c r="C16">
@@ -2536,7 +2536,7 @@
         <v>26</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 15</v>
       </c>
       <c r="F16" s="3">
@@ -2552,63 +2552,63 @@
         <v>13</v>
       </c>
       <c r="K16" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F16)&amp;"\"&amp;Q16&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f>CONCATENATE(K16,"\",B16,"\","COMVEN LID","\",YEAR(F16),"\",TEXT(MONTH(F16),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 15\COMVEN LID\2023\04\</v>
       </c>
       <c r="M16" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N16" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 15\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N16" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P16" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 15\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O16" s="4" t="str">
-        <f>TEXT(MONTH(F16),"00")&amp;"/"&amp;YEAR(F16)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P16" s="2" t="str">
-        <f>PROPER(TEXT(F16,"mmmm"))&amp;" "&amp;YEAR(F16)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q16" s="2" t="str">
-        <f>YEAR(F16)&amp;TEXT(MONTH(F16),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R16" s="2" t="str">
-        <f>CONCATENATE(TEXT(A16,"0"),"  - ",Q16," - ",SUBSTITUTE(D16,"-","")," - ",B16)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 15</v>
       </c>
       <c r="S16" s="2" t="str">
-        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIV - ",Q16," - ",B16," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 15 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 15 CBTE SOS.txt</v>
       </c>
       <c r="T16" s="2" t="str">
-        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIV - ",Q16," - ",B16," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 15 Alicuota SOS.txt</v>
       </c>
       <c r="U16" s="2" t="str">
-        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIC - ",Q16," - ",B16," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 15 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 15 CBTE SOS.txt</v>
       </c>
       <c r="V16" s="2" t="str">
-        <f>CONCATENATE(A16," - ",SUBSTITUTE(D16,"-","")," - ","LIC - ",Q16," - ",B16," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 15 Alicuota SOS.txt</v>
       </c>
       <c r="W16" s="4">
-        <f>ROW(A16)</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="X16" s="4">
-        <f>IF(C16=C15,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y16" s="4">
-        <f>IF(C16=C17,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z16" s="5" t="str">
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 16</v>
       </c>
       <c r="C17">
@@ -2640,7 +2640,7 @@
         <v>26</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 16</v>
       </c>
       <c r="F17" s="3">
@@ -2656,63 +2656,63 @@
         <v>13</v>
       </c>
       <c r="K17" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F17)&amp;"\"&amp;Q17&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f>CONCATENATE(K17,"\",B17,"\","COMVEN LID","\",YEAR(F17),"\",TEXT(MONTH(F17),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 16\COMVEN LID\2023\04\</v>
       </c>
       <c r="M17" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N17" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 16\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N17" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P17" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 16\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O17" s="4" t="str">
-        <f>TEXT(MONTH(F17),"00")&amp;"/"&amp;YEAR(F17)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P17" s="2" t="str">
-        <f>PROPER(TEXT(F17,"mmmm"))&amp;" "&amp;YEAR(F17)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q17" s="2" t="str">
-        <f>YEAR(F17)&amp;TEXT(MONTH(F17),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R17" s="2" t="str">
-        <f>CONCATENATE(TEXT(A17,"0"),"  - ",Q17," - ",SUBSTITUTE(D17,"-","")," - ",B17)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 16</v>
       </c>
       <c r="S17" s="2" t="str">
-        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIV - ",Q17," - ",B17," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 16 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 16 CBTE SOS.txt</v>
       </c>
       <c r="T17" s="2" t="str">
-        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIV - ",Q17," - ",B17," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 16 Alicuota SOS.txt</v>
       </c>
       <c r="U17" s="2" t="str">
-        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIC - ",Q17," - ",B17," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 16 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 16 CBTE SOS.txt</v>
       </c>
       <c r="V17" s="2" t="str">
-        <f>CONCATENATE(A17," - ",SUBSTITUTE(D17,"-","")," - ","LIC - ",Q17," - ",B17," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 16 Alicuota SOS.txt</v>
       </c>
       <c r="W17" s="4">
-        <f>ROW(A17)</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="X17" s="4">
-        <f>IF(C17=C16,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y17" s="4">
-        <f>IF(C17=C18,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z17" s="5" t="str">
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 17</v>
       </c>
       <c r="C18">
@@ -2744,7 +2744,7 @@
         <v>26</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 17</v>
       </c>
       <c r="F18" s="3">
@@ -2758,63 +2758,63 @@
         <v>12</v>
       </c>
       <c r="K18" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F18)&amp;"\"&amp;Q18&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L18" s="4" t="str">
-        <f>CONCATENATE(K18,"\",B18,"\","COMVEN LID","\",YEAR(F18),"\",TEXT(MONTH(F18),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 17\COMVEN LID\2023\03\</v>
       </c>
       <c r="M18" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N18" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 17\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
-      </c>
-      <c r="N18" s="4" t="str">
+        <v>03/2023</v>
+      </c>
+      <c r="P18" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 17\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="O18" s="4" t="str">
-        <f>TEXT(MONTH(F18),"00")&amp;"/"&amp;YEAR(F18)</f>
-        <v>03/2023</v>
-      </c>
-      <c r="P18" s="2" t="str">
-        <f>PROPER(TEXT(F18,"mmmm"))&amp;" "&amp;YEAR(F18)</f>
         <v>Marzo 2023</v>
       </c>
       <c r="Q18" s="2" t="str">
-        <f>YEAR(F18)&amp;TEXT(MONTH(F18),"00")</f>
+        <f t="shared" si="5"/>
         <v>202303</v>
       </c>
       <c r="R18" s="2" t="str">
-        <f>CONCATENATE(TEXT(A18,"0"),"  - ",Q18," - ",SUBSTITUTE(D18,"-","")," - ",B18)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 17</v>
       </c>
       <c r="S18" s="2" t="str">
-        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIV - ",Q18," - ",B18," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 17 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 17 CBTE SOS.txt</v>
       </c>
       <c r="T18" s="2" t="str">
-        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIV - ",Q18," - ",B18," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 17 Alicuota SOS.txt</v>
       </c>
       <c r="U18" s="2" t="str">
-        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIC - ",Q18," - ",B18," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 17 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 17 CBTE SOS.txt</v>
       </c>
       <c r="V18" s="2" t="str">
-        <f>CONCATENATE(A18," - ",SUBSTITUTE(D18,"-","")," - ","LIC - ",Q18," - ",B18," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 17 Alicuota SOS.txt</v>
       </c>
       <c r="W18" s="4">
-        <f>ROW(A18)</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="X18" s="4">
-        <f>IF(C18=C17,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y18" s="4">
-        <f>IF(C18=C19,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z18" s="5" t="str">
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 18</v>
       </c>
       <c r="C19">
@@ -2846,7 +2846,7 @@
         <v>26</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 18</v>
       </c>
       <c r="F19" s="3">
@@ -2860,63 +2860,63 @@
         <v>13</v>
       </c>
       <c r="K19" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F19)&amp;"\"&amp;Q19&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L19" s="4" t="str">
-        <f>CONCATENATE(K19,"\",B19,"\","COMVEN LID","\",YEAR(F19),"\",TEXT(MONTH(F19),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 18\COMVEN LID\2023\04\</v>
       </c>
       <c r="M19" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N19" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 18\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N19" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P19" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 18\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O19" s="4" t="str">
-        <f>TEXT(MONTH(F19),"00")&amp;"/"&amp;YEAR(F19)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P19" s="2" t="str">
-        <f>PROPER(TEXT(F19,"mmmm"))&amp;" "&amp;YEAR(F19)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q19" s="2" t="str">
-        <f>YEAR(F19)&amp;TEXT(MONTH(F19),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R19" s="2" t="str">
-        <f>CONCATENATE(TEXT(A19,"0"),"  - ",Q19," - ",SUBSTITUTE(D19,"-","")," - ",B19)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 18</v>
       </c>
       <c r="S19" s="2" t="str">
-        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIV - ",Q19," - ",B19," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 18 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 18 CBTE SOS.txt</v>
       </c>
       <c r="T19" s="2" t="str">
-        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIV - ",Q19," - ",B19," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 18 Alicuota SOS.txt</v>
       </c>
       <c r="U19" s="2" t="str">
-        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIC - ",Q19," - ",B19," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 18 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 18 CBTE SOS.txt</v>
       </c>
       <c r="V19" s="2" t="str">
-        <f>CONCATENATE(A19," - ",SUBSTITUTE(D19,"-","")," - ","LIC - ",Q19," - ",B19," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 18 Alicuota SOS.txt</v>
       </c>
       <c r="W19" s="4">
-        <f>ROW(A19)</f>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="X19" s="4">
-        <f>IF(C19=C18,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y19" s="4">
-        <f>IF(C19=C20,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z19" s="5" t="str">
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 19</v>
       </c>
       <c r="C20">
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 19</v>
       </c>
       <c r="F20" s="3">
@@ -2962,63 +2962,63 @@
         <v>12</v>
       </c>
       <c r="K20" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F20)&amp;"\"&amp;Q20&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L20" s="4" t="str">
-        <f>CONCATENATE(K20,"\",B20,"\","COMVEN LID","\",YEAR(F20),"\",TEXT(MONTH(F20),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 19\COMVEN LID\2023\03\</v>
       </c>
       <c r="M20" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N20" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 19\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
-      </c>
-      <c r="N20" s="4" t="str">
+        <v>03/2023</v>
+      </c>
+      <c r="P20" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 19\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="O20" s="4" t="str">
-        <f>TEXT(MONTH(F20),"00")&amp;"/"&amp;YEAR(F20)</f>
-        <v>03/2023</v>
-      </c>
-      <c r="P20" s="2" t="str">
-        <f>PROPER(TEXT(F20,"mmmm"))&amp;" "&amp;YEAR(F20)</f>
         <v>Marzo 2023</v>
       </c>
       <c r="Q20" s="2" t="str">
-        <f>YEAR(F20)&amp;TEXT(MONTH(F20),"00")</f>
+        <f t="shared" si="5"/>
         <v>202303</v>
       </c>
       <c r="R20" s="2" t="str">
-        <f>CONCATENATE(TEXT(A20,"0"),"  - ",Q20," - ",SUBSTITUTE(D20,"-","")," - ",B20)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 19</v>
       </c>
       <c r="S20" s="2" t="str">
-        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIV - ",Q20," - ",B20," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 19 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 19 CBTE SOS.txt</v>
       </c>
       <c r="T20" s="2" t="str">
-        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIV - ",Q20," - ",B20," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 19 Alicuota SOS.txt</v>
       </c>
       <c r="U20" s="2" t="str">
-        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIC - ",Q20," - ",B20," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 19 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 19 CBTE SOS.txt</v>
       </c>
       <c r="V20" s="2" t="str">
-        <f>CONCATENATE(A20," - ",SUBSTITUTE(D20,"-","")," - ","LIC - ",Q20," - ",B20," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 19 Alicuota SOS.txt</v>
       </c>
       <c r="W20" s="4">
-        <f>ROW(A20)</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="X20" s="4">
-        <f>IF(C20=C19,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y20" s="4">
-        <f>IF(C20=C21,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z20" s="5" t="str">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 20</v>
       </c>
       <c r="C21">
@@ -3050,7 +3050,7 @@
         <v>26</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 20</v>
       </c>
       <c r="F21" s="3">
@@ -3064,63 +3064,63 @@
         <v>12</v>
       </c>
       <c r="K21" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F21)&amp;"\"&amp;Q21&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L21" s="4" t="str">
-        <f>CONCATENATE(K21,"\",B21,"\","COMVEN LID","\",YEAR(F21),"\",TEXT(MONTH(F21),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 20\COMVEN LID\2023\03\</v>
       </c>
       <c r="M21" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N21" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 20\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
-      </c>
-      <c r="N21" s="4" t="str">
+        <v>03/2023</v>
+      </c>
+      <c r="P21" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 20\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="O21" s="4" t="str">
-        <f>TEXT(MONTH(F21),"00")&amp;"/"&amp;YEAR(F21)</f>
-        <v>03/2023</v>
-      </c>
-      <c r="P21" s="2" t="str">
-        <f>PROPER(TEXT(F21,"mmmm"))&amp;" "&amp;YEAR(F21)</f>
         <v>Marzo 2023</v>
       </c>
       <c r="Q21" s="2" t="str">
-        <f>YEAR(F21)&amp;TEXT(MONTH(F21),"00")</f>
+        <f t="shared" si="5"/>
         <v>202303</v>
       </c>
       <c r="R21" s="2" t="str">
-        <f>CONCATENATE(TEXT(A21,"0"),"  - ",Q21," - ",SUBSTITUTE(D21,"-","")," - ",B21)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 20</v>
       </c>
       <c r="S21" s="2" t="str">
-        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIV - ",Q21," - ",B21," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 20 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 20 CBTE SOS.txt</v>
       </c>
       <c r="T21" s="2" t="str">
-        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIV - ",Q21," - ",B21," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 20 Alicuota SOS.txt</v>
       </c>
       <c r="U21" s="2" t="str">
-        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIC - ",Q21," - ",B21," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 20 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 20 CBTE SOS.txt</v>
       </c>
       <c r="V21" s="2" t="str">
-        <f>CONCATENATE(A21," - ",SUBSTITUTE(D21,"-","")," - ","LIC - ",Q21," - ",B21," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 20 Alicuota SOS.txt</v>
       </c>
       <c r="W21" s="4">
-        <f>ROW(A21)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="X21" s="4">
-        <f>IF(C21=C20,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y21" s="4">
-        <f>IF(C21=C22,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z21" s="5" t="str">
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 21</v>
       </c>
       <c r="C22">
@@ -3152,7 +3152,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 21</v>
       </c>
       <c r="F22" s="3">
@@ -3168,63 +3168,63 @@
         <v>13</v>
       </c>
       <c r="K22" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F22)&amp;"\"&amp;Q22&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f>CONCATENATE(K22,"\",B22,"\","COMVEN LID","\",YEAR(F22),"\",TEXT(MONTH(F22),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 21\COMVEN LID\2023\04\</v>
       </c>
       <c r="M22" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N22" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 21\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N22" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P22" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 21\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O22" s="4" t="str">
-        <f>TEXT(MONTH(F22),"00")&amp;"/"&amp;YEAR(F22)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P22" s="2" t="str">
-        <f>PROPER(TEXT(F22,"mmmm"))&amp;" "&amp;YEAR(F22)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q22" s="2" t="str">
-        <f>YEAR(F22)&amp;TEXT(MONTH(F22),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R22" s="2" t="str">
-        <f>CONCATENATE(TEXT(A22,"0"),"  - ",Q22," - ",SUBSTITUTE(D22,"-","")," - ",B22)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 21</v>
       </c>
       <c r="S22" s="2" t="str">
-        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIV - ",Q22," - ",B22," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 21 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 21 CBTE SOS.txt</v>
       </c>
       <c r="T22" s="2" t="str">
-        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIV - ",Q22," - ",B22," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 21 Alicuota SOS.txt</v>
       </c>
       <c r="U22" s="2" t="str">
-        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIC - ",Q22," - ",B22," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 21 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 21 CBTE SOS.txt</v>
       </c>
       <c r="V22" s="2" t="str">
-        <f>CONCATENATE(A22," - ",SUBSTITUTE(D22,"-","")," - ","LIC - ",Q22," - ",B22," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 21 Alicuota SOS.txt</v>
       </c>
       <c r="W22" s="4">
-        <f>ROW(A22)</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="X22" s="4">
-        <f>IF(C22=C21,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y22" s="4">
-        <f>IF(C22=C23,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z22" s="5" t="str">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 22</v>
       </c>
       <c r="C23">
@@ -3256,7 +3256,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 22</v>
       </c>
       <c r="F23" s="3">
@@ -3272,63 +3272,63 @@
         <v>13</v>
       </c>
       <c r="K23" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F23)&amp;"\"&amp;Q23&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L23" s="4" t="str">
-        <f>CONCATENATE(K23,"\",B23,"\","COMVEN LID","\",YEAR(F23),"\",TEXT(MONTH(F23),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 22\COMVEN LID\2023\04\</v>
       </c>
       <c r="M23" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N23" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 22\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N23" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P23" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 22\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O23" s="4" t="str">
-        <f>TEXT(MONTH(F23),"00")&amp;"/"&amp;YEAR(F23)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P23" s="2" t="str">
-        <f>PROPER(TEXT(F23,"mmmm"))&amp;" "&amp;YEAR(F23)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q23" s="2" t="str">
-        <f>YEAR(F23)&amp;TEXT(MONTH(F23),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R23" s="2" t="str">
-        <f>CONCATENATE(TEXT(A23,"0"),"  - ",Q23," - ",SUBSTITUTE(D23,"-","")," - ",B23)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 22</v>
       </c>
       <c r="S23" s="2" t="str">
-        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIV - ",Q23," - ",B23," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 22 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 22 CBTE SOS.txt</v>
       </c>
       <c r="T23" s="2" t="str">
-        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIV - ",Q23," - ",B23," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 22 Alicuota SOS.txt</v>
       </c>
       <c r="U23" s="2" t="str">
-        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIC - ",Q23," - ",B23," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 22 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 22 CBTE SOS.txt</v>
       </c>
       <c r="V23" s="2" t="str">
-        <f>CONCATENATE(A23," - ",SUBSTITUTE(D23,"-","")," - ","LIC - ",Q23," - ",B23," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 22 Alicuota SOS.txt</v>
       </c>
       <c r="W23" s="4">
-        <f>ROW(A23)</f>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="X23" s="4">
-        <f>IF(C23=C22,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y23" s="4">
-        <f>IF(C23=C24,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z23" s="5" t="str">
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 23</v>
       </c>
       <c r="C24">
@@ -3360,7 +3360,7 @@
         <v>26</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 23</v>
       </c>
       <c r="F24" s="3">
@@ -3376,63 +3376,63 @@
         <v>13</v>
       </c>
       <c r="K24" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F24)&amp;"\"&amp;Q24&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L24" s="4" t="str">
-        <f>CONCATENATE(K24,"\",B24,"\","COMVEN LID","\",YEAR(F24),"\",TEXT(MONTH(F24),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 23\COMVEN LID\2023\04\</v>
       </c>
       <c r="M24" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N24" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 23\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N24" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P24" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 23\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O24" s="4" t="str">
-        <f>TEXT(MONTH(F24),"00")&amp;"/"&amp;YEAR(F24)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P24" s="2" t="str">
-        <f>PROPER(TEXT(F24,"mmmm"))&amp;" "&amp;YEAR(F24)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q24" s="2" t="str">
-        <f>YEAR(F24)&amp;TEXT(MONTH(F24),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R24" s="2" t="str">
-        <f>CONCATENATE(TEXT(A24,"0"),"  - ",Q24," - ",SUBSTITUTE(D24,"-","")," - ",B24)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 23</v>
       </c>
       <c r="S24" s="2" t="str">
-        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIV - ",Q24," - ",B24," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 23 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 23 CBTE SOS.txt</v>
       </c>
       <c r="T24" s="2" t="str">
-        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIV - ",Q24," - ",B24," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 23 Alicuota SOS.txt</v>
       </c>
       <c r="U24" s="2" t="str">
-        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIC - ",Q24," - ",B24," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 23 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 23 CBTE SOS.txt</v>
       </c>
       <c r="V24" s="2" t="str">
-        <f>CONCATENATE(A24," - ",SUBSTITUTE(D24,"-","")," - ","LIC - ",Q24," - ",B24," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 23 Alicuota SOS.txt</v>
       </c>
       <c r="W24" s="4">
-        <f>ROW(A24)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="X24" s="4">
-        <f>IF(C24=C23,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y24" s="4">
-        <f>IF(C24=C25,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z24" s="5" t="str">
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 24</v>
       </c>
       <c r="C25">
@@ -3464,7 +3464,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 24</v>
       </c>
       <c r="F25" s="3">
@@ -3478,63 +3478,63 @@
         <v>13</v>
       </c>
       <c r="K25" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F25)&amp;"\"&amp;Q25&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L25" s="4" t="str">
-        <f>CONCATENATE(K25,"\",B25,"\","COMVEN LID","\",YEAR(F25),"\",TEXT(MONTH(F25),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 24\COMVEN LID\2023\04\</v>
       </c>
       <c r="M25" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N25" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 24\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N25" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P25" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 24\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O25" s="4" t="str">
-        <f>TEXT(MONTH(F25),"00")&amp;"/"&amp;YEAR(F25)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P25" s="2" t="str">
-        <f>PROPER(TEXT(F25,"mmmm"))&amp;" "&amp;YEAR(F25)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q25" s="2" t="str">
-        <f>YEAR(F25)&amp;TEXT(MONTH(F25),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R25" s="2" t="str">
-        <f>CONCATENATE(TEXT(A25,"0"),"  - ",Q25," - ",SUBSTITUTE(D25,"-","")," - ",B25)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 24</v>
       </c>
       <c r="S25" s="2" t="str">
-        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIV - ",Q25," - ",B25," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 24 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 24 CBTE SOS.txt</v>
       </c>
       <c r="T25" s="2" t="str">
-        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIV - ",Q25," - ",B25," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 24 Alicuota SOS.txt</v>
       </c>
       <c r="U25" s="2" t="str">
-        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIC - ",Q25," - ",B25," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 24 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 24 CBTE SOS.txt</v>
       </c>
       <c r="V25" s="2" t="str">
-        <f>CONCATENATE(A25," - ",SUBSTITUTE(D25,"-","")," - ","LIC - ",Q25," - ",B25," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 24 Alicuota SOS.txt</v>
       </c>
       <c r="W25" s="4">
-        <f>ROW(A25)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="X25" s="4">
-        <f>IF(C25=C24,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y25" s="4">
-        <f>IF(C25=C26,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z25" s="5" t="str">
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 25</v>
       </c>
       <c r="C26">
@@ -3566,7 +3566,7 @@
         <v>26</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 25</v>
       </c>
       <c r="F26" s="3">
@@ -3580,63 +3580,63 @@
         <v>13</v>
       </c>
       <c r="K26" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F26)&amp;"\"&amp;Q26&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L26" s="4" t="str">
-        <f>CONCATENATE(K26,"\",B26,"\","COMVEN LID","\",YEAR(F26),"\",TEXT(MONTH(F26),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 25\COMVEN LID\2023\04\</v>
       </c>
       <c r="M26" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N26" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 25\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N26" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P26" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 25\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O26" s="4" t="str">
-        <f>TEXT(MONTH(F26),"00")&amp;"/"&amp;YEAR(F26)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P26" s="2" t="str">
-        <f>PROPER(TEXT(F26,"mmmm"))&amp;" "&amp;YEAR(F26)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q26" s="2" t="str">
-        <f>YEAR(F26)&amp;TEXT(MONTH(F26),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R26" s="2" t="str">
-        <f>CONCATENATE(TEXT(A26,"0"),"  - ",Q26," - ",SUBSTITUTE(D26,"-","")," - ",B26)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 25</v>
       </c>
       <c r="S26" s="2" t="str">
-        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIV - ",Q26," - ",B26," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 25 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 25 CBTE SOS.txt</v>
       </c>
       <c r="T26" s="2" t="str">
-        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIV - ",Q26," - ",B26," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 25 Alicuota SOS.txt</v>
       </c>
       <c r="U26" s="2" t="str">
-        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIC - ",Q26," - ",B26," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 25 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 25 CBTE SOS.txt</v>
       </c>
       <c r="V26" s="2" t="str">
-        <f>CONCATENATE(A26," - ",SUBSTITUTE(D26,"-","")," - ","LIC - ",Q26," - ",B26," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 25 Alicuota SOS.txt</v>
       </c>
       <c r="W26" s="4">
-        <f>ROW(A26)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="X26" s="4">
-        <f>IF(C26=C25,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y26" s="4">
-        <f>IF(C26=C27,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z26" s="5" t="str">
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 26</v>
       </c>
       <c r="C27">
@@ -3668,7 +3668,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 26</v>
       </c>
       <c r="F27" s="3">
@@ -3682,63 +3682,63 @@
         <v>13</v>
       </c>
       <c r="K27" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F27)&amp;"\"&amp;Q27&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L27" s="4" t="str">
-        <f>CONCATENATE(K27,"\",B27,"\","COMVEN LID","\",YEAR(F27),"\",TEXT(MONTH(F27),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 26\COMVEN LID\2023\04\</v>
       </c>
       <c r="M27" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N27" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 26\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N27" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P27" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 26\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O27" s="4" t="str">
-        <f>TEXT(MONTH(F27),"00")&amp;"/"&amp;YEAR(F27)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P27" s="2" t="str">
-        <f>PROPER(TEXT(F27,"mmmm"))&amp;" "&amp;YEAR(F27)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q27" s="2" t="str">
-        <f>YEAR(F27)&amp;TEXT(MONTH(F27),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R27" s="2" t="str">
-        <f>CONCATENATE(TEXT(A27,"0"),"  - ",Q27," - ",SUBSTITUTE(D27,"-","")," - ",B27)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 26</v>
       </c>
       <c r="S27" s="2" t="str">
-        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIV - ",Q27," - ",B27," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 26 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 26 CBTE SOS.txt</v>
       </c>
       <c r="T27" s="2" t="str">
-        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIV - ",Q27," - ",B27," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 26 Alicuota SOS.txt</v>
       </c>
       <c r="U27" s="2" t="str">
-        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIC - ",Q27," - ",B27," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 26 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 26 CBTE SOS.txt</v>
       </c>
       <c r="V27" s="2" t="str">
-        <f>CONCATENATE(A27," - ",SUBSTITUTE(D27,"-","")," - ","LIC - ",Q27," - ",B27," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 26 Alicuota SOS.txt</v>
       </c>
       <c r="W27" s="4">
-        <f>ROW(A27)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="X27" s="4">
-        <f>IF(C27=C26,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y27" s="4">
-        <f>IF(C27=C28,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z27" s="5" t="str">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 27</v>
       </c>
       <c r="C28">
@@ -3770,7 +3770,7 @@
         <v>26</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 27</v>
       </c>
       <c r="F28" s="3">
@@ -3786,63 +3786,63 @@
         <v>13</v>
       </c>
       <c r="K28" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F28)&amp;"\"&amp;Q28&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f>CONCATENATE(K28,"\",B28,"\","COMVEN LID","\",YEAR(F28),"\",TEXT(MONTH(F28),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 27\COMVEN LID\2023\04\</v>
       </c>
       <c r="M28" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N28" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 27\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N28" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P28" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 27\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O28" s="4" t="str">
-        <f>TEXT(MONTH(F28),"00")&amp;"/"&amp;YEAR(F28)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P28" s="2" t="str">
-        <f>PROPER(TEXT(F28,"mmmm"))&amp;" "&amp;YEAR(F28)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q28" s="2" t="str">
-        <f>YEAR(F28)&amp;TEXT(MONTH(F28),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R28" s="2" t="str">
-        <f>CONCATENATE(TEXT(A28,"0"),"  - ",Q28," - ",SUBSTITUTE(D28,"-","")," - ",B28)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 27</v>
       </c>
       <c r="S28" s="2" t="str">
-        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIV - ",Q28," - ",B28," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 27 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 27 CBTE SOS.txt</v>
       </c>
       <c r="T28" s="2" t="str">
-        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIV - ",Q28," - ",B28," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 27 Alicuota SOS.txt</v>
       </c>
       <c r="U28" s="2" t="str">
-        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIC - ",Q28," - ",B28," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 27 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 27 CBTE SOS.txt</v>
       </c>
       <c r="V28" s="2" t="str">
-        <f>CONCATENATE(A28," - ",SUBSTITUTE(D28,"-","")," - ","LIC - ",Q28," - ",B28," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 27 Alicuota SOS.txt</v>
       </c>
       <c r="W28" s="4">
-        <f>ROW(A28)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="X28" s="4">
-        <f>IF(C28=C27,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y28" s="4">
-        <f>IF(C28=C29,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z28" s="5" t="str">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 28</v>
       </c>
       <c r="C29">
@@ -3874,7 +3874,7 @@
         <v>26</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 28</v>
       </c>
       <c r="F29" s="3">
@@ -3888,63 +3888,63 @@
         <v>13</v>
       </c>
       <c r="K29" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F29)&amp;"\"&amp;Q29&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f>CONCATENATE(K29,"\",B29,"\","COMVEN LID","\",YEAR(F29),"\",TEXT(MONTH(F29),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 28\COMVEN LID\2023\04\</v>
       </c>
       <c r="M29" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N29" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 28\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N29" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P29" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 28\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O29" s="4" t="str">
-        <f>TEXT(MONTH(F29),"00")&amp;"/"&amp;YEAR(F29)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P29" s="2" t="str">
-        <f>PROPER(TEXT(F29,"mmmm"))&amp;" "&amp;YEAR(F29)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q29" s="2" t="str">
-        <f>YEAR(F29)&amp;TEXT(MONTH(F29),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R29" s="2" t="str">
-        <f>CONCATENATE(TEXT(A29,"0"),"  - ",Q29," - ",SUBSTITUTE(D29,"-","")," - ",B29)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 28</v>
       </c>
       <c r="S29" s="2" t="str">
-        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIV - ",Q29," - ",B29," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 28 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 28 CBTE SOS.txt</v>
       </c>
       <c r="T29" s="2" t="str">
-        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIV - ",Q29," - ",B29," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 28 Alicuota SOS.txt</v>
       </c>
       <c r="U29" s="2" t="str">
-        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIC - ",Q29," - ",B29," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 28 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 28 CBTE SOS.txt</v>
       </c>
       <c r="V29" s="2" t="str">
-        <f>CONCATENATE(A29," - ",SUBSTITUTE(D29,"-","")," - ","LIC - ",Q29," - ",B29," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 28 Alicuota SOS.txt</v>
       </c>
       <c r="W29" s="4">
-        <f>ROW(A29)</f>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="X29" s="4">
-        <f>IF(C29=C28,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y29" s="4">
-        <f>IF(C29=C30,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z29" s="5" t="str">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 29</v>
       </c>
       <c r="C30">
@@ -3976,7 +3976,7 @@
         <v>26</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 29</v>
       </c>
       <c r="F30" s="3">
@@ -3990,63 +3990,63 @@
         <v>12</v>
       </c>
       <c r="K30" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F30)&amp;"\"&amp;Q30&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f>CONCATENATE(K30,"\",B30,"\","COMVEN LID","\",YEAR(F30),"\",TEXT(MONTH(F30),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 29\COMVEN LID\2023\03\</v>
       </c>
       <c r="M30" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N30" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 29\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
-      </c>
-      <c r="N30" s="4" t="str">
+        <v>03/2023</v>
+      </c>
+      <c r="P30" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 29\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="O30" s="4" t="str">
-        <f>TEXT(MONTH(F30),"00")&amp;"/"&amp;YEAR(F30)</f>
-        <v>03/2023</v>
-      </c>
-      <c r="P30" s="2" t="str">
-        <f>PROPER(TEXT(F30,"mmmm"))&amp;" "&amp;YEAR(F30)</f>
         <v>Marzo 2023</v>
       </c>
       <c r="Q30" s="2" t="str">
-        <f>YEAR(F30)&amp;TEXT(MONTH(F30),"00")</f>
+        <f t="shared" si="5"/>
         <v>202303</v>
       </c>
       <c r="R30" s="2" t="str">
-        <f>CONCATENATE(TEXT(A30,"0"),"  - ",Q30," - ",SUBSTITUTE(D30,"-","")," - ",B30)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 29</v>
       </c>
       <c r="S30" s="2" t="str">
-        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIV - ",Q30," - ",B30," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 29 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 29 CBTE SOS.txt</v>
       </c>
       <c r="T30" s="2" t="str">
-        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIV - ",Q30," - ",B30," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 29 Alicuota SOS.txt</v>
       </c>
       <c r="U30" s="2" t="str">
-        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIC - ",Q30," - ",B30," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 29 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 29 CBTE SOS.txt</v>
       </c>
       <c r="V30" s="2" t="str">
-        <f>CONCATENATE(A30," - ",SUBSTITUTE(D30,"-","")," - ","LIC - ",Q30," - ",B30," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 29 Alicuota SOS.txt</v>
       </c>
       <c r="W30" s="4">
-        <f>ROW(A30)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="X30" s="4">
-        <f>IF(C30=C29,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y30" s="4">
-        <f>IF(C30=C31,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z30" s="5" t="str">
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 30</v>
       </c>
       <c r="C31">
@@ -4078,7 +4078,7 @@
         <v>26</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 30</v>
       </c>
       <c r="F31" s="3">
@@ -4092,63 +4092,63 @@
         <v>13</v>
       </c>
       <c r="K31" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F31)&amp;"\"&amp;Q31&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L31" s="4" t="str">
-        <f>CONCATENATE(K31,"\",B31,"\","COMVEN LID","\",YEAR(F31),"\",TEXT(MONTH(F31),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 30\COMVEN LID\2023\04\</v>
       </c>
       <c r="M31" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N31" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 30\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N31" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P31" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 30\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O31" s="4" t="str">
-        <f>TEXT(MONTH(F31),"00")&amp;"/"&amp;YEAR(F31)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P31" s="2" t="str">
-        <f>PROPER(TEXT(F31,"mmmm"))&amp;" "&amp;YEAR(F31)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q31" s="2" t="str">
-        <f>YEAR(F31)&amp;TEXT(MONTH(F31),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R31" s="2" t="str">
-        <f>CONCATENATE(TEXT(A31,"0"),"  - ",Q31," - ",SUBSTITUTE(D31,"-","")," - ",B31)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 30</v>
       </c>
       <c r="S31" s="2" t="str">
-        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIV - ",Q31," - ",B31," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 30 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 30 CBTE SOS.txt</v>
       </c>
       <c r="T31" s="2" t="str">
-        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIV - ",Q31," - ",B31," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 30 Alicuota SOS.txt</v>
       </c>
       <c r="U31" s="2" t="str">
-        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIC - ",Q31," - ",B31," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 30 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 30 CBTE SOS.txt</v>
       </c>
       <c r="V31" s="2" t="str">
-        <f>CONCATENATE(A31," - ",SUBSTITUTE(D31,"-","")," - ","LIC - ",Q31," - ",B31," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 30 Alicuota SOS.txt</v>
       </c>
       <c r="W31" s="4">
-        <f>ROW(A31)</f>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="X31" s="4">
-        <f>IF(C31=C30,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y31" s="4">
-        <f>IF(C31=C32,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z31" s="5" t="str">
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 31</v>
       </c>
       <c r="C32">
@@ -4180,7 +4180,7 @@
         <v>26</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 31</v>
       </c>
       <c r="F32" s="3">
@@ -4194,63 +4194,63 @@
         <v>12</v>
       </c>
       <c r="K32" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F32)&amp;"\"&amp;Q32&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f>CONCATENATE(K32,"\",B32,"\","COMVEN LID","\",YEAR(F32),"\",TEXT(MONTH(F32),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 31\COMVEN LID\2023\03\</v>
       </c>
       <c r="M32" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
+      </c>
+      <c r="N32" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 31\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="O32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
-      </c>
-      <c r="N32" s="4" t="str">
+        <v>03/2023</v>
+      </c>
+      <c r="P32" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 31\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="O32" s="4" t="str">
-        <f>TEXT(MONTH(F32),"00")&amp;"/"&amp;YEAR(F32)</f>
-        <v>03/2023</v>
-      </c>
-      <c r="P32" s="2" t="str">
-        <f>PROPER(TEXT(F32,"mmmm"))&amp;" "&amp;YEAR(F32)</f>
         <v>Marzo 2023</v>
       </c>
       <c r="Q32" s="2" t="str">
-        <f>YEAR(F32)&amp;TEXT(MONTH(F32),"00")</f>
+        <f t="shared" si="5"/>
         <v>202303</v>
       </c>
       <c r="R32" s="2" t="str">
-        <f>CONCATENATE(TEXT(A32,"0"),"  - ",Q32," - ",SUBSTITUTE(D32,"-","")," - ",B32)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 31</v>
       </c>
       <c r="S32" s="2" t="str">
-        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIV - ",Q32," - ",B32," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 31 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 31 CBTE SOS.txt</v>
       </c>
       <c r="T32" s="2" t="str">
-        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIV - ",Q32," - ",B32," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 31 Alicuota SOS.txt</v>
       </c>
       <c r="U32" s="2" t="str">
-        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIC - ",Q32," - ",B32," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 31 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 31 CBTE SOS.txt</v>
       </c>
       <c r="V32" s="2" t="str">
-        <f>CONCATENATE(A32," - ",SUBSTITUTE(D32,"-","")," - ","LIC - ",Q32," - ",B32," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 31 Alicuota SOS.txt</v>
       </c>
       <c r="W32" s="4">
-        <f>ROW(A32)</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="X32" s="4">
-        <f>IF(C32=C31,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y32" s="4">
-        <f>IF(C32=C33,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z32" s="5" t="str">
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 32</v>
       </c>
       <c r="C33">
@@ -4282,7 +4282,7 @@
         <v>26</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 32</v>
       </c>
       <c r="F33" s="3">
@@ -4296,63 +4296,63 @@
         <v>13</v>
       </c>
       <c r="K33" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F33)&amp;"\"&amp;Q33&amp;"\TXT"</f>
+        <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L33" s="4" t="str">
-        <f>CONCATENATE(K33,"\",B33,"\","COMVEN LID","\",YEAR(F33),"\",TEXT(MONTH(F33),"00"),"\")</f>
+        <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 32\COMVEN LID\2023\04\</v>
       </c>
       <c r="M33" t="str">
+        <f t="shared" si="14"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="N33" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 32\COMVEN LID\2023\04\</v>
+      </c>
+      <c r="O33" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N33" s="4" t="str">
+        <v>04/2023</v>
+      </c>
+      <c r="P33" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 32\COMVEN LID\2023\04\</v>
-      </c>
-      <c r="O33" s="4" t="str">
-        <f>TEXT(MONTH(F33),"00")&amp;"/"&amp;YEAR(F33)</f>
-        <v>04/2023</v>
-      </c>
-      <c r="P33" s="2" t="str">
-        <f>PROPER(TEXT(F33,"mmmm"))&amp;" "&amp;YEAR(F33)</f>
         <v>Abril 2023</v>
       </c>
       <c r="Q33" s="2" t="str">
-        <f>YEAR(F33)&amp;TEXT(MONTH(F33),"00")</f>
+        <f t="shared" si="5"/>
         <v>202304</v>
       </c>
       <c r="R33" s="2" t="str">
-        <f>CONCATENATE(TEXT(A33,"0"),"  - ",Q33," - ",SUBSTITUTE(D33,"-","")," - ",B33)</f>
+        <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 32</v>
       </c>
       <c r="S33" s="2" t="str">
-        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIV - ",Q33," - ",B33," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 CBTE SOS.txt</v>
       </c>
       <c r="T33" s="2" t="str">
-        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIV - ",Q33," - ",B33," Alicuota SOS.txt")</f>
+        <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
       </c>
       <c r="U33" s="2" t="str">
-        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIC - ",Q33," - ",B33," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 CBTE SOS.txt</v>
       </c>
       <c r="V33" s="2" t="str">
-        <f>CONCATENATE(A33," - ",SUBSTITUTE(D33,"-","")," - ","LIC - ",Q33," - ",B33," Alicuota SOS.txt")</f>
+        <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
       </c>
       <c r="W33" s="4">
-        <f>ROW(A33)</f>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="X33" s="4">
-        <f>IF(C33=C32,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y33" s="4">
-        <f>IF(C33=C34,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z33" s="5" t="str">
@@ -4370,11 +4370,11 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A63" si="5">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A63" si="18">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 33</v>
       </c>
       <c r="C34">
@@ -4384,7 +4384,7 @@
         <v>26</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 33</v>
       </c>
       <c r="F34" s="3">
@@ -4398,63 +4398,63 @@
         <v>12</v>
       </c>
       <c r="K34" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F34)&amp;"\"&amp;Q34&amp;"\TXT"</f>
+        <f t="shared" ref="K34:K63" si="19">"F:\Libros Compras y Ventas\"&amp;YEAR(F34)&amp;"\"&amp;Q34&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L34" s="4" t="str">
-        <f>CONCATENATE(K34,"\",B34,"\","COMVEN LID","\",YEAR(F34),"\",TEXT(MONTH(F34),"00"),"\")</f>
+        <f t="shared" ref="L34:L65" si="20">CONCATENATE(K34,"\",B34,"\","COMVEN LID","\",YEAR(F34),"\",TEXT(MONTH(F34),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 33\COMVEN LID\2023\03\</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="N34" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 33\COMVEN LID\2023\03\</v>
       </c>
       <c r="O34" s="4" t="str">
-        <f>TEXT(MONTH(F34),"00")&amp;"/"&amp;YEAR(F34)</f>
+        <f t="shared" ref="O34:O63" si="21">TEXT(MONTH(F34),"00")&amp;"/"&amp;YEAR(F34)</f>
         <v>03/2023</v>
       </c>
       <c r="P34" s="2" t="str">
-        <f>PROPER(TEXT(F34,"mmmm"))&amp;" "&amp;YEAR(F34)</f>
+        <f t="shared" ref="P34:P63" si="22">PROPER(TEXT(F34,"mmmm"))&amp;" "&amp;YEAR(F34)</f>
         <v>Marzo 2023</v>
       </c>
       <c r="Q34" s="2" t="str">
-        <f>YEAR(F34)&amp;TEXT(MONTH(F34),"00")</f>
+        <f t="shared" ref="Q34:Q63" si="23">YEAR(F34)&amp;TEXT(MONTH(F34),"00")</f>
         <v>202303</v>
       </c>
       <c r="R34" s="2" t="str">
-        <f>CONCATENATE(TEXT(A34,"0"),"  - ",Q34," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
+        <f t="shared" ref="R34:R65" si="24">CONCATENATE(TEXT(A34,"0"),"  - ",Q34," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 33</v>
       </c>
       <c r="S34" s="2" t="str">
-        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",Q34," - ",B34," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 33 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 33 CBTE SOS.txt</v>
       </c>
       <c r="T34" s="2" t="str">
-        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",Q34," - ",B34," Alicuota SOS.txt")</f>
+        <f t="shared" ref="T34:T63" si="25">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",Q34," - ",B34," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 33 Alicuota SOS.txt</v>
       </c>
       <c r="U34" s="2" t="str">
-        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",Q34," - ",B34," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 33 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 33 CBTE SOS.txt</v>
       </c>
       <c r="V34" s="2" t="str">
-        <f>CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",Q34," - ",B34," Alicuota SOS.txt")</f>
+        <f t="shared" ref="V34:V63" si="26">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",Q34," - ",B34," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 33 Alicuota SOS.txt</v>
       </c>
       <c r="W34" s="4">
-        <f t="shared" ref="W34:W63" si="6">ROW(A34)</f>
+        <f t="shared" ref="W34:W63" si="27">ROW(A34)</f>
         <v>34</v>
       </c>
       <c r="X34" s="4">
-        <f t="shared" ref="X34:X63" si="7">IF(C34=C33,1,0)</f>
+        <f t="shared" ref="X34:X63" si="28">IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="Y34" s="4">
-        <f t="shared" ref="Y34:Y63" si="8">IF(C34=C35,1,0)</f>
+        <f t="shared" ref="Y34:Y63" si="29">IF(C34=C35,1,0)</f>
         <v>1</v>
       </c>
       <c r="Z34" s="5" t="str">
@@ -4472,11 +4472,11 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 34</v>
       </c>
       <c r="C35">
@@ -4486,7 +4486,7 @@
         <v>26</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 34</v>
       </c>
       <c r="F35" s="3">
@@ -4500,63 +4500,63 @@
         <v>13</v>
       </c>
       <c r="K35" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F35)&amp;"\"&amp;Q35&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L35" s="4" t="str">
-        <f>CONCATENATE(K35,"\",B35,"\","COMVEN LID","\",YEAR(F35),"\",TEXT(MONTH(F35),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 34\COMVEN LID\2023\04\</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N35" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 34\COMVEN LID\2023\04\</v>
       </c>
       <c r="O35" s="4" t="str">
-        <f>TEXT(MONTH(F35),"00")&amp;"/"&amp;YEAR(F35)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P35" s="2" t="str">
-        <f>PROPER(TEXT(F35,"mmmm"))&amp;" "&amp;YEAR(F35)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q35" s="2" t="str">
-        <f>YEAR(F35)&amp;TEXT(MONTH(F35),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R35" s="2" t="str">
-        <f>CONCATENATE(TEXT(A35,"0"),"  - ",Q35," - ",SUBSTITUTE(D35,"-","")," - ",B35)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 34</v>
       </c>
       <c r="S35" s="2" t="str">
-        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIV - ",Q35," - ",B35," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 34 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 34 CBTE SOS.txt</v>
       </c>
       <c r="T35" s="2" t="str">
-        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIV - ",Q35," - ",B35," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 34 Alicuota SOS.txt</v>
       </c>
       <c r="U35" s="2" t="str">
-        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIC - ",Q35," - ",B35," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 34 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 34 CBTE SOS.txt</v>
       </c>
       <c r="V35" s="2" t="str">
-        <f>CONCATENATE(A35," - ",SUBSTITUTE(D35,"-","")," - ","LIC - ",Q35," - ",B35," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 34 Alicuota SOS.txt</v>
       </c>
       <c r="W35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>35</v>
       </c>
       <c r="X35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z35" s="5" t="str">
@@ -4574,11 +4574,11 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 35</v>
       </c>
       <c r="C36">
@@ -4588,7 +4588,7 @@
         <v>26</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 35</v>
       </c>
       <c r="F36" s="3">
@@ -4604,63 +4604,63 @@
         <v>13</v>
       </c>
       <c r="K36" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F36)&amp;"\"&amp;Q36&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L36" s="4" t="str">
-        <f>CONCATENATE(K36,"\",B36,"\","COMVEN LID","\",YEAR(F36),"\",TEXT(MONTH(F36),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 35\COMVEN LID\2023\04\</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N36" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 35\COMVEN LID\2023\04\</v>
       </c>
       <c r="O36" s="4" t="str">
-        <f>TEXT(MONTH(F36),"00")&amp;"/"&amp;YEAR(F36)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P36" s="2" t="str">
-        <f>PROPER(TEXT(F36,"mmmm"))&amp;" "&amp;YEAR(F36)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q36" s="2" t="str">
-        <f>YEAR(F36)&amp;TEXT(MONTH(F36),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R36" s="2" t="str">
-        <f>CONCATENATE(TEXT(A36,"0"),"  - ",Q36," - ",SUBSTITUTE(D36,"-","")," - ",B36)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 35</v>
       </c>
       <c r="S36" s="2" t="str">
-        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIV - ",Q36," - ",B36," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 35 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 35 CBTE SOS.txt</v>
       </c>
       <c r="T36" s="2" t="str">
-        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIV - ",Q36," - ",B36," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 35 Alicuota SOS.txt</v>
       </c>
       <c r="U36" s="2" t="str">
-        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIC - ",Q36," - ",B36," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 35 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 35 CBTE SOS.txt</v>
       </c>
       <c r="V36" s="2" t="str">
-        <f>CONCATENATE(A36," - ",SUBSTITUTE(D36,"-","")," - ","LIC - ",Q36," - ",B36," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 35 Alicuota SOS.txt</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>36</v>
       </c>
       <c r="X36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z36" s="5" t="str">
@@ -4678,11 +4678,11 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 36</v>
       </c>
       <c r="C37">
@@ -4692,7 +4692,7 @@
         <v>26</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 36</v>
       </c>
       <c r="F37" s="3">
@@ -4706,63 +4706,63 @@
         <v>13</v>
       </c>
       <c r="K37" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F37)&amp;"\"&amp;Q37&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f>CONCATENATE(K37,"\",B37,"\","COMVEN LID","\",YEAR(F37),"\",TEXT(MONTH(F37),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 36\COMVEN LID\2023\04\</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N37" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 36\COMVEN LID\2023\04\</v>
       </c>
       <c r="O37" s="4" t="str">
-        <f>TEXT(MONTH(F37),"00")&amp;"/"&amp;YEAR(F37)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P37" s="2" t="str">
-        <f>PROPER(TEXT(F37,"mmmm"))&amp;" "&amp;YEAR(F37)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q37" s="2" t="str">
-        <f>YEAR(F37)&amp;TEXT(MONTH(F37),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R37" s="2" t="str">
-        <f>CONCATENATE(TEXT(A37,"0"),"  - ",Q37," - ",SUBSTITUTE(D37,"-","")," - ",B37)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 36</v>
       </c>
       <c r="S37" s="2" t="str">
-        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIV - ",Q37," - ",B37," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 36 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 36 CBTE SOS.txt</v>
       </c>
       <c r="T37" s="2" t="str">
-        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIV - ",Q37," - ",B37," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 36 Alicuota SOS.txt</v>
       </c>
       <c r="U37" s="2" t="str">
-        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIC - ",Q37," - ",B37," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 36 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 36 CBTE SOS.txt</v>
       </c>
       <c r="V37" s="2" t="str">
-        <f>CONCATENATE(A37," - ",SUBSTITUTE(D37,"-","")," - ","LIC - ",Q37," - ",B37," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 36 Alicuota SOS.txt</v>
       </c>
       <c r="W37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>37</v>
       </c>
       <c r="X37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z37" s="5" t="str">
@@ -4780,11 +4780,11 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 37</v>
       </c>
       <c r="C38">
@@ -4794,7 +4794,7 @@
         <v>26</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 37</v>
       </c>
       <c r="F38" s="3">
@@ -4808,63 +4808,63 @@
         <v>13</v>
       </c>
       <c r="K38" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F38)&amp;"\"&amp;Q38&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f>CONCATENATE(K38,"\",B38,"\","COMVEN LID","\",YEAR(F38),"\",TEXT(MONTH(F38),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 37\COMVEN LID\2023\04\</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N38" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 37\COMVEN LID\2023\04\</v>
       </c>
       <c r="O38" s="4" t="str">
-        <f>TEXT(MONTH(F38),"00")&amp;"/"&amp;YEAR(F38)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P38" s="2" t="str">
-        <f>PROPER(TEXT(F38,"mmmm"))&amp;" "&amp;YEAR(F38)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q38" s="2" t="str">
-        <f>YEAR(F38)&amp;TEXT(MONTH(F38),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R38" s="2" t="str">
-        <f>CONCATENATE(TEXT(A38,"0"),"  - ",Q38," - ",SUBSTITUTE(D38,"-","")," - ",B38)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 37</v>
       </c>
       <c r="S38" s="2" t="str">
-        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIV - ",Q38," - ",B38," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 37 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 37 CBTE SOS.txt</v>
       </c>
       <c r="T38" s="2" t="str">
-        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIV - ",Q38," - ",B38," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 37 Alicuota SOS.txt</v>
       </c>
       <c r="U38" s="2" t="str">
-        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIC - ",Q38," - ",B38," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 37 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 37 CBTE SOS.txt</v>
       </c>
       <c r="V38" s="2" t="str">
-        <f>CONCATENATE(A38," - ",SUBSTITUTE(D38,"-","")," - ","LIC - ",Q38," - ",B38," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 37 Alicuota SOS.txt</v>
       </c>
       <c r="W38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="X38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z38" s="5" t="str">
@@ -4882,11 +4882,11 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 38</v>
       </c>
       <c r="C39">
@@ -4896,7 +4896,7 @@
         <v>26</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 38</v>
       </c>
       <c r="F39" s="3">
@@ -4912,63 +4912,63 @@
         <v>13</v>
       </c>
       <c r="K39" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F39)&amp;"\"&amp;Q39&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L39" s="4" t="str">
-        <f>CONCATENATE(K39,"\",B39,"\","COMVEN LID","\",YEAR(F39),"\",TEXT(MONTH(F39),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 38\COMVEN LID\2023\04\</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N39" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 38\COMVEN LID\2023\04\</v>
       </c>
       <c r="O39" s="4" t="str">
-        <f>TEXT(MONTH(F39),"00")&amp;"/"&amp;YEAR(F39)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P39" s="2" t="str">
-        <f>PROPER(TEXT(F39,"mmmm"))&amp;" "&amp;YEAR(F39)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q39" s="2" t="str">
-        <f>YEAR(F39)&amp;TEXT(MONTH(F39),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R39" s="2" t="str">
-        <f>CONCATENATE(TEXT(A39,"0"),"  - ",Q39," - ",SUBSTITUTE(D39,"-","")," - ",B39)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 38</v>
       </c>
       <c r="S39" s="2" t="str">
-        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIV - ",Q39," - ",B39," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 38 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 38 CBTE SOS.txt</v>
       </c>
       <c r="T39" s="2" t="str">
-        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIV - ",Q39," - ",B39," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 38 Alicuota SOS.txt</v>
       </c>
       <c r="U39" s="2" t="str">
-        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIC - ",Q39," - ",B39," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 38 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 38 CBTE SOS.txt</v>
       </c>
       <c r="V39" s="2" t="str">
-        <f>CONCATENATE(A39," - ",SUBSTITUTE(D39,"-","")," - ","LIC - ",Q39," - ",B39," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 38 Alicuota SOS.txt</v>
       </c>
       <c r="W39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>39</v>
       </c>
       <c r="X39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y39" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z39" s="5" t="str">
@@ -4986,11 +4986,11 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 39</v>
       </c>
       <c r="C40">
@@ -5000,7 +5000,7 @@
         <v>26</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 39</v>
       </c>
       <c r="F40" s="3">
@@ -5014,63 +5014,63 @@
         <v>13</v>
       </c>
       <c r="K40" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F40)&amp;"\"&amp;Q40&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L40" s="4" t="str">
-        <f>CONCATENATE(K40,"\",B40,"\","COMVEN LID","\",YEAR(F40),"\",TEXT(MONTH(F40),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 39\COMVEN LID\2023\04\</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N40" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 39\COMVEN LID\2023\04\</v>
       </c>
       <c r="O40" s="4" t="str">
-        <f>TEXT(MONTH(F40),"00")&amp;"/"&amp;YEAR(F40)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P40" s="2" t="str">
-        <f>PROPER(TEXT(F40,"mmmm"))&amp;" "&amp;YEAR(F40)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q40" s="2" t="str">
-        <f>YEAR(F40)&amp;TEXT(MONTH(F40),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R40" s="2" t="str">
-        <f>CONCATENATE(TEXT(A40,"0"),"  - ",Q40," - ",SUBSTITUTE(D40,"-","")," - ",B40)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 39</v>
       </c>
       <c r="S40" s="2" t="str">
-        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIV - ",Q40," - ",B40," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 39 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 39 CBTE SOS.txt</v>
       </c>
       <c r="T40" s="2" t="str">
-        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIV - ",Q40," - ",B40," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 39 Alicuota SOS.txt</v>
       </c>
       <c r="U40" s="2" t="str">
-        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIC - ",Q40," - ",B40," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 39 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 39 CBTE SOS.txt</v>
       </c>
       <c r="V40" s="2" t="str">
-        <f>CONCATENATE(A40," - ",SUBSTITUTE(D40,"-","")," - ","LIC - ",Q40," - ",B40," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 39 Alicuota SOS.txt</v>
       </c>
       <c r="W40" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>40</v>
       </c>
       <c r="X40" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y40" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z40" s="5" t="str">
@@ -5088,11 +5088,11 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 40</v>
       </c>
       <c r="C41">
@@ -5102,7 +5102,7 @@
         <v>26</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 40</v>
       </c>
       <c r="F41" s="3">
@@ -5116,63 +5116,63 @@
         <v>13</v>
       </c>
       <c r="K41" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F41)&amp;"\"&amp;Q41&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L41" s="4" t="str">
-        <f>CONCATENATE(K41,"\",B41,"\","COMVEN LID","\",YEAR(F41),"\",TEXT(MONTH(F41),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 40\COMVEN LID\2023\04\</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N41" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 40\COMVEN LID\2023\04\</v>
       </c>
       <c r="O41" s="4" t="str">
-        <f>TEXT(MONTH(F41),"00")&amp;"/"&amp;YEAR(F41)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P41" s="2" t="str">
-        <f>PROPER(TEXT(F41,"mmmm"))&amp;" "&amp;YEAR(F41)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q41" s="2" t="str">
-        <f>YEAR(F41)&amp;TEXT(MONTH(F41),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R41" s="2" t="str">
-        <f>CONCATENATE(TEXT(A41,"0"),"  - ",Q41," - ",SUBSTITUTE(D41,"-","")," - ",B41)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 40</v>
       </c>
       <c r="S41" s="2" t="str">
-        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIV - ",Q41," - ",B41," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 40 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 40 CBTE SOS.txt</v>
       </c>
       <c r="T41" s="2" t="str">
-        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIV - ",Q41," - ",B41," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 40 Alicuota SOS.txt</v>
       </c>
       <c r="U41" s="2" t="str">
-        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIC - ",Q41," - ",B41," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 40 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 40 CBTE SOS.txt</v>
       </c>
       <c r="V41" s="2" t="str">
-        <f>CONCATENATE(A41," - ",SUBSTITUTE(D41,"-","")," - ","LIC - ",Q41," - ",B41," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 40 Alicuota SOS.txt</v>
       </c>
       <c r="W41" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>41</v>
       </c>
       <c r="X41" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y41" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z41" s="5" t="str">
@@ -5190,11 +5190,11 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 41</v>
       </c>
       <c r="C42">
@@ -5204,7 +5204,7 @@
         <v>26</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 41</v>
       </c>
       <c r="F42" s="3">
@@ -5220,63 +5220,63 @@
         <v>13</v>
       </c>
       <c r="K42" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F42)&amp;"\"&amp;Q42&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L42" s="4" t="str">
-        <f>CONCATENATE(K42,"\",B42,"\","COMVEN LID","\",YEAR(F42),"\",TEXT(MONTH(F42),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 41\COMVEN LID\2023\04\</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N42" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 41\COMVEN LID\2023\04\</v>
       </c>
       <c r="O42" s="4" t="str">
-        <f>TEXT(MONTH(F42),"00")&amp;"/"&amp;YEAR(F42)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P42" s="2" t="str">
-        <f>PROPER(TEXT(F42,"mmmm"))&amp;" "&amp;YEAR(F42)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q42" s="2" t="str">
-        <f>YEAR(F42)&amp;TEXT(MONTH(F42),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R42" s="2" t="str">
-        <f>CONCATENATE(TEXT(A42,"0"),"  - ",Q42," - ",SUBSTITUTE(D42,"-","")," - ",B42)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 41</v>
       </c>
       <c r="S42" s="2" t="str">
-        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIV - ",Q42," - ",B42," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 41 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 41 CBTE SOS.txt</v>
       </c>
       <c r="T42" s="2" t="str">
-        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIV - ",Q42," - ",B42," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 41 Alicuota SOS.txt</v>
       </c>
       <c r="U42" s="2" t="str">
-        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIC - ",Q42," - ",B42," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 41 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 41 CBTE SOS.txt</v>
       </c>
       <c r="V42" s="2" t="str">
-        <f>CONCATENATE(A42," - ",SUBSTITUTE(D42,"-","")," - ","LIC - ",Q42," - ",B42," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 41 Alicuota SOS.txt</v>
       </c>
       <c r="W42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
       <c r="X42" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y42" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z42" s="5" t="str">
@@ -5294,11 +5294,11 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 42</v>
       </c>
       <c r="C43">
@@ -5308,7 +5308,7 @@
         <v>26</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 42</v>
       </c>
       <c r="F43" s="3">
@@ -5322,63 +5322,63 @@
         <v>12</v>
       </c>
       <c r="K43" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F43)&amp;"\"&amp;Q43&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L43" s="4" t="str">
-        <f>CONCATENATE(K43,"\",B43,"\","COMVEN LID","\",YEAR(F43),"\",TEXT(MONTH(F43),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 42\COMVEN LID\2023\03\</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="N43" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 42\COMVEN LID\2023\03\</v>
       </c>
       <c r="O43" s="4" t="str">
-        <f>TEXT(MONTH(F43),"00")&amp;"/"&amp;YEAR(F43)</f>
+        <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
       <c r="P43" s="2" t="str">
-        <f>PROPER(TEXT(F43,"mmmm"))&amp;" "&amp;YEAR(F43)</f>
+        <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
       <c r="Q43" s="2" t="str">
-        <f>YEAR(F43)&amp;TEXT(MONTH(F43),"00")</f>
+        <f t="shared" si="23"/>
         <v>202303</v>
       </c>
       <c r="R43" s="2" t="str">
-        <f>CONCATENATE(TEXT(A43,"0"),"  - ",Q43," - ",SUBSTITUTE(D43,"-","")," - ",B43)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 42</v>
       </c>
       <c r="S43" s="2" t="str">
-        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIV - ",Q43," - ",B43," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 42 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 42 CBTE SOS.txt</v>
       </c>
       <c r="T43" s="2" t="str">
-        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIV - ",Q43," - ",B43," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 42 Alicuota SOS.txt</v>
       </c>
       <c r="U43" s="2" t="str">
-        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIC - ",Q43," - ",B43," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 42 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 42 CBTE SOS.txt</v>
       </c>
       <c r="V43" s="2" t="str">
-        <f>CONCATENATE(A43," - ",SUBSTITUTE(D43,"-","")," - ","LIC - ",Q43," - ",B43," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 42 Alicuota SOS.txt</v>
       </c>
       <c r="W43" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>43</v>
       </c>
       <c r="X43" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y43" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z43" s="5" t="str">
@@ -5396,11 +5396,11 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 43</v>
       </c>
       <c r="C44">
@@ -5410,7 +5410,7 @@
         <v>26</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 43</v>
       </c>
       <c r="F44" s="3">
@@ -5424,63 +5424,63 @@
         <v>12</v>
       </c>
       <c r="K44" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F44)&amp;"\"&amp;Q44&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L44" s="4" t="str">
-        <f>CONCATENATE(K44,"\",B44,"\","COMVEN LID","\",YEAR(F44),"\",TEXT(MONTH(F44),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 43\COMVEN LID\2023\03\</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="N44" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 43\COMVEN LID\2023\03\</v>
       </c>
       <c r="O44" s="4" t="str">
-        <f>TEXT(MONTH(F44),"00")&amp;"/"&amp;YEAR(F44)</f>
+        <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
       <c r="P44" s="2" t="str">
-        <f>PROPER(TEXT(F44,"mmmm"))&amp;" "&amp;YEAR(F44)</f>
+        <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
       <c r="Q44" s="2" t="str">
-        <f>YEAR(F44)&amp;TEXT(MONTH(F44),"00")</f>
+        <f t="shared" si="23"/>
         <v>202303</v>
       </c>
       <c r="R44" s="2" t="str">
-        <f>CONCATENATE(TEXT(A44,"0"),"  - ",Q44," - ",SUBSTITUTE(D44,"-","")," - ",B44)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 43</v>
       </c>
       <c r="S44" s="2" t="str">
-        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIV - ",Q44," - ",B44," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 43 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 43 CBTE SOS.txt</v>
       </c>
       <c r="T44" s="2" t="str">
-        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIV - ",Q44," - ",B44," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 43 Alicuota SOS.txt</v>
       </c>
       <c r="U44" s="2" t="str">
-        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIC - ",Q44," - ",B44," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 43 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 43 CBTE SOS.txt</v>
       </c>
       <c r="V44" s="2" t="str">
-        <f>CONCATENATE(A44," - ",SUBSTITUTE(D44,"-","")," - ","LIC - ",Q44," - ",B44," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 43 Alicuota SOS.txt</v>
       </c>
       <c r="W44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>44</v>
       </c>
       <c r="X44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y44" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z44" s="5" t="str">
@@ -5498,11 +5498,11 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 44</v>
       </c>
       <c r="C45">
@@ -5512,7 +5512,7 @@
         <v>26</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 44</v>
       </c>
       <c r="F45" s="3">
@@ -5526,63 +5526,63 @@
         <v>13</v>
       </c>
       <c r="K45" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F45)&amp;"\"&amp;Q45&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L45" s="4" t="str">
-        <f>CONCATENATE(K45,"\",B45,"\","COMVEN LID","\",YEAR(F45),"\",TEXT(MONTH(F45),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 44\COMVEN LID\2023\04\</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N45" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 44\COMVEN LID\2023\04\</v>
       </c>
       <c r="O45" s="4" t="str">
-        <f>TEXT(MONTH(F45),"00")&amp;"/"&amp;YEAR(F45)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P45" s="2" t="str">
-        <f>PROPER(TEXT(F45,"mmmm"))&amp;" "&amp;YEAR(F45)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q45" s="2" t="str">
-        <f>YEAR(F45)&amp;TEXT(MONTH(F45),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R45" s="2" t="str">
-        <f>CONCATENATE(TEXT(A45,"0"),"  - ",Q45," - ",SUBSTITUTE(D45,"-","")," - ",B45)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 44</v>
       </c>
       <c r="S45" s="2" t="str">
-        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIV - ",Q45," - ",B45," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 44 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 44 CBTE SOS.txt</v>
       </c>
       <c r="T45" s="2" t="str">
-        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIV - ",Q45," - ",B45," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 44 Alicuota SOS.txt</v>
       </c>
       <c r="U45" s="2" t="str">
-        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIC - ",Q45," - ",B45," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 44 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 44 CBTE SOS.txt</v>
       </c>
       <c r="V45" s="2" t="str">
-        <f>CONCATENATE(A45," - ",SUBSTITUTE(D45,"-","")," - ","LIC - ",Q45," - ",B45," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 44 Alicuota SOS.txt</v>
       </c>
       <c r="W45" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
       <c r="X45" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z45" s="5" t="str">
@@ -5600,11 +5600,11 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 45</v>
       </c>
       <c r="C46">
@@ -5614,7 +5614,7 @@
         <v>26</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 45</v>
       </c>
       <c r="F46" s="3">
@@ -5628,63 +5628,63 @@
         <v>13</v>
       </c>
       <c r="K46" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F46)&amp;"\"&amp;Q46&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L46" s="4" t="str">
-        <f>CONCATENATE(K46,"\",B46,"\","COMVEN LID","\",YEAR(F46),"\",TEXT(MONTH(F46),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 45\COMVEN LID\2023\04\</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N46" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 45\COMVEN LID\2023\04\</v>
       </c>
       <c r="O46" s="4" t="str">
-        <f>TEXT(MONTH(F46),"00")&amp;"/"&amp;YEAR(F46)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P46" s="2" t="str">
-        <f>PROPER(TEXT(F46,"mmmm"))&amp;" "&amp;YEAR(F46)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q46" s="2" t="str">
-        <f>YEAR(F46)&amp;TEXT(MONTH(F46),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R46" s="2" t="str">
-        <f>CONCATENATE(TEXT(A46,"0"),"  - ",Q46," - ",SUBSTITUTE(D46,"-","")," - ",B46)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 45</v>
       </c>
       <c r="S46" s="2" t="str">
-        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIV - ",Q46," - ",B46," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 45 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 45 CBTE SOS.txt</v>
       </c>
       <c r="T46" s="2" t="str">
-        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIV - ",Q46," - ",B46," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 45 Alicuota SOS.txt</v>
       </c>
       <c r="U46" s="2" t="str">
-        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIC - ",Q46," - ",B46," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 45 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 45 CBTE SOS.txt</v>
       </c>
       <c r="V46" s="2" t="str">
-        <f>CONCATENATE(A46," - ",SUBSTITUTE(D46,"-","")," - ","LIC - ",Q46," - ",B46," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 45 Alicuota SOS.txt</v>
       </c>
       <c r="W46" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>46</v>
       </c>
       <c r="X46" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z46" s="5" t="str">
@@ -5702,11 +5702,11 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 46</v>
       </c>
       <c r="C47">
@@ -5716,7 +5716,7 @@
         <v>26</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 46</v>
       </c>
       <c r="F47" s="3">
@@ -5730,63 +5730,63 @@
         <v>12</v>
       </c>
       <c r="K47" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F47)&amp;"\"&amp;Q47&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L47" s="4" t="str">
-        <f>CONCATENATE(K47,"\",B47,"\","COMVEN LID","\",YEAR(F47),"\",TEXT(MONTH(F47),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 46\COMVEN LID\2023\03\</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="N47" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 46\COMVEN LID\2023\03\</v>
       </c>
       <c r="O47" s="4" t="str">
-        <f>TEXT(MONTH(F47),"00")&amp;"/"&amp;YEAR(F47)</f>
+        <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
       <c r="P47" s="2" t="str">
-        <f>PROPER(TEXT(F47,"mmmm"))&amp;" "&amp;YEAR(F47)</f>
+        <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
       <c r="Q47" s="2" t="str">
-        <f>YEAR(F47)&amp;TEXT(MONTH(F47),"00")</f>
+        <f t="shared" si="23"/>
         <v>202303</v>
       </c>
       <c r="R47" s="2" t="str">
-        <f>CONCATENATE(TEXT(A47,"0"),"  - ",Q47," - ",SUBSTITUTE(D47,"-","")," - ",B47)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 46</v>
       </c>
       <c r="S47" s="2" t="str">
-        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIV - ",Q47," - ",B47," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 46 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 46 CBTE SOS.txt</v>
       </c>
       <c r="T47" s="2" t="str">
-        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIV - ",Q47," - ",B47," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 46 Alicuota SOS.txt</v>
       </c>
       <c r="U47" s="2" t="str">
-        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIC - ",Q47," - ",B47," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 46 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 46 CBTE SOS.txt</v>
       </c>
       <c r="V47" s="2" t="str">
-        <f>CONCATENATE(A47," - ",SUBSTITUTE(D47,"-","")," - ","LIC - ",Q47," - ",B47," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 46 Alicuota SOS.txt</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>47</v>
       </c>
       <c r="X47" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z47" s="5" t="str">
@@ -5804,11 +5804,11 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 47</v>
       </c>
       <c r="C48">
@@ -5818,7 +5818,7 @@
         <v>26</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 47</v>
       </c>
       <c r="F48" s="3">
@@ -5832,63 +5832,63 @@
         <v>13</v>
       </c>
       <c r="K48" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F48)&amp;"\"&amp;Q48&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L48" s="4" t="str">
-        <f>CONCATENATE(K48,"\",B48,"\","COMVEN LID","\",YEAR(F48),"\",TEXT(MONTH(F48),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 47\COMVEN LID\2023\04\</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N48" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 47\COMVEN LID\2023\04\</v>
       </c>
       <c r="O48" s="4" t="str">
-        <f>TEXT(MONTH(F48),"00")&amp;"/"&amp;YEAR(F48)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P48" s="2" t="str">
-        <f>PROPER(TEXT(F48,"mmmm"))&amp;" "&amp;YEAR(F48)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q48" s="2" t="str">
-        <f>YEAR(F48)&amp;TEXT(MONTH(F48),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R48" s="2" t="str">
-        <f>CONCATENATE(TEXT(A48,"0"),"  - ",Q48," - ",SUBSTITUTE(D48,"-","")," - ",B48)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 47</v>
       </c>
       <c r="S48" s="2" t="str">
-        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIV - ",Q48," - ",B48," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 47 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 47 CBTE SOS.txt</v>
       </c>
       <c r="T48" s="2" t="str">
-        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIV - ",Q48," - ",B48," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 47 Alicuota SOS.txt</v>
       </c>
       <c r="U48" s="2" t="str">
-        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIC - ",Q48," - ",B48," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 47 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 47 CBTE SOS.txt</v>
       </c>
       <c r="V48" s="2" t="str">
-        <f>CONCATENATE(A48," - ",SUBSTITUTE(D48,"-","")," - ","LIC - ",Q48," - ",B48," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 47 Alicuota SOS.txt</v>
       </c>
       <c r="W48" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>48</v>
       </c>
       <c r="X48" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z48" s="5" t="str">
@@ -5906,11 +5906,11 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 48</v>
       </c>
       <c r="C49">
@@ -5920,7 +5920,7 @@
         <v>26</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 48</v>
       </c>
       <c r="F49" s="3">
@@ -5934,63 +5934,63 @@
         <v>13</v>
       </c>
       <c r="K49" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F49)&amp;"\"&amp;Q49&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L49" s="4" t="str">
-        <f>CONCATENATE(K49,"\",B49,"\","COMVEN LID","\",YEAR(F49),"\",TEXT(MONTH(F49),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 48\COMVEN LID\2023\04\</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N49" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 48\COMVEN LID\2023\04\</v>
       </c>
       <c r="O49" s="4" t="str">
-        <f>TEXT(MONTH(F49),"00")&amp;"/"&amp;YEAR(F49)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P49" s="2" t="str">
-        <f>PROPER(TEXT(F49,"mmmm"))&amp;" "&amp;YEAR(F49)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q49" s="2" t="str">
-        <f>YEAR(F49)&amp;TEXT(MONTH(F49),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R49" s="2" t="str">
-        <f>CONCATENATE(TEXT(A49,"0"),"  - ",Q49," - ",SUBSTITUTE(D49,"-","")," - ",B49)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 48</v>
       </c>
       <c r="S49" s="2" t="str">
-        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIV - ",Q49," - ",B49," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 48 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 48 CBTE SOS.txt</v>
       </c>
       <c r="T49" s="2" t="str">
-        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIV - ",Q49," - ",B49," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 48 Alicuota SOS.txt</v>
       </c>
       <c r="U49" s="2" t="str">
-        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIC - ",Q49," - ",B49," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 48 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 48 CBTE SOS.txt</v>
       </c>
       <c r="V49" s="2" t="str">
-        <f>CONCATENATE(A49," - ",SUBSTITUTE(D49,"-","")," - ","LIC - ",Q49," - ",B49," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 48 Alicuota SOS.txt</v>
       </c>
       <c r="W49" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>49</v>
       </c>
       <c r="X49" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y49" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z49" s="5" t="str">
@@ -6008,11 +6008,11 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 49</v>
       </c>
       <c r="C50">
@@ -6022,7 +6022,7 @@
         <v>26</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 49</v>
       </c>
       <c r="F50" s="3">
@@ -6036,63 +6036,63 @@
         <v>12</v>
       </c>
       <c r="K50" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F50)&amp;"\"&amp;Q50&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L50" s="4" t="str">
-        <f>CONCATENATE(K50,"\",B50,"\","COMVEN LID","\",YEAR(F50),"\",TEXT(MONTH(F50),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 49\COMVEN LID\2023\03\</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="N50" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 49\COMVEN LID\2023\03\</v>
       </c>
       <c r="O50" s="4" t="str">
-        <f>TEXT(MONTH(F50),"00")&amp;"/"&amp;YEAR(F50)</f>
+        <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
       <c r="P50" s="2" t="str">
-        <f>PROPER(TEXT(F50,"mmmm"))&amp;" "&amp;YEAR(F50)</f>
+        <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
       <c r="Q50" s="2" t="str">
-        <f>YEAR(F50)&amp;TEXT(MONTH(F50),"00")</f>
+        <f t="shared" si="23"/>
         <v>202303</v>
       </c>
       <c r="R50" s="2" t="str">
-        <f>CONCATENATE(TEXT(A50,"0"),"  - ",Q50," - ",SUBSTITUTE(D50,"-","")," - ",B50)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 49</v>
       </c>
       <c r="S50" s="2" t="str">
-        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIV - ",Q50," - ",B50," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 49 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 49 CBTE SOS.txt</v>
       </c>
       <c r="T50" s="2" t="str">
-        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIV - ",Q50," - ",B50," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 49 Alicuota SOS.txt</v>
       </c>
       <c r="U50" s="2" t="str">
-        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIC - ",Q50," - ",B50," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 49 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 49 CBTE SOS.txt</v>
       </c>
       <c r="V50" s="2" t="str">
-        <f>CONCATENATE(A50," - ",SUBSTITUTE(D50,"-","")," - ","LIC - ",Q50," - ",B50," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 49 Alicuota SOS.txt</v>
       </c>
       <c r="W50" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="X50" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y50" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z50" s="5" t="str">
@@ -6110,11 +6110,11 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 50</v>
       </c>
       <c r="C51">
@@ -6124,7 +6124,7 @@
         <v>26</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 50</v>
       </c>
       <c r="F51" s="3">
@@ -6138,63 +6138,63 @@
         <v>12</v>
       </c>
       <c r="K51" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F51)&amp;"\"&amp;Q51&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L51" s="4" t="str">
-        <f>CONCATENATE(K51,"\",B51,"\","COMVEN LID","\",YEAR(F51),"\",TEXT(MONTH(F51),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 50\COMVEN LID\2023\03\</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="N51" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 50\COMVEN LID\2023\03\</v>
       </c>
       <c r="O51" s="4" t="str">
-        <f>TEXT(MONTH(F51),"00")&amp;"/"&amp;YEAR(F51)</f>
+        <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
       <c r="P51" s="2" t="str">
-        <f>PROPER(TEXT(F51,"mmmm"))&amp;" "&amp;YEAR(F51)</f>
+        <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
       <c r="Q51" s="2" t="str">
-        <f>YEAR(F51)&amp;TEXT(MONTH(F51),"00")</f>
+        <f t="shared" si="23"/>
         <v>202303</v>
       </c>
       <c r="R51" s="2" t="str">
-        <f>CONCATENATE(TEXT(A51,"0"),"  - ",Q51," - ",SUBSTITUTE(D51,"-","")," - ",B51)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 50</v>
       </c>
       <c r="S51" s="2" t="str">
-        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIV - ",Q51," - ",B51," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 50 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 50 CBTE SOS.txt</v>
       </c>
       <c r="T51" s="2" t="str">
-        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIV - ",Q51," - ",B51," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 50 Alicuota SOS.txt</v>
       </c>
       <c r="U51" s="2" t="str">
-        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIC - ",Q51," - ",B51," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 50 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 50 CBTE SOS.txt</v>
       </c>
       <c r="V51" s="2" t="str">
-        <f>CONCATENATE(A51," - ",SUBSTITUTE(D51,"-","")," - ","LIC - ",Q51," - ",B51," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 50 Alicuota SOS.txt</v>
       </c>
       <c r="W51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>51</v>
       </c>
       <c r="X51" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y51" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z51" s="5" t="str">
@@ -6212,11 +6212,11 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 51</v>
       </c>
       <c r="C52">
@@ -6226,7 +6226,7 @@
         <v>26</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 51</v>
       </c>
       <c r="F52" s="3">
@@ -6240,63 +6240,63 @@
         <v>12</v>
       </c>
       <c r="K52" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F52)&amp;"\"&amp;Q52&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L52" s="4" t="str">
-        <f>CONCATENATE(K52,"\",B52,"\","COMVEN LID","\",YEAR(F52),"\",TEXT(MONTH(F52),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 51\COMVEN LID\2023\03\</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="N52" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 51\COMVEN LID\2023\03\</v>
       </c>
       <c r="O52" s="4" t="str">
-        <f>TEXT(MONTH(F52),"00")&amp;"/"&amp;YEAR(F52)</f>
+        <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
       <c r="P52" s="2" t="str">
-        <f>PROPER(TEXT(F52,"mmmm"))&amp;" "&amp;YEAR(F52)</f>
+        <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
       <c r="Q52" s="2" t="str">
-        <f>YEAR(F52)&amp;TEXT(MONTH(F52),"00")</f>
+        <f t="shared" si="23"/>
         <v>202303</v>
       </c>
       <c r="R52" s="2" t="str">
-        <f>CONCATENATE(TEXT(A52,"0"),"  - ",Q52," - ",SUBSTITUTE(D52,"-","")," - ",B52)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 51</v>
       </c>
       <c r="S52" s="2" t="str">
-        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIV - ",Q52," - ",B52," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 51 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 51 CBTE SOS.txt</v>
       </c>
       <c r="T52" s="2" t="str">
-        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIV - ",Q52," - ",B52," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 51 Alicuota SOS.txt</v>
       </c>
       <c r="U52" s="2" t="str">
-        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIC - ",Q52," - ",B52," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 51 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 51 CBTE SOS.txt</v>
       </c>
       <c r="V52" s="2" t="str">
-        <f>CONCATENATE(A52," - ",SUBSTITUTE(D52,"-","")," - ","LIC - ",Q52," - ",B52," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 51 Alicuota SOS.txt</v>
       </c>
       <c r="W52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>52</v>
       </c>
       <c r="X52" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y52" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z52" s="5" t="str">
@@ -6314,11 +6314,11 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 52</v>
       </c>
       <c r="C53">
@@ -6328,7 +6328,7 @@
         <v>26</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 52</v>
       </c>
       <c r="F53" s="3">
@@ -6342,63 +6342,63 @@
         <v>13</v>
       </c>
       <c r="K53" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F53)&amp;"\"&amp;Q53&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L53" s="4" t="str">
-        <f>CONCATENATE(K53,"\",B53,"\","COMVEN LID","\",YEAR(F53),"\",TEXT(MONTH(F53),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 52\COMVEN LID\2023\04\</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N53" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 52\COMVEN LID\2023\04\</v>
       </c>
       <c r="O53" s="4" t="str">
-        <f>TEXT(MONTH(F53),"00")&amp;"/"&amp;YEAR(F53)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P53" s="2" t="str">
-        <f>PROPER(TEXT(F53,"mmmm"))&amp;" "&amp;YEAR(F53)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q53" s="2" t="str">
-        <f>YEAR(F53)&amp;TEXT(MONTH(F53),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R53" s="2" t="str">
-        <f>CONCATENATE(TEXT(A53,"0"),"  - ",Q53," - ",SUBSTITUTE(D53,"-","")," - ",B53)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 52</v>
       </c>
       <c r="S53" s="2" t="str">
-        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIV - ",Q53," - ",B53," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 52 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 52 CBTE SOS.txt</v>
       </c>
       <c r="T53" s="2" t="str">
-        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIV - ",Q53," - ",B53," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 52 Alicuota SOS.txt</v>
       </c>
       <c r="U53" s="2" t="str">
-        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIC - ",Q53," - ",B53," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 52 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 52 CBTE SOS.txt</v>
       </c>
       <c r="V53" s="2" t="str">
-        <f>CONCATENATE(A53," - ",SUBSTITUTE(D53,"-","")," - ","LIC - ",Q53," - ",B53," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 52 Alicuota SOS.txt</v>
       </c>
       <c r="W53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>53</v>
       </c>
       <c r="X53" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y53" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z53" s="5" t="str">
@@ -6416,11 +6416,11 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 53</v>
       </c>
       <c r="C54">
@@ -6430,7 +6430,7 @@
         <v>26</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 53</v>
       </c>
       <c r="F54" s="3">
@@ -6444,63 +6444,63 @@
         <v>12</v>
       </c>
       <c r="K54" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F54)&amp;"\"&amp;Q54&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L54" s="4" t="str">
-        <f>CONCATENATE(K54,"\",B54,"\","COMVEN LID","\",YEAR(F54),"\",TEXT(MONTH(F54),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 53\COMVEN LID\2023\03\</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="N54" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 53\COMVEN LID\2023\03\</v>
       </c>
       <c r="O54" s="4" t="str">
-        <f>TEXT(MONTH(F54),"00")&amp;"/"&amp;YEAR(F54)</f>
+        <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
       <c r="P54" s="2" t="str">
-        <f>PROPER(TEXT(F54,"mmmm"))&amp;" "&amp;YEAR(F54)</f>
+        <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
       <c r="Q54" s="2" t="str">
-        <f>YEAR(F54)&amp;TEXT(MONTH(F54),"00")</f>
+        <f t="shared" si="23"/>
         <v>202303</v>
       </c>
       <c r="R54" s="2" t="str">
-        <f>CONCATENATE(TEXT(A54,"0"),"  - ",Q54," - ",SUBSTITUTE(D54,"-","")," - ",B54)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 53</v>
       </c>
       <c r="S54" s="2" t="str">
-        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIV - ",Q54," - ",B54," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 53 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 53 CBTE SOS.txt</v>
       </c>
       <c r="T54" s="2" t="str">
-        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIV - ",Q54," - ",B54," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 53 Alicuota SOS.txt</v>
       </c>
       <c r="U54" s="2" t="str">
-        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIC - ",Q54," - ",B54," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 53 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 53 CBTE SOS.txt</v>
       </c>
       <c r="V54" s="2" t="str">
-        <f>CONCATENATE(A54," - ",SUBSTITUTE(D54,"-","")," - ","LIC - ",Q54," - ",B54," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 53 Alicuota SOS.txt</v>
       </c>
       <c r="W54" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>54</v>
       </c>
       <c r="X54" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y54" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z54" s="5" t="str">
@@ -6518,11 +6518,11 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 54</v>
       </c>
       <c r="C55">
@@ -6532,7 +6532,7 @@
         <v>26</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 54</v>
       </c>
       <c r="F55" s="3">
@@ -6548,63 +6548,63 @@
         <v>13</v>
       </c>
       <c r="K55" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F55)&amp;"\"&amp;Q55&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L55" s="4" t="str">
-        <f>CONCATENATE(K55,"\",B55,"\","COMVEN LID","\",YEAR(F55),"\",TEXT(MONTH(F55),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 54\COMVEN LID\2023\04\</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N55" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 54\COMVEN LID\2023\04\</v>
       </c>
       <c r="O55" s="4" t="str">
-        <f>TEXT(MONTH(F55),"00")&amp;"/"&amp;YEAR(F55)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P55" s="2" t="str">
-        <f>PROPER(TEXT(F55,"mmmm"))&amp;" "&amp;YEAR(F55)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q55" s="2" t="str">
-        <f>YEAR(F55)&amp;TEXT(MONTH(F55),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R55" s="2" t="str">
-        <f>CONCATENATE(TEXT(A55,"0"),"  - ",Q55," - ",SUBSTITUTE(D55,"-","")," - ",B55)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 54</v>
       </c>
       <c r="S55" s="2" t="str">
-        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIV - ",Q55," - ",B55," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 54 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 54 CBTE SOS.txt</v>
       </c>
       <c r="T55" s="2" t="str">
-        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIV - ",Q55," - ",B55," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 54 Alicuota SOS.txt</v>
       </c>
       <c r="U55" s="2" t="str">
-        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIC - ",Q55," - ",B55," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 54 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 54 CBTE SOS.txt</v>
       </c>
       <c r="V55" s="2" t="str">
-        <f>CONCATENATE(A55," - ",SUBSTITUTE(D55,"-","")," - ","LIC - ",Q55," - ",B55," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 54 Alicuota SOS.txt</v>
       </c>
       <c r="W55" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>55</v>
       </c>
       <c r="X55" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y55" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z55" s="5" t="str">
@@ -6622,11 +6622,11 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 55</v>
       </c>
       <c r="C56">
@@ -6636,7 +6636,7 @@
         <v>26</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 55</v>
       </c>
       <c r="F56" s="3">
@@ -6650,63 +6650,63 @@
         <v>12</v>
       </c>
       <c r="K56" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F56)&amp;"\"&amp;Q56&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L56" s="4" t="str">
-        <f>CONCATENATE(K56,"\",B56,"\","COMVEN LID","\",YEAR(F56),"\",TEXT(MONTH(F56),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 55\COMVEN LID\2023\03\</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="N56" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 55\COMVEN LID\2023\03\</v>
       </c>
       <c r="O56" s="4" t="str">
-        <f>TEXT(MONTH(F56),"00")&amp;"/"&amp;YEAR(F56)</f>
+        <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
       <c r="P56" s="2" t="str">
-        <f>PROPER(TEXT(F56,"mmmm"))&amp;" "&amp;YEAR(F56)</f>
+        <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
       <c r="Q56" s="2" t="str">
-        <f>YEAR(F56)&amp;TEXT(MONTH(F56),"00")</f>
+        <f t="shared" si="23"/>
         <v>202303</v>
       </c>
       <c r="R56" s="2" t="str">
-        <f>CONCATENATE(TEXT(A56,"0"),"  - ",Q56," - ",SUBSTITUTE(D56,"-","")," - ",B56)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 55</v>
       </c>
       <c r="S56" s="2" t="str">
-        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIV - ",Q56," - ",B56," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 55 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 55 CBTE SOS.txt</v>
       </c>
       <c r="T56" s="2" t="str">
-        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIV - ",Q56," - ",B56," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 55 Alicuota SOS.txt</v>
       </c>
       <c r="U56" s="2" t="str">
-        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIC - ",Q56," - ",B56," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 55 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 55 CBTE SOS.txt</v>
       </c>
       <c r="V56" s="2" t="str">
-        <f>CONCATENATE(A56," - ",SUBSTITUTE(D56,"-","")," - ","LIC - ",Q56," - ",B56," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 55 Alicuota SOS.txt</v>
       </c>
       <c r="W56" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>56</v>
       </c>
       <c r="X56" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y56" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z56" s="5" t="str">
@@ -6724,11 +6724,11 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 56</v>
       </c>
       <c r="C57">
@@ -6738,7 +6738,7 @@
         <v>26</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 56</v>
       </c>
       <c r="F57" s="3">
@@ -6752,63 +6752,63 @@
         <v>12</v>
       </c>
       <c r="K57" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F57)&amp;"\"&amp;Q57&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L57" s="4" t="str">
-        <f>CONCATENATE(K57,"\",B57,"\","COMVEN LID","\",YEAR(F57),"\",TEXT(MONTH(F57),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 56\COMVEN LID\2023\03\</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="N57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 56\COMVEN LID\2023\03\</v>
       </c>
       <c r="O57" s="4" t="str">
-        <f>TEXT(MONTH(F57),"00")&amp;"/"&amp;YEAR(F57)</f>
+        <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
       <c r="P57" s="2" t="str">
-        <f>PROPER(TEXT(F57,"mmmm"))&amp;" "&amp;YEAR(F57)</f>
+        <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
       <c r="Q57" s="2" t="str">
-        <f>YEAR(F57)&amp;TEXT(MONTH(F57),"00")</f>
+        <f t="shared" si="23"/>
         <v>202303</v>
       </c>
       <c r="R57" s="2" t="str">
-        <f>CONCATENATE(TEXT(A57,"0"),"  - ",Q57," - ",SUBSTITUTE(D57,"-","")," - ",B57)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 56</v>
       </c>
       <c r="S57" s="2" t="str">
-        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIV - ",Q57," - ",B57," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 56 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 56 CBTE SOS.txt</v>
       </c>
       <c r="T57" s="2" t="str">
-        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIV - ",Q57," - ",B57," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 56 Alicuota SOS.txt</v>
       </c>
       <c r="U57" s="2" t="str">
-        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIC - ",Q57," - ",B57," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 56 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 56 CBTE SOS.txt</v>
       </c>
       <c r="V57" s="2" t="str">
-        <f>CONCATENATE(A57," - ",SUBSTITUTE(D57,"-","")," - ","LIC - ",Q57," - ",B57," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 56 Alicuota SOS.txt</v>
       </c>
       <c r="W57" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>57</v>
       </c>
       <c r="X57" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y57" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z57" s="5" t="str">
@@ -6826,11 +6826,11 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 57</v>
       </c>
       <c r="C58">
@@ -6840,7 +6840,7 @@
         <v>26</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 57</v>
       </c>
       <c r="F58" s="3">
@@ -6854,63 +6854,63 @@
         <v>12</v>
       </c>
       <c r="K58" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F58)&amp;"\"&amp;Q58&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L58" s="4" t="str">
-        <f>CONCATENATE(K58,"\",B58,"\","COMVEN LID","\",YEAR(F58),"\",TEXT(MONTH(F58),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 57\COMVEN LID\2023\03\</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="N58" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 57\COMVEN LID\2023\03\</v>
       </c>
       <c r="O58" s="4" t="str">
-        <f>TEXT(MONTH(F58),"00")&amp;"/"&amp;YEAR(F58)</f>
+        <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
       <c r="P58" s="2" t="str">
-        <f>PROPER(TEXT(F58,"mmmm"))&amp;" "&amp;YEAR(F58)</f>
+        <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
       <c r="Q58" s="2" t="str">
-        <f>YEAR(F58)&amp;TEXT(MONTH(F58),"00")</f>
+        <f t="shared" si="23"/>
         <v>202303</v>
       </c>
       <c r="R58" s="2" t="str">
-        <f>CONCATENATE(TEXT(A58,"0"),"  - ",Q58," - ",SUBSTITUTE(D58,"-","")," - ",B58)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 57</v>
       </c>
       <c r="S58" s="2" t="str">
-        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIV - ",Q58," - ",B58," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 57 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 57 CBTE SOS.txt</v>
       </c>
       <c r="T58" s="2" t="str">
-        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIV - ",Q58," - ",B58," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 57 Alicuota SOS.txt</v>
       </c>
       <c r="U58" s="2" t="str">
-        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIC - ",Q58," - ",B58," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 57 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 57 CBTE SOS.txt</v>
       </c>
       <c r="V58" s="2" t="str">
-        <f>CONCATENATE(A58," - ",SUBSTITUTE(D58,"-","")," - ","LIC - ",Q58," - ",B58," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 57 Alicuota SOS.txt</v>
       </c>
       <c r="W58" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>58</v>
       </c>
       <c r="X58" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y58" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z58" s="5" t="str">
@@ -6928,11 +6928,11 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 58</v>
       </c>
       <c r="C59">
@@ -6942,7 +6942,7 @@
         <v>26</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 58</v>
       </c>
       <c r="F59" s="3">
@@ -6956,63 +6956,63 @@
         <v>12</v>
       </c>
       <c r="K59" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F59)&amp;"\"&amp;Q59&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L59" s="4" t="str">
-        <f>CONCATENATE(K59,"\",B59,"\","COMVEN LID","\",YEAR(F59),"\",TEXT(MONTH(F59),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 58\COMVEN LID\2023\03\</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="N59" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 58\COMVEN LID\2023\03\</v>
       </c>
       <c r="O59" s="4" t="str">
-        <f>TEXT(MONTH(F59),"00")&amp;"/"&amp;YEAR(F59)</f>
+        <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
       <c r="P59" s="2" t="str">
-        <f>PROPER(TEXT(F59,"mmmm"))&amp;" "&amp;YEAR(F59)</f>
+        <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
       <c r="Q59" s="2" t="str">
-        <f>YEAR(F59)&amp;TEXT(MONTH(F59),"00")</f>
+        <f t="shared" si="23"/>
         <v>202303</v>
       </c>
       <c r="R59" s="2" t="str">
-        <f>CONCATENATE(TEXT(A59,"0"),"  - ",Q59," - ",SUBSTITUTE(D59,"-","")," - ",B59)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 58</v>
       </c>
       <c r="S59" s="2" t="str">
-        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIV - ",Q59," - ",B59," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 58 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 58 CBTE SOS.txt</v>
       </c>
       <c r="T59" s="2" t="str">
-        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIV - ",Q59," - ",B59," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 58 Alicuota SOS.txt</v>
       </c>
       <c r="U59" s="2" t="str">
-        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIC - ",Q59," - ",B59," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 58 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 58 CBTE SOS.txt</v>
       </c>
       <c r="V59" s="2" t="str">
-        <f>CONCATENATE(A59," - ",SUBSTITUTE(D59,"-","")," - ","LIC - ",Q59," - ",B59," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 58 Alicuota SOS.txt</v>
       </c>
       <c r="W59" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>59</v>
       </c>
       <c r="X59" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y59" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z59" s="5" t="str">
@@ -7030,11 +7030,11 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 59</v>
       </c>
       <c r="C60">
@@ -7044,7 +7044,7 @@
         <v>26</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 59</v>
       </c>
       <c r="F60" s="3">
@@ -7058,63 +7058,63 @@
         <v>13</v>
       </c>
       <c r="K60" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F60)&amp;"\"&amp;Q60&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L60" s="4" t="str">
-        <f>CONCATENATE(K60,"\",B60,"\","COMVEN LID","\",YEAR(F60),"\",TEXT(MONTH(F60),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 59\COMVEN LID\2023\04\</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N60" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 59\COMVEN LID\2023\04\</v>
       </c>
       <c r="O60" s="4" t="str">
-        <f>TEXT(MONTH(F60),"00")&amp;"/"&amp;YEAR(F60)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P60" s="2" t="str">
-        <f>PROPER(TEXT(F60,"mmmm"))&amp;" "&amp;YEAR(F60)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q60" s="2" t="str">
-        <f>YEAR(F60)&amp;TEXT(MONTH(F60),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R60" s="2" t="str">
-        <f>CONCATENATE(TEXT(A60,"0"),"  - ",Q60," - ",SUBSTITUTE(D60,"-","")," - ",B60)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 59</v>
       </c>
       <c r="S60" s="2" t="str">
-        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIV - ",Q60," - ",B60," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 59 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 59 CBTE SOS.txt</v>
       </c>
       <c r="T60" s="2" t="str">
-        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIV - ",Q60," - ",B60," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 59 Alicuota SOS.txt</v>
       </c>
       <c r="U60" s="2" t="str">
-        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIC - ",Q60," - ",B60," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 59 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 59 CBTE SOS.txt</v>
       </c>
       <c r="V60" s="2" t="str">
-        <f>CONCATENATE(A60," - ",SUBSTITUTE(D60,"-","")," - ","LIC - ",Q60," - ",B60," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 59 Alicuota SOS.txt</v>
       </c>
       <c r="W60" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>60</v>
       </c>
       <c r="X60" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y60" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z60" s="5" t="str">
@@ -7132,11 +7132,11 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 60</v>
       </c>
       <c r="C61">
@@ -7146,7 +7146,7 @@
         <v>26</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 60</v>
       </c>
       <c r="F61" s="3">
@@ -7160,63 +7160,63 @@
         <v>12</v>
       </c>
       <c r="K61" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F61)&amp;"\"&amp;Q61&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="L61" s="4" t="str">
-        <f>CONCATENATE(K61,"\",B61,"\","COMVEN LID","\",YEAR(F61),"\",TEXT(MONTH(F61),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 60\COMVEN LID\2023\03\</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
       <c r="N61" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 60\COMVEN LID\2023\03\</v>
       </c>
       <c r="O61" s="4" t="str">
-        <f>TEXT(MONTH(F61),"00")&amp;"/"&amp;YEAR(F61)</f>
+        <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
       <c r="P61" s="2" t="str">
-        <f>PROPER(TEXT(F61,"mmmm"))&amp;" "&amp;YEAR(F61)</f>
+        <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
       <c r="Q61" s="2" t="str">
-        <f>YEAR(F61)&amp;TEXT(MONTH(F61),"00")</f>
+        <f t="shared" si="23"/>
         <v>202303</v>
       </c>
       <c r="R61" s="2" t="str">
-        <f>CONCATENATE(TEXT(A61,"0"),"  - ",Q61," - ",SUBSTITUTE(D61,"-","")," - ",B61)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 60</v>
       </c>
       <c r="S61" s="2" t="str">
-        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIV - ",Q61," - ",B61," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 60 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 60 CBTE SOS.txt</v>
       </c>
       <c r="T61" s="2" t="str">
-        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIV - ",Q61," - ",B61," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 60 Alicuota SOS.txt</v>
       </c>
       <c r="U61" s="2" t="str">
-        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIC - ",Q61," - ",B61," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 60 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 60 CBTE SOS.txt</v>
       </c>
       <c r="V61" s="2" t="str">
-        <f>CONCATENATE(A61," - ",SUBSTITUTE(D61,"-","")," - ","LIC - ",Q61," - ",B61," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 60 Alicuota SOS.txt</v>
       </c>
       <c r="W61" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>61</v>
       </c>
       <c r="X61" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y61" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z61" s="5" t="str">
@@ -7234,11 +7234,11 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 61</v>
       </c>
       <c r="C62">
@@ -7248,7 +7248,7 @@
         <v>26</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 61</v>
       </c>
       <c r="F62" s="3">
@@ -7262,63 +7262,63 @@
         <v>13</v>
       </c>
       <c r="K62" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F62)&amp;"\"&amp;Q62&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L62" s="4" t="str">
-        <f>CONCATENATE(K62,"\",B62,"\","COMVEN LID","\",YEAR(F62),"\",TEXT(MONTH(F62),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 61\COMVEN LID\2023\04\</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N62" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 61\COMVEN LID\2023\04\</v>
       </c>
       <c r="O62" s="4" t="str">
-        <f>TEXT(MONTH(F62),"00")&amp;"/"&amp;YEAR(F62)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P62" s="2" t="str">
-        <f>PROPER(TEXT(F62,"mmmm"))&amp;" "&amp;YEAR(F62)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q62" s="2" t="str">
-        <f>YEAR(F62)&amp;TEXT(MONTH(F62),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R62" s="2" t="str">
-        <f>CONCATENATE(TEXT(A62,"0"),"  - ",Q62," - ",SUBSTITUTE(D62,"-","")," - ",B62)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 61</v>
       </c>
       <c r="S62" s="2" t="str">
-        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIV - ",Q62," - ",B62," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 61 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 61 CBTE SOS.txt</v>
       </c>
       <c r="T62" s="2" t="str">
-        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIV - ",Q62," - ",B62," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 61 Alicuota SOS.txt</v>
       </c>
       <c r="U62" s="2" t="str">
-        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIC - ",Q62," - ",B62," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 61 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 61 CBTE SOS.txt</v>
       </c>
       <c r="V62" s="2" t="str">
-        <f>CONCATENATE(A62," - ",SUBSTITUTE(D62,"-","")," - ","LIC - ",Q62," - ",B62," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 61 Alicuota SOS.txt</v>
       </c>
       <c r="W62" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>62</v>
       </c>
       <c r="X62" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y62" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z62" s="5" t="str">
@@ -7336,11 +7336,11 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>Nombre de cliente 62</v>
       </c>
       <c r="C63">
@@ -7350,7 +7350,7 @@
         <v>26</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>Clave 62</v>
       </c>
       <c r="F63" s="3">
@@ -7364,63 +7364,63 @@
         <v>13</v>
       </c>
       <c r="K63" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F63)&amp;"\"&amp;Q63&amp;"\TXT"</f>
+        <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="L63" s="4" t="str">
-        <f>CONCATENATE(K63,"\",B63,"\","COMVEN LID","\",YEAR(F63),"\",TEXT(MONTH(F63),"00"),"\")</f>
+        <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 62\COMVEN LID\2023\04\</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
       <c r="N63" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 62\COMVEN LID\2023\04\</v>
       </c>
       <c r="O63" s="4" t="str">
-        <f>TEXT(MONTH(F63),"00")&amp;"/"&amp;YEAR(F63)</f>
+        <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
       <c r="P63" s="2" t="str">
-        <f>PROPER(TEXT(F63,"mmmm"))&amp;" "&amp;YEAR(F63)</f>
+        <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
       <c r="Q63" s="2" t="str">
-        <f>YEAR(F63)&amp;TEXT(MONTH(F63),"00")</f>
+        <f t="shared" si="23"/>
         <v>202304</v>
       </c>
       <c r="R63" s="2" t="str">
-        <f>CONCATENATE(TEXT(A63,"0"),"  - ",Q63," - ",SUBSTITUTE(D63,"-","")," - ",B63)</f>
+        <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 62</v>
       </c>
       <c r="S63" s="2" t="str">
-        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIV - ",Q63," - ",B63," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 62 SOS.txt</v>
+        <f t="shared" si="16"/>
+        <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 62 CBTE SOS.txt</v>
       </c>
       <c r="T63" s="2" t="str">
-        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIV - ",Q63," - ",B63," Alicuota SOS.txt")</f>
+        <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 62 Alicuota SOS.txt</v>
       </c>
       <c r="U63" s="2" t="str">
-        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIC - ",Q63," - ",B63," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 62 SOS.txt</v>
+        <f t="shared" si="17"/>
+        <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 62 CBTE SOS.txt</v>
       </c>
       <c r="V63" s="2" t="str">
-        <f>CONCATENATE(A63," - ",SUBSTITUTE(D63,"-","")," - ","LIC - ",Q63," - ",B63," Alicuota SOS.txt")</f>
+        <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 62 Alicuota SOS.txt</v>
       </c>
       <c r="W63" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>63</v>
       </c>
       <c r="X63" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y63" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z63" s="5" t="str">

--- a/Lista TXT SOS.xlsx
+++ b/Lista TXT SOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga-y-Carga-COMVEN-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F046866-18D5-448B-8991-7C6229C2A629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BFCFC2-F7D2-4D79-A908-D524BE871977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$AB$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$AC$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +40,140 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Agustín Bustos</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{1D5E2F8E-46B2-4403-AB9C-2A37CDC98A7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CUIT para ingresar a AFIP </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{23FAC7CB-6285-4DDB-AA53-B2512F802B9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CUIT del representado </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{63F66E50-3B66-4CFF-A79E-60AF0D72C2F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Si el archivo no se guarda con el nombre a medida se debe colocar "NO" en esta columna </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{3EB54CEE-3643-49C5-9CAB-DA245985ED94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Directorio raiz donde se desea guardar el archivo.
+El directorio va completo desde el disco inicial sin el último backslash.
+Ej: C:\Users\Agustin Bustos\Desktop\TEST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{99409BF0-DA6A-4F0C-9181-7EDAAB07C0F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Directorio completo donde se desea guardar el archivo, se utiliza como base la ubicación raíz y el resto se concatena con otros datos de los clientes </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="36">
   <si>
     <t>Nro</t>
   </si>
@@ -144,12 +276,18 @@
   <si>
     <t>Ubicación TXT</t>
   </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +308,19 @@
       <color theme="1"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -961,12 +1112,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}">
-  <dimension ref="A1:AB63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}">
+  <dimension ref="A1:AC63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,17 +1130,17 @@
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" customWidth="1"/>
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.85546875" customWidth="1"/>
-    <col min="19" max="22" width="16.5703125" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.85546875" customWidth="1"/>
+    <col min="20" max="23" width="16.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,61 +1172,64 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -1107,80 +1261,83 @@
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="str">
-        <f t="shared" ref="K2:K33" si="1">"F:\Libros Compras y Ventas\"&amp;YEAR(F2)&amp;"\"&amp;Q2&amp;"\TXT"</f>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="L2" s="4" t="str">
-        <f t="shared" ref="L2:L33" si="2">CONCATENATE(K2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L33" si="1">"F:\Libros Compras y Ventas\"&amp;YEAR(F2)&amp;"\"&amp;R2&amp;"\TXT"</f>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="M2" s="4" t="str">
+        <f t="shared" ref="M2:M33" si="2">CONCATENATE(L2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 1\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M2" t="str">
-        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F2)&amp;"\"&amp;Q2&amp;"\TXT"</f>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N2" s="4" t="str">
-        <f>CONCATENATE(M2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
+      <c r="N2" t="str">
+        <f>"F:\Libros Compras y Ventas\"&amp;YEAR(F2)&amp;"\"&amp;R2&amp;"\TXT"</f>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="O2" s="4" t="str">
+        <f>CONCATENATE(N2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 1\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O2" s="4" t="str">
-        <f t="shared" ref="O2:O33" si="3">TEXT(MONTH(F2),"00")&amp;"/"&amp;YEAR(F2)</f>
+      <c r="P2" s="4" t="str">
+        <f t="shared" ref="P2:P33" si="3">TEXT(MONTH(F2),"00")&amp;"/"&amp;YEAR(F2)</f>
         <v>04/2023</v>
       </c>
-      <c r="P2" s="2" t="str">
-        <f t="shared" ref="P2:P33" si="4">PROPER(TEXT(F2,"mmmm"))&amp;" "&amp;YEAR(F2)</f>
+      <c r="Q2" s="2" t="str">
+        <f t="shared" ref="Q2:Q33" si="4">PROPER(TEXT(F2,"mmmm"))&amp;" "&amp;YEAR(F2)</f>
         <v>Abril 2023</v>
       </c>
-      <c r="Q2" s="2" t="str">
-        <f t="shared" ref="Q2:Q33" si="5">YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
+      <c r="R2" s="2" t="str">
+        <f t="shared" ref="R2:R33" si="5">YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
         <v>202304</v>
       </c>
-      <c r="R2" s="2" t="str">
-        <f t="shared" ref="R2:R33" si="6">CONCATENATE(TEXT(A2,"0"),"  - ",Q2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="S2" s="2" t="str">
+        <f t="shared" ref="S2:S33" si="6">CONCATENATE(TEXT(A2,"0"),"  - ",R2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0  - 202304 - 20000000000 - Nombre de cliente 1</v>
       </c>
-      <c r="S2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",Q2," - ",B2," CBTE SOS.txt")</f>
+      <c r="T2" s="2" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",R2," - ",B2," CBTE SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 1 CBTE SOS.txt</v>
       </c>
-      <c r="T2" s="2" t="str">
-        <f t="shared" ref="T2:T33" si="7">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",Q2," - ",B2," Alicuota SOS.txt")</f>
+      <c r="U2" s="2" t="str">
+        <f t="shared" ref="U2:U33" si="7">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",R2," - ",B2," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 1 Alicuota SOS.txt</v>
       </c>
-      <c r="U2" s="2" t="str">
-        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",Q2," - ",B2," CBTE SOS.txt")</f>
+      <c r="V2" s="2" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",R2," - ",B2," CBTE SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 1 CBTE SOS.txt</v>
       </c>
-      <c r="V2" s="2" t="str">
-        <f t="shared" ref="V2:V33" si="8">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",Q2," - ",B2," Alicuota SOS.txt")</f>
+      <c r="W2" s="2" t="str">
+        <f t="shared" ref="W2:W33" si="8">CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",R2," - ",B2," Alicuota SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 1 Alicuota SOS.txt</v>
       </c>
-      <c r="W2" s="4">
-        <f t="shared" ref="W2:W33" si="9">ROW(A2)</f>
+      <c r="X2" s="4">
+        <f t="shared" ref="X2:X33" si="9">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="X2" s="4">
-        <f t="shared" ref="X2:X33" si="10">IF(C2=C1,1,0)</f>
+      <c r="Y2" s="4">
+        <f t="shared" ref="Y2:Y33" si="10">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="4">
-        <f t="shared" ref="Y2:Y33" si="11">IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Z2" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W2,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
+      <c r="Z2" s="4">
+        <f t="shared" ref="Z2:Z33" si="11">IF(C2=C3,1,0)</f>
+        <v>1</v>
       </c>
       <c r="AA2" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W2,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB2" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W2,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X2,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X2,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC2" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X2,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1212,80 +1369,83 @@
       <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="str">
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L3" s="4" t="str">
+      <c r="M3" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 2\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M63" si="14">"F:\Libros Compras y Ventas\"&amp;YEAR(F3)&amp;"\"&amp;Q3&amp;"\TXT"</f>
-        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
-      </c>
-      <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N63" si="15">CONCATENATE(M3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N63" si="14">"F:\Libros Compras y Ventas\"&amp;YEAR(F3)&amp;"\"&amp;R3&amp;"\TXT"</f>
+        <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3:O63" si="15">CONCATENATE(N3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 2\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O3" s="4" t="str">
+      <c r="P3" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P3" s="2" t="str">
+      <c r="Q3" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q3" s="2" t="str">
+      <c r="R3" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R3" s="2" t="str">
+      <c r="S3" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 20000000000 - Nombre de cliente 2</v>
       </c>
-      <c r="S3" s="2" t="str">
-        <f t="shared" ref="S3:S63" si="16">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",Q3," - ",B3," CBTE SOS.txt")</f>
+      <c r="T3" s="2" t="str">
+        <f t="shared" ref="T3:T63" si="16">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",R3," - ",B3," CBTE SOS.txt")</f>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 2 CBTE SOS.txt</v>
       </c>
-      <c r="T3" s="2" t="str">
+      <c r="U3" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 2 Alicuota SOS.txt</v>
       </c>
-      <c r="U3" s="2" t="str">
-        <f t="shared" ref="U3:U63" si="17">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",Q3," - ",B3," CBTE SOS.txt")</f>
+      <c r="V3" s="2" t="str">
+        <f t="shared" ref="V3:V63" si="17">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",R3," - ",B3," CBTE SOS.txt")</f>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 2 CBTE SOS.txt</v>
       </c>
-      <c r="V3" s="2" t="str">
+      <c r="W3" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 2 Alicuota SOS.txt</v>
       </c>
-      <c r="W3" s="4">
+      <c r="X3" s="4">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Y3" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Z3" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W3,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W3,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB3" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W3,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X3,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X3,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC3" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X3,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1317,80 +1477,83 @@
       <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L4" s="4" t="str">
+      <c r="M4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 3\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N4" s="4" t="str">
+      <c r="O4" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 3\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O4" s="4" t="str">
+      <c r="P4" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P4" s="2" t="str">
+      <c r="Q4" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q4" s="2" t="str">
+      <c r="R4" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R4" s="2" t="str">
+      <c r="S4" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 20000000000 - Nombre de cliente 3</v>
       </c>
-      <c r="S4" s="2" t="str">
+      <c r="T4" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 3 CBTE SOS.txt</v>
       </c>
-      <c r="T4" s="2" t="str">
+      <c r="U4" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 20000000000 - LIV - 202304 - Nombre de cliente 3 Alicuota SOS.txt</v>
       </c>
-      <c r="U4" s="2" t="str">
+      <c r="V4" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 3 CBTE SOS.txt</v>
       </c>
-      <c r="V4" s="2" t="str">
+      <c r="W4" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 20000000000 - LIC - 202304 - Nombre de cliente 3 Alicuota SOS.txt</v>
       </c>
-      <c r="W4" s="4">
+      <c r="X4" s="4">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Y4" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Z4" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z4" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W4,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA4" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W4,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB4" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W4,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X4,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X4,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC4" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X4,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1421,80 +1584,83 @@
       <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L5" s="4" t="str">
+      <c r="M5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 4\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N5" s="4" t="str">
+      <c r="O5" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 4\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O5" s="4" t="str">
+      <c r="P5" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P5" s="2" t="str">
+      <c r="Q5" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q5" s="2" t="str">
+      <c r="R5" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R5" s="2" t="str">
+      <c r="S5" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 4</v>
       </c>
-      <c r="S5" s="2" t="str">
+      <c r="T5" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 4 CBTE SOS.txt</v>
       </c>
-      <c r="T5" s="2" t="str">
+      <c r="U5" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 4 Alicuota SOS.txt</v>
       </c>
-      <c r="U5" s="2" t="str">
+      <c r="V5" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 4 CBTE SOS.txt</v>
       </c>
-      <c r="V5" s="2" t="str">
+      <c r="W5" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 4 Alicuota SOS.txt</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W5,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W5,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB5" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W5,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X5,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X5,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC5" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X5,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1523,80 +1689,83 @@
       <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L6" s="4" t="str">
+      <c r="M6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 5\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N6" s="4" t="str">
+      <c r="O6" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 5\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O6" s="4" t="str">
+      <c r="P6" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P6" s="2" t="str">
+      <c r="Q6" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q6" s="2" t="str">
+      <c r="R6" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R6" s="2" t="str">
+      <c r="S6" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 5</v>
       </c>
-      <c r="S6" s="2" t="str">
+      <c r="T6" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 5 CBTE SOS.txt</v>
       </c>
-      <c r="T6" s="2" t="str">
+      <c r="U6" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 5 Alicuota SOS.txt</v>
       </c>
-      <c r="U6" s="2" t="str">
+      <c r="V6" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 5 CBTE SOS.txt</v>
       </c>
-      <c r="V6" s="2" t="str">
+      <c r="W6" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 5 Alicuota SOS.txt</v>
       </c>
-      <c r="W6" s="4">
+      <c r="X6" s="4">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Y6" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Z6" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z6" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W6,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA6" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W6,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB6" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W6,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X6,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X6,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC6" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X6,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1625,80 +1794,83 @@
       <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L7" s="4" t="str">
+      <c r="M7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 6\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N7" s="4" t="str">
+      <c r="O7" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 6\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O7" s="4" t="str">
+      <c r="P7" s="4" t="str">
         <f t="shared" si="3"/>
         <v>03/2023</v>
       </c>
-      <c r="P7" s="2" t="str">
+      <c r="Q7" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q7" s="2" t="str">
+      <c r="R7" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202303</v>
       </c>
-      <c r="R7" s="2" t="str">
+      <c r="S7" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 6</v>
       </c>
-      <c r="S7" s="2" t="str">
+      <c r="T7" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 6 CBTE SOS.txt</v>
       </c>
-      <c r="T7" s="2" t="str">
+      <c r="U7" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 6 Alicuota SOS.txt</v>
       </c>
-      <c r="U7" s="2" t="str">
+      <c r="V7" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 6 CBTE SOS.txt</v>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="W7" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 6 Alicuota SOS.txt</v>
       </c>
-      <c r="W7" s="4">
+      <c r="X7" s="4">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Y7" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Z7" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z7" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W7,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA7" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W7,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB7" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W7,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X7,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X7,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC7" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X7,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1729,80 +1901,83 @@
       <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L8" s="4" t="str">
+      <c r="M8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 7\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N8" s="4" t="str">
+      <c r="O8" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 7\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O8" s="4" t="str">
+      <c r="P8" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P8" s="2" t="str">
+      <c r="Q8" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q8" s="2" t="str">
+      <c r="R8" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R8" s="2" t="str">
+      <c r="S8" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 7</v>
       </c>
-      <c r="S8" s="2" t="str">
+      <c r="T8" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 7 CBTE SOS.txt</v>
       </c>
-      <c r="T8" s="2" t="str">
+      <c r="U8" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 7 Alicuota SOS.txt</v>
       </c>
-      <c r="U8" s="2" t="str">
+      <c r="V8" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 7 CBTE SOS.txt</v>
       </c>
-      <c r="V8" s="2" t="str">
+      <c r="W8" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 7 Alicuota SOS.txt</v>
       </c>
-      <c r="W8" s="4">
+      <c r="X8" s="4">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Y8" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Z8" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z8" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W8,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA8" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W8,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB8" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W8,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X8,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X8,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC8" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X8,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1833,80 +2008,83 @@
       <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L9" s="4" t="str">
+      <c r="M9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 8\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N9" s="4" t="str">
+      <c r="O9" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 8\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O9" s="4" t="str">
+      <c r="P9" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P9" s="2" t="str">
+      <c r="Q9" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q9" s="2" t="str">
+      <c r="R9" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R9" s="2" t="str">
+      <c r="S9" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 8</v>
       </c>
-      <c r="S9" s="2" t="str">
+      <c r="T9" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 8 CBTE SOS.txt</v>
       </c>
-      <c r="T9" s="2" t="str">
+      <c r="U9" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 8 Alicuota SOS.txt</v>
       </c>
-      <c r="U9" s="2" t="str">
+      <c r="V9" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 8 CBTE SOS.txt</v>
       </c>
-      <c r="V9" s="2" t="str">
+      <c r="W9" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 8 Alicuota SOS.txt</v>
       </c>
-      <c r="W9" s="4">
+      <c r="X9" s="4">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Z9" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z9" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W9,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA9" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W9,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB9" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W9,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X9,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X9,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC9" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X9,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1935,80 +2113,83 @@
       <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L10" s="4" t="str">
+      <c r="M10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 9\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N10" s="4" t="str">
+      <c r="O10" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 9\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O10" s="4" t="str">
+      <c r="P10" s="4" t="str">
         <f t="shared" si="3"/>
         <v>03/2023</v>
       </c>
-      <c r="P10" s="2" t="str">
+      <c r="Q10" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q10" s="2" t="str">
+      <c r="R10" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202303</v>
       </c>
-      <c r="R10" s="2" t="str">
+      <c r="S10" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 9</v>
       </c>
-      <c r="S10" s="2" t="str">
+      <c r="T10" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 9 CBTE SOS.txt</v>
       </c>
-      <c r="T10" s="2" t="str">
+      <c r="U10" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 9 Alicuota SOS.txt</v>
       </c>
-      <c r="U10" s="2" t="str">
+      <c r="V10" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 9 CBTE SOS.txt</v>
       </c>
-      <c r="V10" s="2" t="str">
+      <c r="W10" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 9 Alicuota SOS.txt</v>
       </c>
-      <c r="W10" s="4">
+      <c r="X10" s="4">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Y10" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Z10" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z10" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W10,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA10" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W10,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB10" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W10,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X10,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X10,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC10" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X10,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2037,80 +2218,83 @@
       <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L11" s="4" t="str">
+      <c r="M11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 10\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N11" s="4" t="str">
+      <c r="O11" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 10\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O11" s="4" t="str">
+      <c r="P11" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P11" s="2" t="str">
+      <c r="Q11" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q11" s="2" t="str">
+      <c r="R11" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R11" s="2" t="str">
+      <c r="S11" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 10</v>
       </c>
-      <c r="S11" s="2" t="str">
+      <c r="T11" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 10 CBTE SOS.txt</v>
       </c>
-      <c r="T11" s="2" t="str">
+      <c r="U11" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 10 Alicuota SOS.txt</v>
       </c>
-      <c r="U11" s="2" t="str">
+      <c r="V11" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 10 CBTE SOS.txt</v>
       </c>
-      <c r="V11" s="2" t="str">
+      <c r="W11" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 10 Alicuota SOS.txt</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="4">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Y11" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Z11" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z11" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W11,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA11" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W11,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB11" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W11,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X11,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X11,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X11,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2139,80 +2323,83 @@
       <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L12" s="4" t="str">
+      <c r="M12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 11\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N12" s="4" t="str">
+      <c r="O12" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 11\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O12" s="4" t="str">
+      <c r="P12" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P12" s="2" t="str">
+      <c r="Q12" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q12" s="2" t="str">
+      <c r="R12" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R12" s="2" t="str">
+      <c r="S12" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 11</v>
       </c>
-      <c r="S12" s="2" t="str">
+      <c r="T12" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 11 CBTE SOS.txt</v>
       </c>
-      <c r="T12" s="2" t="str">
+      <c r="U12" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 11 Alicuota SOS.txt</v>
       </c>
-      <c r="U12" s="2" t="str">
+      <c r="V12" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 11 CBTE SOS.txt</v>
       </c>
-      <c r="V12" s="2" t="str">
+      <c r="W12" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 11 Alicuota SOS.txt</v>
       </c>
-      <c r="W12" s="4">
+      <c r="X12" s="4">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Y12" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Z12" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z12" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W12,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA12" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W12,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB12" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W12,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X12,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X12,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X12,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2241,80 +2428,83 @@
       <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L13" s="4" t="str">
+      <c r="M13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 12\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N13" s="4" t="str">
+      <c r="O13" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 12\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O13" s="4" t="str">
+      <c r="P13" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P13" s="2" t="str">
+      <c r="Q13" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q13" s="2" t="str">
+      <c r="R13" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R13" s="2" t="str">
+      <c r="S13" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 12</v>
       </c>
-      <c r="S13" s="2" t="str">
+      <c r="T13" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 12 CBTE SOS.txt</v>
       </c>
-      <c r="T13" s="2" t="str">
+      <c r="U13" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 12 Alicuota SOS.txt</v>
       </c>
-      <c r="U13" s="2" t="str">
+      <c r="V13" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 12 CBTE SOS.txt</v>
       </c>
-      <c r="V13" s="2" t="str">
+      <c r="W13" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 12 Alicuota SOS.txt</v>
       </c>
-      <c r="W13" s="4">
+      <c r="X13" s="4">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Y13" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Z13" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z13" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W13,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA13" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W13,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB13" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W13,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X13,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X13,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X13,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2345,80 +2535,83 @@
       <c r="I14" t="s">
         <v>13</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L14" s="4" t="str">
+      <c r="M14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 13\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N14" s="4" t="str">
+      <c r="O14" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 13\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O14" s="4" t="str">
+      <c r="P14" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P14" s="2" t="str">
+      <c r="Q14" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q14" s="2" t="str">
+      <c r="R14" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R14" s="2" t="str">
+      <c r="S14" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 13</v>
       </c>
-      <c r="S14" s="2" t="str">
+      <c r="T14" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 13 CBTE SOS.txt</v>
       </c>
-      <c r="T14" s="2" t="str">
+      <c r="U14" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 13 Alicuota SOS.txt</v>
       </c>
-      <c r="U14" s="2" t="str">
+      <c r="V14" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 13 CBTE SOS.txt</v>
       </c>
-      <c r="V14" s="2" t="str">
+      <c r="W14" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 13 Alicuota SOS.txt</v>
       </c>
-      <c r="W14" s="4">
+      <c r="X14" s="4">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Y14" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Z14" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z14" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W14,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA14" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W14,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB14" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W14,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X14,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X14,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X14,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2447,80 +2640,83 @@
       <c r="I15" t="s">
         <v>12</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L15" s="4" t="str">
+      <c r="M15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 14\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N15" s="4" t="str">
+      <c r="O15" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 14\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O15" s="4" t="str">
+      <c r="P15" s="4" t="str">
         <f t="shared" si="3"/>
         <v>03/2023</v>
       </c>
-      <c r="P15" s="2" t="str">
+      <c r="Q15" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q15" s="2" t="str">
+      <c r="R15" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202303</v>
       </c>
-      <c r="R15" s="2" t="str">
+      <c r="S15" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 14</v>
       </c>
-      <c r="S15" s="2" t="str">
+      <c r="T15" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 14 CBTE SOS.txt</v>
       </c>
-      <c r="T15" s="2" t="str">
+      <c r="U15" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 14 Alicuota SOS.txt</v>
       </c>
-      <c r="U15" s="2" t="str">
+      <c r="V15" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 14 CBTE SOS.txt</v>
       </c>
-      <c r="V15" s="2" t="str">
+      <c r="W15" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 14 Alicuota SOS.txt</v>
       </c>
-      <c r="W15" s="4">
+      <c r="X15" s="4">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Y15" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Z15" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z15" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W15,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA15" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W15,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB15" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W15,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X15,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X15,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X15,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2551,80 +2747,83 @@
       <c r="I16" t="s">
         <v>13</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L16" s="4" t="str">
+      <c r="M16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 15\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N16" s="4" t="str">
+      <c r="O16" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 15\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O16" s="4" t="str">
+      <c r="P16" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P16" s="2" t="str">
+      <c r="Q16" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q16" s="2" t="str">
+      <c r="R16" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R16" s="2" t="str">
+      <c r="S16" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 15</v>
       </c>
-      <c r="S16" s="2" t="str">
+      <c r="T16" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 15 CBTE SOS.txt</v>
       </c>
-      <c r="T16" s="2" t="str">
+      <c r="U16" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 15 Alicuota SOS.txt</v>
       </c>
-      <c r="U16" s="2" t="str">
+      <c r="V16" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 15 CBTE SOS.txt</v>
       </c>
-      <c r="V16" s="2" t="str">
+      <c r="W16" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 15 Alicuota SOS.txt</v>
       </c>
-      <c r="W16" s="4">
+      <c r="X16" s="4">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Y16" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Z16" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W16,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W16,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB16" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W16,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X16,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X16,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC16" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X16,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2655,80 +2854,83 @@
       <c r="I17" t="s">
         <v>13</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L17" s="4" t="str">
+      <c r="M17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 16\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N17" s="4" t="str">
+      <c r="O17" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 16\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O17" s="4" t="str">
+      <c r="P17" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P17" s="2" t="str">
+      <c r="Q17" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q17" s="2" t="str">
+      <c r="R17" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R17" s="2" t="str">
+      <c r="S17" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 16</v>
       </c>
-      <c r="S17" s="2" t="str">
+      <c r="T17" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 16 CBTE SOS.txt</v>
       </c>
-      <c r="T17" s="2" t="str">
+      <c r="U17" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 16 Alicuota SOS.txt</v>
       </c>
-      <c r="U17" s="2" t="str">
+      <c r="V17" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 16 CBTE SOS.txt</v>
       </c>
-      <c r="V17" s="2" t="str">
+      <c r="W17" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 16 Alicuota SOS.txt</v>
       </c>
-      <c r="W17" s="4">
+      <c r="X17" s="4">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Y17" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Z17" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W17,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W17,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB17" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W17,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X17,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X17,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC17" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X17,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2757,80 +2959,83 @@
       <c r="I18" t="s">
         <v>12</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L18" s="4" t="str">
+      <c r="M18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 17\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N18" s="4" t="str">
+      <c r="O18" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 17\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O18" s="4" t="str">
+      <c r="P18" s="4" t="str">
         <f t="shared" si="3"/>
         <v>03/2023</v>
       </c>
-      <c r="P18" s="2" t="str">
+      <c r="Q18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q18" s="2" t="str">
+      <c r="R18" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202303</v>
       </c>
-      <c r="R18" s="2" t="str">
+      <c r="S18" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 17</v>
       </c>
-      <c r="S18" s="2" t="str">
+      <c r="T18" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 17 CBTE SOS.txt</v>
       </c>
-      <c r="T18" s="2" t="str">
+      <c r="U18" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 17 Alicuota SOS.txt</v>
       </c>
-      <c r="U18" s="2" t="str">
+      <c r="V18" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 17 CBTE SOS.txt</v>
       </c>
-      <c r="V18" s="2" t="str">
+      <c r="W18" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 17 Alicuota SOS.txt</v>
       </c>
-      <c r="W18" s="4">
+      <c r="X18" s="4">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Y18" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Z18" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W18,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W18,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB18" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W18,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X18,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X18,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC18" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X18,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2859,80 +3064,83 @@
       <c r="I19" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="str">
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L19" s="4" t="str">
+      <c r="M19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 18\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N19" s="4" t="str">
+      <c r="O19" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 18\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O19" s="4" t="str">
+      <c r="P19" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P19" s="2" t="str">
+      <c r="Q19" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q19" s="2" t="str">
+      <c r="R19" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R19" s="2" t="str">
+      <c r="S19" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 18</v>
       </c>
-      <c r="S19" s="2" t="str">
+      <c r="T19" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 18 CBTE SOS.txt</v>
       </c>
-      <c r="T19" s="2" t="str">
+      <c r="U19" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 18 Alicuota SOS.txt</v>
       </c>
-      <c r="U19" s="2" t="str">
+      <c r="V19" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 18 CBTE SOS.txt</v>
       </c>
-      <c r="V19" s="2" t="str">
+      <c r="W19" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 18 Alicuota SOS.txt</v>
       </c>
-      <c r="W19" s="4">
+      <c r="X19" s="4">
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Y19" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Z19" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W19,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W19,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB19" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W19,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X19,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X19,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC19" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X19,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2961,80 +3169,83 @@
       <c r="I20" t="s">
         <v>12</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L20" s="4" t="str">
+      <c r="M20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 19\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N20" s="4" t="str">
+      <c r="O20" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 19\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O20" s="4" t="str">
+      <c r="P20" s="4" t="str">
         <f t="shared" si="3"/>
         <v>03/2023</v>
       </c>
-      <c r="P20" s="2" t="str">
+      <c r="Q20" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q20" s="2" t="str">
+      <c r="R20" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202303</v>
       </c>
-      <c r="R20" s="2" t="str">
+      <c r="S20" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 19</v>
       </c>
-      <c r="S20" s="2" t="str">
+      <c r="T20" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 19 CBTE SOS.txt</v>
       </c>
-      <c r="T20" s="2" t="str">
+      <c r="U20" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 19 Alicuota SOS.txt</v>
       </c>
-      <c r="U20" s="2" t="str">
+      <c r="V20" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 19 CBTE SOS.txt</v>
       </c>
-      <c r="V20" s="2" t="str">
+      <c r="W20" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 19 Alicuota SOS.txt</v>
       </c>
-      <c r="W20" s="4">
+      <c r="X20" s="4">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="X20" s="4">
+      <c r="Y20" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Z20" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W20,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W20,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB20" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W20,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X20,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X20,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC20" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X20,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3063,80 +3274,83 @@
       <c r="I21" t="s">
         <v>12</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L21" s="4" t="str">
+      <c r="M21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 20\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N21" s="4" t="str">
+      <c r="O21" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 20\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O21" s="4" t="str">
+      <c r="P21" s="4" t="str">
         <f t="shared" si="3"/>
         <v>03/2023</v>
       </c>
-      <c r="P21" s="2" t="str">
+      <c r="Q21" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q21" s="2" t="str">
+      <c r="R21" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202303</v>
       </c>
-      <c r="R21" s="2" t="str">
+      <c r="S21" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 20</v>
       </c>
-      <c r="S21" s="2" t="str">
+      <c r="T21" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 20 CBTE SOS.txt</v>
       </c>
-      <c r="T21" s="2" t="str">
+      <c r="U21" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 20 Alicuota SOS.txt</v>
       </c>
-      <c r="U21" s="2" t="str">
+      <c r="V21" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 20 CBTE SOS.txt</v>
       </c>
-      <c r="V21" s="2" t="str">
+      <c r="W21" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 20 Alicuota SOS.txt</v>
       </c>
-      <c r="W21" s="4">
+      <c r="X21" s="4">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="X21" s="4">
+      <c r="Y21" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Z21" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W21,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W21,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB21" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W21,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X21,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X21,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC21" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X21,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3167,80 +3381,83 @@
       <c r="I22" t="s">
         <v>13</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L22" s="4" t="str">
+      <c r="M22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 21\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M22" t="str">
+      <c r="N22" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N22" s="4" t="str">
+      <c r="O22" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 21\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O22" s="4" t="str">
+      <c r="P22" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P22" s="2" t="str">
+      <c r="Q22" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q22" s="2" t="str">
+      <c r="R22" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R22" s="2" t="str">
+      <c r="S22" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 21</v>
       </c>
-      <c r="S22" s="2" t="str">
+      <c r="T22" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 21 CBTE SOS.txt</v>
       </c>
-      <c r="T22" s="2" t="str">
+      <c r="U22" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 21 Alicuota SOS.txt</v>
       </c>
-      <c r="U22" s="2" t="str">
+      <c r="V22" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 21 CBTE SOS.txt</v>
       </c>
-      <c r="V22" s="2" t="str">
+      <c r="W22" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 21 Alicuota SOS.txt</v>
       </c>
-      <c r="W22" s="4">
+      <c r="X22" s="4">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="X22" s="4">
+      <c r="Y22" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="Z22" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W22,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W22,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB22" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W22,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X22,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X22,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC22" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X22,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3271,80 +3488,83 @@
       <c r="I23" t="s">
         <v>13</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L23" s="4" t="str">
+      <c r="M23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 22\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N23" s="4" t="str">
+      <c r="O23" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 22\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O23" s="4" t="str">
+      <c r="P23" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P23" s="2" t="str">
+      <c r="Q23" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q23" s="2" t="str">
+      <c r="R23" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R23" s="2" t="str">
+      <c r="S23" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 22</v>
       </c>
-      <c r="S23" s="2" t="str">
+      <c r="T23" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 22 CBTE SOS.txt</v>
       </c>
-      <c r="T23" s="2" t="str">
+      <c r="U23" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 22 Alicuota SOS.txt</v>
       </c>
-      <c r="U23" s="2" t="str">
+      <c r="V23" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 22 CBTE SOS.txt</v>
       </c>
-      <c r="V23" s="2" t="str">
+      <c r="W23" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 22 Alicuota SOS.txt</v>
       </c>
-      <c r="W23" s="4">
+      <c r="X23" s="4">
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Y23" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Z23" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z23" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W23,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA23" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W23,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB23" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W23,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X23,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X23,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC23" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X23,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3375,80 +3595,83 @@
       <c r="I24" t="s">
         <v>13</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L24" s="4" t="str">
+      <c r="M24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 23\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N24" s="4" t="str">
+      <c r="O24" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 23\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O24" s="4" t="str">
+      <c r="P24" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P24" s="2" t="str">
+      <c r="Q24" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q24" s="2" t="str">
+      <c r="R24" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R24" s="2" t="str">
+      <c r="S24" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 23</v>
       </c>
-      <c r="S24" s="2" t="str">
+      <c r="T24" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 23 CBTE SOS.txt</v>
       </c>
-      <c r="T24" s="2" t="str">
+      <c r="U24" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 23 Alicuota SOS.txt</v>
       </c>
-      <c r="U24" s="2" t="str">
+      <c r="V24" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 23 CBTE SOS.txt</v>
       </c>
-      <c r="V24" s="2" t="str">
+      <c r="W24" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 23 Alicuota SOS.txt</v>
       </c>
-      <c r="W24" s="4">
+      <c r="X24" s="4">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Y24" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="Z24" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z24" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W24,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA24" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W24,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB24" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W24,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X24,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X24,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC24" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X24,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3477,80 +3700,83 @@
       <c r="I25" t="s">
         <v>13</v>
       </c>
-      <c r="K25" t="str">
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L25" s="4" t="str">
+      <c r="M25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 24\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N25" s="4" t="str">
+      <c r="O25" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 24\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O25" s="4" t="str">
+      <c r="P25" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P25" s="2" t="str">
+      <c r="Q25" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q25" s="2" t="str">
+      <c r="R25" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R25" s="2" t="str">
+      <c r="S25" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 24</v>
       </c>
-      <c r="S25" s="2" t="str">
+      <c r="T25" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 24 CBTE SOS.txt</v>
       </c>
-      <c r="T25" s="2" t="str">
+      <c r="U25" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 24 Alicuota SOS.txt</v>
       </c>
-      <c r="U25" s="2" t="str">
+      <c r="V25" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 24 CBTE SOS.txt</v>
       </c>
-      <c r="V25" s="2" t="str">
+      <c r="W25" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 24 Alicuota SOS.txt</v>
       </c>
-      <c r="W25" s="4">
+      <c r="X25" s="4">
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="X25" s="4">
+      <c r="Y25" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="Z25" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z25" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W25,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA25" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W25,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB25" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W25,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X25,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X25,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC25" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X25,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3579,80 +3805,83 @@
       <c r="I26" t="s">
         <v>13</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L26" s="4" t="str">
+      <c r="M26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 25\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M26" t="str">
+      <c r="N26" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N26" s="4" t="str">
+      <c r="O26" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 25\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O26" s="4" t="str">
+      <c r="P26" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P26" s="2" t="str">
+      <c r="Q26" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q26" s="2" t="str">
+      <c r="R26" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R26" s="2" t="str">
+      <c r="S26" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 25</v>
       </c>
-      <c r="S26" s="2" t="str">
+      <c r="T26" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 25 CBTE SOS.txt</v>
       </c>
-      <c r="T26" s="2" t="str">
+      <c r="U26" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 25 Alicuota SOS.txt</v>
       </c>
-      <c r="U26" s="2" t="str">
+      <c r="V26" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 25 CBTE SOS.txt</v>
       </c>
-      <c r="V26" s="2" t="str">
+      <c r="W26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 25 Alicuota SOS.txt</v>
       </c>
-      <c r="W26" s="4">
+      <c r="X26" s="4">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="X26" s="4">
+      <c r="Y26" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Z26" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z26" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W26,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA26" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W26,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB26" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W26,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X26,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X26,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC26" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X26,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3681,80 +3910,83 @@
       <c r="I27" t="s">
         <v>13</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L27" s="4" t="str">
+      <c r="M27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 26\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M27" t="str">
+      <c r="N27" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N27" s="4" t="str">
+      <c r="O27" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 26\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O27" s="4" t="str">
+      <c r="P27" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P27" s="2" t="str">
+      <c r="Q27" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q27" s="2" t="str">
+      <c r="R27" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R27" s="2" t="str">
+      <c r="S27" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 26</v>
       </c>
-      <c r="S27" s="2" t="str">
+      <c r="T27" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 26 CBTE SOS.txt</v>
       </c>
-      <c r="T27" s="2" t="str">
+      <c r="U27" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 26 Alicuota SOS.txt</v>
       </c>
-      <c r="U27" s="2" t="str">
+      <c r="V27" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 26 CBTE SOS.txt</v>
       </c>
-      <c r="V27" s="2" t="str">
+      <c r="W27" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 26 Alicuota SOS.txt</v>
       </c>
-      <c r="W27" s="4">
+      <c r="X27" s="4">
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="X27" s="4">
+      <c r="Y27" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="Z27" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z27" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W27,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA27" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W27,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB27" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W27,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X27,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X27,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC27" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X27,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3785,80 +4017,83 @@
       <c r="I28" t="s">
         <v>13</v>
       </c>
-      <c r="K28" t="str">
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L28" s="4" t="str">
+      <c r="M28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 27\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M28" t="str">
+      <c r="N28" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N28" s="4" t="str">
+      <c r="O28" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 27\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O28" s="4" t="str">
+      <c r="P28" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P28" s="2" t="str">
+      <c r="Q28" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q28" s="2" t="str">
+      <c r="R28" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R28" s="2" t="str">
+      <c r="S28" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 27</v>
       </c>
-      <c r="S28" s="2" t="str">
+      <c r="T28" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 27 CBTE SOS.txt</v>
       </c>
-      <c r="T28" s="2" t="str">
+      <c r="U28" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 27 Alicuota SOS.txt</v>
       </c>
-      <c r="U28" s="2" t="str">
+      <c r="V28" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 27 CBTE SOS.txt</v>
       </c>
-      <c r="V28" s="2" t="str">
+      <c r="W28" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 27 Alicuota SOS.txt</v>
       </c>
-      <c r="W28" s="4">
+      <c r="X28" s="4">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="X28" s="4">
+      <c r="Y28" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y28" s="4">
+      <c r="Z28" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z28" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W28,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA28" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W28,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB28" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W28,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X28,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X28,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC28" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X28,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3887,80 +4122,83 @@
       <c r="I29" t="s">
         <v>13</v>
       </c>
-      <c r="K29" t="str">
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L29" s="4" t="str">
+      <c r="M29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 28\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M29" t="str">
+      <c r="N29" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N29" s="4" t="str">
+      <c r="O29" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 28\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O29" s="4" t="str">
+      <c r="P29" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P29" s="2" t="str">
+      <c r="Q29" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q29" s="2" t="str">
+      <c r="R29" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R29" s="2" t="str">
+      <c r="S29" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 28</v>
       </c>
-      <c r="S29" s="2" t="str">
+      <c r="T29" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 28 CBTE SOS.txt</v>
       </c>
-      <c r="T29" s="2" t="str">
+      <c r="U29" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 28 Alicuota SOS.txt</v>
       </c>
-      <c r="U29" s="2" t="str">
+      <c r="V29" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 28 CBTE SOS.txt</v>
       </c>
-      <c r="V29" s="2" t="str">
+      <c r="W29" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 28 Alicuota SOS.txt</v>
       </c>
-      <c r="W29" s="4">
+      <c r="X29" s="4">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="X29" s="4">
+      <c r="Y29" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y29" s="4">
+      <c r="Z29" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W29,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W29,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB29" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W29,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X29,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X29,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC29" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X29,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3989,80 +4227,83 @@
       <c r="I30" t="s">
         <v>12</v>
       </c>
-      <c r="K30" t="str">
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L30" s="4" t="str">
+      <c r="M30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 29\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N30" s="4" t="str">
+      <c r="O30" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 29\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O30" s="4" t="str">
+      <c r="P30" s="4" t="str">
         <f t="shared" si="3"/>
         <v>03/2023</v>
       </c>
-      <c r="P30" s="2" t="str">
+      <c r="Q30" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q30" s="2" t="str">
+      <c r="R30" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202303</v>
       </c>
-      <c r="R30" s="2" t="str">
+      <c r="S30" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 29</v>
       </c>
-      <c r="S30" s="2" t="str">
+      <c r="T30" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 29 CBTE SOS.txt</v>
       </c>
-      <c r="T30" s="2" t="str">
+      <c r="U30" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 29 Alicuota SOS.txt</v>
       </c>
-      <c r="U30" s="2" t="str">
+      <c r="V30" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 29 CBTE SOS.txt</v>
       </c>
-      <c r="V30" s="2" t="str">
+      <c r="W30" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 29 Alicuota SOS.txt</v>
       </c>
-      <c r="W30" s="4">
+      <c r="X30" s="4">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="X30" s="4">
+      <c r="Y30" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y30" s="4">
+      <c r="Z30" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z30" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W30,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA30" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W30,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB30" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W30,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X30,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X30,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC30" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X30,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4091,80 +4332,83 @@
       <c r="I31" t="s">
         <v>13</v>
       </c>
-      <c r="K31" t="str">
+      <c r="K31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L31" s="4" t="str">
+      <c r="M31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 30\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N31" s="4" t="str">
+      <c r="O31" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 30\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O31" s="4" t="str">
+      <c r="P31" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P31" s="2" t="str">
+      <c r="Q31" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q31" s="2" t="str">
+      <c r="R31" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R31" s="2" t="str">
+      <c r="S31" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 30</v>
       </c>
-      <c r="S31" s="2" t="str">
+      <c r="T31" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 30 CBTE SOS.txt</v>
       </c>
-      <c r="T31" s="2" t="str">
+      <c r="U31" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 30 Alicuota SOS.txt</v>
       </c>
-      <c r="U31" s="2" t="str">
+      <c r="V31" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 30 CBTE SOS.txt</v>
       </c>
-      <c r="V31" s="2" t="str">
+      <c r="W31" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 30 Alicuota SOS.txt</v>
       </c>
-      <c r="W31" s="4">
+      <c r="X31" s="4">
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="X31" s="4">
+      <c r="Y31" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y31" s="4">
+      <c r="Z31" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z31" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W31,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA31" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W31,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB31" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W31,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X31,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X31,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC31" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X31,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4193,80 +4437,83 @@
       <c r="I32" t="s">
         <v>12</v>
       </c>
-      <c r="K32" t="str">
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L32" s="4" t="str">
+      <c r="M32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 31\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M32" t="str">
+      <c r="N32" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N32" s="4" t="str">
+      <c r="O32" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 31\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O32" s="4" t="str">
+      <c r="P32" s="4" t="str">
         <f t="shared" si="3"/>
         <v>03/2023</v>
       </c>
-      <c r="P32" s="2" t="str">
+      <c r="Q32" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q32" s="2" t="str">
+      <c r="R32" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202303</v>
       </c>
-      <c r="R32" s="2" t="str">
+      <c r="S32" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 31</v>
       </c>
-      <c r="S32" s="2" t="str">
+      <c r="T32" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 31 CBTE SOS.txt</v>
       </c>
-      <c r="T32" s="2" t="str">
+      <c r="U32" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 31 Alicuota SOS.txt</v>
       </c>
-      <c r="U32" s="2" t="str">
+      <c r="V32" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 31 CBTE SOS.txt</v>
       </c>
-      <c r="V32" s="2" t="str">
+      <c r="W32" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 31 Alicuota SOS.txt</v>
       </c>
-      <c r="W32" s="4">
+      <c r="X32" s="4">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="X32" s="4">
+      <c r="Y32" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y32" s="4">
+      <c r="Z32" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z32" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W32,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA32" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W32,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB32" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W32,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X32,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X32,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC32" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X32,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4295,80 +4542,83 @@
       <c r="I33" t="s">
         <v>13</v>
       </c>
-      <c r="K33" t="str">
+      <c r="K33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" t="str">
         <f t="shared" si="1"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L33" s="4" t="str">
+      <c r="M33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 32\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M33" t="str">
+      <c r="N33" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N33" s="4" t="str">
+      <c r="O33" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 32\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O33" s="4" t="str">
+      <c r="P33" s="4" t="str">
         <f t="shared" si="3"/>
         <v>04/2023</v>
       </c>
-      <c r="P33" s="2" t="str">
+      <c r="Q33" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q33" s="2" t="str">
+      <c r="R33" s="2" t="str">
         <f t="shared" si="5"/>
         <v>202304</v>
       </c>
-      <c r="R33" s="2" t="str">
+      <c r="S33" s="2" t="str">
         <f t="shared" si="6"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 32</v>
       </c>
-      <c r="S33" s="2" t="str">
+      <c r="T33" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 CBTE SOS.txt</v>
       </c>
-      <c r="T33" s="2" t="str">
+      <c r="U33" s="2" t="str">
         <f t="shared" si="7"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
       </c>
-      <c r="U33" s="2" t="str">
+      <c r="V33" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 CBTE SOS.txt</v>
       </c>
-      <c r="V33" s="2" t="str">
+      <c r="W33" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 32 Alicuota SOS.txt</v>
       </c>
-      <c r="W33" s="4">
+      <c r="X33" s="4">
         <f t="shared" si="9"/>
         <v>33</v>
       </c>
-      <c r="X33" s="4">
+      <c r="Y33" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y33" s="4">
+      <c r="Z33" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z33" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W33,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA33" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W33,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB33" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W33,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X33,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X33,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC33" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X33,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" ref="A34:A63" si="18">RIGHT(D34,1)</f>
         <v>0</v>
@@ -4397,80 +4647,83 @@
       <c r="I34" t="s">
         <v>12</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" ref="K34:K63" si="19">"F:\Libros Compras y Ventas\"&amp;YEAR(F34)&amp;"\"&amp;Q34&amp;"\TXT"</f>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" ref="L34:L63" si="19">"F:\Libros Compras y Ventas\"&amp;YEAR(F34)&amp;"\"&amp;R34&amp;"\TXT"</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L34" s="4" t="str">
-        <f t="shared" ref="L34:L65" si="20">CONCATENATE(K34,"\",B34,"\","COMVEN LID","\",YEAR(F34),"\",TEXT(MONTH(F34),"00"),"\")</f>
+      <c r="M34" s="4" t="str">
+        <f t="shared" ref="M34:M63" si="20">CONCATENATE(L34,"\",B34,"\","COMVEN LID","\",YEAR(F34),"\",TEXT(MONTH(F34),"00"),"\")</f>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 33\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M34" t="str">
+      <c r="N34" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N34" s="4" t="str">
+      <c r="O34" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 33\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O34" s="4" t="str">
-        <f t="shared" ref="O34:O63" si="21">TEXT(MONTH(F34),"00")&amp;"/"&amp;YEAR(F34)</f>
+      <c r="P34" s="4" t="str">
+        <f t="shared" ref="P34:P63" si="21">TEXT(MONTH(F34),"00")&amp;"/"&amp;YEAR(F34)</f>
         <v>03/2023</v>
       </c>
-      <c r="P34" s="2" t="str">
-        <f t="shared" ref="P34:P63" si="22">PROPER(TEXT(F34,"mmmm"))&amp;" "&amp;YEAR(F34)</f>
+      <c r="Q34" s="2" t="str">
+        <f t="shared" ref="Q34:Q63" si="22">PROPER(TEXT(F34,"mmmm"))&amp;" "&amp;YEAR(F34)</f>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q34" s="2" t="str">
-        <f t="shared" ref="Q34:Q63" si="23">YEAR(F34)&amp;TEXT(MONTH(F34),"00")</f>
+      <c r="R34" s="2" t="str">
+        <f t="shared" ref="R34:R63" si="23">YEAR(F34)&amp;TEXT(MONTH(F34),"00")</f>
         <v>202303</v>
       </c>
-      <c r="R34" s="2" t="str">
-        <f t="shared" ref="R34:R65" si="24">CONCATENATE(TEXT(A34,"0"),"  - ",Q34," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
+      <c r="S34" s="2" t="str">
+        <f t="shared" ref="S34:S63" si="24">CONCATENATE(TEXT(A34,"0"),"  - ",R34," - ",SUBSTITUTE(D34,"-","")," - ",B34)</f>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 33</v>
       </c>
-      <c r="S34" s="2" t="str">
+      <c r="T34" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 33 CBTE SOS.txt</v>
       </c>
-      <c r="T34" s="2" t="str">
-        <f t="shared" ref="T34:T63" si="25">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",Q34," - ",B34," Alicuota SOS.txt")</f>
+      <c r="U34" s="2" t="str">
+        <f t="shared" ref="U34:U63" si="25">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIV - ",R34," - ",B34," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 33 Alicuota SOS.txt</v>
       </c>
-      <c r="U34" s="2" t="str">
+      <c r="V34" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 33 CBTE SOS.txt</v>
       </c>
-      <c r="V34" s="2" t="str">
-        <f t="shared" ref="V34:V63" si="26">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",Q34," - ",B34," Alicuota SOS.txt")</f>
+      <c r="W34" s="2" t="str">
+        <f t="shared" ref="W34:W63" si="26">CONCATENATE(A34," - ",SUBSTITUTE(D34,"-","")," - ","LIC - ",R34," - ",B34," Alicuota SOS.txt")</f>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 33 Alicuota SOS.txt</v>
       </c>
-      <c r="W34" s="4">
-        <f t="shared" ref="W34:W63" si="27">ROW(A34)</f>
+      <c r="X34" s="4">
+        <f t="shared" ref="X34:X63" si="27">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="X34" s="4">
-        <f t="shared" ref="X34:X63" si="28">IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="Y34" s="4">
-        <f t="shared" ref="Y34:Y63" si="29">IF(C34=C35,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Z34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W34,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
+        <f t="shared" ref="Y34:Y63" si="28">IF(C34=C33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z34" s="4">
+        <f t="shared" ref="Z34:Z63" si="29">IF(C34=C35,1,0)</f>
+        <v>1</v>
       </c>
       <c r="AA34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W34,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB34" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W34,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X34,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X34,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC34" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X34,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -4499,80 +4752,83 @@
       <c r="I35" t="s">
         <v>13</v>
       </c>
-      <c r="K35" t="str">
+      <c r="K35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L35" s="4" t="str">
+      <c r="M35" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 34\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M35" t="str">
+      <c r="N35" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N35" s="4" t="str">
+      <c r="O35" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 34\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O35" s="4" t="str">
+      <c r="P35" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P35" s="2" t="str">
+      <c r="Q35" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q35" s="2" t="str">
+      <c r="R35" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R35" s="2" t="str">
+      <c r="S35" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 34</v>
       </c>
-      <c r="S35" s="2" t="str">
+      <c r="T35" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 34 CBTE SOS.txt</v>
       </c>
-      <c r="T35" s="2" t="str">
+      <c r="U35" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 34 Alicuota SOS.txt</v>
       </c>
-      <c r="U35" s="2" t="str">
+      <c r="V35" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 34 CBTE SOS.txt</v>
       </c>
-      <c r="V35" s="2" t="str">
+      <c r="W35" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 34 Alicuota SOS.txt</v>
       </c>
-      <c r="W35" s="4">
+      <c r="X35" s="4">
         <f t="shared" si="27"/>
         <v>35</v>
       </c>
-      <c r="X35" s="4">
+      <c r="Y35" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y35" s="4">
+      <c r="Z35" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W35,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W35,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB35" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W35,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X35,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X35,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC35" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X35,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -4603,80 +4859,83 @@
       <c r="I36" t="s">
         <v>13</v>
       </c>
-      <c r="K36" t="str">
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L36" s="4" t="str">
+      <c r="M36" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 35\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M36" t="str">
+      <c r="N36" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N36" s="4" t="str">
+      <c r="O36" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 35\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O36" s="4" t="str">
+      <c r="P36" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P36" s="2" t="str">
+      <c r="Q36" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q36" s="2" t="str">
+      <c r="R36" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R36" s="2" t="str">
+      <c r="S36" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 35</v>
       </c>
-      <c r="S36" s="2" t="str">
+      <c r="T36" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 35 CBTE SOS.txt</v>
       </c>
-      <c r="T36" s="2" t="str">
+      <c r="U36" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 35 Alicuota SOS.txt</v>
       </c>
-      <c r="U36" s="2" t="str">
+      <c r="V36" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 35 CBTE SOS.txt</v>
       </c>
-      <c r="V36" s="2" t="str">
+      <c r="W36" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 35 Alicuota SOS.txt</v>
       </c>
-      <c r="W36" s="4">
+      <c r="X36" s="4">
         <f t="shared" si="27"/>
         <v>36</v>
       </c>
-      <c r="X36" s="4">
+      <c r="Y36" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y36" s="4">
+      <c r="Z36" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W36,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W36,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB36" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W36,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X36,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X36,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC36" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X36,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -4705,80 +4964,83 @@
       <c r="I37" t="s">
         <v>13</v>
       </c>
-      <c r="K37" t="str">
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L37" s="4" t="str">
+      <c r="M37" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 36\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M37" t="str">
+      <c r="N37" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N37" s="4" t="str">
+      <c r="O37" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 36\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O37" s="4" t="str">
+      <c r="P37" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P37" s="2" t="str">
+      <c r="Q37" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q37" s="2" t="str">
+      <c r="R37" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R37" s="2" t="str">
+      <c r="S37" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 36</v>
       </c>
-      <c r="S37" s="2" t="str">
+      <c r="T37" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 36 CBTE SOS.txt</v>
       </c>
-      <c r="T37" s="2" t="str">
+      <c r="U37" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 36 Alicuota SOS.txt</v>
       </c>
-      <c r="U37" s="2" t="str">
+      <c r="V37" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 36 CBTE SOS.txt</v>
       </c>
-      <c r="V37" s="2" t="str">
+      <c r="W37" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 36 Alicuota SOS.txt</v>
       </c>
-      <c r="W37" s="4">
+      <c r="X37" s="4">
         <f t="shared" si="27"/>
         <v>37</v>
       </c>
-      <c r="X37" s="4">
+      <c r="Y37" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y37" s="4">
+      <c r="Z37" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W37,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W37,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB37" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W37,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X37,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X37,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC37" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X37,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -4807,80 +5069,83 @@
       <c r="I38" t="s">
         <v>13</v>
       </c>
-      <c r="K38" t="str">
+      <c r="K38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L38" s="4" t="str">
+      <c r="M38" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 37\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M38" t="str">
+      <c r="N38" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N38" s="4" t="str">
+      <c r="O38" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 37\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O38" s="4" t="str">
+      <c r="P38" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P38" s="2" t="str">
+      <c r="Q38" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q38" s="2" t="str">
+      <c r="R38" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R38" s="2" t="str">
+      <c r="S38" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 37</v>
       </c>
-      <c r="S38" s="2" t="str">
+      <c r="T38" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 37 CBTE SOS.txt</v>
       </c>
-      <c r="T38" s="2" t="str">
+      <c r="U38" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 37 Alicuota SOS.txt</v>
       </c>
-      <c r="U38" s="2" t="str">
+      <c r="V38" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 37 CBTE SOS.txt</v>
       </c>
-      <c r="V38" s="2" t="str">
+      <c r="W38" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 37 Alicuota SOS.txt</v>
       </c>
-      <c r="W38" s="4">
+      <c r="X38" s="4">
         <f t="shared" si="27"/>
         <v>38</v>
       </c>
-      <c r="X38" s="4">
+      <c r="Y38" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y38" s="4">
+      <c r="Z38" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W38,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W38,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB38" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W38,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X38,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X38,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC38" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X38,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -4911,80 +5176,83 @@
       <c r="I39" t="s">
         <v>13</v>
       </c>
-      <c r="K39" t="str">
+      <c r="K39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L39" s="4" t="str">
+      <c r="M39" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 38\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M39" t="str">
+      <c r="N39" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N39" s="4" t="str">
+      <c r="O39" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 38\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O39" s="4" t="str">
+      <c r="P39" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P39" s="2" t="str">
+      <c r="Q39" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q39" s="2" t="str">
+      <c r="R39" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R39" s="2" t="str">
+      <c r="S39" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 38</v>
       </c>
-      <c r="S39" s="2" t="str">
+      <c r="T39" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 38 CBTE SOS.txt</v>
       </c>
-      <c r="T39" s="2" t="str">
+      <c r="U39" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 38 Alicuota SOS.txt</v>
       </c>
-      <c r="U39" s="2" t="str">
+      <c r="V39" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 38 CBTE SOS.txt</v>
       </c>
-      <c r="V39" s="2" t="str">
+      <c r="W39" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 38 Alicuota SOS.txt</v>
       </c>
-      <c r="W39" s="4">
+      <c r="X39" s="4">
         <f t="shared" si="27"/>
         <v>39</v>
       </c>
-      <c r="X39" s="4">
+      <c r="Y39" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y39" s="4">
+      <c r="Z39" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W39,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W39,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB39" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W39,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X39,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X39,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC39" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X39,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -5013,80 +5281,83 @@
       <c r="I40" t="s">
         <v>13</v>
       </c>
-      <c r="K40" t="str">
+      <c r="K40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L40" s="4" t="str">
+      <c r="M40" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 39\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M40" t="str">
+      <c r="N40" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N40" s="4" t="str">
+      <c r="O40" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 39\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O40" s="4" t="str">
+      <c r="P40" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P40" s="2" t="str">
+      <c r="Q40" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q40" s="2" t="str">
+      <c r="R40" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R40" s="2" t="str">
+      <c r="S40" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 39</v>
       </c>
-      <c r="S40" s="2" t="str">
+      <c r="T40" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 39 CBTE SOS.txt</v>
       </c>
-      <c r="T40" s="2" t="str">
+      <c r="U40" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 39 Alicuota SOS.txt</v>
       </c>
-      <c r="U40" s="2" t="str">
+      <c r="V40" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 39 CBTE SOS.txt</v>
       </c>
-      <c r="V40" s="2" t="str">
+      <c r="W40" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 39 Alicuota SOS.txt</v>
       </c>
-      <c r="W40" s="4">
+      <c r="X40" s="4">
         <f t="shared" si="27"/>
         <v>40</v>
       </c>
-      <c r="X40" s="4">
+      <c r="Y40" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y40" s="4">
+      <c r="Z40" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W40,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W40,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB40" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W40,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X40,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X40,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC40" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X40,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -5115,80 +5386,83 @@
       <c r="I41" t="s">
         <v>13</v>
       </c>
-      <c r="K41" t="str">
+      <c r="K41" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L41" s="4" t="str">
+      <c r="M41" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 40\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M41" t="str">
+      <c r="N41" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N41" s="4" t="str">
+      <c r="O41" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 40\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O41" s="4" t="str">
+      <c r="P41" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P41" s="2" t="str">
+      <c r="Q41" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q41" s="2" t="str">
+      <c r="R41" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R41" s="2" t="str">
+      <c r="S41" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 40</v>
       </c>
-      <c r="S41" s="2" t="str">
+      <c r="T41" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 40 CBTE SOS.txt</v>
       </c>
-      <c r="T41" s="2" t="str">
+      <c r="U41" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 40 Alicuota SOS.txt</v>
       </c>
-      <c r="U41" s="2" t="str">
+      <c r="V41" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 40 CBTE SOS.txt</v>
       </c>
-      <c r="V41" s="2" t="str">
+      <c r="W41" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 40 Alicuota SOS.txt</v>
       </c>
-      <c r="W41" s="4">
+      <c r="X41" s="4">
         <f t="shared" si="27"/>
         <v>41</v>
       </c>
-      <c r="X41" s="4">
+      <c r="Y41" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y41" s="4">
+      <c r="Z41" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W41,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W41,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB41" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W41,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X41,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X41,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC41" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X41,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -5219,80 +5493,83 @@
       <c r="I42" t="s">
         <v>13</v>
       </c>
-      <c r="K42" t="str">
+      <c r="K42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L42" s="4" t="str">
+      <c r="M42" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 41\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M42" t="str">
+      <c r="N42" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N42" s="4" t="str">
+      <c r="O42" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 41\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O42" s="4" t="str">
+      <c r="P42" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P42" s="2" t="str">
+      <c r="Q42" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q42" s="2" t="str">
+      <c r="R42" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R42" s="2" t="str">
+      <c r="S42" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 41</v>
       </c>
-      <c r="S42" s="2" t="str">
+      <c r="T42" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 41 CBTE SOS.txt</v>
       </c>
-      <c r="T42" s="2" t="str">
+      <c r="U42" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 41 Alicuota SOS.txt</v>
       </c>
-      <c r="U42" s="2" t="str">
+      <c r="V42" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 41 CBTE SOS.txt</v>
       </c>
-      <c r="V42" s="2" t="str">
+      <c r="W42" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 41 Alicuota SOS.txt</v>
       </c>
-      <c r="W42" s="4">
+      <c r="X42" s="4">
         <f t="shared" si="27"/>
         <v>42</v>
       </c>
-      <c r="X42" s="4">
+      <c r="Y42" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y42" s="4">
+      <c r="Z42" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W42,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W42,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB42" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W42,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X42,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X42,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC42" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X42,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -5321,80 +5598,83 @@
       <c r="I43" t="s">
         <v>12</v>
       </c>
-      <c r="K43" t="str">
+      <c r="K43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L43" s="4" t="str">
+      <c r="M43" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 42\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M43" t="str">
+      <c r="N43" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N43" s="4" t="str">
+      <c r="O43" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 42\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O43" s="4" t="str">
+      <c r="P43" s="4" t="str">
         <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
-      <c r="P43" s="2" t="str">
+      <c r="Q43" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q43" s="2" t="str">
+      <c r="R43" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202303</v>
       </c>
-      <c r="R43" s="2" t="str">
+      <c r="S43" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 42</v>
       </c>
-      <c r="S43" s="2" t="str">
+      <c r="T43" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 42 CBTE SOS.txt</v>
       </c>
-      <c r="T43" s="2" t="str">
+      <c r="U43" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 42 Alicuota SOS.txt</v>
       </c>
-      <c r="U43" s="2" t="str">
+      <c r="V43" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 42 CBTE SOS.txt</v>
       </c>
-      <c r="V43" s="2" t="str">
+      <c r="W43" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 42 Alicuota SOS.txt</v>
       </c>
-      <c r="W43" s="4">
+      <c r="X43" s="4">
         <f t="shared" si="27"/>
         <v>43</v>
       </c>
-      <c r="X43" s="4">
+      <c r="Y43" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y43" s="4">
+      <c r="Z43" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W43,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W43,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB43" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W43,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X43,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X43,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC43" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X43,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -5423,80 +5703,83 @@
       <c r="I44" t="s">
         <v>12</v>
       </c>
-      <c r="K44" t="str">
+      <c r="K44" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L44" s="4" t="str">
+      <c r="M44" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 43\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M44" t="str">
+      <c r="N44" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N44" s="4" t="str">
+      <c r="O44" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 43\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O44" s="4" t="str">
+      <c r="P44" s="4" t="str">
         <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
-      <c r="P44" s="2" t="str">
+      <c r="Q44" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q44" s="2" t="str">
+      <c r="R44" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202303</v>
       </c>
-      <c r="R44" s="2" t="str">
+      <c r="S44" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 43</v>
       </c>
-      <c r="S44" s="2" t="str">
+      <c r="T44" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 43 CBTE SOS.txt</v>
       </c>
-      <c r="T44" s="2" t="str">
+      <c r="U44" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 43 Alicuota SOS.txt</v>
       </c>
-      <c r="U44" s="2" t="str">
+      <c r="V44" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 43 CBTE SOS.txt</v>
       </c>
-      <c r="V44" s="2" t="str">
+      <c r="W44" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 43 Alicuota SOS.txt</v>
       </c>
-      <c r="W44" s="4">
+      <c r="X44" s="4">
         <f t="shared" si="27"/>
         <v>44</v>
       </c>
-      <c r="X44" s="4">
+      <c r="Y44" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y44" s="4">
+      <c r="Z44" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W44,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W44,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB44" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W44,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X44,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X44,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC44" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X44,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -5525,80 +5808,83 @@
       <c r="I45" t="s">
         <v>13</v>
       </c>
-      <c r="K45" t="str">
+      <c r="K45" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L45" s="4" t="str">
+      <c r="M45" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 44\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M45" t="str">
+      <c r="N45" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N45" s="4" t="str">
+      <c r="O45" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 44\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O45" s="4" t="str">
+      <c r="P45" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P45" s="2" t="str">
+      <c r="Q45" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q45" s="2" t="str">
+      <c r="R45" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R45" s="2" t="str">
+      <c r="S45" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 44</v>
       </c>
-      <c r="S45" s="2" t="str">
+      <c r="T45" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 44 CBTE SOS.txt</v>
       </c>
-      <c r="T45" s="2" t="str">
+      <c r="U45" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 44 Alicuota SOS.txt</v>
       </c>
-      <c r="U45" s="2" t="str">
+      <c r="V45" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 44 CBTE SOS.txt</v>
       </c>
-      <c r="V45" s="2" t="str">
+      <c r="W45" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 44 Alicuota SOS.txt</v>
       </c>
-      <c r="W45" s="4">
+      <c r="X45" s="4">
         <f t="shared" si="27"/>
         <v>45</v>
       </c>
-      <c r="X45" s="4">
+      <c r="Y45" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y45" s="4">
+      <c r="Z45" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W45,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W45,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB45" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W45,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X45,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X45,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC45" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X45,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -5627,80 +5913,83 @@
       <c r="I46" t="s">
         <v>13</v>
       </c>
-      <c r="K46" t="str">
+      <c r="K46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L46" s="4" t="str">
+      <c r="M46" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 45\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M46" t="str">
+      <c r="N46" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N46" s="4" t="str">
+      <c r="O46" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 45\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O46" s="4" t="str">
+      <c r="P46" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P46" s="2" t="str">
+      <c r="Q46" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q46" s="2" t="str">
+      <c r="R46" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R46" s="2" t="str">
+      <c r="S46" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 45</v>
       </c>
-      <c r="S46" s="2" t="str">
+      <c r="T46" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 45 CBTE SOS.txt</v>
       </c>
-      <c r="T46" s="2" t="str">
+      <c r="U46" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 45 Alicuota SOS.txt</v>
       </c>
-      <c r="U46" s="2" t="str">
+      <c r="V46" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 45 CBTE SOS.txt</v>
       </c>
-      <c r="V46" s="2" t="str">
+      <c r="W46" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 45 Alicuota SOS.txt</v>
       </c>
-      <c r="W46" s="4">
+      <c r="X46" s="4">
         <f t="shared" si="27"/>
         <v>46</v>
       </c>
-      <c r="X46" s="4">
+      <c r="Y46" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y46" s="4">
+      <c r="Z46" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W46,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W46,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB46" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W46,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X46,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X46,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC46" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X46,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -5729,80 +6018,83 @@
       <c r="I47" t="s">
         <v>12</v>
       </c>
-      <c r="K47" t="str">
+      <c r="K47" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L47" s="4" t="str">
+      <c r="M47" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 46\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M47" t="str">
+      <c r="N47" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N47" s="4" t="str">
+      <c r="O47" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 46\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O47" s="4" t="str">
+      <c r="P47" s="4" t="str">
         <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
-      <c r="P47" s="2" t="str">
+      <c r="Q47" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q47" s="2" t="str">
+      <c r="R47" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202303</v>
       </c>
-      <c r="R47" s="2" t="str">
+      <c r="S47" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 46</v>
       </c>
-      <c r="S47" s="2" t="str">
+      <c r="T47" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 46 CBTE SOS.txt</v>
       </c>
-      <c r="T47" s="2" t="str">
+      <c r="U47" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 46 Alicuota SOS.txt</v>
       </c>
-      <c r="U47" s="2" t="str">
+      <c r="V47" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 46 CBTE SOS.txt</v>
       </c>
-      <c r="V47" s="2" t="str">
+      <c r="W47" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 46 Alicuota SOS.txt</v>
       </c>
-      <c r="W47" s="4">
+      <c r="X47" s="4">
         <f t="shared" si="27"/>
         <v>47</v>
       </c>
-      <c r="X47" s="4">
+      <c r="Y47" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y47" s="4">
+      <c r="Z47" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W47,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W47,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB47" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W47,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X47,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X47,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC47" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X47,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -5831,80 +6123,83 @@
       <c r="I48" t="s">
         <v>13</v>
       </c>
-      <c r="K48" t="str">
+      <c r="K48" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L48" s="4" t="str">
+      <c r="M48" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 47\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M48" t="str">
+      <c r="N48" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N48" s="4" t="str">
+      <c r="O48" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 47\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O48" s="4" t="str">
+      <c r="P48" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P48" s="2" t="str">
+      <c r="Q48" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q48" s="2" t="str">
+      <c r="R48" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R48" s="2" t="str">
+      <c r="S48" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 47</v>
       </c>
-      <c r="S48" s="2" t="str">
+      <c r="T48" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 47 CBTE SOS.txt</v>
       </c>
-      <c r="T48" s="2" t="str">
+      <c r="U48" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 47 Alicuota SOS.txt</v>
       </c>
-      <c r="U48" s="2" t="str">
+      <c r="V48" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 47 CBTE SOS.txt</v>
       </c>
-      <c r="V48" s="2" t="str">
+      <c r="W48" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 47 Alicuota SOS.txt</v>
       </c>
-      <c r="W48" s="4">
+      <c r="X48" s="4">
         <f t="shared" si="27"/>
         <v>48</v>
       </c>
-      <c r="X48" s="4">
+      <c r="Y48" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y48" s="4">
+      <c r="Z48" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W48,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W48,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB48" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W48,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X48,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X48,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC48" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X48,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -5933,80 +6228,83 @@
       <c r="I49" t="s">
         <v>13</v>
       </c>
-      <c r="K49" t="str">
+      <c r="K49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L49" s="4" t="str">
+      <c r="M49" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 48\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M49" t="str">
+      <c r="N49" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N49" s="4" t="str">
+      <c r="O49" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 48\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O49" s="4" t="str">
+      <c r="P49" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P49" s="2" t="str">
+      <c r="Q49" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q49" s="2" t="str">
+      <c r="R49" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R49" s="2" t="str">
+      <c r="S49" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 48</v>
       </c>
-      <c r="S49" s="2" t="str">
+      <c r="T49" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 48 CBTE SOS.txt</v>
       </c>
-      <c r="T49" s="2" t="str">
+      <c r="U49" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 48 Alicuota SOS.txt</v>
       </c>
-      <c r="U49" s="2" t="str">
+      <c r="V49" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 48 CBTE SOS.txt</v>
       </c>
-      <c r="V49" s="2" t="str">
+      <c r="W49" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 48 Alicuota SOS.txt</v>
       </c>
-      <c r="W49" s="4">
+      <c r="X49" s="4">
         <f t="shared" si="27"/>
         <v>49</v>
       </c>
-      <c r="X49" s="4">
+      <c r="Y49" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y49" s="4">
+      <c r="Z49" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W49,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W49,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB49" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W49,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X49,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X49,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC49" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X49,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -6035,80 +6333,83 @@
       <c r="I50" t="s">
         <v>12</v>
       </c>
-      <c r="K50" t="str">
+      <c r="K50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L50" s="4" t="str">
+      <c r="M50" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 49\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M50" t="str">
+      <c r="N50" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N50" s="4" t="str">
+      <c r="O50" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 49\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O50" s="4" t="str">
+      <c r="P50" s="4" t="str">
         <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
-      <c r="P50" s="2" t="str">
+      <c r="Q50" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q50" s="2" t="str">
+      <c r="R50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202303</v>
       </c>
-      <c r="R50" s="2" t="str">
+      <c r="S50" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 49</v>
       </c>
-      <c r="S50" s="2" t="str">
+      <c r="T50" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 49 CBTE SOS.txt</v>
       </c>
-      <c r="T50" s="2" t="str">
+      <c r="U50" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 49 Alicuota SOS.txt</v>
       </c>
-      <c r="U50" s="2" t="str">
+      <c r="V50" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 49 CBTE SOS.txt</v>
       </c>
-      <c r="V50" s="2" t="str">
+      <c r="W50" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 49 Alicuota SOS.txt</v>
       </c>
-      <c r="W50" s="4">
+      <c r="X50" s="4">
         <f t="shared" si="27"/>
         <v>50</v>
       </c>
-      <c r="X50" s="4">
+      <c r="Y50" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y50" s="4">
+      <c r="Z50" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W50,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W50,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB50" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W50,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X50,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X50,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC50" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X50,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -6137,80 +6438,83 @@
       <c r="I51" t="s">
         <v>12</v>
       </c>
-      <c r="K51" t="str">
+      <c r="K51" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L51" s="4" t="str">
+      <c r="M51" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 50\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M51" t="str">
+      <c r="N51" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N51" s="4" t="str">
+      <c r="O51" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 50\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O51" s="4" t="str">
+      <c r="P51" s="4" t="str">
         <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
-      <c r="P51" s="2" t="str">
+      <c r="Q51" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q51" s="2" t="str">
+      <c r="R51" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202303</v>
       </c>
-      <c r="R51" s="2" t="str">
+      <c r="S51" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 50</v>
       </c>
-      <c r="S51" s="2" t="str">
+      <c r="T51" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 50 CBTE SOS.txt</v>
       </c>
-      <c r="T51" s="2" t="str">
+      <c r="U51" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 50 Alicuota SOS.txt</v>
       </c>
-      <c r="U51" s="2" t="str">
+      <c r="V51" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 50 CBTE SOS.txt</v>
       </c>
-      <c r="V51" s="2" t="str">
+      <c r="W51" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 50 Alicuota SOS.txt</v>
       </c>
-      <c r="W51" s="4">
+      <c r="X51" s="4">
         <f t="shared" si="27"/>
         <v>51</v>
       </c>
-      <c r="X51" s="4">
+      <c r="Y51" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y51" s="4">
+      <c r="Z51" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W51,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W51,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB51" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W51,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X51,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X51,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC51" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X51,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -6239,80 +6543,83 @@
       <c r="I52" t="s">
         <v>12</v>
       </c>
-      <c r="K52" t="str">
+      <c r="K52" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L52" s="4" t="str">
+      <c r="M52" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 51\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M52" t="str">
+      <c r="N52" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N52" s="4" t="str">
+      <c r="O52" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 51\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O52" s="4" t="str">
+      <c r="P52" s="4" t="str">
         <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
-      <c r="P52" s="2" t="str">
+      <c r="Q52" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q52" s="2" t="str">
+      <c r="R52" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202303</v>
       </c>
-      <c r="R52" s="2" t="str">
+      <c r="S52" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 51</v>
       </c>
-      <c r="S52" s="2" t="str">
+      <c r="T52" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 51 CBTE SOS.txt</v>
       </c>
-      <c r="T52" s="2" t="str">
+      <c r="U52" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 51 Alicuota SOS.txt</v>
       </c>
-      <c r="U52" s="2" t="str">
+      <c r="V52" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 51 CBTE SOS.txt</v>
       </c>
-      <c r="V52" s="2" t="str">
+      <c r="W52" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 51 Alicuota SOS.txt</v>
       </c>
-      <c r="W52" s="4">
+      <c r="X52" s="4">
         <f t="shared" si="27"/>
         <v>52</v>
       </c>
-      <c r="X52" s="4">
+      <c r="Y52" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y52" s="4">
+      <c r="Z52" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W52,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W52,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB52" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W52,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X52,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X52,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC52" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X52,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -6341,80 +6648,83 @@
       <c r="I53" t="s">
         <v>13</v>
       </c>
-      <c r="K53" t="str">
+      <c r="K53" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L53" s="4" t="str">
+      <c r="M53" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 52\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M53" t="str">
+      <c r="N53" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N53" s="4" t="str">
+      <c r="O53" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 52\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O53" s="4" t="str">
+      <c r="P53" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P53" s="2" t="str">
+      <c r="Q53" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q53" s="2" t="str">
+      <c r="R53" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R53" s="2" t="str">
+      <c r="S53" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 52</v>
       </c>
-      <c r="S53" s="2" t="str">
+      <c r="T53" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 52 CBTE SOS.txt</v>
       </c>
-      <c r="T53" s="2" t="str">
+      <c r="U53" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 52 Alicuota SOS.txt</v>
       </c>
-      <c r="U53" s="2" t="str">
+      <c r="V53" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 52 CBTE SOS.txt</v>
       </c>
-      <c r="V53" s="2" t="str">
+      <c r="W53" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 52 Alicuota SOS.txt</v>
       </c>
-      <c r="W53" s="4">
+      <c r="X53" s="4">
         <f t="shared" si="27"/>
         <v>53</v>
       </c>
-      <c r="X53" s="4">
+      <c r="Y53" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y53" s="4">
+      <c r="Z53" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W53,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W53,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB53" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W53,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X53,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X53,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC53" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X53,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -6443,80 +6753,83 @@
       <c r="I54" t="s">
         <v>12</v>
       </c>
-      <c r="K54" t="str">
+      <c r="K54" t="s">
+        <v>35</v>
+      </c>
+      <c r="L54" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L54" s="4" t="str">
+      <c r="M54" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 53\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M54" t="str">
+      <c r="N54" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N54" s="4" t="str">
+      <c r="O54" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 53\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O54" s="4" t="str">
+      <c r="P54" s="4" t="str">
         <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
-      <c r="P54" s="2" t="str">
+      <c r="Q54" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q54" s="2" t="str">
+      <c r="R54" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202303</v>
       </c>
-      <c r="R54" s="2" t="str">
+      <c r="S54" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 53</v>
       </c>
-      <c r="S54" s="2" t="str">
+      <c r="T54" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 53 CBTE SOS.txt</v>
       </c>
-      <c r="T54" s="2" t="str">
+      <c r="U54" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 53 Alicuota SOS.txt</v>
       </c>
-      <c r="U54" s="2" t="str">
+      <c r="V54" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 53 CBTE SOS.txt</v>
       </c>
-      <c r="V54" s="2" t="str">
+      <c r="W54" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 53 Alicuota SOS.txt</v>
       </c>
-      <c r="W54" s="4">
+      <c r="X54" s="4">
         <f t="shared" si="27"/>
         <v>54</v>
       </c>
-      <c r="X54" s="4">
+      <c r="Y54" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y54" s="4">
+      <c r="Z54" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W54,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W54,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB54" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W54,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X54,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X54,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC54" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X54,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -6547,80 +6860,83 @@
       <c r="I55" t="s">
         <v>13</v>
       </c>
-      <c r="K55" t="str">
+      <c r="K55" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L55" s="4" t="str">
+      <c r="M55" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 54\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M55" t="str">
+      <c r="N55" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N55" s="4" t="str">
+      <c r="O55" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 54\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O55" s="4" t="str">
+      <c r="P55" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P55" s="2" t="str">
+      <c r="Q55" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q55" s="2" t="str">
+      <c r="R55" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R55" s="2" t="str">
+      <c r="S55" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 54</v>
       </c>
-      <c r="S55" s="2" t="str">
+      <c r="T55" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 54 CBTE SOS.txt</v>
       </c>
-      <c r="T55" s="2" t="str">
+      <c r="U55" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 54 Alicuota SOS.txt</v>
       </c>
-      <c r="U55" s="2" t="str">
+      <c r="V55" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 54 CBTE SOS.txt</v>
       </c>
-      <c r="V55" s="2" t="str">
+      <c r="W55" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 54 Alicuota SOS.txt</v>
       </c>
-      <c r="W55" s="4">
+      <c r="X55" s="4">
         <f t="shared" si="27"/>
         <v>55</v>
       </c>
-      <c r="X55" s="4">
+      <c r="Y55" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y55" s="4">
+      <c r="Z55" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W55,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W55,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB55" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W55,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X55,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X55,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC55" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X55,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -6649,80 +6965,83 @@
       <c r="I56" t="s">
         <v>12</v>
       </c>
-      <c r="K56" t="str">
+      <c r="K56" t="s">
+        <v>35</v>
+      </c>
+      <c r="L56" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L56" s="4" t="str">
+      <c r="M56" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 55\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M56" t="str">
+      <c r="N56" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N56" s="4" t="str">
+      <c r="O56" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 55\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O56" s="4" t="str">
+      <c r="P56" s="4" t="str">
         <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
-      <c r="P56" s="2" t="str">
+      <c r="Q56" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q56" s="2" t="str">
+      <c r="R56" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202303</v>
       </c>
-      <c r="R56" s="2" t="str">
+      <c r="S56" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 55</v>
       </c>
-      <c r="S56" s="2" t="str">
+      <c r="T56" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 55 CBTE SOS.txt</v>
       </c>
-      <c r="T56" s="2" t="str">
+      <c r="U56" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 55 Alicuota SOS.txt</v>
       </c>
-      <c r="U56" s="2" t="str">
+      <c r="V56" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 55 CBTE SOS.txt</v>
       </c>
-      <c r="V56" s="2" t="str">
+      <c r="W56" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 55 Alicuota SOS.txt</v>
       </c>
-      <c r="W56" s="4">
+      <c r="X56" s="4">
         <f t="shared" si="27"/>
         <v>56</v>
       </c>
-      <c r="X56" s="4">
+      <c r="Y56" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y56" s="4">
+      <c r="Z56" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W56,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W56,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB56" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W56,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X56,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X56,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC56" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X56,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -6751,80 +7070,83 @@
       <c r="I57" t="s">
         <v>12</v>
       </c>
-      <c r="K57" t="str">
+      <c r="K57" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L57" s="4" t="str">
+      <c r="M57" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 56\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M57" t="str">
+      <c r="N57" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N57" s="4" t="str">
+      <c r="O57" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 56\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O57" s="4" t="str">
+      <c r="P57" s="4" t="str">
         <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
-      <c r="P57" s="2" t="str">
+      <c r="Q57" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q57" s="2" t="str">
+      <c r="R57" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202303</v>
       </c>
-      <c r="R57" s="2" t="str">
+      <c r="S57" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 56</v>
       </c>
-      <c r="S57" s="2" t="str">
+      <c r="T57" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 56 CBTE SOS.txt</v>
       </c>
-      <c r="T57" s="2" t="str">
+      <c r="U57" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 56 Alicuota SOS.txt</v>
       </c>
-      <c r="U57" s="2" t="str">
+      <c r="V57" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 56 CBTE SOS.txt</v>
       </c>
-      <c r="V57" s="2" t="str">
+      <c r="W57" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 56 Alicuota SOS.txt</v>
       </c>
-      <c r="W57" s="4">
+      <c r="X57" s="4">
         <f t="shared" si="27"/>
         <v>57</v>
       </c>
-      <c r="X57" s="4">
+      <c r="Y57" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y57" s="4">
+      <c r="Z57" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W57,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W57,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB57" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W57,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X57,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X57,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC57" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X57,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -6853,80 +7175,83 @@
       <c r="I58" t="s">
         <v>12</v>
       </c>
-      <c r="K58" t="str">
+      <c r="K58" t="s">
+        <v>35</v>
+      </c>
+      <c r="L58" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L58" s="4" t="str">
+      <c r="M58" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 57\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M58" t="str">
+      <c r="N58" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N58" s="4" t="str">
+      <c r="O58" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 57\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O58" s="4" t="str">
+      <c r="P58" s="4" t="str">
         <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
-      <c r="P58" s="2" t="str">
+      <c r="Q58" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q58" s="2" t="str">
+      <c r="R58" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202303</v>
       </c>
-      <c r="R58" s="2" t="str">
+      <c r="S58" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 57</v>
       </c>
-      <c r="S58" s="2" t="str">
+      <c r="T58" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 57 CBTE SOS.txt</v>
       </c>
-      <c r="T58" s="2" t="str">
+      <c r="U58" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 57 Alicuota SOS.txt</v>
       </c>
-      <c r="U58" s="2" t="str">
+      <c r="V58" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 57 CBTE SOS.txt</v>
       </c>
-      <c r="V58" s="2" t="str">
+      <c r="W58" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 57 Alicuota SOS.txt</v>
       </c>
-      <c r="W58" s="4">
+      <c r="X58" s="4">
         <f t="shared" si="27"/>
         <v>58</v>
       </c>
-      <c r="X58" s="4">
+      <c r="Y58" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y58" s="4">
+      <c r="Z58" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W58,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W58,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB58" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W58,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X58,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X58,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC58" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X58,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -6955,80 +7280,83 @@
       <c r="I59" t="s">
         <v>12</v>
       </c>
-      <c r="K59" t="str">
+      <c r="K59" t="s">
+        <v>35</v>
+      </c>
+      <c r="L59" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L59" s="4" t="str">
+      <c r="M59" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 58\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M59" t="str">
+      <c r="N59" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N59" s="4" t="str">
+      <c r="O59" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 58\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O59" s="4" t="str">
+      <c r="P59" s="4" t="str">
         <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
-      <c r="P59" s="2" t="str">
+      <c r="Q59" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q59" s="2" t="str">
+      <c r="R59" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202303</v>
       </c>
-      <c r="R59" s="2" t="str">
+      <c r="S59" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 58</v>
       </c>
-      <c r="S59" s="2" t="str">
+      <c r="T59" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 58 CBTE SOS.txt</v>
       </c>
-      <c r="T59" s="2" t="str">
+      <c r="U59" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 58 Alicuota SOS.txt</v>
       </c>
-      <c r="U59" s="2" t="str">
+      <c r="V59" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 58 CBTE SOS.txt</v>
       </c>
-      <c r="V59" s="2" t="str">
+      <c r="W59" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 58 Alicuota SOS.txt</v>
       </c>
-      <c r="W59" s="4">
+      <c r="X59" s="4">
         <f t="shared" si="27"/>
         <v>59</v>
       </c>
-      <c r="X59" s="4">
+      <c r="Y59" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y59" s="4">
+      <c r="Z59" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W59,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W59,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB59" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W59,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X59,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X59,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC59" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X59,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -7057,80 +7385,83 @@
       <c r="I60" t="s">
         <v>13</v>
       </c>
-      <c r="K60" t="str">
+      <c r="K60" t="s">
+        <v>35</v>
+      </c>
+      <c r="L60" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L60" s="4" t="str">
+      <c r="M60" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 59\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M60" t="str">
+      <c r="N60" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N60" s="4" t="str">
+      <c r="O60" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 59\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O60" s="4" t="str">
+      <c r="P60" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P60" s="2" t="str">
+      <c r="Q60" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q60" s="2" t="str">
+      <c r="R60" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R60" s="2" t="str">
+      <c r="S60" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 59</v>
       </c>
-      <c r="S60" s="2" t="str">
+      <c r="T60" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 59 CBTE SOS.txt</v>
       </c>
-      <c r="T60" s="2" t="str">
+      <c r="U60" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 59 Alicuota SOS.txt</v>
       </c>
-      <c r="U60" s="2" t="str">
+      <c r="V60" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 59 CBTE SOS.txt</v>
       </c>
-      <c r="V60" s="2" t="str">
+      <c r="W60" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 59 Alicuota SOS.txt</v>
       </c>
-      <c r="W60" s="4">
+      <c r="X60" s="4">
         <f t="shared" si="27"/>
         <v>60</v>
       </c>
-      <c r="X60" s="4">
+      <c r="Y60" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y60" s="4">
+      <c r="Z60" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W60,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W60,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB60" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W60,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X60,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X60,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC60" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X60,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -7159,80 +7490,83 @@
       <c r="I61" t="s">
         <v>12</v>
       </c>
-      <c r="K61" t="str">
+      <c r="K61" t="s">
+        <v>35</v>
+      </c>
+      <c r="L61" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="L61" s="4" t="str">
+      <c r="M61" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 60\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M61" t="str">
+      <c r="N61" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT</v>
       </c>
-      <c r="N61" s="4" t="str">
+      <c r="O61" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202303\TXT\Nombre de cliente 60\COMVEN LID\2023\03\</v>
       </c>
-      <c r="O61" s="4" t="str">
+      <c r="P61" s="4" t="str">
         <f t="shared" si="21"/>
         <v>03/2023</v>
       </c>
-      <c r="P61" s="2" t="str">
+      <c r="Q61" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Marzo 2023</v>
       </c>
-      <c r="Q61" s="2" t="str">
+      <c r="R61" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202303</v>
       </c>
-      <c r="R61" s="2" t="str">
+      <c r="S61" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202303 - 30000000000 - Nombre de cliente 60</v>
       </c>
-      <c r="S61" s="2" t="str">
+      <c r="T61" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 60 CBTE SOS.txt</v>
       </c>
-      <c r="T61" s="2" t="str">
+      <c r="U61" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202303 - Nombre de cliente 60 Alicuota SOS.txt</v>
       </c>
-      <c r="U61" s="2" t="str">
+      <c r="V61" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 60 CBTE SOS.txt</v>
       </c>
-      <c r="V61" s="2" t="str">
+      <c r="W61" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202303 - Nombre de cliente 60 Alicuota SOS.txt</v>
       </c>
-      <c r="W61" s="4">
+      <c r="X61" s="4">
         <f t="shared" si="27"/>
         <v>61</v>
       </c>
-      <c r="X61" s="4">
+      <c r="Y61" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y61" s="4">
+      <c r="Z61" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W61,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W61,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB61" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W61,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X61,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X61,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC61" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X61,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -7261,80 +7595,83 @@
       <c r="I62" t="s">
         <v>13</v>
       </c>
-      <c r="K62" t="str">
+      <c r="K62" t="s">
+        <v>35</v>
+      </c>
+      <c r="L62" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L62" s="4" t="str">
+      <c r="M62" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 61\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M62" t="str">
+      <c r="N62" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N62" s="4" t="str">
+      <c r="O62" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 61\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O62" s="4" t="str">
+      <c r="P62" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P62" s="2" t="str">
+      <c r="Q62" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q62" s="2" t="str">
+      <c r="R62" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R62" s="2" t="str">
+      <c r="S62" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 61</v>
       </c>
-      <c r="S62" s="2" t="str">
+      <c r="T62" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 61 CBTE SOS.txt</v>
       </c>
-      <c r="T62" s="2" t="str">
+      <c r="U62" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 61 Alicuota SOS.txt</v>
       </c>
-      <c r="U62" s="2" t="str">
+      <c r="V62" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 61 CBTE SOS.txt</v>
       </c>
-      <c r="V62" s="2" t="str">
+      <c r="W62" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 61 Alicuota SOS.txt</v>
       </c>
-      <c r="W62" s="4">
+      <c r="X62" s="4">
         <f t="shared" si="27"/>
         <v>62</v>
       </c>
-      <c r="X62" s="4">
+      <c r="Y62" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y62" s="4">
+      <c r="Z62" s="4">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Z62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W62,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W62,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB62" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W62,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X62,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X62,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC62" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X62,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -7363,82 +7700,91 @@
       <c r="I63" t="s">
         <v>13</v>
       </c>
-      <c r="K63" t="str">
+      <c r="K63" t="s">
+        <v>35</v>
+      </c>
+      <c r="L63" t="str">
         <f t="shared" si="19"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="L63" s="4" t="str">
+      <c r="M63" s="4" t="str">
         <f t="shared" si="20"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 62\COMVEN LID\2023\04\</v>
       </c>
-      <c r="M63" t="str">
+      <c r="N63" t="str">
         <f t="shared" si="14"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT</v>
       </c>
-      <c r="N63" s="4" t="str">
+      <c r="O63" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F:\Libros Compras y Ventas\2023\202304\TXT\Nombre de cliente 62\COMVEN LID\2023\04\</v>
       </c>
-      <c r="O63" s="4" t="str">
+      <c r="P63" s="4" t="str">
         <f t="shared" si="21"/>
         <v>04/2023</v>
       </c>
-      <c r="P63" s="2" t="str">
+      <c r="Q63" s="2" t="str">
         <f t="shared" si="22"/>
         <v>Abril 2023</v>
       </c>
-      <c r="Q63" s="2" t="str">
+      <c r="R63" s="2" t="str">
         <f t="shared" si="23"/>
         <v>202304</v>
       </c>
-      <c r="R63" s="2" t="str">
+      <c r="S63" s="2" t="str">
         <f t="shared" si="24"/>
         <v>0  - 202304 - 30000000000 - Nombre de cliente 62</v>
       </c>
-      <c r="S63" s="2" t="str">
+      <c r="T63" s="2" t="str">
         <f t="shared" si="16"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 62 CBTE SOS.txt</v>
       </c>
-      <c r="T63" s="2" t="str">
+      <c r="U63" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0 - 30000000000 - LIV - 202304 - Nombre de cliente 62 Alicuota SOS.txt</v>
       </c>
-      <c r="U63" s="2" t="str">
+      <c r="V63" s="2" t="str">
         <f t="shared" si="17"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 62 CBTE SOS.txt</v>
       </c>
-      <c r="V63" s="2" t="str">
+      <c r="W63" s="2" t="str">
         <f t="shared" si="26"/>
         <v>0 - 30000000000 - LIC - 202304 - Nombre de cliente 62 Alicuota SOS.txt</v>
       </c>
-      <c r="W63" s="4">
+      <c r="X63" s="4">
         <f t="shared" si="27"/>
         <v>63</v>
       </c>
-      <c r="X63" s="4">
+      <c r="Y63" s="4">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y63" s="4">
+      <c r="Z63" s="4">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="Z63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W63,"0"),[1]Control!$A:$E,2,0),"")</f>
-        <v/>
-      </c>
       <c r="AA63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W63,"0"),[1]Control!$A:$E,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="AB63" s="4" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(W63,"0"),[1]Control!$A:$E,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(TEXT(X63,"0"),[1]Control!$A:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="AB63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X63,"0"),[1]Control!$A:$E,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="AC63" s="4" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(X63,"0"),[1]Control!$A:$E,4,0),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB63" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}"/>
+  <autoFilter ref="A1:AC63" xr:uid="{6FBF04AE-FC2A-4C65-BCBC-63B3810A467E}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K63" xr:uid="{6CE4DAED-40B5-47FB-9CCC-618D1B1D7EB9}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>